--- a/conformancelib/testdata/PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/PIV_ICAM_Test_Cards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GSA\GSA_GIT\piv-conformance-swing\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB6FAC3-ACA5-4A07-844C-5380CA813768}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F83415-6AA3-4231-B990-56C65F6924B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="870" windowWidth="26025" windowHeight="14550" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,14 @@
     <sheet name="Placeholders" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Steps Overview'!$D$1:$D$478</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Steps Overview'!$D$1:$D$477</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3681" uniqueCount="1272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3683" uniqueCount="1276">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3848,6 +3848,18 @@
   </si>
   <si>
     <t>11.7.2.6.5</t>
+  </si>
+  <si>
+    <t>PKIX.27</t>
+  </si>
+  <si>
+    <t>PKIX_Test_27</t>
+  </si>
+  <si>
+    <t>PKIX.28</t>
+  </si>
+  <si>
+    <t>PKIX_Test_28</t>
   </si>
 </sst>
 </file>
@@ -4104,7 +4116,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4313,6 +4325,21 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8398,9 +8425,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2" filterMode="1"/>
-  <dimension ref="A1:F478"/>
+  <dimension ref="A1:F477"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A351" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D440" sqref="D440"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -14323,7 +14352,7 @@
         <v>586</v>
       </c>
       <c r="D360" s="40" t="s">
-        <v>582</v>
+        <v>1272</v>
       </c>
       <c r="E360" s="44"/>
       <c r="F360" s="38" t="s">
@@ -14335,31 +14364,31 @@
         <v>56</v>
       </c>
       <c r="B361" s="38" t="s">
-        <v>587</v>
-      </c>
-      <c r="C361" s="40" t="s">
-        <v>588</v>
+        <v>589</v>
+      </c>
+      <c r="C361" s="44" t="s">
+        <v>590</v>
       </c>
       <c r="D361" s="40" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E361" s="38"/>
+        <v>591</v>
+      </c>
+      <c r="E361" s="44"/>
       <c r="F361" s="38" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="30">
+    <row r="362" spans="1:6">
       <c r="A362" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B362" s="38" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C362" s="44" t="s">
-        <v>590</v>
-      </c>
-      <c r="D362" s="40" t="s">
-        <v>591</v>
+        <v>593</v>
+      </c>
+      <c r="D362" s="38" t="s">
+        <v>594</v>
       </c>
       <c r="E362" s="44"/>
       <c r="F362" s="38" t="s">
@@ -14371,45 +14400,45 @@
         <v>56</v>
       </c>
       <c r="B363" s="38" t="s">
-        <v>592</v>
-      </c>
-      <c r="C363" s="44" t="s">
-        <v>593</v>
-      </c>
-      <c r="D363" s="38" t="s">
-        <v>594</v>
-      </c>
-      <c r="E363" s="44"/>
-      <c r="F363" s="38" t="s">
-        <v>1102</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="C363" s="41" t="s">
+        <v>596</v>
+      </c>
+      <c r="D363" s="41"/>
+      <c r="E363" s="41"/>
+      <c r="F363" s="41"/>
     </row>
     <row r="364" spans="1:6">
       <c r="A364" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B364" s="38" t="s">
-        <v>595</v>
-      </c>
-      <c r="C364" s="41" t="s">
-        <v>596</v>
-      </c>
-      <c r="D364" s="41"/>
-      <c r="E364" s="41"/>
-      <c r="F364" s="41"/>
+        <v>597</v>
+      </c>
+      <c r="C364" s="44" t="s">
+        <v>598</v>
+      </c>
+      <c r="D364" s="38" t="s">
+        <v>573</v>
+      </c>
+      <c r="E364" s="38"/>
+      <c r="F364" s="38" t="s">
+        <v>1102</v>
+      </c>
     </row>
     <row r="365" spans="1:6">
       <c r="A365" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B365" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="C365" s="44" t="s">
-        <v>598</v>
-      </c>
-      <c r="D365" s="38" t="s">
-        <v>573</v>
+        <v>599</v>
+      </c>
+      <c r="C365" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="D365" s="40" t="s">
+        <v>1068</v>
       </c>
       <c r="E365" s="38"/>
       <c r="F365" s="38" t="s">
@@ -14421,45 +14450,45 @@
         <v>56</v>
       </c>
       <c r="B366" s="38" t="s">
-        <v>599</v>
-      </c>
-      <c r="C366" s="40" t="s">
-        <v>600</v>
-      </c>
-      <c r="D366" s="40" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E366" s="38"/>
-      <c r="F366" s="38" t="s">
-        <v>1102</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="C366" s="41" t="s">
+        <v>602</v>
+      </c>
+      <c r="D366" s="41"/>
+      <c r="E366" s="41"/>
+      <c r="F366" s="41"/>
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B367" s="38" t="s">
-        <v>601</v>
-      </c>
-      <c r="C367" s="41" t="s">
-        <v>602</v>
-      </c>
-      <c r="D367" s="41"/>
-      <c r="E367" s="41"/>
-      <c r="F367" s="41"/>
+        <v>603</v>
+      </c>
+      <c r="C367" s="44" t="s">
+        <v>566</v>
+      </c>
+      <c r="D367" s="38" t="s">
+        <v>567</v>
+      </c>
+      <c r="E367" s="44"/>
+      <c r="F367" s="38" t="s">
+        <v>1102</v>
+      </c>
     </row>
     <row r="368" spans="1:6">
       <c r="A368" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B368" s="38" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C368" s="44" t="s">
-        <v>566</v>
+        <v>605</v>
       </c>
       <c r="D368" s="38" t="s">
-        <v>567</v>
+        <v>1073</v>
       </c>
       <c r="E368" s="44"/>
       <c r="F368" s="38" t="s">
@@ -14471,13 +14500,13 @@
         <v>56</v>
       </c>
       <c r="B369" s="38" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C369" s="44" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D369" s="38" t="s">
-        <v>1073</v>
+        <v>573</v>
       </c>
       <c r="E369" s="44"/>
       <c r="F369" s="38" t="s">
@@ -14489,13 +14518,13 @@
         <v>56</v>
       </c>
       <c r="B370" s="38" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C370" s="44" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D370" s="38" t="s">
-        <v>573</v>
+        <v>1071</v>
       </c>
       <c r="E370" s="44"/>
       <c r="F370" s="38" t="s">
@@ -14507,15 +14536,15 @@
         <v>56</v>
       </c>
       <c r="B371" s="38" t="s">
-        <v>608</v>
-      </c>
-      <c r="C371" s="44" t="s">
-        <v>609</v>
+        <v>610</v>
+      </c>
+      <c r="C371" s="40" t="s">
+        <v>611</v>
       </c>
       <c r="D371" s="38" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E371" s="44"/>
+        <v>1069</v>
+      </c>
+      <c r="E371" s="38"/>
       <c r="F371" s="38" t="s">
         <v>1102</v>
       </c>
@@ -14524,60 +14553,60 @@
       <c r="A372" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B372" s="38" t="s">
-        <v>610</v>
-      </c>
-      <c r="C372" s="40" t="s">
-        <v>611</v>
-      </c>
-      <c r="D372" s="38" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E372" s="38"/>
-      <c r="F372" s="38" t="s">
-        <v>1102</v>
-      </c>
+      <c r="B372" s="38">
+        <v>11.2</v>
+      </c>
+      <c r="C372" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D372" s="41"/>
+      <c r="E372" s="41"/>
+      <c r="F372" s="41"/>
     </row>
     <row r="373" spans="1:6">
       <c r="A373" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B373" s="38">
-        <v>11.2</v>
-      </c>
-      <c r="C373" s="37" t="s">
-        <v>44</v>
+      <c r="B373" s="38" t="s">
+        <v>612</v>
+      </c>
+      <c r="C373" s="41" t="s">
+        <v>42</v>
       </c>
       <c r="D373" s="41"/>
       <c r="E373" s="41"/>
       <c r="F373" s="41"/>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374" spans="1:6" ht="60">
       <c r="A374" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B374" s="38" t="s">
-        <v>612</v>
-      </c>
-      <c r="C374" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D374" s="41"/>
-      <c r="E374" s="41"/>
-      <c r="F374" s="41"/>
-    </row>
-    <row r="375" spans="1:6" ht="60">
+        <v>613</v>
+      </c>
+      <c r="C374" s="44" t="s">
+        <v>545</v>
+      </c>
+      <c r="D374" s="40" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E374" s="44"/>
+      <c r="F374" s="38" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
       <c r="A375" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B375" s="38" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C375" s="44" t="s">
-        <v>545</v>
+        <v>615</v>
       </c>
       <c r="D375" s="40" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="E375" s="44"/>
       <c r="F375" s="38" t="s">
@@ -14589,13 +14618,13 @@
         <v>56</v>
       </c>
       <c r="B376" s="38" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C376" s="44" t="s">
-        <v>615</v>
-      </c>
-      <c r="D376" s="40" t="s">
-        <v>997</v>
+        <v>549</v>
+      </c>
+      <c r="D376" s="38">
+        <v>78.099999999999994</v>
       </c>
       <c r="E376" s="44"/>
       <c r="F376" s="38" t="s">
@@ -14607,28 +14636,24 @@
         <v>56</v>
       </c>
       <c r="B377" s="38" t="s">
-        <v>616</v>
-      </c>
-      <c r="C377" s="44" t="s">
-        <v>549</v>
-      </c>
-      <c r="D377" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E377" s="44"/>
-      <c r="F377" s="38" t="s">
-        <v>1106</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="C377" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D377" s="41"/>
+      <c r="E377" s="41"/>
+      <c r="F377" s="41"/>
     </row>
     <row r="378" spans="1:6">
       <c r="A378" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B378" s="38" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C378" s="41" t="s">
-        <v>43</v>
+        <v>619</v>
       </c>
       <c r="D378" s="41"/>
       <c r="E378" s="41"/>
@@ -14639,45 +14664,49 @@
         <v>56</v>
       </c>
       <c r="B379" s="38" t="s">
-        <v>618</v>
-      </c>
-      <c r="C379" s="41" t="s">
-        <v>619</v>
-      </c>
-      <c r="D379" s="41"/>
-      <c r="E379" s="41"/>
-      <c r="F379" s="41"/>
+        <v>620</v>
+      </c>
+      <c r="C379" s="38" t="s">
+        <v>621</v>
+      </c>
+      <c r="D379" s="38" t="s">
+        <v>622</v>
+      </c>
+      <c r="E379" s="44"/>
+      <c r="F379" s="38" t="s">
+        <v>1106</v>
+      </c>
     </row>
     <row r="380" spans="1:6">
       <c r="A380" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B380" s="38" t="s">
-        <v>620</v>
-      </c>
-      <c r="C380" s="38" t="s">
-        <v>621</v>
+        <v>623</v>
+      </c>
+      <c r="C380" s="44" t="s">
+        <v>624</v>
       </c>
       <c r="D380" s="38" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="E380" s="44"/>
       <c r="F380" s="38" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" spans="1:6" ht="30">
       <c r="A381" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B381" s="38" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="C381" s="44" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D381" s="38" t="s">
-        <v>625</v>
+        <v>579</v>
       </c>
       <c r="E381" s="44"/>
       <c r="F381" s="38" t="s">
@@ -14689,101 +14718,101 @@
         <v>56</v>
       </c>
       <c r="B382" s="38" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C382" s="44" t="s">
-        <v>627</v>
-      </c>
-      <c r="D382" s="38" t="s">
-        <v>579</v>
+        <v>629</v>
+      </c>
+      <c r="D382" s="40" t="s">
+        <v>591</v>
       </c>
       <c r="E382" s="44"/>
       <c r="F382" s="38" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="383" spans="1:6" ht="30">
+    <row r="383" spans="1:6">
       <c r="A383" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B383" s="38" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C383" s="44" t="s">
-        <v>629</v>
-      </c>
-      <c r="D383" s="40" t="s">
-        <v>591</v>
+        <v>631</v>
+      </c>
+      <c r="D383" s="38" t="s">
+        <v>594</v>
       </c>
       <c r="E383" s="44"/>
       <c r="F383" s="38" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
+    <row r="384" spans="1:6" ht="30">
       <c r="A384" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B384" s="38" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C384" s="44" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D384" s="38" t="s">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="E384" s="44"/>
       <c r="F384" s="38" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="385" spans="1:6" ht="30">
+    <row r="385" spans="1:6">
       <c r="A385" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B385" s="38" t="s">
-        <v>632</v>
-      </c>
-      <c r="C385" s="44" t="s">
-        <v>633</v>
-      </c>
-      <c r="D385" s="38" t="s">
-        <v>562</v>
-      </c>
-      <c r="E385" s="44"/>
-      <c r="F385" s="38" t="s">
-        <v>1106</v>
-      </c>
+        <v>634</v>
+      </c>
+      <c r="C385" s="41" t="s">
+        <v>596</v>
+      </c>
+      <c r="D385" s="41"/>
+      <c r="E385" s="41"/>
+      <c r="F385" s="41"/>
     </row>
     <row r="386" spans="1:6">
       <c r="A386" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B386" s="38" t="s">
-        <v>634</v>
-      </c>
-      <c r="C386" s="41" t="s">
-        <v>596</v>
-      </c>
-      <c r="D386" s="41"/>
-      <c r="E386" s="41"/>
-      <c r="F386" s="41"/>
+        <v>635</v>
+      </c>
+      <c r="C386" s="44" t="s">
+        <v>598</v>
+      </c>
+      <c r="D386" s="38" t="s">
+        <v>573</v>
+      </c>
+      <c r="E386" s="44"/>
+      <c r="F386" s="38" t="s">
+        <v>1106</v>
+      </c>
     </row>
     <row r="387" spans="1:6">
       <c r="A387" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B387" s="38" t="s">
-        <v>635</v>
-      </c>
-      <c r="C387" s="44" t="s">
-        <v>598</v>
-      </c>
-      <c r="D387" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="E387" s="44"/>
+        <v>636</v>
+      </c>
+      <c r="C387" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="D387" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E387" s="38"/>
       <c r="F387" s="38" t="s">
         <v>1106</v>
       </c>
@@ -14793,45 +14822,45 @@
         <v>56</v>
       </c>
       <c r="B388" s="38" t="s">
-        <v>636</v>
-      </c>
-      <c r="C388" s="40" t="s">
-        <v>600</v>
-      </c>
-      <c r="D388" s="40" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E388" s="38"/>
-      <c r="F388" s="38" t="s">
-        <v>1106</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="C388" s="41" t="s">
+        <v>602</v>
+      </c>
+      <c r="D388" s="41"/>
+      <c r="E388" s="41"/>
+      <c r="F388" s="41"/>
     </row>
     <row r="389" spans="1:6">
       <c r="A389" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B389" s="38" t="s">
-        <v>637</v>
-      </c>
-      <c r="C389" s="41" t="s">
-        <v>602</v>
-      </c>
-      <c r="D389" s="41"/>
-      <c r="E389" s="41"/>
-      <c r="F389" s="41"/>
+        <v>638</v>
+      </c>
+      <c r="C389" s="44" t="s">
+        <v>566</v>
+      </c>
+      <c r="D389" s="38" t="s">
+        <v>567</v>
+      </c>
+      <c r="E389" s="44"/>
+      <c r="F389" s="38" t="s">
+        <v>1106</v>
+      </c>
     </row>
     <row r="390" spans="1:6">
       <c r="A390" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B390" s="38" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C390" s="44" t="s">
-        <v>566</v>
+        <v>640</v>
       </c>
       <c r="D390" s="38" t="s">
-        <v>567</v>
+        <v>1073</v>
       </c>
       <c r="E390" s="44"/>
       <c r="F390" s="38" t="s">
@@ -14843,13 +14872,13 @@
         <v>56</v>
       </c>
       <c r="B391" s="38" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C391" s="44" t="s">
-        <v>640</v>
+        <v>607</v>
       </c>
       <c r="D391" s="38" t="s">
-        <v>1073</v>
+        <v>573</v>
       </c>
       <c r="E391" s="44"/>
       <c r="F391" s="38" t="s">
@@ -14861,15 +14890,15 @@
         <v>56</v>
       </c>
       <c r="B392" s="38" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C392" s="44" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D392" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="E392" s="44"/>
+        <v>1071</v>
+      </c>
+      <c r="E392" s="38"/>
       <c r="F392" s="38" t="s">
         <v>1106</v>
       </c>
@@ -14879,13 +14908,13 @@
         <v>56</v>
       </c>
       <c r="B393" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="C393" s="44" t="s">
-        <v>609</v>
+        <v>643</v>
+      </c>
+      <c r="C393" s="40" t="s">
+        <v>611</v>
       </c>
       <c r="D393" s="38" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E393" s="38"/>
       <c r="F393" s="38" t="s">
@@ -14896,62 +14925,62 @@
       <c r="A394" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B394" s="38" t="s">
-        <v>643</v>
-      </c>
-      <c r="C394" s="40" t="s">
-        <v>611</v>
-      </c>
-      <c r="D394" s="38" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E394" s="38"/>
-      <c r="F394" s="38" t="s">
-        <v>1106</v>
-      </c>
+      <c r="B394" s="38">
+        <v>11.3</v>
+      </c>
+      <c r="C394" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D394" s="41"/>
+      <c r="E394" s="41"/>
+      <c r="F394" s="41"/>
     </row>
     <row r="395" spans="1:6">
       <c r="A395" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B395" s="38">
-        <v>11.3</v>
-      </c>
-      <c r="C395" s="37" t="s">
-        <v>45</v>
+      <c r="B395" s="38" t="s">
+        <v>644</v>
+      </c>
+      <c r="C395" s="41" t="s">
+        <v>42</v>
       </c>
       <c r="D395" s="41"/>
       <c r="E395" s="41"/>
       <c r="F395" s="41"/>
     </row>
-    <row r="396" spans="1:6">
+    <row r="396" spans="1:6" ht="45">
       <c r="A396" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B396" s="38" t="s">
-        <v>644</v>
-      </c>
-      <c r="C396" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D396" s="41"/>
-      <c r="E396" s="41"/>
-      <c r="F396" s="41"/>
-    </row>
-    <row r="397" spans="1:6" ht="45">
+        <v>645</v>
+      </c>
+      <c r="C396" s="44" t="s">
+        <v>646</v>
+      </c>
+      <c r="D396" s="38">
+        <v>78.3</v>
+      </c>
+      <c r="E396" s="44"/>
+      <c r="F396" s="38" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6">
       <c r="A397" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B397" s="38" t="s">
-        <v>645</v>
-      </c>
-      <c r="C397" s="44" t="s">
-        <v>646</v>
-      </c>
-      <c r="D397" s="38">
-        <v>78.3</v>
-      </c>
-      <c r="E397" s="44"/>
+        <v>647</v>
+      </c>
+      <c r="C397" s="38" t="s">
+        <v>648</v>
+      </c>
+      <c r="D397" s="38" t="s">
+        <v>997</v>
+      </c>
+      <c r="E397" s="38"/>
       <c r="F397" s="38" t="s">
         <v>1107</v>
       </c>
@@ -14961,15 +14990,15 @@
         <v>56</v>
       </c>
       <c r="B398" s="38" t="s">
-        <v>647</v>
-      </c>
-      <c r="C398" s="38" t="s">
-        <v>648</v>
-      </c>
-      <c r="D398" s="38" t="s">
-        <v>997</v>
-      </c>
-      <c r="E398" s="38"/>
+        <v>649</v>
+      </c>
+      <c r="C398" s="44" t="s">
+        <v>650</v>
+      </c>
+      <c r="D398" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E398" s="44"/>
       <c r="F398" s="38" t="s">
         <v>1107</v>
       </c>
@@ -14979,28 +15008,24 @@
         <v>56</v>
       </c>
       <c r="B399" s="38" t="s">
-        <v>649</v>
-      </c>
-      <c r="C399" s="44" t="s">
-        <v>650</v>
-      </c>
-      <c r="D399" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E399" s="44"/>
-      <c r="F399" s="38" t="s">
-        <v>1107</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="C399" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D399" s="41"/>
+      <c r="E399" s="41"/>
+      <c r="F399" s="41"/>
     </row>
     <row r="400" spans="1:6">
       <c r="A400" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B400" s="38" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C400" s="41" t="s">
-        <v>43</v>
+        <v>619</v>
       </c>
       <c r="D400" s="41"/>
       <c r="E400" s="41"/>
@@ -15011,27 +15036,31 @@
         <v>56</v>
       </c>
       <c r="B401" s="38" t="s">
-        <v>652</v>
-      </c>
-      <c r="C401" s="41" t="s">
-        <v>619</v>
-      </c>
-      <c r="D401" s="41"/>
-      <c r="E401" s="41"/>
-      <c r="F401" s="41"/>
+        <v>653</v>
+      </c>
+      <c r="C401" s="44" t="s">
+        <v>654</v>
+      </c>
+      <c r="D401" s="38" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E401" s="44"/>
+      <c r="F401" s="38" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="402" spans="1:6">
       <c r="A402" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B402" s="38" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C402" s="44" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D402" s="38" t="s">
-        <v>1038</v>
+        <v>657</v>
       </c>
       <c r="E402" s="44"/>
       <c r="F402" s="38" t="s">
@@ -15043,119 +15072,119 @@
         <v>56</v>
       </c>
       <c r="B403" s="38" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C403" s="44" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="D403" s="38" t="s">
-        <v>657</v>
+        <v>556</v>
       </c>
       <c r="E403" s="44"/>
       <c r="F403" s="38" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404" spans="1:6" ht="30">
       <c r="A404" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B404" s="38" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C404" s="44" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D404" s="38" t="s">
-        <v>556</v>
+        <v>579</v>
       </c>
       <c r="E404" s="44"/>
       <c r="F404" s="38" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="405" spans="1:6" ht="30">
+    <row r="405" spans="1:6">
       <c r="A405" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B405" s="38" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C405" s="44" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D405" s="38" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="E405" s="44"/>
       <c r="F405" s="38" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="406" spans="1:6">
+    <row r="406" spans="1:6" ht="30">
       <c r="A406" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B406" s="38" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C406" s="44" t="s">
-        <v>663</v>
+        <v>633</v>
       </c>
       <c r="D406" s="38" t="s">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="E406" s="44"/>
       <c r="F406" s="38" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="407" spans="1:6" ht="30">
+    <row r="407" spans="1:6">
       <c r="A407" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B407" s="38" t="s">
-        <v>664</v>
-      </c>
-      <c r="C407" s="44" t="s">
-        <v>633</v>
-      </c>
-      <c r="D407" s="38" t="s">
-        <v>562</v>
-      </c>
-      <c r="E407" s="44"/>
-      <c r="F407" s="38" t="s">
-        <v>1107</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="C407" s="41" t="s">
+        <v>596</v>
+      </c>
+      <c r="D407" s="41"/>
+      <c r="E407" s="41"/>
+      <c r="F407" s="41"/>
     </row>
     <row r="408" spans="1:6">
       <c r="A408" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B408" s="38" t="s">
-        <v>665</v>
-      </c>
-      <c r="C408" s="41" t="s">
-        <v>596</v>
-      </c>
-      <c r="D408" s="41"/>
-      <c r="E408" s="41"/>
-      <c r="F408" s="41"/>
+        <v>666</v>
+      </c>
+      <c r="C408" s="44" t="s">
+        <v>598</v>
+      </c>
+      <c r="D408" s="38" t="s">
+        <v>573</v>
+      </c>
+      <c r="E408" s="44"/>
+      <c r="F408" s="38" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="409" spans="1:6">
       <c r="A409" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B409" s="38" t="s">
-        <v>666</v>
-      </c>
-      <c r="C409" s="44" t="s">
-        <v>598</v>
-      </c>
-      <c r="D409" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="E409" s="44"/>
+        <v>667</v>
+      </c>
+      <c r="C409" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="D409" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E409" s="38"/>
       <c r="F409" s="38" t="s">
         <v>1107</v>
       </c>
@@ -15165,45 +15194,45 @@
         <v>56</v>
       </c>
       <c r="B410" s="38" t="s">
-        <v>667</v>
-      </c>
-      <c r="C410" s="40" t="s">
-        <v>600</v>
-      </c>
-      <c r="D410" s="40" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E410" s="38"/>
-      <c r="F410" s="38" t="s">
-        <v>1107</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="C410" s="41" t="s">
+        <v>602</v>
+      </c>
+      <c r="D410" s="41"/>
+      <c r="E410" s="41"/>
+      <c r="F410" s="41"/>
     </row>
     <row r="411" spans="1:6">
       <c r="A411" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B411" s="38" t="s">
-        <v>668</v>
-      </c>
-      <c r="C411" s="41" t="s">
-        <v>602</v>
-      </c>
-      <c r="D411" s="41"/>
-      <c r="E411" s="41"/>
-      <c r="F411" s="41"/>
+        <v>669</v>
+      </c>
+      <c r="C411" s="44" t="s">
+        <v>566</v>
+      </c>
+      <c r="D411" s="38" t="s">
+        <v>567</v>
+      </c>
+      <c r="E411" s="44"/>
+      <c r="F411" s="38" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="412" spans="1:6">
       <c r="A412" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B412" s="38" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C412" s="44" t="s">
-        <v>566</v>
+        <v>640</v>
       </c>
       <c r="D412" s="38" t="s">
-        <v>567</v>
+        <v>1073</v>
       </c>
       <c r="E412" s="44"/>
       <c r="F412" s="38" t="s">
@@ -15215,13 +15244,13 @@
         <v>56</v>
       </c>
       <c r="B413" s="38" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C413" s="44" t="s">
-        <v>640</v>
+        <v>607</v>
       </c>
       <c r="D413" s="38" t="s">
-        <v>1073</v>
+        <v>573</v>
       </c>
       <c r="E413" s="44"/>
       <c r="F413" s="38" t="s">
@@ -15233,15 +15262,15 @@
         <v>56</v>
       </c>
       <c r="B414" s="38" t="s">
-        <v>671</v>
-      </c>
-      <c r="C414" s="44" t="s">
-        <v>607</v>
+        <v>672</v>
+      </c>
+      <c r="C414" s="38" t="s">
+        <v>609</v>
       </c>
       <c r="D414" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="E414" s="44"/>
+        <v>1071</v>
+      </c>
+      <c r="E414" s="38"/>
       <c r="F414" s="38" t="s">
         <v>1107</v>
       </c>
@@ -15251,13 +15280,13 @@
         <v>56</v>
       </c>
       <c r="B415" s="38" t="s">
-        <v>672</v>
-      </c>
-      <c r="C415" s="38" t="s">
-        <v>609</v>
+        <v>673</v>
+      </c>
+      <c r="C415" s="40" t="s">
+        <v>611</v>
       </c>
       <c r="D415" s="38" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E415" s="38"/>
       <c r="F415" s="38" t="s">
@@ -15268,60 +15297,60 @@
       <c r="A416" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B416" s="38" t="s">
-        <v>673</v>
-      </c>
-      <c r="C416" s="40" t="s">
-        <v>611</v>
-      </c>
-      <c r="D416" s="38" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E416" s="38"/>
-      <c r="F416" s="38" t="s">
-        <v>1107</v>
-      </c>
+      <c r="B416" s="38">
+        <v>11.4</v>
+      </c>
+      <c r="C416" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D416" s="41"/>
+      <c r="E416" s="41"/>
+      <c r="F416" s="41"/>
     </row>
     <row r="417" spans="1:6">
       <c r="A417" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B417" s="38">
-        <v>11.4</v>
-      </c>
-      <c r="C417" s="37" t="s">
-        <v>46</v>
+      <c r="B417" s="38" t="s">
+        <v>674</v>
+      </c>
+      <c r="C417" s="41" t="s">
+        <v>42</v>
       </c>
       <c r="D417" s="41"/>
       <c r="E417" s="41"/>
       <c r="F417" s="41"/>
     </row>
-    <row r="418" spans="1:6">
+    <row r="418" spans="1:6" ht="45">
       <c r="A418" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B418" s="38" t="s">
-        <v>674</v>
-      </c>
-      <c r="C418" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D418" s="41"/>
-      <c r="E418" s="41"/>
-      <c r="F418" s="41"/>
-    </row>
-    <row r="419" spans="1:6" ht="45">
+        <v>675</v>
+      </c>
+      <c r="C418" s="44" t="s">
+        <v>646</v>
+      </c>
+      <c r="D418" s="38">
+        <v>78.3</v>
+      </c>
+      <c r="E418" s="44"/>
+      <c r="F418" s="38" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6">
       <c r="A419" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B419" s="38" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C419" s="44" t="s">
-        <v>646</v>
+        <v>677</v>
       </c>
       <c r="D419" s="38">
-        <v>78.3</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="E419" s="44"/>
       <c r="F419" s="38" t="s">
@@ -15333,10 +15362,10 @@
         <v>56</v>
       </c>
       <c r="B420" s="38" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C420" s="44" t="s">
-        <v>677</v>
+        <v>650</v>
       </c>
       <c r="D420" s="38">
         <v>78.099999999999994</v>
@@ -15351,28 +15380,24 @@
         <v>56</v>
       </c>
       <c r="B421" s="38" t="s">
-        <v>678</v>
-      </c>
-      <c r="C421" s="44" t="s">
-        <v>650</v>
-      </c>
-      <c r="D421" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E421" s="44"/>
-      <c r="F421" s="38" t="s">
-        <v>1108</v>
-      </c>
+        <v>679</v>
+      </c>
+      <c r="C421" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D421" s="41"/>
+      <c r="E421" s="41"/>
+      <c r="F421" s="41"/>
     </row>
     <row r="422" spans="1:6">
       <c r="A422" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B422" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C422" s="41" t="s">
-        <v>43</v>
+        <v>619</v>
       </c>
       <c r="D422" s="41"/>
       <c r="E422" s="41"/>
@@ -15383,29 +15408,33 @@
         <v>56</v>
       </c>
       <c r="B423" s="38" t="s">
-        <v>680</v>
-      </c>
-      <c r="C423" s="41" t="s">
-        <v>619</v>
-      </c>
-      <c r="D423" s="41"/>
-      <c r="E423" s="41"/>
-      <c r="F423" s="41"/>
+        <v>681</v>
+      </c>
+      <c r="C423" s="38" t="s">
+        <v>621</v>
+      </c>
+      <c r="D423" s="38" t="s">
+        <v>622</v>
+      </c>
+      <c r="E423" s="38"/>
+      <c r="F423" s="38" t="s">
+        <v>1108</v>
+      </c>
     </row>
     <row r="424" spans="1:6">
       <c r="A424" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B424" s="38" t="s">
-        <v>681</v>
-      </c>
-      <c r="C424" s="38" t="s">
-        <v>621</v>
+        <v>682</v>
+      </c>
+      <c r="C424" s="44" t="s">
+        <v>683</v>
       </c>
       <c r="D424" s="38" t="s">
-        <v>622</v>
-      </c>
-      <c r="E424" s="38"/>
+        <v>553</v>
+      </c>
+      <c r="E424" s="44"/>
       <c r="F424" s="38" t="s">
         <v>1108</v>
       </c>
@@ -15415,13 +15444,13 @@
         <v>56</v>
       </c>
       <c r="B425" s="38" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C425" s="44" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D425" s="38" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="E425" s="44"/>
       <c r="F425" s="38" t="s">
@@ -15433,15 +15462,15 @@
         <v>56</v>
       </c>
       <c r="B426" s="38" t="s">
-        <v>684</v>
-      </c>
-      <c r="C426" s="44" t="s">
-        <v>685</v>
+        <v>686</v>
+      </c>
+      <c r="C426" s="38" t="s">
+        <v>687</v>
       </c>
       <c r="D426" s="38" t="s">
-        <v>556</v>
-      </c>
-      <c r="E426" s="44"/>
+        <v>562</v>
+      </c>
+      <c r="E426" s="38"/>
       <c r="F426" s="38" t="s">
         <v>1108</v>
       </c>
@@ -15451,45 +15480,45 @@
         <v>56</v>
       </c>
       <c r="B427" s="38" t="s">
-        <v>686</v>
-      </c>
-      <c r="C427" s="38" t="s">
-        <v>687</v>
-      </c>
-      <c r="D427" s="38" t="s">
-        <v>562</v>
-      </c>
-      <c r="E427" s="38"/>
-      <c r="F427" s="38" t="s">
-        <v>1108</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="C427" s="41" t="s">
+        <v>689</v>
+      </c>
+      <c r="D427" s="41"/>
+      <c r="E427" s="41"/>
+      <c r="F427" s="41"/>
     </row>
     <row r="428" spans="1:6">
       <c r="A428" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B428" s="38" t="s">
-        <v>688</v>
-      </c>
-      <c r="C428" s="41" t="s">
-        <v>689</v>
-      </c>
-      <c r="D428" s="41"/>
-      <c r="E428" s="41"/>
-      <c r="F428" s="41"/>
+        <v>690</v>
+      </c>
+      <c r="C428" s="53" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D428" s="38" t="s">
+        <v>692</v>
+      </c>
+      <c r="E428" s="38"/>
+      <c r="F428" s="38" t="s">
+        <v>1108</v>
+      </c>
     </row>
     <row r="429" spans="1:6">
       <c r="A429" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B429" s="38" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="C429" s="53" t="s">
-        <v>1244</v>
-      </c>
-      <c r="D429" s="38" t="s">
-        <v>692</v>
+        <v>1245</v>
+      </c>
+      <c r="D429" s="40" t="s">
+        <v>695</v>
       </c>
       <c r="E429" s="38"/>
       <c r="F429" s="38" t="s">
@@ -15501,10 +15530,10 @@
         <v>56</v>
       </c>
       <c r="B430" s="38" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C430" s="53" t="s">
-        <v>1245</v>
+        <v>697</v>
       </c>
       <c r="D430" s="40" t="s">
         <v>695</v>
@@ -15519,45 +15548,45 @@
         <v>56</v>
       </c>
       <c r="B431" s="38" t="s">
-        <v>696</v>
-      </c>
-      <c r="C431" s="53" t="s">
-        <v>697</v>
-      </c>
-      <c r="D431" s="40" t="s">
-        <v>695</v>
-      </c>
-      <c r="E431" s="38"/>
-      <c r="F431" s="38" t="s">
-        <v>1108</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="C431" s="41" t="s">
+        <v>602</v>
+      </c>
+      <c r="D431" s="41"/>
+      <c r="E431" s="41"/>
+      <c r="F431" s="41"/>
     </row>
     <row r="432" spans="1:6">
       <c r="A432" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B432" s="38" t="s">
-        <v>698</v>
-      </c>
-      <c r="C432" s="41" t="s">
-        <v>602</v>
-      </c>
-      <c r="D432" s="41"/>
-      <c r="E432" s="41"/>
-      <c r="F432" s="41"/>
+        <v>699</v>
+      </c>
+      <c r="C432" s="44" t="s">
+        <v>566</v>
+      </c>
+      <c r="D432" s="40" t="s">
+        <v>567</v>
+      </c>
+      <c r="E432" s="44"/>
+      <c r="F432" s="38" t="s">
+        <v>1108</v>
+      </c>
     </row>
     <row r="433" spans="1:6">
       <c r="A433" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B433" s="38" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C433" s="44" t="s">
-        <v>566</v>
+        <v>701</v>
       </c>
       <c r="D433" s="40" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="E433" s="44"/>
       <c r="F433" s="38" t="s">
@@ -15569,13 +15598,13 @@
         <v>56</v>
       </c>
       <c r="B434" s="38" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C434" s="44" t="s">
-        <v>701</v>
+        <v>607</v>
       </c>
       <c r="D434" s="40" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E434" s="44"/>
       <c r="F434" s="38" t="s">
@@ -15587,15 +15616,15 @@
         <v>56</v>
       </c>
       <c r="B435" s="38" t="s">
-        <v>702</v>
-      </c>
-      <c r="C435" s="44" t="s">
-        <v>607</v>
+        <v>703</v>
+      </c>
+      <c r="C435" s="38" t="s">
+        <v>609</v>
       </c>
       <c r="D435" s="40" t="s">
         <v>573</v>
       </c>
-      <c r="E435" s="44"/>
+      <c r="E435" s="38"/>
       <c r="F435" s="38" t="s">
         <v>1108</v>
       </c>
@@ -15605,99 +15634,99 @@
         <v>56</v>
       </c>
       <c r="B436" s="38" t="s">
-        <v>703</v>
-      </c>
-      <c r="C436" s="38" t="s">
-        <v>609</v>
+        <v>704</v>
+      </c>
+      <c r="C436" s="44" t="s">
+        <v>575</v>
       </c>
       <c r="D436" s="40" t="s">
-        <v>573</v>
-      </c>
-      <c r="E436" s="38"/>
+        <v>576</v>
+      </c>
+      <c r="E436" s="44"/>
       <c r="F436" s="38" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="437" spans="1:6">
+    <row r="437" spans="1:6" ht="30">
       <c r="A437" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B437" s="38" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C437" s="44" t="s">
-        <v>575</v>
+        <v>661</v>
       </c>
       <c r="D437" s="40" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="E437" s="44"/>
       <c r="F437" s="38" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="438" spans="1:6" ht="30">
+    <row r="438" spans="1:6">
       <c r="A438" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B438" s="38" t="s">
-        <v>705</v>
-      </c>
-      <c r="C438" s="44" t="s">
-        <v>661</v>
-      </c>
-      <c r="D438" s="40" t="s">
-        <v>579</v>
-      </c>
-      <c r="E438" s="44"/>
-      <c r="F438" s="38" t="s">
+        <v>706</v>
+      </c>
+      <c r="C438" s="41" t="s">
+        <v>581</v>
+      </c>
+      <c r="D438" s="41"/>
+      <c r="E438" s="41"/>
+      <c r="F438" s="41"/>
+    </row>
+    <row r="439" spans="1:6" ht="45">
+      <c r="A439" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B439" s="38" t="s">
+        <v>707</v>
+      </c>
+      <c r="C439" s="44" t="s">
+        <v>584</v>
+      </c>
+      <c r="D439" s="40" t="s">
+        <v>582</v>
+      </c>
+      <c r="E439" s="44"/>
+      <c r="F439" s="38" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="439" spans="1:6">
-      <c r="A439" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B439" s="38" t="s">
-        <v>706</v>
-      </c>
-      <c r="C439" s="41" t="s">
-        <v>581</v>
-      </c>
-      <c r="D439" s="41"/>
-      <c r="E439" s="41"/>
-      <c r="F439" s="41"/>
-    </row>
-    <row r="440" spans="1:6" ht="45">
+    <row r="440" spans="1:6" ht="30">
       <c r="A440" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B440" s="38" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C440" s="44" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D440" s="40" t="s">
-        <v>582</v>
+        <v>1272</v>
       </c>
       <c r="E440" s="44"/>
       <c r="F440" s="38" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="441" spans="1:6" ht="30">
+    <row r="441" spans="1:6">
       <c r="A441" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B441" s="38" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C441" s="44" t="s">
-        <v>586</v>
+        <v>710</v>
       </c>
       <c r="D441" s="40" t="s">
-        <v>582</v>
+        <v>1274</v>
       </c>
       <c r="E441" s="44"/>
       <c r="F441" s="38" t="s">
@@ -15709,13 +15738,13 @@
         <v>56</v>
       </c>
       <c r="B442" s="38" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C442" s="44" t="s">
-        <v>710</v>
-      </c>
-      <c r="D442" s="40" t="s">
-        <v>582</v>
+        <v>663</v>
+      </c>
+      <c r="D442" s="38" t="s">
+        <v>594</v>
       </c>
       <c r="E442" s="44"/>
       <c r="F442" s="38" t="s">
@@ -15727,47 +15756,47 @@
         <v>56</v>
       </c>
       <c r="B443" s="38" t="s">
-        <v>711</v>
-      </c>
-      <c r="C443" s="44" t="s">
-        <v>663</v>
-      </c>
-      <c r="D443" s="38" t="s">
-        <v>594</v>
-      </c>
-      <c r="E443" s="44"/>
-      <c r="F443" s="38" t="s">
-        <v>1108</v>
-      </c>
+        <v>712</v>
+      </c>
+      <c r="C443" s="41" t="s">
+        <v>596</v>
+      </c>
+      <c r="D443" s="41"/>
+      <c r="E443" s="41"/>
+      <c r="F443" s="41"/>
     </row>
     <row r="444" spans="1:6">
       <c r="A444" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B444" s="38" t="s">
-        <v>712</v>
-      </c>
-      <c r="C444" s="41" t="s">
-        <v>596</v>
-      </c>
-      <c r="D444" s="41"/>
-      <c r="E444" s="41"/>
-      <c r="F444" s="41"/>
+        <v>713</v>
+      </c>
+      <c r="C444" s="44" t="s">
+        <v>598</v>
+      </c>
+      <c r="D444" s="38" t="s">
+        <v>573</v>
+      </c>
+      <c r="E444" s="44"/>
+      <c r="F444" s="38" t="s">
+        <v>1108</v>
+      </c>
     </row>
     <row r="445" spans="1:6">
       <c r="A445" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B445" s="38" t="s">
-        <v>713</v>
-      </c>
-      <c r="C445" s="44" t="s">
-        <v>598</v>
-      </c>
-      <c r="D445" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="E445" s="44"/>
+        <v>714</v>
+      </c>
+      <c r="C445" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="D445" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E445" s="38"/>
       <c r="F445" s="38" t="s">
         <v>1108</v>
       </c>
@@ -15777,74 +15806,70 @@
         <v>56</v>
       </c>
       <c r="B446" s="38" t="s">
-        <v>714</v>
-      </c>
-      <c r="C446" s="40" t="s">
-        <v>600</v>
-      </c>
-      <c r="D446" s="40" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E446" s="38"/>
-      <c r="F446" s="38" t="s">
-        <v>1108</v>
-      </c>
+        <v>715</v>
+      </c>
+      <c r="C446" s="41" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D446" s="41"/>
+      <c r="E446" s="41"/>
+      <c r="F446" s="41"/>
     </row>
     <row r="447" spans="1:6">
       <c r="A447" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B447" s="38" t="s">
-        <v>715</v>
-      </c>
-      <c r="C447" s="41" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D447" s="41"/>
-      <c r="E447" s="41"/>
-      <c r="F447" s="41"/>
+        <v>720</v>
+      </c>
+      <c r="C447" s="40" t="s">
+        <v>611</v>
+      </c>
+      <c r="D447" s="38" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E447" s="38"/>
+      <c r="F447" s="38" t="s">
+        <v>1108</v>
+      </c>
     </row>
     <row r="448" spans="1:6">
       <c r="A448" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B448" s="38" t="s">
-        <v>720</v>
-      </c>
-      <c r="C448" s="40" t="s">
-        <v>611</v>
-      </c>
-      <c r="D448" s="38" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E448" s="38"/>
-      <c r="F448" s="38" t="s">
-        <v>1108</v>
-      </c>
+      <c r="B448" s="38">
+        <v>11.5</v>
+      </c>
+      <c r="C448" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D448" s="41"/>
+      <c r="E448" s="37"/>
+      <c r="F448" s="41"/>
     </row>
     <row r="449" spans="1:6">
       <c r="A449" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B449" s="38">
-        <v>11.5</v>
-      </c>
-      <c r="C449" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D449" s="41"/>
-      <c r="E449" s="37"/>
-      <c r="F449" s="41"/>
+      <c r="B449" s="38" t="s">
+        <v>721</v>
+      </c>
+      <c r="C449" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D449" s="38"/>
+      <c r="E449" s="44"/>
+      <c r="F449" s="38"/>
     </row>
     <row r="450" spans="1:6">
       <c r="A450" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B450" s="38" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C450" s="44" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D450" s="38"/>
       <c r="E450" s="44"/>
@@ -15855,10 +15880,10 @@
         <v>56</v>
       </c>
       <c r="B451" s="38" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C451" s="44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D451" s="38"/>
       <c r="E451" s="44"/>
@@ -15868,39 +15893,39 @@
       <c r="A452" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B452" s="38" t="s">
-        <v>723</v>
-      </c>
-      <c r="C452" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D452" s="38"/>
-      <c r="E452" s="44"/>
-      <c r="F452" s="38"/>
+      <c r="B452" s="38">
+        <v>11.6</v>
+      </c>
+      <c r="C452" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D452" s="41"/>
+      <c r="E452" s="37"/>
+      <c r="F452" s="41"/>
     </row>
     <row r="453" spans="1:6">
       <c r="A453" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B453" s="38">
-        <v>11.6</v>
-      </c>
-      <c r="C453" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D453" s="41"/>
-      <c r="E453" s="37"/>
-      <c r="F453" s="41"/>
+      <c r="B453" s="38" t="s">
+        <v>724</v>
+      </c>
+      <c r="C453" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D453" s="38"/>
+      <c r="E453" s="44"/>
+      <c r="F453" s="38"/>
     </row>
     <row r="454" spans="1:6">
       <c r="A454" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B454" s="38" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C454" s="44" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D454" s="38"/>
       <c r="E454" s="44"/>
@@ -15910,56 +15935,60 @@
       <c r="A455" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B455" s="38" t="s">
-        <v>725</v>
-      </c>
-      <c r="C455" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="D455" s="38"/>
-      <c r="E455" s="44"/>
-      <c r="F455" s="38"/>
+      <c r="B455" s="38">
+        <v>11.7</v>
+      </c>
+      <c r="C455" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D455" s="41"/>
+      <c r="E455" s="37"/>
+      <c r="F455" s="41"/>
     </row>
     <row r="456" spans="1:6">
       <c r="A456" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B456" s="38">
-        <v>11.7</v>
-      </c>
-      <c r="C456" s="37" t="s">
-        <v>51</v>
+      <c r="B456" s="38" t="s">
+        <v>726</v>
+      </c>
+      <c r="C456" s="41" t="s">
+        <v>42</v>
       </c>
       <c r="D456" s="41"/>
-      <c r="E456" s="37"/>
+      <c r="E456" s="41"/>
       <c r="F456" s="41"/>
     </row>
-    <row r="457" spans="1:6">
+    <row r="457" spans="1:6" ht="45">
       <c r="A457" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B457" s="38" t="s">
-        <v>726</v>
-      </c>
-      <c r="C457" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D457" s="41"/>
-      <c r="E457" s="41"/>
-      <c r="F457" s="41"/>
-    </row>
-    <row r="458" spans="1:6" ht="45">
+        <v>727</v>
+      </c>
+      <c r="C457" s="44" t="s">
+        <v>646</v>
+      </c>
+      <c r="D457" s="38">
+        <v>78.3</v>
+      </c>
+      <c r="E457" s="44"/>
+      <c r="F457" s="38" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6">
       <c r="A458" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B458" s="38" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C458" s="44" t="s">
-        <v>646</v>
+        <v>677</v>
       </c>
       <c r="D458" s="38">
-        <v>78.3</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="E458" s="44"/>
       <c r="F458" s="38" t="s">
@@ -15971,10 +16000,10 @@
         <v>56</v>
       </c>
       <c r="B459" s="38" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C459" s="44" t="s">
-        <v>677</v>
+        <v>650</v>
       </c>
       <c r="D459" s="38">
         <v>78.099999999999994</v>
@@ -15989,28 +16018,24 @@
         <v>56</v>
       </c>
       <c r="B460" s="38" t="s">
-        <v>729</v>
-      </c>
-      <c r="C460" s="44" t="s">
-        <v>650</v>
-      </c>
-      <c r="D460" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E460" s="44"/>
-      <c r="F460" s="38" t="s">
-        <v>1101</v>
-      </c>
+        <v>730</v>
+      </c>
+      <c r="C460" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D460" s="41"/>
+      <c r="E460" s="41"/>
+      <c r="F460" s="41"/>
     </row>
     <row r="461" spans="1:6">
       <c r="A461" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B461" s="38" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C461" s="41" t="s">
-        <v>43</v>
+        <v>619</v>
       </c>
       <c r="D461" s="41"/>
       <c r="E461" s="41"/>
@@ -16021,27 +16046,31 @@
         <v>56</v>
       </c>
       <c r="B462" s="38" t="s">
-        <v>731</v>
-      </c>
-      <c r="C462" s="41" t="s">
-        <v>619</v>
-      </c>
-      <c r="D462" s="41"/>
-      <c r="E462" s="41"/>
-      <c r="F462" s="41"/>
+        <v>732</v>
+      </c>
+      <c r="C462" s="44" t="s">
+        <v>733</v>
+      </c>
+      <c r="D462" s="38" t="s">
+        <v>553</v>
+      </c>
+      <c r="E462" s="44"/>
+      <c r="F462" s="38" t="s">
+        <v>1101</v>
+      </c>
     </row>
     <row r="463" spans="1:6">
       <c r="A463" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B463" s="38" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C463" s="44" t="s">
-        <v>733</v>
+        <v>685</v>
       </c>
       <c r="D463" s="38" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="E463" s="44"/>
       <c r="F463" s="38" t="s">
@@ -16053,15 +16082,15 @@
         <v>56</v>
       </c>
       <c r="B464" s="38" t="s">
-        <v>734</v>
-      </c>
-      <c r="C464" s="44" t="s">
-        <v>685</v>
+        <v>735</v>
+      </c>
+      <c r="C464" s="40" t="s">
+        <v>736</v>
       </c>
       <c r="D464" s="38" t="s">
-        <v>556</v>
-      </c>
-      <c r="E464" s="44"/>
+        <v>1070</v>
+      </c>
+      <c r="E464" s="38"/>
       <c r="F464" s="38" t="s">
         <v>1101</v>
       </c>
@@ -16071,13 +16100,13 @@
         <v>56</v>
       </c>
       <c r="B465" s="38" t="s">
-        <v>735</v>
-      </c>
-      <c r="C465" s="40" t="s">
-        <v>736</v>
+        <v>737</v>
+      </c>
+      <c r="C465" s="38" t="s">
+        <v>738</v>
       </c>
       <c r="D465" s="38" t="s">
-        <v>1070</v>
+        <v>594</v>
       </c>
       <c r="E465" s="38"/>
       <c r="F465" s="38" t="s">
@@ -16089,47 +16118,47 @@
         <v>56</v>
       </c>
       <c r="B466" s="38" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C466" s="38" t="s">
-        <v>738</v>
-      </c>
-      <c r="D466" s="38" t="s">
-        <v>594</v>
-      </c>
+        <v>1087</v>
+      </c>
+      <c r="D466" s="38"/>
       <c r="E466" s="38"/>
       <c r="F466" s="38" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="467" spans="1:6">
+    <row r="467" spans="1:6" ht="30">
       <c r="A467" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B467" s="38" t="s">
-        <v>739</v>
+        <v>1088</v>
       </c>
       <c r="C467" s="38" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D467" s="38"/>
+        <v>740</v>
+      </c>
+      <c r="D467" s="38" t="s">
+        <v>562</v>
+      </c>
       <c r="E467" s="38"/>
       <c r="F467" s="38" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="468" spans="1:6" ht="30">
+    <row r="468" spans="1:6">
       <c r="A468" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B468" s="38" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C468" s="38" t="s">
-        <v>740</v>
+        <v>1086</v>
       </c>
       <c r="D468" s="38" t="s">
-        <v>562</v>
+        <v>695</v>
       </c>
       <c r="E468" s="38"/>
       <c r="F468" s="38" t="s">
@@ -16141,47 +16170,47 @@
         <v>56</v>
       </c>
       <c r="B469" s="38" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C469" s="38" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D469" s="38" t="s">
-        <v>695</v>
-      </c>
-      <c r="E469" s="38"/>
-      <c r="F469" s="38" t="s">
-        <v>1101</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="C469" s="41" t="s">
+        <v>596</v>
+      </c>
+      <c r="D469" s="41"/>
+      <c r="E469" s="41"/>
+      <c r="F469" s="41"/>
     </row>
     <row r="470" spans="1:6">
       <c r="A470" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B470" s="38" t="s">
-        <v>742</v>
-      </c>
-      <c r="C470" s="41" t="s">
-        <v>596</v>
-      </c>
-      <c r="D470" s="41"/>
-      <c r="E470" s="41"/>
-      <c r="F470" s="41"/>
+        <v>743</v>
+      </c>
+      <c r="C470" s="44" t="s">
+        <v>598</v>
+      </c>
+      <c r="D470" s="38" t="s">
+        <v>573</v>
+      </c>
+      <c r="E470" s="44"/>
+      <c r="F470" s="38" t="s">
+        <v>1101</v>
+      </c>
     </row>
     <row r="471" spans="1:6">
       <c r="A471" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B471" s="38" t="s">
-        <v>743</v>
-      </c>
-      <c r="C471" s="44" t="s">
-        <v>598</v>
-      </c>
-      <c r="D471" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="E471" s="44"/>
+        <v>744</v>
+      </c>
+      <c r="C471" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="D471" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E471" s="38"/>
       <c r="F471" s="38" t="s">
         <v>1101</v>
       </c>
@@ -16191,45 +16220,45 @@
         <v>56</v>
       </c>
       <c r="B472" s="38" t="s">
-        <v>744</v>
-      </c>
-      <c r="C472" s="40" t="s">
-        <v>600</v>
-      </c>
-      <c r="D472" s="40" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E472" s="38"/>
-      <c r="F472" s="38" t="s">
-        <v>1101</v>
-      </c>
+        <v>745</v>
+      </c>
+      <c r="C472" s="41" t="s">
+        <v>602</v>
+      </c>
+      <c r="D472" s="41"/>
+      <c r="E472" s="41"/>
+      <c r="F472" s="41"/>
     </row>
     <row r="473" spans="1:6">
       <c r="A473" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B473" s="38" t="s">
-        <v>745</v>
-      </c>
-      <c r="C473" s="41" t="s">
-        <v>602</v>
-      </c>
-      <c r="D473" s="41"/>
-      <c r="E473" s="41"/>
-      <c r="F473" s="41"/>
+        <v>746</v>
+      </c>
+      <c r="C473" s="44" t="s">
+        <v>566</v>
+      </c>
+      <c r="D473" s="38" t="s">
+        <v>567</v>
+      </c>
+      <c r="E473" s="44"/>
+      <c r="F473" s="38" t="s">
+        <v>1101</v>
+      </c>
     </row>
     <row r="474" spans="1:6">
       <c r="A474" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B474" s="38" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C474" s="44" t="s">
-        <v>566</v>
+        <v>640</v>
       </c>
       <c r="D474" s="38" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="E474" s="44"/>
       <c r="F474" s="38" t="s">
@@ -16241,13 +16270,13 @@
         <v>56</v>
       </c>
       <c r="B475" s="38" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C475" s="44" t="s">
-        <v>640</v>
+        <v>607</v>
       </c>
       <c r="D475" s="38" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E475" s="44"/>
       <c r="F475" s="38" t="s">
@@ -16259,15 +16288,15 @@
         <v>56</v>
       </c>
       <c r="B476" s="38" t="s">
-        <v>748</v>
-      </c>
-      <c r="C476" s="44" t="s">
-        <v>607</v>
+        <v>749</v>
+      </c>
+      <c r="C476" s="38" t="s">
+        <v>609</v>
       </c>
       <c r="D476" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="E476" s="44"/>
+        <v>1071</v>
+      </c>
+      <c r="E476" s="38"/>
       <c r="F476" s="38" t="s">
         <v>1101</v>
       </c>
@@ -16277,39 +16306,21 @@
         <v>56</v>
       </c>
       <c r="B477" s="38" t="s">
-        <v>749</v>
+        <v>1271</v>
       </c>
       <c r="C477" s="38" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D477" s="38" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E477" s="38"/>
       <c r="F477" s="38" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="478" spans="1:6">
-      <c r="A478" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B478" s="38" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C478" s="38" t="s">
-        <v>611</v>
-      </c>
-      <c r="D478" s="38" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E478" s="38"/>
-      <c r="F478" s="38" t="s">
-        <v>1101</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="D1:D478" xr:uid="{9979DB17-DD3C-4836-94F3-6ACDFC434949}">
+  <autoFilter ref="D1:D477" xr:uid="{9979DB17-DD3C-4836-94F3-6ACDFC434949}">
     <filterColumn colId="0">
       <filters>
         <filter val="PKIX.13"/>
@@ -21246,10 +21257,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:IV27"/>
+  <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -21766,9 +21777,7 @@
       <c r="D13" s="30" t="s">
         <v>1029</v>
       </c>
-      <c r="E13" s="30" t="s">
-        <v>986</v>
-      </c>
+      <c r="E13" s="30"/>
       <c r="F13" s="30" t="s">
         <v>759</v>
       </c>
@@ -22047,6 +22056,40 @@
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
+    </row>
+    <row r="28" spans="1:7" ht="60">
+      <c r="A28" s="70" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C28" s="70" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D28" s="71" t="s">
+        <v>586</v>
+      </c>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+    </row>
+    <row r="29" spans="1:7" ht="30">
+      <c r="A29" s="72" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B29" s="70" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C29" s="73" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D29" s="74" t="s">
+        <v>588</v>
+      </c>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/conformancelib/testdata/PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/PIV_ICAM_Test_Cards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GSA\GSA_GIT\piv-conformance-swing\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F83415-6AA3-4231-B990-56C65F6924B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435C56A1-0497-46F0-A5EC-D66C2932CB0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="735" windowWidth="28410" windowHeight="14550" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3683" uniqueCount="1276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3686" uniqueCount="1279">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3121,9 +3121,6 @@
   </si>
   <si>
     <t>Confirm that the certificate subjectAltName includes FASC-N and that it matches CHUID</t>
-  </si>
-  <si>
-    <t>OIDs for piv-FASC-N and entryUUID</t>
   </si>
   <si>
     <t>PKIX_Test_13</t>
@@ -3860,6 +3857,18 @@
   </si>
   <si>
     <t>PKIX_Test_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.3.6.1.1.16.4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.101.3.6.6</t>
+  </si>
+  <si>
+    <t>OID for entryUUID</t>
+  </si>
+  <si>
+    <t>OID for piv-FASC-N</t>
   </si>
 </sst>
 </file>
@@ -4116,7 +4125,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4285,9 +4294,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4327,19 +4333,16 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8427,8 +8430,8 @@
   <sheetPr codeName="Sheet2" filterMode="1"/>
   <dimension ref="A1:F477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A351" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D440" sqref="D440"/>
+    <sheetView topLeftCell="A338" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D360" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8457,10 +8460,10 @@
         <v>55</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75">
@@ -8468,7 +8471,7 @@
         <v>56</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>0</v>
@@ -8496,10 +8499,10 @@
         <v>56</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>1208</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>1209</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
@@ -8520,7 +8523,7 @@
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8538,7 +8541,7 @@
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8556,7 +8559,7 @@
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8574,7 +8577,7 @@
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8592,7 +8595,7 @@
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8610,7 +8613,7 @@
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
@@ -8628,7 +8631,7 @@
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30">
@@ -8646,7 +8649,7 @@
       </c>
       <c r="E12" s="38"/>
       <c r="F12" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8664,7 +8667,7 @@
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -8682,7 +8685,7 @@
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -8700,7 +8703,7 @@
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -8722,10 +8725,10 @@
         <v>56</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
@@ -8746,7 +8749,7 @@
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -8764,7 +8767,7 @@
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -8782,7 +8785,7 @@
       </c>
       <c r="E20" s="38"/>
       <c r="F20" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -8800,7 +8803,7 @@
       </c>
       <c r="E21" s="38"/>
       <c r="F21" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -8818,7 +8821,7 @@
       </c>
       <c r="E22" s="38"/>
       <c r="F22" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -8829,14 +8832,14 @@
         <v>98</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>100</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -8847,14 +8850,14 @@
         <v>101</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -8872,7 +8875,7 @@
       </c>
       <c r="E25" s="38"/>
       <c r="F25" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -8883,14 +8886,14 @@
         <v>107</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D26" s="38" t="s">
         <v>106</v>
       </c>
       <c r="E26" s="38"/>
       <c r="F26" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -8901,14 +8904,14 @@
         <v>110</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="39" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -8919,14 +8922,14 @@
         <v>113</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -8934,33 +8937,33 @@
         <v>56</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E29" s="39"/>
       <c r="F29" s="39" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="39"/>
       <c r="B30" s="39" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="39" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -8968,17 +8971,17 @@
         <v>56</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>109</v>
       </c>
       <c r="E31" s="38"/>
       <c r="F31" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30">
@@ -8986,7 +8989,7 @@
         <v>56</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C32" s="38" t="s">
         <v>111</v>
@@ -8996,7 +8999,7 @@
       </c>
       <c r="E32" s="38"/>
       <c r="F32" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -9004,17 +9007,17 @@
         <v>56</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="39" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -9022,17 +9025,17 @@
         <v>56</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="39" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -9040,17 +9043,17 @@
         <v>56</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E35" s="39"/>
       <c r="F35" s="39" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -9058,17 +9061,17 @@
         <v>56</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E36" s="39"/>
       <c r="F36" s="39" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -9076,7 +9079,7 @@
         <v>56</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C37" s="38" t="s">
         <v>114</v>
@@ -9086,7 +9089,7 @@
       </c>
       <c r="E37" s="38"/>
       <c r="F37" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -9104,7 +9107,7 @@
       </c>
       <c r="E38" s="38"/>
       <c r="F38" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -9122,7 +9125,7 @@
       </c>
       <c r="E39" s="38"/>
       <c r="F39" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30">
@@ -9140,7 +9143,7 @@
       </c>
       <c r="E40" s="38"/>
       <c r="F40" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -9158,7 +9161,7 @@
       </c>
       <c r="E41" s="38"/>
       <c r="F41" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -9166,7 +9169,7 @@
         <v>127</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>129</v>
@@ -9176,7 +9179,7 @@
       </c>
       <c r="E42" s="38"/>
       <c r="F42" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -9198,10 +9201,10 @@
         <v>56</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
@@ -9222,7 +9225,7 @@
       </c>
       <c r="E45" s="38"/>
       <c r="F45" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -9240,7 +9243,7 @@
       </c>
       <c r="E46" s="38"/>
       <c r="F46" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -9258,7 +9261,7 @@
       </c>
       <c r="E47" s="38"/>
       <c r="F47" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -9276,7 +9279,7 @@
       </c>
       <c r="E48" s="38"/>
       <c r="F48" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="30">
@@ -9290,11 +9293,11 @@
         <v>136</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E49" s="38"/>
       <c r="F49" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -9312,7 +9315,7 @@
       </c>
       <c r="E50" s="38"/>
       <c r="F50" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -9330,7 +9333,7 @@
       </c>
       <c r="E51" s="38"/>
       <c r="F51" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -9348,7 +9351,7 @@
       </c>
       <c r="E52" s="38"/>
       <c r="F52" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -9366,7 +9369,7 @@
       </c>
       <c r="E53" s="38"/>
       <c r="F53" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -9374,7 +9377,7 @@
         <v>127</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C54" s="38" t="s">
         <v>129</v>
@@ -9384,7 +9387,7 @@
       </c>
       <c r="E54" s="38"/>
       <c r="F54" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -9406,10 +9409,10 @@
         <v>56</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D56" s="37"/>
       <c r="E56" s="37"/>
@@ -9430,7 +9433,7 @@
       </c>
       <c r="E57" s="38"/>
       <c r="F57" s="38" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -9448,7 +9451,7 @@
       </c>
       <c r="E58" s="38"/>
       <c r="F58" s="38" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -9466,7 +9469,7 @@
       </c>
       <c r="E59" s="38"/>
       <c r="F59" s="38" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -9484,7 +9487,7 @@
       </c>
       <c r="E60" s="38"/>
       <c r="F60" s="38" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -9502,7 +9505,7 @@
       </c>
       <c r="E61" s="38"/>
       <c r="F61" s="38" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -9520,7 +9523,7 @@
       </c>
       <c r="E62" s="38"/>
       <c r="F62" s="38" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -9538,7 +9541,7 @@
       </c>
       <c r="E63" s="38"/>
       <c r="F63" s="38" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -9556,7 +9559,7 @@
       </c>
       <c r="E64" s="38"/>
       <c r="F64" s="38" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -9574,7 +9577,7 @@
       </c>
       <c r="E65" s="38"/>
       <c r="F65" s="38" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -9596,10 +9599,10 @@
         <v>56</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D67" s="37"/>
       <c r="E67" s="37"/>
@@ -9620,7 +9623,7 @@
       </c>
       <c r="E68" s="38"/>
       <c r="F68" s="38" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -9638,7 +9641,7 @@
       </c>
       <c r="E69" s="38"/>
       <c r="F69" s="38" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -9656,7 +9659,7 @@
       </c>
       <c r="E70" s="38"/>
       <c r="F70" s="38" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -9674,7 +9677,7 @@
       </c>
       <c r="E71" s="38"/>
       <c r="F71" s="38" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -9692,7 +9695,7 @@
       </c>
       <c r="E72" s="38"/>
       <c r="F72" s="38" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -9710,7 +9713,7 @@
       </c>
       <c r="E73" s="38"/>
       <c r="F73" s="38" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -9721,14 +9724,14 @@
         <v>172</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D74" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E74" s="39"/>
       <c r="F74" s="39" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -9739,14 +9742,14 @@
         <v>175</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D75" s="39" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E75" s="39"/>
       <c r="F75" s="39" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -9764,7 +9767,7 @@
       </c>
       <c r="E76" s="38"/>
       <c r="F76" s="38" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -9772,7 +9775,7 @@
         <v>56</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C77" s="38" t="s">
         <v>176</v>
@@ -9782,7 +9785,7 @@
       </c>
       <c r="E77" s="38"/>
       <c r="F77" s="38" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -9790,7 +9793,7 @@
         <v>56</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C78" s="38" t="s">
         <v>179</v>
@@ -9800,7 +9803,7 @@
       </c>
       <c r="E78" s="38"/>
       <c r="F78" s="38" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -9808,7 +9811,7 @@
         <v>127</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C79" s="38" t="s">
         <v>129</v>
@@ -9818,7 +9821,7 @@
       </c>
       <c r="E79" s="38"/>
       <c r="F79" s="38" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -9826,7 +9829,7 @@
         <v>56</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C80" s="37" t="s">
         <v>6</v>
@@ -9840,10 +9843,10 @@
         <v>56</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D81" s="37"/>
       <c r="E81" s="37"/>
@@ -9864,7 +9867,7 @@
       </c>
       <c r="E82" s="38"/>
       <c r="F82" s="38" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -9882,7 +9885,7 @@
       </c>
       <c r="E83" s="38"/>
       <c r="F83" s="38" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -9900,7 +9903,7 @@
       </c>
       <c r="E84" s="38"/>
       <c r="F84" s="38" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -9918,7 +9921,7 @@
       </c>
       <c r="E85" s="38"/>
       <c r="F85" s="38" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -9936,7 +9939,7 @@
       </c>
       <c r="E86" s="38"/>
       <c r="F86" s="38" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -9954,7 +9957,7 @@
       </c>
       <c r="E87" s="38"/>
       <c r="F87" s="38" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -9972,7 +9975,7 @@
       </c>
       <c r="E88" s="38"/>
       <c r="F88" s="38" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -9980,7 +9983,7 @@
         <v>127</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C89" s="38" t="s">
         <v>129</v>
@@ -9990,7 +9993,7 @@
       </c>
       <c r="E89" s="38"/>
       <c r="F89" s="38" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -10012,10 +10015,10 @@
         <v>56</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D91" s="37"/>
       <c r="E91" s="37"/>
@@ -10036,7 +10039,7 @@
       </c>
       <c r="E92" s="38"/>
       <c r="F92" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -10054,7 +10057,7 @@
       </c>
       <c r="E93" s="38"/>
       <c r="F93" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -10072,7 +10075,7 @@
       </c>
       <c r="E94" s="38"/>
       <c r="F94" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -10090,7 +10093,7 @@
       </c>
       <c r="E95" s="38"/>
       <c r="F95" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="30">
@@ -10104,11 +10107,11 @@
         <v>136</v>
       </c>
       <c r="D96" s="38" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E96" s="38"/>
       <c r="F96" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -10126,7 +10129,7 @@
       </c>
       <c r="E97" s="38"/>
       <c r="F97" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -10144,7 +10147,7 @@
       </c>
       <c r="E98" s="38"/>
       <c r="F98" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -10162,7 +10165,7 @@
       </c>
       <c r="E99" s="38"/>
       <c r="F99" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -10180,7 +10183,7 @@
       </c>
       <c r="E100" s="38"/>
       <c r="F100" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -10188,7 +10191,7 @@
         <v>127</v>
       </c>
       <c r="B101" s="38" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C101" s="38" t="s">
         <v>129</v>
@@ -10198,7 +10201,7 @@
       </c>
       <c r="E101" s="38"/>
       <c r="F101" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -10220,10 +10223,10 @@
         <v>56</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D103" s="37"/>
       <c r="E103" s="37"/>
@@ -10244,7 +10247,7 @@
       </c>
       <c r="E104" s="38"/>
       <c r="F104" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -10262,7 +10265,7 @@
       </c>
       <c r="E105" s="38"/>
       <c r="F105" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -10280,7 +10283,7 @@
       </c>
       <c r="E106" s="38"/>
       <c r="F106" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -10298,7 +10301,7 @@
       </c>
       <c r="E107" s="38"/>
       <c r="F107" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="30">
@@ -10312,11 +10315,11 @@
         <v>136</v>
       </c>
       <c r="D108" s="38" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E108" s="38"/>
       <c r="F108" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -10334,7 +10337,7 @@
       </c>
       <c r="E109" s="38"/>
       <c r="F109" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -10352,7 +10355,7 @@
       </c>
       <c r="E110" s="38"/>
       <c r="F110" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -10370,7 +10373,7 @@
       </c>
       <c r="E111" s="38"/>
       <c r="F111" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -10388,7 +10391,7 @@
       </c>
       <c r="E112" s="38"/>
       <c r="F112" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -10396,7 +10399,7 @@
         <v>127</v>
       </c>
       <c r="B113" s="38" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C113" s="38" t="s">
         <v>129</v>
@@ -10406,7 +10409,7 @@
       </c>
       <c r="E113" s="38"/>
       <c r="F113" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -10428,10 +10431,10 @@
         <v>56</v>
       </c>
       <c r="B115" s="38" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D115" s="37"/>
       <c r="E115" s="37"/>
@@ -10452,7 +10455,7 @@
       </c>
       <c r="E116" s="38"/>
       <c r="F116" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -10470,7 +10473,7 @@
       </c>
       <c r="E117" s="38"/>
       <c r="F117" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -10488,7 +10491,7 @@
       </c>
       <c r="E118" s="38"/>
       <c r="F118" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -10506,7 +10509,7 @@
       </c>
       <c r="E119" s="38"/>
       <c r="F119" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="30">
@@ -10520,11 +10523,11 @@
         <v>136</v>
       </c>
       <c r="D120" s="38" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E120" s="38"/>
       <c r="F120" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -10542,7 +10545,7 @@
       </c>
       <c r="E121" s="38"/>
       <c r="F121" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -10560,7 +10563,7 @@
       </c>
       <c r="E122" s="38"/>
       <c r="F122" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -10578,7 +10581,7 @@
       </c>
       <c r="E123" s="38"/>
       <c r="F123" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -10596,7 +10599,7 @@
       </c>
       <c r="E124" s="38"/>
       <c r="F124" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -10604,7 +10607,7 @@
         <v>127</v>
       </c>
       <c r="B125" s="38" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C125" s="38" t="s">
         <v>129</v>
@@ -10614,7 +10617,7 @@
       </c>
       <c r="E125" s="38"/>
       <c r="F125" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -10622,7 +10625,7 @@
         <v>56</v>
       </c>
       <c r="B126" s="38" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C126" s="37" t="s">
         <v>10</v>
@@ -10636,10 +10639,10 @@
         <v>56</v>
       </c>
       <c r="B127" s="38" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C127" s="37" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D127" s="37"/>
       <c r="E127" s="37"/>
@@ -10660,7 +10663,7 @@
       </c>
       <c r="E128" s="38"/>
       <c r="F128" s="38" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -10678,7 +10681,7 @@
       </c>
       <c r="E129" s="38"/>
       <c r="F129" s="38" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -10696,7 +10699,7 @@
       </c>
       <c r="E130" s="38"/>
       <c r="F130" s="38" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -10714,7 +10717,7 @@
       </c>
       <c r="E131" s="38"/>
       <c r="F131" s="38" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -10732,7 +10735,7 @@
       </c>
       <c r="E132" s="38"/>
       <c r="F132" s="38" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -10743,14 +10746,14 @@
         <v>238</v>
       </c>
       <c r="C133" s="38" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D133" s="38" t="s">
         <v>240</v>
       </c>
       <c r="E133" s="38"/>
       <c r="F133" s="38" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -10761,14 +10764,14 @@
         <v>241</v>
       </c>
       <c r="C134" s="39" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D134" s="39" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E134" s="39"/>
       <c r="F134" s="39" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -10786,7 +10789,7 @@
       </c>
       <c r="E135" s="38"/>
       <c r="F135" s="38" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="30">
@@ -10794,7 +10797,7 @@
         <v>56</v>
       </c>
       <c r="B136" s="38" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C136" s="38" t="s">
         <v>245</v>
@@ -10804,7 +10807,7 @@
       </c>
       <c r="E136" s="38"/>
       <c r="F136" s="38" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -10826,10 +10829,10 @@
         <v>56</v>
       </c>
       <c r="B138" s="38" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C138" s="37" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D138" s="37"/>
       <c r="E138" s="37"/>
@@ -10850,7 +10853,7 @@
       </c>
       <c r="E139" s="38"/>
       <c r="F139" s="38" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -10868,7 +10871,7 @@
       </c>
       <c r="E140" s="38"/>
       <c r="F140" s="38" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -10886,7 +10889,7 @@
       </c>
       <c r="E141" s="38"/>
       <c r="F141" s="38" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -10904,7 +10907,7 @@
       </c>
       <c r="E142" s="38"/>
       <c r="F142" s="38" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -10915,14 +10918,14 @@
         <v>255</v>
       </c>
       <c r="C143" s="38" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D143" s="38" t="s">
         <v>257</v>
       </c>
       <c r="E143" s="38"/>
       <c r="F143" s="38" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -10933,14 +10936,14 @@
         <v>258</v>
       </c>
       <c r="C144" s="38" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D144" s="38" t="s">
         <v>254</v>
       </c>
       <c r="E144" s="38"/>
       <c r="F144" s="38" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -10951,14 +10954,14 @@
         <v>260</v>
       </c>
       <c r="C145" s="39" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D145" s="39" t="s">
         <v>1197</v>
-      </c>
-      <c r="D145" s="39" t="s">
-        <v>1198</v>
       </c>
       <c r="E145" s="39"/>
       <c r="F145" s="39" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="30">
@@ -10966,17 +10969,17 @@
         <v>56</v>
       </c>
       <c r="B146" s="38" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C146" s="38" t="s">
         <v>259</v>
       </c>
       <c r="D146" s="38" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E146" s="38"/>
       <c r="F146" s="38" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="45">
@@ -10984,7 +10987,7 @@
         <v>56</v>
       </c>
       <c r="B147" s="38" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C147" s="38" t="s">
         <v>261</v>
@@ -10994,7 +10997,7 @@
       </c>
       <c r="E147" s="38"/>
       <c r="F147" s="38" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="30">
@@ -11002,17 +11005,17 @@
         <v>127</v>
       </c>
       <c r="B148" s="38" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C148" s="38" t="s">
         <v>129</v>
       </c>
       <c r="D148" s="38" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E148" s="38"/>
       <c r="F148" s="38" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -11020,7 +11023,7 @@
         <v>127</v>
       </c>
       <c r="B149" s="38" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C149" s="38" t="s">
         <v>265</v>
@@ -11030,7 +11033,7 @@
       </c>
       <c r="E149" s="38"/>
       <c r="F149" s="38" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -11072,7 +11075,7 @@
         <v>14</v>
       </c>
       <c r="D152" s="38" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E152" s="38"/>
       <c r="F152" s="38"/>
@@ -11088,7 +11091,7 @@
         <v>15</v>
       </c>
       <c r="D153" s="38" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E153" s="38"/>
       <c r="F153" s="38"/>
@@ -11104,7 +11107,7 @@
         <v>269</v>
       </c>
       <c r="D154" s="38" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E154" s="38"/>
       <c r="F154" s="38"/>
@@ -11156,7 +11159,7 @@
         <v>56</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C158" s="36" t="s">
         <v>19</v>
@@ -11217,7 +11220,7 @@
         <v>273</v>
       </c>
       <c r="C162" s="38" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D162" s="38">
         <v>76.2</v>
@@ -11249,10 +11252,10 @@
         <v>277</v>
       </c>
       <c r="C164" s="38" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D164" s="38" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E164" s="38"/>
       <c r="F164" s="38"/>
@@ -11262,7 +11265,7 @@
         <v>56</v>
       </c>
       <c r="B165" s="38" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C165" s="38" t="s">
         <v>281</v>
@@ -11287,7 +11290,7 @@
       <c r="E166" s="41"/>
       <c r="F166" s="41"/>
     </row>
-    <row r="167" spans="1:6" s="65" customFormat="1">
+    <row r="167" spans="1:6" s="64" customFormat="1">
       <c r="A167" s="40" t="s">
         <v>56</v>
       </c>
@@ -11295,7 +11298,7 @@
         <v>280</v>
       </c>
       <c r="C167" s="40" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D167" s="40" t="s">
         <v>837</v>
@@ -11343,7 +11346,7 @@
         <v>286</v>
       </c>
       <c r="C170" s="38" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D170" s="40" t="s">
         <v>918</v>
@@ -11641,7 +11644,7 @@
         <v>313</v>
       </c>
       <c r="C189" s="38" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D189" s="40" t="s">
         <v>918</v>
@@ -11952,7 +11955,7 @@
         <v>56</v>
       </c>
       <c r="B209" s="38" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C209" s="38" t="s">
         <v>289</v>
@@ -12223,10 +12226,10 @@
         <v>364</v>
       </c>
       <c r="C226" s="40" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D226" s="40" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E226" s="38"/>
       <c r="F226" s="38"/>
@@ -12242,7 +12245,7 @@
         <v>367</v>
       </c>
       <c r="D227" s="40" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E227" s="38"/>
       <c r="F227" s="38"/>
@@ -12255,7 +12258,7 @@
         <v>368</v>
       </c>
       <c r="C228" s="38" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D228" s="38">
         <v>76.16</v>
@@ -12648,7 +12651,7 @@
         <v>56</v>
       </c>
       <c r="B254" s="35" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C254" s="36" t="s">
         <v>35</v>
@@ -12805,7 +12808,7 @@
         <v>434</v>
       </c>
       <c r="C264" s="44" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D264" s="38" t="s">
         <v>436</v>
@@ -12818,13 +12821,13 @@
         <v>56</v>
       </c>
       <c r="B265" s="38" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C265" s="44" t="s">
         <v>1236</v>
       </c>
-      <c r="C265" s="44" t="s">
-        <v>1237</v>
-      </c>
       <c r="D265" s="38" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E265" s="44"/>
       <c r="F265" s="38"/>
@@ -12882,7 +12885,7 @@
         <v>56</v>
       </c>
       <c r="B269" s="38" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C269" s="44" t="s">
         <v>447</v>
@@ -13076,7 +13079,7 @@
         <v>469</v>
       </c>
       <c r="D281" s="38" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E281" s="44"/>
       <c r="F281" s="38"/>
@@ -13152,7 +13155,7 @@
       <c r="B286" s="53" t="s">
         <v>479</v>
       </c>
-      <c r="C286" s="69" t="s">
+      <c r="C286" s="68" t="s">
         <v>480</v>
       </c>
       <c r="D286" s="53" t="s">
@@ -13160,7 +13163,7 @@
       </c>
       <c r="E286" s="44"/>
       <c r="F286" s="53" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -13170,15 +13173,15 @@
       <c r="B287" s="53" t="s">
         <v>482</v>
       </c>
-      <c r="C287" s="69" t="s">
-        <v>1265</v>
+      <c r="C287" s="68" t="s">
+        <v>1264</v>
       </c>
       <c r="D287" s="53" t="s">
         <v>484</v>
       </c>
       <c r="E287" s="44"/>
       <c r="F287" s="53" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -13186,13 +13189,13 @@
         <v>56</v>
       </c>
       <c r="B288" s="53" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C288" s="69" t="s">
-        <v>1262</v>
+        <v>1258</v>
+      </c>
+      <c r="C288" s="68" t="s">
+        <v>1261</v>
       </c>
       <c r="D288" s="53" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E288" s="44"/>
       <c r="F288" s="53"/>
@@ -13202,13 +13205,13 @@
         <v>56</v>
       </c>
       <c r="B289" s="53" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C289" s="69" t="s">
         <v>1260</v>
       </c>
+      <c r="C289" s="68" t="s">
+        <v>1259</v>
+      </c>
       <c r="D289" s="53" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E289" s="44"/>
       <c r="F289" s="53"/>
@@ -13396,7 +13399,7 @@
         <v>469</v>
       </c>
       <c r="D301" s="38" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E301" s="44"/>
       <c r="F301" s="38"/>
@@ -13472,7 +13475,7 @@
       <c r="B306" s="53" t="s">
         <v>500</v>
       </c>
-      <c r="C306" s="69" t="s">
+      <c r="C306" s="68" t="s">
         <v>480</v>
       </c>
       <c r="D306" s="53" t="s">
@@ -13480,7 +13483,7 @@
       </c>
       <c r="E306" s="44"/>
       <c r="F306" s="53" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="30">
@@ -13490,7 +13493,7 @@
       <c r="B307" s="53" t="s">
         <v>501</v>
       </c>
-      <c r="C307" s="69" t="s">
+      <c r="C307" s="68" t="s">
         <v>483</v>
       </c>
       <c r="D307" s="53" t="s">
@@ -13498,7 +13501,7 @@
       </c>
       <c r="E307" s="44"/>
       <c r="F307" s="53" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -13506,13 +13509,13 @@
         <v>56</v>
       </c>
       <c r="B308" s="53" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C308" s="69" t="s">
-        <v>1260</v>
+        <v>1262</v>
+      </c>
+      <c r="C308" s="68" t="s">
+        <v>1259</v>
       </c>
       <c r="D308" s="53" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E308" s="44"/>
       <c r="F308" s="53"/>
@@ -13522,13 +13525,13 @@
         <v>56</v>
       </c>
       <c r="B309" s="53" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C309" s="69" t="s">
-        <v>1262</v>
+        <v>1263</v>
+      </c>
+      <c r="C309" s="68" t="s">
+        <v>1261</v>
       </c>
       <c r="D309" s="53" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E309" s="44"/>
       <c r="F309" s="53"/>
@@ -13710,12 +13713,12 @@
       <c r="B321" s="38">
         <v>10.5</v>
       </c>
-      <c r="C321" s="66" t="s">
+      <c r="C321" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="D321" s="67"/>
+      <c r="D321" s="66"/>
       <c r="E321" s="48"/>
-      <c r="F321" s="67"/>
+      <c r="F321" s="66"/>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="38" t="s">
@@ -13724,12 +13727,12 @@
       <c r="B322" s="38" t="s">
         <v>526</v>
       </c>
-      <c r="C322" s="68" t="s">
+      <c r="C322" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="D322" s="67"/>
+      <c r="D322" s="66"/>
       <c r="E322" s="48"/>
-      <c r="F322" s="67"/>
+      <c r="F322" s="66"/>
     </row>
     <row r="323" spans="1:6" ht="30">
       <c r="A323" s="38" t="s">
@@ -13832,7 +13835,7 @@
         <v>56</v>
       </c>
       <c r="B329" s="38" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C329" s="38" t="s">
         <v>462</v>
@@ -13848,7 +13851,7 @@
         <v>56</v>
       </c>
       <c r="B330" s="38" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C330" s="38" t="s">
         <v>464</v>
@@ -13886,7 +13889,7 @@
         <v>469</v>
       </c>
       <c r="D332" s="38" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E332" s="38"/>
       <c r="F332" s="38"/>
@@ -13960,9 +13963,9 @@
         <v>56</v>
       </c>
       <c r="B337" s="53" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C337" s="69" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C337" s="68" t="s">
         <v>480</v>
       </c>
       <c r="D337" s="53" t="s">
@@ -13970,7 +13973,7 @@
       </c>
       <c r="E337" s="38"/>
       <c r="F337" s="53" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="30">
@@ -13978,9 +13981,9 @@
         <v>56</v>
       </c>
       <c r="B338" s="53" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C338" s="69" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C338" s="68" t="s">
         <v>483</v>
       </c>
       <c r="D338" s="53" t="s">
@@ -13988,7 +13991,7 @@
       </c>
       <c r="E338" s="38"/>
       <c r="F338" s="53" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -13996,13 +13999,13 @@
         <v>56</v>
       </c>
       <c r="B339" s="53" t="s">
-        <v>1269</v>
-      </c>
-      <c r="C339" s="69" t="s">
-        <v>1260</v>
+        <v>1268</v>
+      </c>
+      <c r="C339" s="68" t="s">
+        <v>1259</v>
       </c>
       <c r="D339" s="53" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E339" s="38"/>
       <c r="F339" s="53"/>
@@ -14012,13 +14015,13 @@
         <v>56</v>
       </c>
       <c r="B340" s="53" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C340" s="69" t="s">
-        <v>1262</v>
+        <v>1269</v>
+      </c>
+      <c r="C340" s="68" t="s">
+        <v>1261</v>
       </c>
       <c r="D340" s="53" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E340" s="38"/>
       <c r="F340" s="53"/>
@@ -14028,7 +14031,7 @@
         <v>56</v>
       </c>
       <c r="B341" s="35" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C341" s="49" t="s">
         <v>40</v>
@@ -14080,7 +14083,7 @@
       </c>
       <c r="E344" s="44"/>
       <c r="F344" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -14098,7 +14101,7 @@
       </c>
       <c r="E345" s="44"/>
       <c r="F345" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -14109,14 +14112,14 @@
         <v>548</v>
       </c>
       <c r="C346" s="44" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D346" s="38">
         <v>78.099999999999994</v>
       </c>
       <c r="E346" s="44"/>
       <c r="F346" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -14148,7 +14151,7 @@
       </c>
       <c r="E348" s="44"/>
       <c r="F348" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -14166,7 +14169,7 @@
       </c>
       <c r="E349" s="44"/>
       <c r="F349" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -14184,7 +14187,7 @@
       </c>
       <c r="E350" s="38"/>
       <c r="F350" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -14202,7 +14205,7 @@
       </c>
       <c r="E351" s="44"/>
       <c r="F351" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -14234,7 +14237,7 @@
       </c>
       <c r="E353" s="44"/>
       <c r="F353" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -14252,7 +14255,7 @@
       </c>
       <c r="E354" s="44"/>
       <c r="F354" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -14263,14 +14266,14 @@
         <v>571</v>
       </c>
       <c r="C355" s="44" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D355" s="38" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E355" s="44"/>
       <c r="F355" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -14288,7 +14291,7 @@
       </c>
       <c r="E356" s="44"/>
       <c r="F356" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -14306,7 +14309,7 @@
       </c>
       <c r="E357" s="44"/>
       <c r="F357" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -14338,7 +14341,7 @@
       </c>
       <c r="E359" s="44"/>
       <c r="F359" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="30">
@@ -14352,11 +14355,11 @@
         <v>586</v>
       </c>
       <c r="D360" s="40" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E360" s="44"/>
       <c r="F360" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="361" spans="1:6" ht="30">
@@ -14374,7 +14377,7 @@
       </c>
       <c r="E361" s="44"/>
       <c r="F361" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -14392,7 +14395,7 @@
       </c>
       <c r="E362" s="44"/>
       <c r="F362" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -14424,7 +14427,7 @@
       </c>
       <c r="E364" s="38"/>
       <c r="F364" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -14438,11 +14441,11 @@
         <v>600</v>
       </c>
       <c r="D365" s="40" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E365" s="38"/>
       <c r="F365" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -14474,7 +14477,7 @@
       </c>
       <c r="E367" s="44"/>
       <c r="F367" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -14488,11 +14491,11 @@
         <v>605</v>
       </c>
       <c r="D368" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E368" s="44"/>
       <c r="F368" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -14510,7 +14513,7 @@
       </c>
       <c r="E369" s="44"/>
       <c r="F369" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -14524,11 +14527,11 @@
         <v>609</v>
       </c>
       <c r="D370" s="38" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E370" s="44"/>
       <c r="F370" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -14542,11 +14545,11 @@
         <v>611</v>
       </c>
       <c r="D371" s="38" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E371" s="38"/>
       <c r="F371" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -14592,7 +14595,7 @@
       </c>
       <c r="E374" s="44"/>
       <c r="F374" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -14610,7 +14613,7 @@
       </c>
       <c r="E375" s="44"/>
       <c r="F375" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -14628,7 +14631,7 @@
       </c>
       <c r="E376" s="44"/>
       <c r="F376" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -14674,7 +14677,7 @@
       </c>
       <c r="E379" s="44"/>
       <c r="F379" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -14692,7 +14695,7 @@
       </c>
       <c r="E380" s="44"/>
       <c r="F380" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="381" spans="1:6" ht="30">
@@ -14710,7 +14713,7 @@
       </c>
       <c r="E381" s="44"/>
       <c r="F381" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="382" spans="1:6" ht="30">
@@ -14728,7 +14731,7 @@
       </c>
       <c r="E382" s="44"/>
       <c r="F382" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -14746,7 +14749,7 @@
       </c>
       <c r="E383" s="44"/>
       <c r="F383" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="384" spans="1:6" ht="30">
@@ -14764,7 +14767,7 @@
       </c>
       <c r="E384" s="44"/>
       <c r="F384" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -14796,7 +14799,7 @@
       </c>
       <c r="E386" s="44"/>
       <c r="F386" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -14810,11 +14813,11 @@
         <v>600</v>
       </c>
       <c r="D387" s="40" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E387" s="38"/>
       <c r="F387" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -14846,7 +14849,7 @@
       </c>
       <c r="E389" s="44"/>
       <c r="F389" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -14860,11 +14863,11 @@
         <v>640</v>
       </c>
       <c r="D390" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E390" s="44"/>
       <c r="F390" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -14882,7 +14885,7 @@
       </c>
       <c r="E391" s="44"/>
       <c r="F391" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -14896,11 +14899,11 @@
         <v>609</v>
       </c>
       <c r="D392" s="38" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E392" s="38"/>
       <c r="F392" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -14914,11 +14917,11 @@
         <v>611</v>
       </c>
       <c r="D393" s="38" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E393" s="38"/>
       <c r="F393" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -14964,7 +14967,7 @@
       </c>
       <c r="E396" s="44"/>
       <c r="F396" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -14982,7 +14985,7 @@
       </c>
       <c r="E397" s="38"/>
       <c r="F397" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -15000,7 +15003,7 @@
       </c>
       <c r="E398" s="44"/>
       <c r="F398" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -15042,11 +15045,11 @@
         <v>654</v>
       </c>
       <c r="D401" s="38" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E401" s="44"/>
       <c r="F401" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -15064,7 +15067,7 @@
       </c>
       <c r="E402" s="44"/>
       <c r="F402" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -15082,7 +15085,7 @@
       </c>
       <c r="E403" s="44"/>
       <c r="F403" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="404" spans="1:6" ht="30">
@@ -15100,7 +15103,7 @@
       </c>
       <c r="E404" s="44"/>
       <c r="F404" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -15118,7 +15121,7 @@
       </c>
       <c r="E405" s="44"/>
       <c r="F405" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="406" spans="1:6" ht="30">
@@ -15136,7 +15139,7 @@
       </c>
       <c r="E406" s="44"/>
       <c r="F406" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -15168,7 +15171,7 @@
       </c>
       <c r="E408" s="44"/>
       <c r="F408" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -15182,11 +15185,11 @@
         <v>600</v>
       </c>
       <c r="D409" s="40" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E409" s="38"/>
       <c r="F409" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -15218,7 +15221,7 @@
       </c>
       <c r="E411" s="44"/>
       <c r="F411" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -15232,11 +15235,11 @@
         <v>640</v>
       </c>
       <c r="D412" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E412" s="44"/>
       <c r="F412" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -15254,7 +15257,7 @@
       </c>
       <c r="E413" s="44"/>
       <c r="F413" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -15268,11 +15271,11 @@
         <v>609</v>
       </c>
       <c r="D414" s="38" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E414" s="38"/>
       <c r="F414" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -15286,11 +15289,11 @@
         <v>611</v>
       </c>
       <c r="D415" s="38" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E415" s="38"/>
       <c r="F415" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -15336,7 +15339,7 @@
       </c>
       <c r="E418" s="44"/>
       <c r="F418" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -15354,7 +15357,7 @@
       </c>
       <c r="E419" s="44"/>
       <c r="F419" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -15372,7 +15375,7 @@
       </c>
       <c r="E420" s="44"/>
       <c r="F420" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -15418,7 +15421,7 @@
       </c>
       <c r="E423" s="38"/>
       <c r="F423" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -15436,7 +15439,7 @@
       </c>
       <c r="E424" s="44"/>
       <c r="F424" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -15454,7 +15457,7 @@
       </c>
       <c r="E425" s="44"/>
       <c r="F425" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="426" spans="1:6">
@@ -15472,7 +15475,7 @@
       </c>
       <c r="E426" s="38"/>
       <c r="F426" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -15497,14 +15500,14 @@
         <v>690</v>
       </c>
       <c r="C428" s="53" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D428" s="38" t="s">
         <v>692</v>
       </c>
       <c r="E428" s="38"/>
       <c r="F428" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -15515,14 +15518,14 @@
         <v>693</v>
       </c>
       <c r="C429" s="53" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D429" s="40" t="s">
         <v>695</v>
       </c>
       <c r="E429" s="38"/>
       <c r="F429" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -15540,7 +15543,7 @@
       </c>
       <c r="E430" s="38"/>
       <c r="F430" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -15572,7 +15575,7 @@
       </c>
       <c r="E432" s="44"/>
       <c r="F432" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -15590,7 +15593,7 @@
       </c>
       <c r="E433" s="44"/>
       <c r="F433" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -15608,7 +15611,7 @@
       </c>
       <c r="E434" s="44"/>
       <c r="F434" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -15626,7 +15629,7 @@
       </c>
       <c r="E435" s="38"/>
       <c r="F435" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -15644,7 +15647,7 @@
       </c>
       <c r="E436" s="44"/>
       <c r="F436" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="437" spans="1:6" ht="30">
@@ -15662,7 +15665,7 @@
       </c>
       <c r="E437" s="44"/>
       <c r="F437" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -15694,7 +15697,7 @@
       </c>
       <c r="E439" s="44"/>
       <c r="F439" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="440" spans="1:6" ht="30">
@@ -15708,11 +15711,11 @@
         <v>586</v>
       </c>
       <c r="D440" s="40" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E440" s="44"/>
       <c r="F440" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="441" spans="1:6">
@@ -15726,11 +15729,11 @@
         <v>710</v>
       </c>
       <c r="D441" s="40" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E441" s="44"/>
       <c r="F441" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="442" spans="1:6">
@@ -15748,7 +15751,7 @@
       </c>
       <c r="E442" s="44"/>
       <c r="F442" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="443" spans="1:6">
@@ -15780,7 +15783,7 @@
       </c>
       <c r="E444" s="44"/>
       <c r="F444" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="445" spans="1:6">
@@ -15794,11 +15797,11 @@
         <v>600</v>
       </c>
       <c r="D445" s="40" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E445" s="38"/>
       <c r="F445" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="446" spans="1:6">
@@ -15809,7 +15812,7 @@
         <v>715</v>
       </c>
       <c r="C446" s="41" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D446" s="41"/>
       <c r="E446" s="41"/>
@@ -15826,11 +15829,11 @@
         <v>611</v>
       </c>
       <c r="D447" s="38" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E447" s="38"/>
       <c r="F447" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="448" spans="1:6">
@@ -15974,7 +15977,7 @@
       </c>
       <c r="E457" s="44"/>
       <c r="F457" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="458" spans="1:6">
@@ -15992,7 +15995,7 @@
       </c>
       <c r="E458" s="44"/>
       <c r="F458" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="459" spans="1:6">
@@ -16010,7 +16013,7 @@
       </c>
       <c r="E459" s="44"/>
       <c r="F459" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="460" spans="1:6">
@@ -16056,7 +16059,7 @@
       </c>
       <c r="E462" s="44"/>
       <c r="F462" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="463" spans="1:6">
@@ -16074,7 +16077,7 @@
       </c>
       <c r="E463" s="44"/>
       <c r="F463" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="464" spans="1:6">
@@ -16088,11 +16091,11 @@
         <v>736</v>
       </c>
       <c r="D464" s="38" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E464" s="38"/>
       <c r="F464" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="465" spans="1:6">
@@ -16110,7 +16113,7 @@
       </c>
       <c r="E465" s="38"/>
       <c r="F465" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="466" spans="1:6">
@@ -16121,12 +16124,12 @@
         <v>739</v>
       </c>
       <c r="C466" s="38" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D466" s="38"/>
       <c r="E466" s="38"/>
       <c r="F466" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="467" spans="1:6" ht="30">
@@ -16134,7 +16137,7 @@
         <v>56</v>
       </c>
       <c r="B467" s="38" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C467" s="38" t="s">
         <v>740</v>
@@ -16144,7 +16147,7 @@
       </c>
       <c r="E467" s="38"/>
       <c r="F467" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="468" spans="1:6">
@@ -16152,17 +16155,17 @@
         <v>56</v>
       </c>
       <c r="B468" s="38" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C468" s="38" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D468" s="38" t="s">
         <v>695</v>
       </c>
       <c r="E468" s="38"/>
       <c r="F468" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="469" spans="1:6">
@@ -16194,7 +16197,7 @@
       </c>
       <c r="E470" s="44"/>
       <c r="F470" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="471" spans="1:6">
@@ -16208,11 +16211,11 @@
         <v>600</v>
       </c>
       <c r="D471" s="40" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E471" s="38"/>
       <c r="F471" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="472" spans="1:6">
@@ -16244,7 +16247,7 @@
       </c>
       <c r="E473" s="44"/>
       <c r="F473" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="474" spans="1:6">
@@ -16262,7 +16265,7 @@
       </c>
       <c r="E474" s="44"/>
       <c r="F474" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="475" spans="1:6">
@@ -16280,7 +16283,7 @@
       </c>
       <c r="E475" s="44"/>
       <c r="F475" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="476" spans="1:6">
@@ -16294,11 +16297,11 @@
         <v>609</v>
       </c>
       <c r="D476" s="38" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E476" s="38"/>
       <c r="F476" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="477" spans="1:6">
@@ -16306,17 +16309,17 @@
         <v>56</v>
       </c>
       <c r="B477" s="38" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C477" s="38" t="s">
         <v>611</v>
       </c>
       <c r="D477" s="38" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E477" s="38"/>
       <c r="F477" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
   </sheetData>
@@ -16378,7 +16381,7 @@
         <v>59</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>758</v>
@@ -16397,7 +16400,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>760</v>
@@ -16416,7 +16419,7 @@
         <v>65</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>761</v>
@@ -16435,7 +16438,7 @@
         <v>68</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>762</v>
@@ -16454,7 +16457,7 @@
         <v>765</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>766</v>
@@ -17839,7 +17842,7 @@
         <v>120</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>759</v>
@@ -18252,7 +18255,7 @@
         <v>266</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>823</v>
@@ -18271,13 +18274,13 @@
         <v>257</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>824</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
@@ -18290,13 +18293,13 @@
         <v>254</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>825</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -18309,7 +18312,7 @@
         <v>262</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>826</v>
@@ -18325,16 +18328,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="32" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B43" s="32" t="s">
         <v>782</v>
       </c>
       <c r="C43" s="32" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D43" s="32" t="s">
         <v>1132</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>1133</v>
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="32" t="s">
@@ -18344,16 +18347,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="32" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B44" s="32" t="s">
         <v>782</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="32" t="s">
@@ -18363,16 +18366,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="32" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B45" s="32" t="s">
         <v>782</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="E45" s="32"/>
       <c r="F45" s="32" t="s">
@@ -18382,16 +18385,16 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="32" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B46" s="32" t="s">
         <v>782</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="32" t="s">
@@ -18401,16 +18404,16 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="32" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B47" s="32" t="s">
         <v>782</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="32" t="s">
@@ -18420,16 +18423,16 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="32" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B48" s="32" t="s">
         <v>782</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="32" t="s">
@@ -18439,16 +18442,16 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="32" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B49" s="32" t="s">
         <v>782</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="32" t="s">
@@ -18458,16 +18461,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="32" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B50" s="32" t="s">
         <v>782</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E50" s="32"/>
       <c r="F50" s="32" t="s">
@@ -18477,16 +18480,16 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="32" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B51" s="32" t="s">
         <v>782</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="32" t="s">
@@ -18496,16 +18499,16 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="32" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B52" s="32" t="s">
         <v>808</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="32" t="s">
@@ -18515,16 +18518,16 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="32" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B53" s="32" t="s">
         <v>808</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E53" s="32"/>
       <c r="F53" s="32" t="s">
@@ -18534,16 +18537,16 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="32" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>816</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E54" s="32"/>
       <c r="F54" s="32" t="s">
@@ -18553,16 +18556,16 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="32" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E55" s="32"/>
       <c r="F55" s="32" t="s">
@@ -18902,7 +18905,7 @@
         <v>832</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="30" t="s">
@@ -19140,16 +19143,16 @@
     </row>
     <row r="16" spans="1:256" ht="31.5" customHeight="1">
       <c r="A16" s="31" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>829</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30" t="s">
@@ -19159,16 +19162,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1">
       <c r="A17" s="31" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>829</v>
       </c>
       <c r="C17" s="31" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D17" s="31" t="s">
         <v>1063</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>1064</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30" t="s">
@@ -19187,7 +19190,7 @@
         <v>863</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30" t="s">
@@ -19680,7 +19683,7 @@
         <v>934</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F44" s="30"/>
       <c r="G44" s="30"/>
@@ -19762,15 +19765,15 @@
       <c r="B49" s="30" t="s">
         <v>829</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="61" t="s">
         <v>949</v>
       </c>
-      <c r="D49" s="62" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="63"/>
+      <c r="D49" s="61" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
       <c r="H49" s="54"/>
       <c r="I49" s="54"/>
       <c r="J49" s="54"/>
@@ -20023,20 +20026,20 @@
     </row>
     <row r="50" spans="1:256">
       <c r="A50" s="31" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B50" s="30" t="s">
         <v>829</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="64"/>
+      <c r="G50" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -20347,7 +20350,7 @@
         <v>415</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>950</v>
@@ -20366,7 +20369,7 @@
         <v>418</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>952</v>
@@ -20385,7 +20388,7 @@
         <v>421</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>954</v>
@@ -20404,7 +20407,7 @@
         <v>436</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>956</v>
@@ -20423,7 +20426,7 @@
         <v>424</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>958</v>
@@ -20442,7 +20445,7 @@
         <v>427</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>960</v>
@@ -20461,7 +20464,7 @@
         <v>430</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>962</v>
@@ -20480,7 +20483,7 @@
         <v>433</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>964</v>
@@ -20499,7 +20502,7 @@
         <v>439</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>966</v>
@@ -20518,7 +20521,7 @@
         <v>968</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>969</v>
@@ -20537,7 +20540,7 @@
         <v>442</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>971</v>
@@ -20556,7 +20559,7 @@
         <v>445</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>973</v>
@@ -20564,7 +20567,7 @@
       <c r="D13" s="5" t="s">
         <v>974</v>
       </c>
-      <c r="E13" s="59"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="5" t="s">
         <v>759</v>
       </c>
@@ -20577,7 +20580,7 @@
         <v>448</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>976</v>
@@ -20596,7 +20599,7 @@
         <v>481</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>978</v>
@@ -20619,7 +20622,7 @@
         <v>472</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>982</v>
@@ -20638,7 +20641,7 @@
         <v>484</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>984</v>
@@ -20661,13 +20664,13 @@
         <v>511</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>988</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
@@ -20680,7 +20683,7 @@
         <v>514</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>989</v>
@@ -20699,7 +20702,7 @@
         <v>517</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>990</v>
@@ -20718,7 +20721,7 @@
         <v>520</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>992</v>
@@ -20737,7 +20740,7 @@
         <v>525</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>994</v>
@@ -20756,7 +20759,7 @@
         <v>467</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>996</v>
@@ -20770,16 +20773,16 @@
     </row>
     <row r="24" spans="1:7" ht="31.5">
       <c r="A24" s="32" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B24" s="32" t="s">
         <v>1111</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="C24" s="32" t="s">
         <v>1112</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="D24" s="32" t="s">
         <v>1113</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>1114</v>
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
@@ -20787,16 +20790,16 @@
     </row>
     <row r="25" spans="1:7" ht="47.25">
       <c r="A25" s="32" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C25" s="32" t="s">
         <v>1115</v>
       </c>
-      <c r="B25" s="32" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>1116</v>
-      </c>
       <c r="D25" s="32" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
@@ -20804,16 +20807,16 @@
     </row>
     <row r="26" spans="1:7" ht="31.5">
       <c r="A26" s="32" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C26" s="32" t="s">
         <v>1117</v>
       </c>
-      <c r="B26" s="32" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C26" s="32" t="s">
+      <c r="D26" s="32" t="s">
         <v>1118</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>1119</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
@@ -20821,16 +20824,16 @@
     </row>
     <row r="27" spans="1:7" ht="47.25">
       <c r="A27" s="32" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C27" s="32" t="s">
         <v>1120</v>
       </c>
-      <c r="B27" s="32" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C27" s="32" t="s">
+      <c r="D27" s="32" t="s">
         <v>1121</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>1122</v>
       </c>
       <c r="E27" s="32"/>
       <c r="F27" s="32"/>
@@ -20838,16 +20841,16 @@
     </row>
     <row r="28" spans="1:7" ht="47.25">
       <c r="A28" s="32" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C28" s="32" t="s">
         <v>1123</v>
       </c>
-      <c r="B28" s="32" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C28" s="32" t="s">
+      <c r="D28" s="32" t="s">
         <v>1124</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>1125</v>
       </c>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
@@ -20855,16 +20858,16 @@
     </row>
     <row r="29" spans="1:7" ht="31.5">
       <c r="A29" s="32" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C29" s="32" t="s">
         <v>1126</v>
       </c>
-      <c r="B29" s="32" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C29" s="32" t="s">
+      <c r="D29" s="32" t="s">
         <v>1127</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>1128</v>
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
@@ -20872,16 +20875,16 @@
     </row>
     <row r="30" spans="1:7" ht="47.25">
       <c r="A30" s="32" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C30" s="32" t="s">
         <v>1129</v>
       </c>
-      <c r="B30" s="32" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C30" s="32" t="s">
+      <c r="D30" s="32" t="s">
         <v>1130</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>1131</v>
       </c>
       <c r="E30" s="32"/>
       <c r="F30" s="32"/>
@@ -20939,7 +20942,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="2" spans="1:256" s="58" customFormat="1">
+    <row r="2" spans="1:256" s="57" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>997</v>
       </c>
@@ -20950,262 +20953,262 @@
         <v>999</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1232</v>
-      </c>
-      <c r="E2" s="60"/>
+        <v>1231</v>
+      </c>
+      <c r="E2" s="59"/>
       <c r="F2" s="28" t="s">
         <v>759</v>
       </c>
       <c r="G2" s="28"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="57"/>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="57"/>
-      <c r="AU2" s="57"/>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="57"/>
-      <c r="BB2" s="57"/>
-      <c r="BC2" s="57"/>
-      <c r="BD2" s="57"/>
-      <c r="BE2" s="57"/>
-      <c r="BF2" s="57"/>
-      <c r="BG2" s="57"/>
-      <c r="BH2" s="57"/>
-      <c r="BI2" s="57"/>
-      <c r="BJ2" s="57"/>
-      <c r="BK2" s="57"/>
-      <c r="BL2" s="57"/>
-      <c r="BM2" s="57"/>
-      <c r="BN2" s="57"/>
-      <c r="BO2" s="57"/>
-      <c r="BP2" s="57"/>
-      <c r="BQ2" s="57"/>
-      <c r="BR2" s="57"/>
-      <c r="BS2" s="57"/>
-      <c r="BT2" s="57"/>
-      <c r="BU2" s="57"/>
-      <c r="BV2" s="57"/>
-      <c r="BW2" s="57"/>
-      <c r="BX2" s="57"/>
-      <c r="BY2" s="57"/>
-      <c r="BZ2" s="57"/>
-      <c r="CA2" s="57"/>
-      <c r="CB2" s="57"/>
-      <c r="CC2" s="57"/>
-      <c r="CD2" s="57"/>
-      <c r="CE2" s="57"/>
-      <c r="CF2" s="57"/>
-      <c r="CG2" s="57"/>
-      <c r="CH2" s="57"/>
-      <c r="CI2" s="57"/>
-      <c r="CJ2" s="57"/>
-      <c r="CK2" s="57"/>
-      <c r="CL2" s="57"/>
-      <c r="CM2" s="57"/>
-      <c r="CN2" s="57"/>
-      <c r="CO2" s="57"/>
-      <c r="CP2" s="57"/>
-      <c r="CQ2" s="57"/>
-      <c r="CR2" s="57"/>
-      <c r="CS2" s="57"/>
-      <c r="CT2" s="57"/>
-      <c r="CU2" s="57"/>
-      <c r="CV2" s="57"/>
-      <c r="CW2" s="57"/>
-      <c r="CX2" s="57"/>
-      <c r="CY2" s="57"/>
-      <c r="CZ2" s="57"/>
-      <c r="DA2" s="57"/>
-      <c r="DB2" s="57"/>
-      <c r="DC2" s="57"/>
-      <c r="DD2" s="57"/>
-      <c r="DE2" s="57"/>
-      <c r="DF2" s="57"/>
-      <c r="DG2" s="57"/>
-      <c r="DH2" s="57"/>
-      <c r="DI2" s="57"/>
-      <c r="DJ2" s="57"/>
-      <c r="DK2" s="57"/>
-      <c r="DL2" s="57"/>
-      <c r="DM2" s="57"/>
-      <c r="DN2" s="57"/>
-      <c r="DO2" s="57"/>
-      <c r="DP2" s="57"/>
-      <c r="DQ2" s="57"/>
-      <c r="DR2" s="57"/>
-      <c r="DS2" s="57"/>
-      <c r="DT2" s="57"/>
-      <c r="DU2" s="57"/>
-      <c r="DV2" s="57"/>
-      <c r="DW2" s="57"/>
-      <c r="DX2" s="57"/>
-      <c r="DY2" s="57"/>
-      <c r="DZ2" s="57"/>
-      <c r="EA2" s="57"/>
-      <c r="EB2" s="57"/>
-      <c r="EC2" s="57"/>
-      <c r="ED2" s="57"/>
-      <c r="EE2" s="57"/>
-      <c r="EF2" s="57"/>
-      <c r="EG2" s="57"/>
-      <c r="EH2" s="57"/>
-      <c r="EI2" s="57"/>
-      <c r="EJ2" s="57"/>
-      <c r="EK2" s="57"/>
-      <c r="EL2" s="57"/>
-      <c r="EM2" s="57"/>
-      <c r="EN2" s="57"/>
-      <c r="EO2" s="57"/>
-      <c r="EP2" s="57"/>
-      <c r="EQ2" s="57"/>
-      <c r="ER2" s="57"/>
-      <c r="ES2" s="57"/>
-      <c r="ET2" s="57"/>
-      <c r="EU2" s="57"/>
-      <c r="EV2" s="57"/>
-      <c r="EW2" s="57"/>
-      <c r="EX2" s="57"/>
-      <c r="EY2" s="57"/>
-      <c r="EZ2" s="57"/>
-      <c r="FA2" s="57"/>
-      <c r="FB2" s="57"/>
-      <c r="FC2" s="57"/>
-      <c r="FD2" s="57"/>
-      <c r="FE2" s="57"/>
-      <c r="FF2" s="57"/>
-      <c r="FG2" s="57"/>
-      <c r="FH2" s="57"/>
-      <c r="FI2" s="57"/>
-      <c r="FJ2" s="57"/>
-      <c r="FK2" s="57"/>
-      <c r="FL2" s="57"/>
-      <c r="FM2" s="57"/>
-      <c r="FN2" s="57"/>
-      <c r="FO2" s="57"/>
-      <c r="FP2" s="57"/>
-      <c r="FQ2" s="57"/>
-      <c r="FR2" s="57"/>
-      <c r="FS2" s="57"/>
-      <c r="FT2" s="57"/>
-      <c r="FU2" s="57"/>
-      <c r="FV2" s="57"/>
-      <c r="FW2" s="57"/>
-      <c r="FX2" s="57"/>
-      <c r="FY2" s="57"/>
-      <c r="FZ2" s="57"/>
-      <c r="GA2" s="57"/>
-      <c r="GB2" s="57"/>
-      <c r="GC2" s="57"/>
-      <c r="GD2" s="57"/>
-      <c r="GE2" s="57"/>
-      <c r="GF2" s="57"/>
-      <c r="GG2" s="57"/>
-      <c r="GH2" s="57"/>
-      <c r="GI2" s="57"/>
-      <c r="GJ2" s="57"/>
-      <c r="GK2" s="57"/>
-      <c r="GL2" s="57"/>
-      <c r="GM2" s="57"/>
-      <c r="GN2" s="57"/>
-      <c r="GO2" s="57"/>
-      <c r="GP2" s="57"/>
-      <c r="GQ2" s="57"/>
-      <c r="GR2" s="57"/>
-      <c r="GS2" s="57"/>
-      <c r="GT2" s="57"/>
-      <c r="GU2" s="57"/>
-      <c r="GV2" s="57"/>
-      <c r="GW2" s="57"/>
-      <c r="GX2" s="57"/>
-      <c r="GY2" s="57"/>
-      <c r="GZ2" s="57"/>
-      <c r="HA2" s="57"/>
-      <c r="HB2" s="57"/>
-      <c r="HC2" s="57"/>
-      <c r="HD2" s="57"/>
-      <c r="HE2" s="57"/>
-      <c r="HF2" s="57"/>
-      <c r="HG2" s="57"/>
-      <c r="HH2" s="57"/>
-      <c r="HI2" s="57"/>
-      <c r="HJ2" s="57"/>
-      <c r="HK2" s="57"/>
-      <c r="HL2" s="57"/>
-      <c r="HM2" s="57"/>
-      <c r="HN2" s="57"/>
-      <c r="HO2" s="57"/>
-      <c r="HP2" s="57"/>
-      <c r="HQ2" s="57"/>
-      <c r="HR2" s="57"/>
-      <c r="HS2" s="57"/>
-      <c r="HT2" s="57"/>
-      <c r="HU2" s="57"/>
-      <c r="HV2" s="57"/>
-      <c r="HW2" s="57"/>
-      <c r="HX2" s="57"/>
-      <c r="HY2" s="57"/>
-      <c r="HZ2" s="57"/>
-      <c r="IA2" s="57"/>
-      <c r="IB2" s="57"/>
-      <c r="IC2" s="57"/>
-      <c r="ID2" s="57"/>
-      <c r="IE2" s="57"/>
-      <c r="IF2" s="57"/>
-      <c r="IG2" s="57"/>
-      <c r="IH2" s="57"/>
-      <c r="II2" s="57"/>
-      <c r="IJ2" s="57"/>
-      <c r="IK2" s="57"/>
-      <c r="IL2" s="57"/>
-      <c r="IM2" s="57"/>
-      <c r="IN2" s="57"/>
-      <c r="IO2" s="57"/>
-      <c r="IP2" s="57"/>
-      <c r="IQ2" s="57"/>
-      <c r="IR2" s="57"/>
-      <c r="IS2" s="57"/>
-      <c r="IT2" s="57"/>
-      <c r="IU2" s="57"/>
-      <c r="IV2" s="57"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="56"/>
+      <c r="AY2" s="56"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="56"/>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="56"/>
+      <c r="BD2" s="56"/>
+      <c r="BE2" s="56"/>
+      <c r="BF2" s="56"/>
+      <c r="BG2" s="56"/>
+      <c r="BH2" s="56"/>
+      <c r="BI2" s="56"/>
+      <c r="BJ2" s="56"/>
+      <c r="BK2" s="56"/>
+      <c r="BL2" s="56"/>
+      <c r="BM2" s="56"/>
+      <c r="BN2" s="56"/>
+      <c r="BO2" s="56"/>
+      <c r="BP2" s="56"/>
+      <c r="BQ2" s="56"/>
+      <c r="BR2" s="56"/>
+      <c r="BS2" s="56"/>
+      <c r="BT2" s="56"/>
+      <c r="BU2" s="56"/>
+      <c r="BV2" s="56"/>
+      <c r="BW2" s="56"/>
+      <c r="BX2" s="56"/>
+      <c r="BY2" s="56"/>
+      <c r="BZ2" s="56"/>
+      <c r="CA2" s="56"/>
+      <c r="CB2" s="56"/>
+      <c r="CC2" s="56"/>
+      <c r="CD2" s="56"/>
+      <c r="CE2" s="56"/>
+      <c r="CF2" s="56"/>
+      <c r="CG2" s="56"/>
+      <c r="CH2" s="56"/>
+      <c r="CI2" s="56"/>
+      <c r="CJ2" s="56"/>
+      <c r="CK2" s="56"/>
+      <c r="CL2" s="56"/>
+      <c r="CM2" s="56"/>
+      <c r="CN2" s="56"/>
+      <c r="CO2" s="56"/>
+      <c r="CP2" s="56"/>
+      <c r="CQ2" s="56"/>
+      <c r="CR2" s="56"/>
+      <c r="CS2" s="56"/>
+      <c r="CT2" s="56"/>
+      <c r="CU2" s="56"/>
+      <c r="CV2" s="56"/>
+      <c r="CW2" s="56"/>
+      <c r="CX2" s="56"/>
+      <c r="CY2" s="56"/>
+      <c r="CZ2" s="56"/>
+      <c r="DA2" s="56"/>
+      <c r="DB2" s="56"/>
+      <c r="DC2" s="56"/>
+      <c r="DD2" s="56"/>
+      <c r="DE2" s="56"/>
+      <c r="DF2" s="56"/>
+      <c r="DG2" s="56"/>
+      <c r="DH2" s="56"/>
+      <c r="DI2" s="56"/>
+      <c r="DJ2" s="56"/>
+      <c r="DK2" s="56"/>
+      <c r="DL2" s="56"/>
+      <c r="DM2" s="56"/>
+      <c r="DN2" s="56"/>
+      <c r="DO2" s="56"/>
+      <c r="DP2" s="56"/>
+      <c r="DQ2" s="56"/>
+      <c r="DR2" s="56"/>
+      <c r="DS2" s="56"/>
+      <c r="DT2" s="56"/>
+      <c r="DU2" s="56"/>
+      <c r="DV2" s="56"/>
+      <c r="DW2" s="56"/>
+      <c r="DX2" s="56"/>
+      <c r="DY2" s="56"/>
+      <c r="DZ2" s="56"/>
+      <c r="EA2" s="56"/>
+      <c r="EB2" s="56"/>
+      <c r="EC2" s="56"/>
+      <c r="ED2" s="56"/>
+      <c r="EE2" s="56"/>
+      <c r="EF2" s="56"/>
+      <c r="EG2" s="56"/>
+      <c r="EH2" s="56"/>
+      <c r="EI2" s="56"/>
+      <c r="EJ2" s="56"/>
+      <c r="EK2" s="56"/>
+      <c r="EL2" s="56"/>
+      <c r="EM2" s="56"/>
+      <c r="EN2" s="56"/>
+      <c r="EO2" s="56"/>
+      <c r="EP2" s="56"/>
+      <c r="EQ2" s="56"/>
+      <c r="ER2" s="56"/>
+      <c r="ES2" s="56"/>
+      <c r="ET2" s="56"/>
+      <c r="EU2" s="56"/>
+      <c r="EV2" s="56"/>
+      <c r="EW2" s="56"/>
+      <c r="EX2" s="56"/>
+      <c r="EY2" s="56"/>
+      <c r="EZ2" s="56"/>
+      <c r="FA2" s="56"/>
+      <c r="FB2" s="56"/>
+      <c r="FC2" s="56"/>
+      <c r="FD2" s="56"/>
+      <c r="FE2" s="56"/>
+      <c r="FF2" s="56"/>
+      <c r="FG2" s="56"/>
+      <c r="FH2" s="56"/>
+      <c r="FI2" s="56"/>
+      <c r="FJ2" s="56"/>
+      <c r="FK2" s="56"/>
+      <c r="FL2" s="56"/>
+      <c r="FM2" s="56"/>
+      <c r="FN2" s="56"/>
+      <c r="FO2" s="56"/>
+      <c r="FP2" s="56"/>
+      <c r="FQ2" s="56"/>
+      <c r="FR2" s="56"/>
+      <c r="FS2" s="56"/>
+      <c r="FT2" s="56"/>
+      <c r="FU2" s="56"/>
+      <c r="FV2" s="56"/>
+      <c r="FW2" s="56"/>
+      <c r="FX2" s="56"/>
+      <c r="FY2" s="56"/>
+      <c r="FZ2" s="56"/>
+      <c r="GA2" s="56"/>
+      <c r="GB2" s="56"/>
+      <c r="GC2" s="56"/>
+      <c r="GD2" s="56"/>
+      <c r="GE2" s="56"/>
+      <c r="GF2" s="56"/>
+      <c r="GG2" s="56"/>
+      <c r="GH2" s="56"/>
+      <c r="GI2" s="56"/>
+      <c r="GJ2" s="56"/>
+      <c r="GK2" s="56"/>
+      <c r="GL2" s="56"/>
+      <c r="GM2" s="56"/>
+      <c r="GN2" s="56"/>
+      <c r="GO2" s="56"/>
+      <c r="GP2" s="56"/>
+      <c r="GQ2" s="56"/>
+      <c r="GR2" s="56"/>
+      <c r="GS2" s="56"/>
+      <c r="GT2" s="56"/>
+      <c r="GU2" s="56"/>
+      <c r="GV2" s="56"/>
+      <c r="GW2" s="56"/>
+      <c r="GX2" s="56"/>
+      <c r="GY2" s="56"/>
+      <c r="GZ2" s="56"/>
+      <c r="HA2" s="56"/>
+      <c r="HB2" s="56"/>
+      <c r="HC2" s="56"/>
+      <c r="HD2" s="56"/>
+      <c r="HE2" s="56"/>
+      <c r="HF2" s="56"/>
+      <c r="HG2" s="56"/>
+      <c r="HH2" s="56"/>
+      <c r="HI2" s="56"/>
+      <c r="HJ2" s="56"/>
+      <c r="HK2" s="56"/>
+      <c r="HL2" s="56"/>
+      <c r="HM2" s="56"/>
+      <c r="HN2" s="56"/>
+      <c r="HO2" s="56"/>
+      <c r="HP2" s="56"/>
+      <c r="HQ2" s="56"/>
+      <c r="HR2" s="56"/>
+      <c r="HS2" s="56"/>
+      <c r="HT2" s="56"/>
+      <c r="HU2" s="56"/>
+      <c r="HV2" s="56"/>
+      <c r="HW2" s="56"/>
+      <c r="HX2" s="56"/>
+      <c r="HY2" s="56"/>
+      <c r="HZ2" s="56"/>
+      <c r="IA2" s="56"/>
+      <c r="IB2" s="56"/>
+      <c r="IC2" s="56"/>
+      <c r="ID2" s="56"/>
+      <c r="IE2" s="56"/>
+      <c r="IF2" s="56"/>
+      <c r="IG2" s="56"/>
+      <c r="IH2" s="56"/>
+      <c r="II2" s="56"/>
+      <c r="IJ2" s="56"/>
+      <c r="IK2" s="56"/>
+      <c r="IL2" s="56"/>
+      <c r="IM2" s="56"/>
+      <c r="IN2" s="56"/>
+      <c r="IO2" s="56"/>
+      <c r="IP2" s="56"/>
+      <c r="IQ2" s="56"/>
+      <c r="IR2" s="56"/>
+      <c r="IS2" s="56"/>
+      <c r="IT2" s="56"/>
+      <c r="IU2" s="56"/>
+      <c r="IV2" s="56"/>
     </row>
     <row r="3" spans="1:256">
       <c r="A3" s="5" t="s">
@@ -21218,9 +21221,9 @@
         <v>1001</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1233</v>
-      </c>
-      <c r="E3" s="61"/>
+        <v>1232</v>
+      </c>
+      <c r="E3" s="60"/>
       <c r="F3" s="3" t="s">
         <v>759</v>
       </c>
@@ -21237,9 +21240,9 @@
         <v>1003</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>1234</v>
-      </c>
-      <c r="E4" s="60"/>
+        <v>1233</v>
+      </c>
+      <c r="E4" s="59"/>
       <c r="F4" s="3" t="s">
         <v>759</v>
       </c>
@@ -21259,8 +21262,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:G29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -21278,25 +21281,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" s="27" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>751</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>752</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>753</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>754</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>755</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="31" t="s">
         <v>756</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="31" t="s">
         <v>757</v>
       </c>
       <c r="H1" s="26"/>
@@ -21550,546 +21553,552 @@
       <c r="IV1" s="26"/>
     </row>
     <row r="2" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>1004</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>1005</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="31" t="s">
         <v>1006</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>1007</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31" t="s">
         <v>759</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="31" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>622</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>1005</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="31" t="s">
         <v>1009</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="31" t="s">
         <v>1010</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="31" t="s">
         <v>759</v>
       </c>
-      <c r="G3" s="30"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>553</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>1005</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="31" t="s">
         <v>1011</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="31" t="s">
         <v>1012</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30" t="s">
+      <c r="E4" s="31"/>
+      <c r="F4" s="31" t="s">
         <v>759</v>
       </c>
-      <c r="G4" s="30"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:256" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="31" t="s">
         <v>556</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="31" t="s">
         <v>1005</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="31" t="s">
         <v>1013</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="31" t="s">
         <v>1014</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30" t="s">
+      <c r="E5" s="31"/>
+      <c r="F5" s="31" t="s">
         <v>759</v>
       </c>
-      <c r="G5" s="30"/>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="31" t="s">
         <v>559</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="31" t="s">
         <v>1005</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="31" t="s">
         <v>1015</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="31" t="s">
         <v>1016</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="31" t="s">
         <v>759</v>
       </c>
-      <c r="G6" s="30"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="31" t="s">
         <v>562</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="31" t="s">
         <v>1005</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="31" t="s">
         <v>1017</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="31" t="s">
         <v>1018</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>1256</v>
-      </c>
-      <c r="F7" s="30" t="s">
+      <c r="E7" s="31" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F7" s="31" t="s">
         <v>759</v>
       </c>
       <c r="G7" s="31" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:256" ht="31.5" customHeight="1">
+      <c r="A8" s="31" t="s">
+        <v>567</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="G8" s="31"/>
+    </row>
+    <row r="9" spans="1:256" ht="31.5" customHeight="1">
+      <c r="A9" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="10" spans="1:256" ht="31.5" customHeight="1">
+      <c r="A10" s="31" t="s">
+        <v>573</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="G10" s="31"/>
+    </row>
+    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1">
+      <c r="A11" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="G11" s="31"/>
+    </row>
+    <row r="12" spans="1:256" ht="33.6" customHeight="1">
+      <c r="A12" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>578</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="G12" s="31"/>
+    </row>
+    <row r="13" spans="1:256" ht="31.5" customHeight="1">
+      <c r="A13" s="31" t="s">
+        <v>582</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E13" s="69" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:256" ht="31.5" customHeight="1">
+      <c r="A14" s="31" t="s">
+        <v>591</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="15" spans="1:256" ht="31.5" customHeight="1">
+      <c r="A15" s="31" t="s">
+        <v>594</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="1:256" ht="31.5" customHeight="1">
+      <c r="A16" s="31" t="s">
+        <v>625</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A17" s="31" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A18" s="31" t="s">
+        <v>657</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="G18" s="31"/>
+    </row>
+    <row r="19" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A19" s="31" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="G19" s="31" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="8" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A8" s="30" t="s">
-        <v>567</v>
-      </c>
-      <c r="B8" s="30" t="s">
+    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
+      <c r="A20" s="31" t="s">
+        <v>692</v>
+      </c>
+      <c r="B20" s="31" t="s">
         <v>1005</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30" t="s">
+      <c r="C20" s="31" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31" t="s">
         <v>759</v>
       </c>
-      <c r="G8" s="30"/>
-    </row>
-    <row r="9" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A9" s="30" t="s">
-        <v>570</v>
-      </c>
-      <c r="B9" s="30" t="s">
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="1:7" ht="47.25" customHeight="1">
+      <c r="A21" s="31" t="s">
+        <v>695</v>
+      </c>
+      <c r="B21" s="31" t="s">
         <v>1005</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30" t="s">
+      <c r="C21" s="31" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F21" s="31" t="s">
         <v>759</v>
       </c>
-      <c r="G9" s="30"/>
-    </row>
-    <row r="10" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A10" s="30" t="s">
-        <v>573</v>
-      </c>
-      <c r="B10" s="30" t="s">
+      <c r="G21" s="31" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A22" s="31" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B22" s="31" t="s">
         <v>1005</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30" t="s">
-        <v>759</v>
-      </c>
-      <c r="G10" s="30"/>
-    </row>
-    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="B11" s="30" t="s">
+      <c r="C22" s="31" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>778</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="31.5">
+      <c r="A23" s="31" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B23" s="31" t="s">
         <v>1005</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30" t="s">
-        <v>759</v>
-      </c>
-      <c r="G11" s="30"/>
-    </row>
-    <row r="12" spans="1:256" ht="33.6" customHeight="1">
-      <c r="A12" s="30" t="s">
-        <v>579</v>
-      </c>
-      <c r="B12" s="30" t="s">
+      <c r="C23" s="31" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>605</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="31" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B24" s="31" t="s">
         <v>1005</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>578</v>
-      </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30" t="s">
-        <v>759</v>
-      </c>
-      <c r="G12" s="30"/>
-    </row>
-    <row r="13" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A13" s="30" t="s">
-        <v>582</v>
-      </c>
-      <c r="B13" s="30" t="s">
+      <c r="C24" s="31" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="31" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B25" s="31" t="s">
         <v>1005</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30" t="s">
-        <v>759</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="14" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A14" s="30" t="s">
-        <v>591</v>
-      </c>
-      <c r="B14" s="30" t="s">
+      <c r="C25" s="31" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>600</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+    </row>
+    <row r="26" spans="1:7" ht="31.5">
+      <c r="A26" s="31" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B26" s="31" t="s">
         <v>1005</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30" t="s">
-        <v>759</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="15" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A15" s="30" t="s">
-        <v>594</v>
-      </c>
-      <c r="B15" s="30" t="s">
+      <c r="C26" s="31" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="70" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B27" s="31" t="s">
         <v>1005</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30" t="s">
-        <v>759</v>
-      </c>
-      <c r="G15" s="30"/>
-    </row>
-    <row r="16" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A16" s="30" t="s">
-        <v>625</v>
-      </c>
-      <c r="B16" s="30" t="s">
+      <c r="C27" s="31" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>736</v>
+      </c>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+    </row>
+    <row r="28" spans="1:7" ht="63">
+      <c r="A28" s="69" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B28" s="69" t="s">
         <v>1005</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30" t="s">
-        <v>759</v>
-      </c>
-      <c r="G16" s="30"/>
-    </row>
-    <row r="17" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A17" s="30" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30" t="s">
-        <v>759</v>
-      </c>
-      <c r="G17" s="30"/>
-    </row>
-    <row r="18" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A18" s="30" t="s">
-        <v>657</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30" t="s">
-        <v>759</v>
-      </c>
-      <c r="G18" s="30"/>
-    </row>
-    <row r="19" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A19" s="30" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>759</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A20" s="30" t="s">
-        <v>692</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30" t="s">
-        <v>759</v>
-      </c>
-      <c r="G20" s="30"/>
-    </row>
-    <row r="21" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A21" s="30" t="s">
-        <v>695</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>1255</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>759</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A22" s="30" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>778</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="31.5">
-      <c r="A23" s="30" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>605</v>
-      </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="30" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>609</v>
-      </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="30" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>1243</v>
-      </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-    </row>
-    <row r="26" spans="1:7" ht="31.5">
-      <c r="A26" s="30" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>611</v>
-      </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="56" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>736</v>
-      </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-    </row>
-    <row r="28" spans="1:7" ht="60">
-      <c r="A28" s="70" t="s">
+      <c r="C28" s="69" t="s">
         <v>1272</v>
-      </c>
-      <c r="B28" s="70" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C28" s="70" t="s">
-        <v>1273</v>
       </c>
       <c r="D28" s="71" t="s">
         <v>586</v>
       </c>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-    </row>
-    <row r="29" spans="1:7" ht="30">
+      <c r="E28" s="69" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="31.5">
       <c r="A29" s="72" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B29" s="69" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C29" s="69" t="s">
         <v>1274</v>
       </c>
-      <c r="B29" s="70" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C29" s="73" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D29" s="74" t="s">
+      <c r="D29" s="69" t="s">
         <v>588</v>
       </c>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -22394,40 +22403,40 @@
     </row>
     <row r="2" spans="1:256">
       <c r="A2" s="7" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>1090</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>1091</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
         <v>759</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="3" spans="1:256">
       <c r="A3" s="7" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>1092</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>1093</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>778</v>
@@ -22436,19 +22445,19 @@
     </row>
     <row r="4" spans="1:256">
       <c r="A4" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>1097</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>1098</v>
-      </c>
       <c r="C4" s="6" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>1095</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>1096</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>778</v>

--- a/conformancelib/testdata/PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/PIV_ICAM_Test_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435C56A1-0497-46F0-A5EC-D66C2932CB0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064031A4-2F33-4119-B956-98B7B95A9B55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="735" windowWidth="28410" windowHeight="14550" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1650" windowWidth="28410" windowHeight="14550" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -18587,8 +18587,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:IV50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D50" sqref="A1:D50"/>
+    <sheetView showGridLines="0" topLeftCell="C35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -21262,7 +21262,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>

--- a/conformancelib/testdata/PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/PIV_ICAM_Test_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D20D8E-BF64-4382-B99F-042A61164660}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B638E9F-2ECF-48DC-875A-E1972899C292}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="16830" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="17070" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -3584,9 +3584,6 @@
     <t>Card Holder Facial Image value lengths comply with Table 13 of SP 800-73-4</t>
   </si>
   <si>
-    <t>CARD_HOLDER_UNIQUE_IDENTIFIER_OID:15</t>
-  </si>
-  <si>
     <t>8 BER_TLV</t>
   </si>
   <si>
@@ -3906,6 +3903,9 @@
   </si>
   <si>
     <t>CCC Tag 0xFE present and after any tags from 73-4.3 and 73-4.4</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
 </sst>
 </file>
@@ -4743,7 +4743,7 @@
   <sheetPr codeName="Sheet2" filterMode="1"/>
   <dimension ref="A1:F489"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -4784,10 +4784,10 @@
         <v>55</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D2" s="37"/>
       <c r="E2" s="37"/>
@@ -4798,7 +4798,7 @@
         <v>55</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C3" s="37" t="s">
         <v>0</v>
@@ -4955,7 +4955,7 @@
         <v>75</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D12" s="38" t="s">
         <v>76</v>
@@ -4973,7 +4973,7 @@
         <v>77</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D13" s="38" t="s">
         <v>78</v>
@@ -5024,7 +5024,7 @@
         <v>55</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>1</v>
@@ -5271,7 +5271,7 @@
         <v>1088</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D30" s="40" t="s">
         <v>1073</v>
@@ -5412,7 +5412,7 @@
         <v>55</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C38" s="38" t="s">
         <v>730</v>
@@ -5451,7 +5451,7 @@
         <v>111</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D40" s="38" t="s">
         <v>113</v>
@@ -5520,7 +5520,7 @@
         <v>55</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C44" s="37" t="s">
         <v>2</v>
@@ -5626,7 +5626,7 @@
         <v>1180</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E50" s="38"/>
       <c r="F50" s="38" t="s">
@@ -5728,7 +5728,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C56" s="37" t="s">
         <v>3</v>
@@ -5918,7 +5918,7 @@
         <v>55</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C67" s="37" t="s">
         <v>4</v>
@@ -6162,7 +6162,7 @@
         <v>55</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C81" s="37" t="s">
         <v>5</v>
@@ -6265,7 +6265,7 @@
         <v>170</v>
       </c>
       <c r="C87" s="62" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D87" s="38" t="s">
         <v>171</v>
@@ -6334,7 +6334,7 @@
         <v>55</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C91" s="37" t="s">
         <v>6</v>
@@ -6437,10 +6437,10 @@
         <v>182</v>
       </c>
       <c r="C97" s="38" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D97" s="38" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E97" s="38"/>
       <c r="F97" s="38" t="s">
@@ -6542,7 +6542,7 @@
         <v>55</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C103" s="37" t="s">
         <v>7</v>
@@ -6645,10 +6645,10 @@
         <v>191</v>
       </c>
       <c r="C109" s="38" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E109" s="38"/>
       <c r="F109" s="38" t="s">
@@ -6750,7 +6750,7 @@
         <v>55</v>
       </c>
       <c r="B115" s="38" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C115" s="37" t="s">
         <v>8</v>
@@ -6853,10 +6853,10 @@
         <v>200</v>
       </c>
       <c r="C121" s="62" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D121" s="38" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E121" s="38"/>
       <c r="F121" s="38" t="s">
@@ -6958,7 +6958,7 @@
         <v>55</v>
       </c>
       <c r="B127" s="38" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C127" s="37" t="s">
         <v>9</v>
@@ -7148,7 +7148,7 @@
         <v>55</v>
       </c>
       <c r="B138" s="38" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C138" s="37" t="s">
         <v>10</v>
@@ -7354,7 +7354,7 @@
         <v>119</v>
       </c>
       <c r="B150" s="38" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C150" s="37" t="s">
         <v>11</v>
@@ -7368,7 +7368,7 @@
         <v>55</v>
       </c>
       <c r="B151" s="53" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C151" s="37" t="s">
         <v>12</v>
@@ -7414,7 +7414,7 @@
         <v>55</v>
       </c>
       <c r="B154" s="53" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C154" s="38" t="s">
         <v>235</v>
@@ -7430,7 +7430,7 @@
         <v>55</v>
       </c>
       <c r="B155" s="53" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C155" s="41" t="s">
         <v>15</v>
@@ -7444,7 +7444,7 @@
         <v>55</v>
       </c>
       <c r="B156" s="53" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C156" s="41" t="s">
         <v>16</v>
@@ -7458,7 +7458,7 @@
         <v>55</v>
       </c>
       <c r="B157" s="53" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C157" s="41" t="s">
         <v>17</v>
@@ -7472,7 +7472,7 @@
         <v>55</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C158" s="36" t="s">
         <v>18</v>
@@ -7486,7 +7486,7 @@
         <v>55</v>
       </c>
       <c r="B159" s="38" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C159" s="37" t="s">
         <v>19</v>
@@ -7832,7 +7832,7 @@
         <v>55</v>
       </c>
       <c r="B179" s="38" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C179" s="42" t="s">
         <v>22</v>
@@ -8160,7 +8160,7 @@
         <v>55</v>
       </c>
       <c r="B198" s="38" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C198" s="37" t="s">
         <v>25</v>
@@ -8490,7 +8490,7 @@
         <v>55</v>
       </c>
       <c r="B217" s="38" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C217" s="42" t="s">
         <v>311</v>
@@ -9026,7 +9026,7 @@
         <v>55</v>
       </c>
       <c r="B248" s="38" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C248" s="41" t="s">
         <v>28</v>
@@ -9054,10 +9054,10 @@
         <v>55</v>
       </c>
       <c r="B250" s="38" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C250" s="43" t="s">
         <v>1236</v>
-      </c>
-      <c r="C250" s="43" t="s">
-        <v>1237</v>
       </c>
       <c r="D250" s="38" t="s">
         <v>825</v>
@@ -9072,10 +9072,10 @@
         <v>55</v>
       </c>
       <c r="B251" s="38" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C251" s="43" t="s">
         <v>1238</v>
-      </c>
-      <c r="C251" s="43" t="s">
-        <v>1239</v>
       </c>
       <c r="D251" s="38" t="s">
         <v>828</v>
@@ -9090,10 +9090,10 @@
         <v>55</v>
       </c>
       <c r="B252" s="38" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C252" s="43" t="s">
         <v>1240</v>
-      </c>
-      <c r="C252" s="43" t="s">
-        <v>1241</v>
       </c>
       <c r="D252" s="38" t="s">
         <v>831</v>
@@ -9108,10 +9108,10 @@
         <v>55</v>
       </c>
       <c r="B253" s="38" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C253" s="43" t="s">
         <v>1242</v>
-      </c>
-      <c r="C253" s="43" t="s">
-        <v>1243</v>
       </c>
       <c r="D253" s="38" t="s">
         <v>834</v>
@@ -9140,10 +9140,10 @@
         <v>55</v>
       </c>
       <c r="B255" s="38" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C255" s="38" t="s">
         <v>1244</v>
-      </c>
-      <c r="C255" s="38" t="s">
-        <v>1245</v>
       </c>
       <c r="D255" s="38" t="s">
         <v>1016</v>
@@ -9158,10 +9158,10 @@
         <v>55</v>
       </c>
       <c r="B256" s="38" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C256" s="38" t="s">
         <v>1246</v>
-      </c>
-      <c r="C256" s="38" t="s">
-        <v>1247</v>
       </c>
       <c r="D256" s="38" t="s">
         <v>1016</v>
@@ -9176,10 +9176,10 @@
         <v>55</v>
       </c>
       <c r="B257" s="38" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C257" s="38" t="s">
         <v>1248</v>
-      </c>
-      <c r="C257" s="38" t="s">
-        <v>1249</v>
       </c>
       <c r="D257" s="38" t="s">
         <v>1016</v>
@@ -9194,10 +9194,10 @@
         <v>55</v>
       </c>
       <c r="B258" s="38" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C258" s="38" t="s">
         <v>1250</v>
-      </c>
-      <c r="C258" s="38" t="s">
-        <v>1251</v>
       </c>
       <c r="D258" s="38" t="s">
         <v>1016</v>
@@ -9212,7 +9212,7 @@
         <v>55</v>
       </c>
       <c r="B259" s="38" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C259" s="37" t="s">
         <v>31</v>
@@ -9262,7 +9262,7 @@
         <v>55</v>
       </c>
       <c r="B262" s="35" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C262" s="36" t="s">
         <v>34</v>
@@ -9276,7 +9276,7 @@
         <v>55</v>
       </c>
       <c r="B263" s="38" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C263" s="37" t="s">
         <v>1</v>
@@ -9433,7 +9433,7 @@
         <v>394</v>
       </c>
       <c r="C272" s="41" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D272" s="41"/>
       <c r="E272" s="41"/>
@@ -9462,7 +9462,7 @@
         <v>55</v>
       </c>
       <c r="B274" s="38" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C274" s="43" t="s">
         <v>1142</v>
@@ -9552,7 +9552,7 @@
         <v>55</v>
       </c>
       <c r="B279" s="38" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C279" s="37" t="s">
         <v>407</v>
@@ -9724,10 +9724,10 @@
         <v>55</v>
       </c>
       <c r="B289" s="38" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C289" s="41" t="s">
         <v>1253</v>
-      </c>
-      <c r="C289" s="41" t="s">
-        <v>1254</v>
       </c>
       <c r="D289" s="41"/>
       <c r="E289" s="41"/>
@@ -9741,7 +9741,7 @@
         <v>423</v>
       </c>
       <c r="C290" s="38" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D290" s="38" t="s">
         <v>424</v>
@@ -9849,7 +9849,7 @@
         <v>434</v>
       </c>
       <c r="C296" s="38" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D296" s="38" t="s">
         <v>436</v>
@@ -9900,7 +9900,7 @@
         <v>55</v>
       </c>
       <c r="B299" s="38" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C299" s="37" t="s">
         <v>36</v>
@@ -10072,10 +10072,10 @@
         <v>55</v>
       </c>
       <c r="B309" s="38" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C309" s="41" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D309" s="41"/>
       <c r="E309" s="41"/>
@@ -10089,7 +10089,7 @@
         <v>448</v>
       </c>
       <c r="C310" s="38" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D310" s="38" t="s">
         <v>424</v>
@@ -10197,7 +10197,7 @@
         <v>454</v>
       </c>
       <c r="C316" s="38" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D316" s="38" t="s">
         <v>436</v>
@@ -10248,7 +10248,7 @@
         <v>55</v>
       </c>
       <c r="B319" s="38" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C319" s="37" t="s">
         <v>9</v>
@@ -10311,10 +10311,10 @@
         <v>461</v>
       </c>
       <c r="C323" s="38" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D323" s="38" t="s">
         <v>1257</v>
-      </c>
-      <c r="D323" s="38" t="s">
-        <v>1258</v>
       </c>
       <c r="E323" s="38"/>
       <c r="F323" s="38" t="s">
@@ -10401,7 +10401,7 @@
         <v>474</v>
       </c>
       <c r="C328" s="38" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D328" s="38" t="s">
         <v>424</v>
@@ -10434,10 +10434,10 @@
         <v>55</v>
       </c>
       <c r="B330" s="38" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C330" s="41" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D330" s="41"/>
       <c r="E330" s="47"/>
@@ -10448,10 +10448,10 @@
         <v>55</v>
       </c>
       <c r="B331" s="38" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C331" s="38" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D331" s="38" t="s">
         <v>424</v>
@@ -10466,7 +10466,7 @@
         <v>55</v>
       </c>
       <c r="B332" s="38" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C332" s="38" t="s">
         <v>426</v>
@@ -10484,7 +10484,7 @@
         <v>55</v>
       </c>
       <c r="B333" s="38" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C333" s="46" t="s">
         <v>38</v>
@@ -10620,7 +10620,7 @@
         <v>55</v>
       </c>
       <c r="B341" s="38" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C341" s="38" t="s">
         <v>420</v>
@@ -10638,7 +10638,7 @@
         <v>55</v>
       </c>
       <c r="B342" s="38" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C342" s="38" t="s">
         <v>422</v>
@@ -10659,7 +10659,7 @@
         <v>1146</v>
       </c>
       <c r="C343" s="41" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D343" s="41"/>
       <c r="E343" s="41"/>
@@ -10670,10 +10670,10 @@
         <v>55</v>
       </c>
       <c r="B344" s="38" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C344" s="38" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D344" s="38" t="s">
         <v>424</v>
@@ -10688,7 +10688,7 @@
         <v>55</v>
       </c>
       <c r="B345" s="38" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C345" s="38" t="s">
         <v>426</v>
@@ -10781,7 +10781,7 @@
         <v>488</v>
       </c>
       <c r="C350" s="38" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D350" s="38" t="s">
         <v>436</v>
@@ -10832,7 +10832,7 @@
         <v>55</v>
       </c>
       <c r="B353" s="35" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C353" s="41" t="s">
         <v>39</v>
@@ -10846,7 +10846,7 @@
         <v>55</v>
       </c>
       <c r="B354" s="38" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C354" s="41" t="s">
         <v>40</v>
@@ -11358,7 +11358,7 @@
         <v>55</v>
       </c>
       <c r="B384" s="38" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C384" s="37" t="s">
         <v>43</v>
@@ -11730,7 +11730,7 @@
         <v>55</v>
       </c>
       <c r="B406" s="38" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C406" s="37" t="s">
         <v>44</v>
@@ -12102,7 +12102,7 @@
         <v>55</v>
       </c>
       <c r="B428" s="38" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C428" s="37" t="s">
         <v>45</v>
@@ -12642,7 +12642,7 @@
         <v>55</v>
       </c>
       <c r="B460" s="38" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C460" s="37" t="s">
         <v>46</v>
@@ -12698,7 +12698,7 @@
         <v>55</v>
       </c>
       <c r="B464" s="38" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C464" s="37" t="s">
         <v>48</v>
@@ -12740,7 +12740,7 @@
         <v>55</v>
       </c>
       <c r="B467" s="38" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C467" s="37" t="s">
         <v>50</v>
@@ -13286,8 +13286,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK56"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14412,7 +14412,7 @@
         <v>711</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E5" s="51"/>
       <c r="F5" s="51" t="s">
@@ -14431,7 +14431,7 @@
         <v>712</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="E6" s="51"/>
       <c r="F6" s="51" t="s">
@@ -14643,7 +14643,7 @@
         <v>112</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>1184</v>
+        <v>1291</v>
       </c>
       <c r="F17" s="51" t="s">
         <v>697</v>
@@ -14680,7 +14680,7 @@
         <v>732</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E19" s="50"/>
       <c r="F19" s="51" t="s">
@@ -15136,7 +15136,7 @@
         <v>1058</v>
       </c>
       <c r="D43" s="63" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E43" s="33"/>
       <c r="F43" s="51" t="s">
@@ -15155,7 +15155,7 @@
         <v>1059</v>
       </c>
       <c r="D44" s="63" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E44" s="33"/>
       <c r="F44" s="51" t="s">
@@ -15174,7 +15174,7 @@
         <v>1060</v>
       </c>
       <c r="D45" s="63" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E45" s="33"/>
       <c r="F45" s="51" t="s">
@@ -15193,7 +15193,7 @@
         <v>1061</v>
       </c>
       <c r="D46" s="63" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E46" s="33"/>
       <c r="F46" s="51" t="s">
@@ -15212,7 +15212,7 @@
         <v>1062</v>
       </c>
       <c r="D47" s="63" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E47" s="33"/>
       <c r="F47" s="51" t="s">
@@ -15231,7 +15231,7 @@
         <v>1063</v>
       </c>
       <c r="D48" s="63" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E48" s="33"/>
       <c r="F48" s="51" t="s">
@@ -15250,7 +15250,7 @@
         <v>1064</v>
       </c>
       <c r="D49" s="63" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="E49" s="33"/>
       <c r="F49" s="51" t="s">
@@ -15269,7 +15269,7 @@
         <v>1065</v>
       </c>
       <c r="D50" s="63" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E50" s="33"/>
       <c r="F50" s="51" t="s">
@@ -15288,7 +15288,7 @@
         <v>1066</v>
       </c>
       <c r="D51" s="63" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="E51" s="33"/>
       <c r="F51" s="51" t="s">
@@ -15307,7 +15307,7 @@
         <v>1067</v>
       </c>
       <c r="D52" s="63" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E52" s="33"/>
       <c r="F52" s="51" t="s">
@@ -15326,7 +15326,7 @@
         <v>1068</v>
       </c>
       <c r="D53" s="63" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="E53" s="33"/>
       <c r="F53" s="51" t="s">
@@ -15345,7 +15345,7 @@
         <v>1085</v>
       </c>
       <c r="D54" s="63" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="E54" s="33"/>
       <c r="F54" s="51" t="s">
@@ -15374,16 +15374,16 @@
     </row>
     <row r="56" spans="1:7" s="49" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="63" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B56" s="63" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C56" s="63" t="s">
         <v>1217</v>
       </c>
-      <c r="C56" s="63" t="s">
+      <c r="D56" s="50" t="s">
         <v>1218</v>
-      </c>
-      <c r="D56" s="50" t="s">
-        <v>1219</v>
       </c>
       <c r="E56" s="33"/>
       <c r="F56" s="51" t="s">
@@ -16331,7 +16331,7 @@
         <v>838</v>
       </c>
       <c r="D35" s="60" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E35" s="18"/>
       <c r="F35" s="18" t="s">
@@ -16873,7 +16873,7 @@
         <v>1156</v>
       </c>
       <c r="D50" s="60" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="18" t="s">
@@ -17356,13 +17356,13 @@
     </row>
     <row r="11" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="63" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B11" s="63" t="s">
         <v>1038</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>884</v>
@@ -17384,7 +17384,7 @@
         <v>902</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
@@ -17463,7 +17463,7 @@
         <v>909</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>910</v>
@@ -17602,7 +17602,7 @@
         <v>924</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
@@ -17740,7 +17740,7 @@
         <v>1057</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>697</v>
@@ -18517,10 +18517,10 @@
         <v>945</v>
       </c>
       <c r="D7" s="60" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>1289</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>1290</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>697</v>

--- a/conformancelib/testdata/PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/PIV_ICAM_Test_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B638E9F-2ECF-48DC-875A-E1972899C292}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEB3FFF-A98A-4B6B-9F73-4BF0A5490F62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="17070" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -4743,23 +4743,23 @@
   <sheetPr codeName="Sheet2" filterMode="1"/>
   <dimension ref="A1:F489"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A347" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B347" sqref="B347"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="26.75" style="39" customWidth="1"/>
+    <col min="1" max="1" width="17.8984375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="26.69921875" style="39" customWidth="1"/>
     <col min="3" max="3" width="91.5" style="20" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="29.625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="62.875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="24.09765625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="29.59765625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="62.8984375" style="20" customWidth="1"/>
     <col min="7" max="1025" width="8.5" style="28" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>51</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
         <v>55</v>
       </c>
@@ -4793,7 +4793,7 @@
       <c r="E2" s="37"/>
       <c r="F2" s="37"/>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="56" t="s">
         <v>55</v>
       </c>
@@ -4807,7 +4807,7 @@
       <c r="E3" s="37"/>
       <c r="F3" s="37"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="56" t="s">
         <v>55</v>
       </c>
@@ -4821,7 +4821,7 @@
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="56" t="s">
         <v>55</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="56" t="s">
         <v>55</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="56" t="s">
         <v>55</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="56" t="s">
         <v>55</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="56" t="s">
         <v>55</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
         <v>55</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" s="56" t="s">
         <v>55</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="56" t="s">
         <v>55</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="56" t="s">
         <v>55</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="56" t="s">
         <v>55</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="56" t="s">
         <v>55</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="56" t="s">
         <v>55</v>
       </c>
@@ -5033,7 +5033,7 @@
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="56" t="s">
         <v>55</v>
       </c>
@@ -5047,7 +5047,7 @@
       <c r="E17" s="37"/>
       <c r="F17" s="37"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="56" t="s">
         <v>55</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="56" t="s">
         <v>55</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="56" t="s">
         <v>55</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="56" t="s">
         <v>55</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="56" t="s">
         <v>55</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="56" t="s">
         <v>55</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="57" t="s">
         <v>55</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="56" t="s">
         <v>55</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="56" t="s">
         <v>55</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="57" t="s">
         <v>55</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="57" t="s">
         <v>55</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>55</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="57" t="s">
         <v>55</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="56" t="s">
         <v>55</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" s="56" t="s">
         <v>55</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="57" t="s">
         <v>55</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="57" t="s">
         <v>55</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="57" t="s">
         <v>55</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="57" t="s">
         <v>55</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="56" t="s">
         <v>55</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="56" t="s">
         <v>55</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="56" t="s">
         <v>55</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="56" t="s">
         <v>55</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" s="56" t="s">
         <v>55</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="56" t="s">
         <v>55</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="56" t="s">
         <v>119</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="38" t="s">
         <v>55</v>
       </c>
@@ -5529,7 +5529,7 @@
       <c r="E44" s="37"/>
       <c r="F44" s="37"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="38" t="s">
         <v>55</v>
       </c>
@@ -5543,7 +5543,7 @@
       <c r="E45" s="37"/>
       <c r="F45" s="37"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="38" t="s">
         <v>55</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="38" t="s">
         <v>55</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="38" t="s">
         <v>55</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="38" t="s">
         <v>55</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="38" t="s">
         <v>55</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="38" t="s">
         <v>55</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="38" t="s">
         <v>55</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="38" t="s">
         <v>55</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="38" t="s">
         <v>55</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="38" t="s">
         <v>119</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="38" t="s">
         <v>55</v>
       </c>
@@ -5737,7 +5737,7 @@
       <c r="E56" s="37"/>
       <c r="F56" s="37"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="38" t="s">
         <v>55</v>
       </c>
@@ -5751,7 +5751,7 @@
       <c r="E57" s="37"/>
       <c r="F57" s="37"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="38" t="s">
         <v>55</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="38" t="s">
         <v>55</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="38" t="s">
         <v>55</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="38" t="s">
         <v>55</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="38" t="s">
         <v>55</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="38" t="s">
         <v>55</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="38" t="s">
         <v>55</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="38" t="s">
         <v>55</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="38" t="s">
         <v>55</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="38" t="s">
         <v>55</v>
       </c>
@@ -5927,7 +5927,7 @@
       <c r="E67" s="37"/>
       <c r="F67" s="37"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="38" t="s">
         <v>55</v>
       </c>
@@ -5941,7 +5941,7 @@
       <c r="E68" s="37"/>
       <c r="F68" s="37"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="38" t="s">
         <v>55</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="38" t="s">
         <v>55</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="38" t="s">
         <v>55</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="38" t="s">
         <v>55</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="38" t="s">
         <v>55</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="38" t="s">
         <v>55</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="40" t="s">
         <v>55</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="40" t="s">
         <v>55</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="38" t="s">
         <v>55</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="38" t="s">
         <v>55</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="38" t="s">
         <v>55</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="38" t="s">
         <v>119</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="38" t="s">
         <v>55</v>
       </c>
@@ -6171,7 +6171,7 @@
       <c r="E81" s="37"/>
       <c r="F81" s="37"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="38" t="s">
         <v>55</v>
       </c>
@@ -6185,7 +6185,7 @@
       <c r="E82" s="37"/>
       <c r="F82" s="37"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="38" t="s">
         <v>55</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="38" t="s">
         <v>55</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="38" t="s">
         <v>55</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="38" t="s">
         <v>55</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="38" t="s">
         <v>55</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="38" t="s">
         <v>55</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="38" t="s">
         <v>55</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="38" t="s">
         <v>119</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="38" t="s">
         <v>55</v>
       </c>
@@ -6343,7 +6343,7 @@
       <c r="E91" s="37"/>
       <c r="F91" s="37"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="38" t="s">
         <v>55</v>
       </c>
@@ -6357,7 +6357,7 @@
       <c r="E92" s="37"/>
       <c r="F92" s="37"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="38" t="s">
         <v>55</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="38" t="s">
         <v>55</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="38" t="s">
         <v>55</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="38" t="s">
         <v>55</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="38" t="s">
         <v>55</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="38" t="s">
         <v>55</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="38" t="s">
         <v>55</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="38" t="s">
         <v>55</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="38" t="s">
         <v>55</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="38" t="s">
         <v>119</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="38" t="s">
         <v>55</v>
       </c>
@@ -6551,7 +6551,7 @@
       <c r="E103" s="37"/>
       <c r="F103" s="37"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="38" t="s">
         <v>55</v>
       </c>
@@ -6565,7 +6565,7 @@
       <c r="E104" s="37"/>
       <c r="F104" s="37"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="38" t="s">
         <v>55</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="38" t="s">
         <v>55</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="38" t="s">
         <v>55</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="38" t="s">
         <v>55</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="38" t="s">
         <v>55</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="38" t="s">
         <v>55</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="38" t="s">
         <v>55</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="38" t="s">
         <v>55</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="38" t="s">
         <v>55</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="38" t="s">
         <v>119</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="38" t="s">
         <v>55</v>
       </c>
@@ -6759,7 +6759,7 @@
       <c r="E115" s="37"/>
       <c r="F115" s="37"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="38" t="s">
         <v>55</v>
       </c>
@@ -6773,7 +6773,7 @@
       <c r="E116" s="37"/>
       <c r="F116" s="37"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="38" t="s">
         <v>55</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="38" t="s">
         <v>55</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="38" t="s">
         <v>55</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="38" t="s">
         <v>55</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="38" t="s">
         <v>55</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="38" t="s">
         <v>55</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="38" t="s">
         <v>55</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="38" t="s">
         <v>55</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="38" t="s">
         <v>55</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="38" t="s">
         <v>119</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="38" t="s">
         <v>55</v>
       </c>
@@ -6967,7 +6967,7 @@
       <c r="E127" s="37"/>
       <c r="F127" s="37"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="38" t="s">
         <v>55</v>
       </c>
@@ -6981,7 +6981,7 @@
       <c r="E128" s="37"/>
       <c r="F128" s="37"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="38" t="s">
         <v>55</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="38" t="s">
         <v>55</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="38" t="s">
         <v>55</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="38" t="s">
         <v>55</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="38" t="s">
         <v>55</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="38" t="s">
         <v>55</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="40" t="s">
         <v>55</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="38" t="s">
         <v>55</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A137" s="38" t="s">
         <v>55</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="38" t="s">
         <v>55</v>
       </c>
@@ -7157,7 +7157,7 @@
       <c r="E138" s="37"/>
       <c r="F138" s="37"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="38" t="s">
         <v>55</v>
       </c>
@@ -7171,7 +7171,7 @@
       <c r="E139" s="37"/>
       <c r="F139" s="37"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="38" t="s">
         <v>55</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="38" t="s">
         <v>55</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="38" t="s">
         <v>55</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="38" t="s">
         <v>55</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="38" t="s">
         <v>55</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="38" t="s">
         <v>55</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="40" t="s">
         <v>55</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="38" t="s">
         <v>55</v>
       </c>
@@ -7313,7 +7313,7 @@
       <c r="E147" s="38"/>
       <c r="F147" s="38"/>
     </row>
-    <row r="148" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A148" s="38" t="s">
         <v>55</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="38" t="s">
         <v>119</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="38" t="s">
         <v>119</v>
       </c>
@@ -7363,7 +7363,7 @@
       <c r="E150" s="41"/>
       <c r="F150" s="37"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="38" t="s">
         <v>55</v>
       </c>
@@ -7377,7 +7377,7 @@
       <c r="E151" s="41"/>
       <c r="F151" s="37"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="38" t="s">
         <v>55</v>
       </c>
@@ -7393,7 +7393,7 @@
       <c r="E152" s="38"/>
       <c r="F152" s="38"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="38" t="s">
         <v>55</v>
       </c>
@@ -7409,7 +7409,7 @@
       <c r="E153" s="38"/>
       <c r="F153" s="38"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="38" t="s">
         <v>55</v>
       </c>
@@ -7425,7 +7425,7 @@
       <c r="E154" s="38"/>
       <c r="F154" s="38"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="38" t="s">
         <v>55</v>
       </c>
@@ -7439,7 +7439,7 @@
       <c r="E155" s="41"/>
       <c r="F155" s="41"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="38" t="s">
         <v>55</v>
       </c>
@@ -7453,7 +7453,7 @@
       <c r="E156" s="41"/>
       <c r="F156" s="41"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="38" t="s">
         <v>55</v>
       </c>
@@ -7467,7 +7467,7 @@
       <c r="E157" s="41"/>
       <c r="F157" s="41"/>
     </row>
-    <row r="158" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="35" t="s">
         <v>55</v>
       </c>
@@ -7481,7 +7481,7 @@
       <c r="E158" s="44"/>
       <c r="F158" s="41"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="66" t="s">
         <v>55</v>
       </c>
@@ -7495,7 +7495,7 @@
       <c r="E159" s="41"/>
       <c r="F159" s="41"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="38" t="s">
         <v>55</v>
       </c>
@@ -7509,7 +7509,7 @@
       <c r="E160" s="41"/>
       <c r="F160" s="41"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="38" t="s">
         <v>55</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="38" t="s">
         <v>55</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="38" t="s">
         <v>55</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="38" t="s">
         <v>55</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="38" t="s">
         <v>55</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="38" t="s">
         <v>55</v>
       </c>
@@ -7613,7 +7613,7 @@
       <c r="E166" s="41"/>
       <c r="F166" s="41"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="38" t="s">
         <v>55</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="38" t="s">
         <v>55</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A169" s="38" t="s">
         <v>55</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="38" t="s">
         <v>55</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A171" s="38" t="s">
         <v>55</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="38" t="s">
         <v>55</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="38" t="s">
         <v>55</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A174" s="38" t="s">
         <v>55</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="38" t="s">
         <v>55</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A176" s="38" t="s">
         <v>55</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A177" s="38" t="s">
         <v>55</v>
       </c>
@@ -7809,7 +7809,7 @@
       <c r="E177" s="38"/>
       <c r="F177" s="38"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="38" t="s">
         <v>55</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="38" t="s">
         <v>55</v>
       </c>
@@ -7841,7 +7841,7 @@
       <c r="E179" s="41"/>
       <c r="F179" s="41"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="38" t="s">
         <v>55</v>
       </c>
@@ -7855,7 +7855,7 @@
       <c r="E180" s="41"/>
       <c r="F180" s="41"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="38" t="s">
         <v>55</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="38" t="s">
         <v>55</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="38" t="s">
         <v>55</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="38" t="s">
         <v>55</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="38" t="s">
         <v>55</v>
       </c>
@@ -7941,7 +7941,7 @@
       <c r="E185" s="41"/>
       <c r="F185" s="41"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="38" t="s">
         <v>55</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="38" t="s">
         <v>55</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A188" s="38" t="s">
         <v>55</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="38" t="s">
         <v>55</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A190" s="38" t="s">
         <v>55</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="38" t="s">
         <v>55</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="38" t="s">
         <v>55</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A193" s="38" t="s">
         <v>55</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="38" t="s">
         <v>55</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A195" s="38" t="s">
         <v>55</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A196" s="38" t="s">
         <v>55</v>
       </c>
@@ -8137,7 +8137,7 @@
       <c r="E196" s="38"/>
       <c r="F196" s="38"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="38" t="s">
         <v>55</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="38" t="s">
         <v>55</v>
       </c>
@@ -8169,7 +8169,7 @@
       <c r="E198" s="41"/>
       <c r="F198" s="41"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="38" t="s">
         <v>55</v>
       </c>
@@ -8183,7 +8183,7 @@
       <c r="E199" s="41"/>
       <c r="F199" s="41"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="38" t="s">
         <v>55</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="38" t="s">
         <v>55</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="38" t="s">
         <v>55</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="38" t="s">
         <v>55</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="38" t="s">
         <v>55</v>
       </c>
@@ -8269,7 +8269,7 @@
       <c r="E204" s="41"/>
       <c r="F204" s="41"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="38" t="s">
         <v>55</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="38" t="s">
         <v>55</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="38" t="s">
         <v>55</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="38" t="s">
         <v>55</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A209" s="38" t="s">
         <v>55</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="38" t="s">
         <v>55</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="38" t="s">
         <v>55</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A212" s="38" t="s">
         <v>55</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="38" t="s">
         <v>55</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A214" s="38" t="s">
         <v>55</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A215" s="38" t="s">
         <v>55</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="38" t="s">
         <v>55</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A217" s="38" t="s">
         <v>55</v>
       </c>
@@ -8499,7 +8499,7 @@
       <c r="E217" s="41"/>
       <c r="F217" s="41"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="38" t="s">
         <v>55</v>
       </c>
@@ -8513,7 +8513,7 @@
       <c r="E218" s="41"/>
       <c r="F218" s="41"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="38" t="s">
         <v>55</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="38" t="s">
         <v>55</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="38" t="s">
         <v>55</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A222" s="38" t="s">
         <v>55</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A223" s="38" t="s">
         <v>55</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="38" t="s">
         <v>55</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="38" t="s">
         <v>55</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="38" t="s">
         <v>55</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A227" s="38" t="s">
         <v>55</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="38" t="s">
         <v>55</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="38" t="s">
         <v>55</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="38" t="s">
         <v>55</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="38" t="s">
         <v>55</v>
       </c>
@@ -8743,7 +8743,7 @@
       <c r="E231" s="41"/>
       <c r="F231" s="41"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="38" t="s">
         <v>55</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="38" t="s">
         <v>55</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="38" t="s">
         <v>55</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="38" t="s">
         <v>55</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="38" t="s">
         <v>55</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="38" t="s">
         <v>55</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="38" t="s">
         <v>55</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="38" t="s">
         <v>55</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="38" t="s">
         <v>55</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="38" t="s">
         <v>55</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="38" t="s">
         <v>55</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="38" t="s">
         <v>55</v>
       </c>
@@ -8955,7 +8955,7 @@
       <c r="E243" s="41"/>
       <c r="F243" s="41"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="38" t="s">
         <v>55</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="38" t="s">
         <v>55</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="246" spans="1:6" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="56" t="s">
         <v>55</v>
       </c>
@@ -9005,7 +9005,7 @@
       <c r="E246" s="41"/>
       <c r="F246" s="41"/>
     </row>
-    <row r="247" spans="1:6" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="56" t="s">
         <v>55</v>
       </c>
@@ -9021,7 +9021,7 @@
       <c r="E247" s="38"/>
       <c r="F247" s="38"/>
     </row>
-    <row r="248" spans="1:6" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="56" t="s">
         <v>55</v>
       </c>
@@ -9035,7 +9035,7 @@
       <c r="E248" s="41"/>
       <c r="F248" s="41"/>
     </row>
-    <row r="249" spans="1:6" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="56" t="s">
         <v>55</v>
       </c>
@@ -9049,7 +9049,7 @@
       <c r="E249" s="41"/>
       <c r="F249" s="41"/>
     </row>
-    <row r="250" spans="1:6" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="56" t="s">
         <v>55</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="251" spans="1:6" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="56" t="s">
         <v>55</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="252" spans="1:6" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="56" t="s">
         <v>55</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="253" spans="1:6" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="56" t="s">
         <v>55</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="254" spans="1:6" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="56" t="s">
         <v>55</v>
       </c>
@@ -9135,7 +9135,7 @@
       <c r="E254" s="59"/>
       <c r="F254" s="59"/>
     </row>
-    <row r="255" spans="1:6" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="56" t="s">
         <v>55</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="256" spans="1:6" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="56" t="s">
         <v>55</v>
       </c>
@@ -9171,7 +9171,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="257" spans="1:6" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="56" t="s">
         <v>55</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="258" spans="1:6" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="56" t="s">
         <v>55</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="259" spans="1:6" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="56" t="s">
         <v>55</v>
       </c>
@@ -9221,7 +9221,7 @@
       <c r="E259" s="41"/>
       <c r="F259" s="41"/>
     </row>
-    <row r="260" spans="1:6" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="56" t="s">
         <v>55</v>
       </c>
@@ -9239,7 +9239,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="261" spans="1:6" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="56" t="s">
         <v>55</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="67" t="s">
         <v>55</v>
       </c>
@@ -9271,7 +9271,7 @@
       <c r="E262" s="44"/>
       <c r="F262" s="41"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="38" t="s">
         <v>55</v>
       </c>
@@ -9285,7 +9285,7 @@
       <c r="E263" s="41"/>
       <c r="F263" s="41"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="38" t="s">
         <v>55</v>
       </c>
@@ -9299,7 +9299,7 @@
       <c r="E264" s="41"/>
       <c r="F264" s="41"/>
     </row>
-    <row r="265" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A265" s="38" t="s">
         <v>55</v>
       </c>
@@ -9317,7 +9317,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="38" t="s">
         <v>55</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="38" t="s">
         <v>55</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A268" s="38" t="s">
         <v>55</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="38" t="s">
         <v>55</v>
       </c>
@@ -9389,7 +9389,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="38" t="s">
         <v>55</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A271" s="38" t="s">
         <v>55</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="272" spans="1:6" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="56" t="s">
         <v>55</v>
       </c>
@@ -9439,7 +9439,7 @@
       <c r="E272" s="41"/>
       <c r="F272" s="41"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="38" t="s">
         <v>55</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A274" s="38" t="s">
         <v>55</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A275" s="38" t="s">
         <v>55</v>
       </c>
@@ -9493,7 +9493,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A276" s="38" t="s">
         <v>55</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A277" s="38" t="s">
         <v>55</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="38" t="s">
         <v>55</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="38" t="s">
         <v>55</v>
       </c>
@@ -9561,7 +9561,7 @@
       <c r="E279" s="41"/>
       <c r="F279" s="41"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="38" t="s">
         <v>55</v>
       </c>
@@ -9575,7 +9575,7 @@
       <c r="E280" s="41"/>
       <c r="F280" s="41"/>
     </row>
-    <row r="281" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A281" s="38" t="s">
         <v>55</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="38" t="s">
         <v>55</v>
       </c>
@@ -9611,7 +9611,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="38" t="s">
         <v>55</v>
       </c>
@@ -9629,7 +9629,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A284" s="38" t="s">
         <v>55</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="38" t="s">
         <v>55</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="38" t="s">
         <v>55</v>
       </c>
@@ -9683,7 +9683,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="38" t="s">
         <v>55</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A288" s="38" t="s">
         <v>55</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="289" spans="1:6" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="56" t="s">
         <v>55</v>
       </c>
@@ -9733,7 +9733,7 @@
       <c r="E289" s="41"/>
       <c r="F289" s="41"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="38" t="s">
         <v>55</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A291" s="38" t="s">
         <v>55</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A292" s="38" t="s">
         <v>55</v>
       </c>
@@ -9787,7 +9787,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A293" s="38" t="s">
         <v>55</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A294" s="38" t="s">
         <v>55</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A295" s="38" t="s">
         <v>55</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="38" t="s">
         <v>55</v>
       </c>
@@ -9859,7 +9859,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="38" t="s">
         <v>55</v>
       </c>
@@ -9877,7 +9877,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="38" t="s">
         <v>55</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="38" t="s">
         <v>55</v>
       </c>
@@ -9909,7 +9909,7 @@
       <c r="E299" s="41"/>
       <c r="F299" s="41"/>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="38" t="s">
         <v>55</v>
       </c>
@@ -9923,7 +9923,7 @@
       <c r="E300" s="41"/>
       <c r="F300" s="41"/>
     </row>
-    <row r="301" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A301" s="38" t="s">
         <v>55</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="38" t="s">
         <v>55</v>
       </c>
@@ -9959,7 +9959,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="38" t="s">
         <v>55</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A304" s="38" t="s">
         <v>55</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="38" t="s">
         <v>55</v>
       </c>
@@ -10013,7 +10013,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="38" t="s">
         <v>55</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="38" t="s">
         <v>55</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A308" s="38" t="s">
         <v>55</v>
       </c>
@@ -10067,7 +10067,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="309" spans="1:6" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="56" t="s">
         <v>55</v>
       </c>
@@ -10081,7 +10081,7 @@
       <c r="E309" s="41"/>
       <c r="F309" s="41"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="38" t="s">
         <v>55</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A311" s="38" t="s">
         <v>55</v>
       </c>
@@ -10117,7 +10117,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A312" s="38" t="s">
         <v>55</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A313" s="38" t="s">
         <v>55</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A314" s="38" t="s">
         <v>55</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A315" s="38" t="s">
         <v>55</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A316" s="38" t="s">
         <v>55</v>
       </c>
@@ -10207,7 +10207,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="38" t="s">
         <v>55</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="38" t="s">
         <v>55</v>
       </c>
@@ -10243,7 +10243,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="38" t="s">
         <v>55</v>
       </c>
@@ -10257,7 +10257,7 @@
       <c r="E319" s="41"/>
       <c r="F319" s="41"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="38" t="s">
         <v>55</v>
       </c>
@@ -10271,7 +10271,7 @@
       <c r="E320" s="41"/>
       <c r="F320" s="41"/>
     </row>
-    <row r="321" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A321" s="38" t="s">
         <v>55</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="38" t="s">
         <v>55</v>
       </c>
@@ -10303,7 +10303,7 @@
       <c r="E322" s="41"/>
       <c r="F322" s="41"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="38" t="s">
         <v>55</v>
       </c>
@@ -10321,7 +10321,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="38" t="s">
         <v>55</v>
       </c>
@@ -10339,7 +10339,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="38" t="s">
         <v>55</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A326" s="38" t="s">
         <v>55</v>
       </c>
@@ -10375,7 +10375,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="38" t="s">
         <v>55</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="38" t="s">
         <v>55</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A329" s="38" t="s">
         <v>55</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="38" t="s">
         <v>55</v>
       </c>
@@ -10443,7 +10443,7 @@
       <c r="E330" s="47"/>
       <c r="F330" s="47"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="38" t="s">
         <v>55</v>
       </c>
@@ -10461,7 +10461,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A332" s="38" t="s">
         <v>55</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="38" t="s">
         <v>55</v>
       </c>
@@ -10493,7 +10493,7 @@
       <c r="E333" s="47"/>
       <c r="F333" s="47"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="38" t="s">
         <v>55</v>
       </c>
@@ -10507,7 +10507,7 @@
       <c r="E334" s="47"/>
       <c r="F334" s="47"/>
     </row>
-    <row r="335" spans="1:6" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A335" s="56" t="s">
         <v>55</v>
       </c>
@@ -10525,7 +10525,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="336" spans="1:6" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A336" s="56" t="s">
         <v>55</v>
       </c>
@@ -10543,7 +10543,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="337" spans="1:6" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A337" s="56" t="s">
         <v>55</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="338" spans="1:6" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A338" s="56" t="s">
         <v>55</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="339" spans="1:6" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A339" s="56" t="s">
         <v>55</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="340" spans="1:6" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A340" s="56" t="s">
         <v>55</v>
       </c>
@@ -10615,7 +10615,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="341" spans="1:6" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A341" s="56" t="s">
         <v>55</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="342" spans="1:6" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A342" s="56" t="s">
         <v>55</v>
       </c>
@@ -10651,7 +10651,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="343" spans="1:6" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A343" s="56" t="s">
         <v>55</v>
       </c>
@@ -10665,7 +10665,7 @@
       <c r="E343" s="41"/>
       <c r="F343" s="41"/>
     </row>
-    <row r="344" spans="1:6" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A344" s="56" t="s">
         <v>55</v>
       </c>
@@ -10683,7 +10683,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="345" spans="1:6" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A345" s="56" t="s">
         <v>55</v>
       </c>
@@ -10701,7 +10701,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="346" spans="1:6" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A346" s="56" t="s">
         <v>55</v>
       </c>
@@ -10719,7 +10719,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="347" spans="1:6" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A347" s="56" t="s">
         <v>55</v>
       </c>
@@ -10737,7 +10737,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="348" spans="1:6" s="61" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" s="61" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A348" s="56" t="s">
         <v>55</v>
       </c>
@@ -10755,7 +10755,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="349" spans="1:6" s="61" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" s="61" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A349" s="56" t="s">
         <v>55</v>
       </c>
@@ -10773,7 +10773,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="350" spans="1:6" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A350" s="56" t="s">
         <v>55</v>
       </c>
@@ -10791,7 +10791,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="351" spans="1:6" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A351" s="56" t="s">
         <v>55</v>
       </c>
@@ -10809,7 +10809,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="38" t="s">
         <v>55</v>
       </c>
@@ -10827,7 +10827,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A353" s="67" t="s">
         <v>55</v>
       </c>
@@ -10841,7 +10841,7 @@
       <c r="E353" s="41"/>
       <c r="F353" s="41"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="38" t="s">
         <v>55</v>
       </c>
@@ -10855,7 +10855,7 @@
       <c r="E354" s="41"/>
       <c r="F354" s="41"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="38" t="s">
         <v>55</v>
       </c>
@@ -10869,7 +10869,7 @@
       <c r="E355" s="41"/>
       <c r="F355" s="41"/>
     </row>
-    <row r="356" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A356" s="38" t="s">
         <v>55</v>
       </c>
@@ -10887,7 +10887,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="38" t="s">
         <v>55</v>
       </c>
@@ -10905,7 +10905,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="38" t="s">
         <v>55</v>
       </c>
@@ -10923,7 +10923,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" s="38" t="s">
         <v>55</v>
       </c>
@@ -10937,7 +10937,7 @@
       <c r="E359" s="41"/>
       <c r="F359" s="41"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="38" t="s">
         <v>55</v>
       </c>
@@ -10955,7 +10955,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="38" t="s">
         <v>55</v>
       </c>
@@ -10973,7 +10973,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="38" t="s">
         <v>55</v>
       </c>
@@ -10991,7 +10991,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="38" t="s">
         <v>55</v>
       </c>
@@ -11009,7 +11009,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="38" t="s">
         <v>55</v>
       </c>
@@ -11023,7 +11023,7 @@
       <c r="E364" s="41"/>
       <c r="F364" s="41"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="38" t="s">
         <v>55</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="38" t="s">
         <v>55</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="38" t="s">
         <v>55</v>
       </c>
@@ -11077,7 +11077,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="38" t="s">
         <v>55</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A369" s="38" t="s">
         <v>55</v>
       </c>
@@ -11103,7 +11103,7 @@
         <v>524</v>
       </c>
       <c r="C369" s="43" t="s">
-        <v>525</v>
+        <v>573</v>
       </c>
       <c r="D369" s="38" t="s">
         <v>526</v>
@@ -11113,7 +11113,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="38" t="s">
         <v>55</v>
       </c>
@@ -11127,7 +11127,7 @@
       <c r="E370" s="41"/>
       <c r="F370" s="41"/>
     </row>
-    <row r="371" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A371" s="38" t="s">
         <v>55</v>
       </c>
@@ -11145,7 +11145,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="372" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A372" s="38" t="s">
         <v>55</v>
       </c>
@@ -11163,7 +11163,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A373" s="38" t="s">
         <v>55</v>
       </c>
@@ -11181,7 +11181,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="38" t="s">
         <v>55</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="38" t="s">
         <v>55</v>
       </c>
@@ -11213,7 +11213,7 @@
       <c r="E375" s="41"/>
       <c r="F375" s="41"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="38" t="s">
         <v>55</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="38" t="s">
         <v>55</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="38" t="s">
         <v>55</v>
       </c>
@@ -11263,7 +11263,7 @@
       <c r="E378" s="41"/>
       <c r="F378" s="41"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="38" t="s">
         <v>55</v>
       </c>
@@ -11281,7 +11281,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="38" t="s">
         <v>55</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="38" t="s">
         <v>55</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" s="38" t="s">
         <v>55</v>
       </c>
@@ -11335,7 +11335,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="38" t="s">
         <v>55</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="38" t="s">
         <v>55</v>
       </c>
@@ -11367,7 +11367,7 @@
       <c r="E384" s="41"/>
       <c r="F384" s="41"/>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="38" t="s">
         <v>55</v>
       </c>
@@ -11381,7 +11381,7 @@
       <c r="E385" s="41"/>
       <c r="F385" s="41"/>
     </row>
-    <row r="386" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A386" s="38" t="s">
         <v>55</v>
       </c>
@@ -11399,7 +11399,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="38" t="s">
         <v>55</v>
       </c>
@@ -11417,7 +11417,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="38" t="s">
         <v>55</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="38" t="s">
         <v>55</v>
       </c>
@@ -11449,7 +11449,7 @@
       <c r="E389" s="41"/>
       <c r="F389" s="41"/>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" s="38" t="s">
         <v>55</v>
       </c>
@@ -11463,7 +11463,7 @@
       <c r="E390" s="41"/>
       <c r="F390" s="41"/>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="38" t="s">
         <v>55</v>
       </c>
@@ -11481,7 +11481,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="38" t="s">
         <v>55</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="393" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A393" s="38" t="s">
         <v>55</v>
       </c>
@@ -11517,7 +11517,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="394" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A394" s="38" t="s">
         <v>55</v>
       </c>
@@ -11535,7 +11535,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" s="38" t="s">
         <v>55</v>
       </c>
@@ -11553,7 +11553,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="396" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A396" s="38" t="s">
         <v>55</v>
       </c>
@@ -11571,7 +11571,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="38" t="s">
         <v>55</v>
       </c>
@@ -11585,7 +11585,7 @@
       <c r="E397" s="41"/>
       <c r="F397" s="41"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" s="38" t="s">
         <v>55</v>
       </c>
@@ -11603,7 +11603,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" s="38" t="s">
         <v>55</v>
       </c>
@@ -11621,7 +11621,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" s="38" t="s">
         <v>55</v>
       </c>
@@ -11635,7 +11635,7 @@
       <c r="E400" s="41"/>
       <c r="F400" s="41"/>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" s="38" t="s">
         <v>55</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" s="38" t="s">
         <v>55</v>
       </c>
@@ -11671,7 +11671,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" s="38" t="s">
         <v>55</v>
       </c>
@@ -11689,7 +11689,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" s="38" t="s">
         <v>55</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" s="38" t="s">
         <v>55</v>
       </c>
@@ -11725,7 +11725,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="38" t="s">
         <v>55</v>
       </c>
@@ -11739,7 +11739,7 @@
       <c r="E406" s="41"/>
       <c r="F406" s="41"/>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" s="38" t="s">
         <v>55</v>
       </c>
@@ -11753,7 +11753,7 @@
       <c r="E407" s="41"/>
       <c r="F407" s="41"/>
     </row>
-    <row r="408" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A408" s="38" t="s">
         <v>55</v>
       </c>
@@ -11771,7 +11771,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" s="38" t="s">
         <v>55</v>
       </c>
@@ -11789,7 +11789,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="38" t="s">
         <v>55</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" s="38" t="s">
         <v>55</v>
       </c>
@@ -11821,7 +11821,7 @@
       <c r="E411" s="41"/>
       <c r="F411" s="41"/>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" s="38" t="s">
         <v>55</v>
       </c>
@@ -11835,7 +11835,7 @@
       <c r="E412" s="41"/>
       <c r="F412" s="41"/>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" s="38" t="s">
         <v>55</v>
       </c>
@@ -11853,7 +11853,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" s="38" t="s">
         <v>55</v>
       </c>
@@ -11871,7 +11871,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" s="38" t="s">
         <v>55</v>
       </c>
@@ -11889,7 +11889,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="416" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A416" s="38" t="s">
         <v>55</v>
       </c>
@@ -11907,7 +11907,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417" s="38" t="s">
         <v>55</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="418" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A418" s="38" t="s">
         <v>55</v>
       </c>
@@ -11943,7 +11943,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" s="38" t="s">
         <v>55</v>
       </c>
@@ -11957,7 +11957,7 @@
       <c r="E419" s="41"/>
       <c r="F419" s="41"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" s="38" t="s">
         <v>55</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="38" t="s">
         <v>55</v>
       </c>
@@ -11993,7 +11993,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" s="38" t="s">
         <v>55</v>
       </c>
@@ -12007,7 +12007,7 @@
       <c r="E422" s="41"/>
       <c r="F422" s="41"/>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" s="38" t="s">
         <v>55</v>
       </c>
@@ -12025,7 +12025,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" s="38" t="s">
         <v>55</v>
       </c>
@@ -12043,7 +12043,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" s="38" t="s">
         <v>55</v>
       </c>
@@ -12061,7 +12061,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" s="38" t="s">
         <v>55</v>
       </c>
@@ -12079,7 +12079,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" s="38" t="s">
         <v>55</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" s="38" t="s">
         <v>55</v>
       </c>
@@ -12111,7 +12111,7 @@
       <c r="E428" s="41"/>
       <c r="F428" s="41"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" s="38" t="s">
         <v>55</v>
       </c>
@@ -12125,7 +12125,7 @@
       <c r="E429" s="41"/>
       <c r="F429" s="41"/>
     </row>
-    <row r="430" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A430" s="38" t="s">
         <v>55</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" s="38" t="s">
         <v>55</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" s="38" t="s">
         <v>55</v>
       </c>
@@ -12179,7 +12179,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" s="38" t="s">
         <v>55</v>
       </c>
@@ -12193,7 +12193,7 @@
       <c r="E433" s="41"/>
       <c r="F433" s="41"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" s="38" t="s">
         <v>55</v>
       </c>
@@ -12207,7 +12207,7 @@
       <c r="E434" s="41"/>
       <c r="F434" s="41"/>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" s="38" t="s">
         <v>55</v>
       </c>
@@ -12225,7 +12225,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" s="38" t="s">
         <v>55</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" s="38" t="s">
         <v>55</v>
       </c>
@@ -12261,7 +12261,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" s="38" t="s">
         <v>55</v>
       </c>
@@ -12279,7 +12279,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" s="38" t="s">
         <v>55</v>
       </c>
@@ -12293,7 +12293,7 @@
       <c r="E439" s="41"/>
       <c r="F439" s="41"/>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" s="38" t="s">
         <v>55</v>
       </c>
@@ -12311,7 +12311,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="38" t="s">
         <v>55</v>
       </c>
@@ -12329,7 +12329,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" s="38" t="s">
         <v>55</v>
       </c>
@@ -12347,7 +12347,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" s="38" t="s">
         <v>55</v>
       </c>
@@ -12361,7 +12361,7 @@
       <c r="E443" s="41"/>
       <c r="F443" s="41"/>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" s="38" t="s">
         <v>55</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" s="38" t="s">
         <v>55</v>
       </c>
@@ -12397,7 +12397,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" s="38" t="s">
         <v>55</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" s="38" t="s">
         <v>55</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" s="38" t="s">
         <v>55</v>
       </c>
@@ -12451,7 +12451,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="449" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A449" s="38" t="s">
         <v>55</v>
       </c>
@@ -12469,7 +12469,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" s="38" t="s">
         <v>55</v>
       </c>
@@ -12483,7 +12483,7 @@
       <c r="E450" s="41"/>
       <c r="F450" s="41"/>
     </row>
-    <row r="451" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A451" s="38" t="s">
         <v>55</v>
       </c>
@@ -12501,7 +12501,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="452" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A452" s="38" t="s">
         <v>55</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" s="38" t="s">
         <v>55</v>
       </c>
@@ -12537,7 +12537,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" s="38" t="s">
         <v>55</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" s="38" t="s">
         <v>55</v>
       </c>
@@ -12569,7 +12569,7 @@
       <c r="E455" s="41"/>
       <c r="F455" s="41"/>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" s="38" t="s">
         <v>55</v>
       </c>
@@ -12587,7 +12587,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" s="38" t="s">
         <v>55</v>
       </c>
@@ -12605,7 +12605,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" s="38" t="s">
         <v>55</v>
       </c>
@@ -12619,7 +12619,7 @@
       <c r="E458" s="41"/>
       <c r="F458" s="41"/>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" s="38" t="s">
         <v>55</v>
       </c>
@@ -12637,7 +12637,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="460" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A460" s="38" t="s">
         <v>55</v>
       </c>
@@ -12651,7 +12651,7 @@
       <c r="E460" s="37"/>
       <c r="F460" s="41"/>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" s="38" t="s">
         <v>55</v>
       </c>
@@ -12665,7 +12665,7 @@
       <c r="E461" s="43"/>
       <c r="F461" s="38"/>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" s="38" t="s">
         <v>55</v>
       </c>
@@ -12679,7 +12679,7 @@
       <c r="E462" s="43"/>
       <c r="F462" s="38"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" s="38" t="s">
         <v>55</v>
       </c>
@@ -12693,7 +12693,7 @@
       <c r="E463" s="43"/>
       <c r="F463" s="38"/>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" s="38" t="s">
         <v>55</v>
       </c>
@@ -12707,7 +12707,7 @@
       <c r="E464" s="37"/>
       <c r="F464" s="41"/>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" s="38" t="s">
         <v>55</v>
       </c>
@@ -12721,7 +12721,7 @@
       <c r="E465" s="43"/>
       <c r="F465" s="38"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" s="38" t="s">
         <v>55</v>
       </c>
@@ -12735,7 +12735,7 @@
       <c r="E466" s="43"/>
       <c r="F466" s="38"/>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" s="38" t="s">
         <v>55</v>
       </c>
@@ -12749,7 +12749,7 @@
       <c r="E467" s="37"/>
       <c r="F467" s="41"/>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" s="38" t="s">
         <v>55</v>
       </c>
@@ -12763,7 +12763,7 @@
       <c r="E468" s="41"/>
       <c r="F468" s="41"/>
     </row>
-    <row r="469" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A469" s="38" t="s">
         <v>55</v>
       </c>
@@ -12781,7 +12781,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" s="38" t="s">
         <v>55</v>
       </c>
@@ -12799,7 +12799,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" s="38" t="s">
         <v>55</v>
       </c>
@@ -12817,7 +12817,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" s="38" t="s">
         <v>55</v>
       </c>
@@ -12831,7 +12831,7 @@
       <c r="E472" s="41"/>
       <c r="F472" s="41"/>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" s="38" t="s">
         <v>55</v>
       </c>
@@ -12845,7 +12845,7 @@
       <c r="E473" s="41"/>
       <c r="F473" s="41"/>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" s="38" t="s">
         <v>55</v>
       </c>
@@ -12863,7 +12863,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475" s="38" t="s">
         <v>55</v>
       </c>
@@ -12881,7 +12881,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" s="38" t="s">
         <v>55</v>
       </c>
@@ -12899,7 +12899,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A477" s="38" t="s">
         <v>55</v>
       </c>
@@ -12917,7 +12917,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" s="38" t="s">
         <v>55</v>
       </c>
@@ -12933,7 +12933,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="479" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A479" s="38" t="s">
         <v>55</v>
       </c>
@@ -12951,7 +12951,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" s="38" t="s">
         <v>55</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481" s="38" t="s">
         <v>55</v>
       </c>
@@ -12983,7 +12983,7 @@
       <c r="E481" s="41"/>
       <c r="F481" s="41"/>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" s="38" t="s">
         <v>55</v>
       </c>
@@ -13001,7 +13001,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" s="38" t="s">
         <v>55</v>
       </c>
@@ -13019,7 +13019,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484" s="38" t="s">
         <v>55</v>
       </c>
@@ -13033,7 +13033,7 @@
       <c r="E484" s="41"/>
       <c r="F484" s="41"/>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485" s="38" t="s">
         <v>55</v>
       </c>
@@ -13051,7 +13051,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486" s="38" t="s">
         <v>55</v>
       </c>
@@ -13069,7 +13069,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" s="38" t="s">
         <v>55</v>
       </c>
@@ -13087,7 +13087,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" s="38" t="s">
         <v>55</v>
       </c>
@@ -13105,7 +13105,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" s="38" t="s">
         <v>55</v>
       </c>
@@ -13143,18 +13143,18 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="45.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="81.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.09765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="81.3984375" style="2" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="2" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="2" customWidth="1"/>
+    <col min="8" max="1025" width="8.8984375" style="2" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>689</v>
       </c>
@@ -13177,7 +13177,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
@@ -13196,7 +13196,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>59</v>
       </c>
@@ -13215,7 +13215,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
@@ -13234,7 +13234,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>65</v>
       </c>
@@ -13253,7 +13253,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>703</v>
       </c>
@@ -13286,24 +13286,24 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="17" customWidth="1"/>
-    <col min="2" max="2" width="52.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="52.69921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" style="2" customWidth="1"/>
     <col min="4" max="4" width="55.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="40" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.8984375" style="2" customWidth="1"/>
     <col min="7" max="7" width="20" style="2" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="22" customWidth="1"/>
+    <col min="8" max="1025" width="8.8984375" style="22" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1025" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>689</v>
       </c>
@@ -14344,7 +14344,7 @@
       <c r="AMJ1" s="31"/>
       <c r="AMK1" s="31"/>
     </row>
-    <row r="2" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A2" s="60" t="s">
         <v>68</v>
       </c>
@@ -14363,7 +14363,7 @@
       </c>
       <c r="G2" s="51"/>
     </row>
-    <row r="3" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A3" s="60" t="s">
         <v>71</v>
       </c>
@@ -14382,7 +14382,7 @@
       </c>
       <c r="G3" s="51"/>
     </row>
-    <row r="4" spans="1:1025" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1025" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="60" t="s">
         <v>74</v>
       </c>
@@ -14401,7 +14401,7 @@
       </c>
       <c r="G4" s="51"/>
     </row>
-    <row r="5" spans="1:1025" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1025" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="60" t="s">
         <v>76</v>
       </c>
@@ -14420,7 +14420,7 @@
       </c>
       <c r="G5" s="51"/>
     </row>
-    <row r="6" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
         <v>78</v>
       </c>
@@ -14439,7 +14439,7 @@
       </c>
       <c r="G6" s="51"/>
     </row>
-    <row r="7" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A7" s="60" t="s">
         <v>80</v>
       </c>
@@ -14458,7 +14458,7 @@
       </c>
       <c r="G7" s="51"/>
     </row>
-    <row r="8" spans="1:1025" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1025" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="60" t="s">
         <v>715</v>
       </c>
@@ -14477,7 +14477,7 @@
       </c>
       <c r="G8" s="51"/>
     </row>
-    <row r="9" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A9" s="60" t="s">
         <v>89</v>
       </c>
@@ -14496,7 +14496,7 @@
       </c>
       <c r="G9" s="51"/>
     </row>
-    <row r="10" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A10" s="60" t="s">
         <v>107</v>
       </c>
@@ -14515,7 +14515,7 @@
       </c>
       <c r="G10" s="51"/>
     </row>
-    <row r="11" spans="1:1025" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1025" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="60" t="s">
         <v>92</v>
       </c>
@@ -14534,7 +14534,7 @@
       </c>
       <c r="G11" s="51"/>
     </row>
-    <row r="12" spans="1:1025" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1025" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="60" t="s">
         <v>95</v>
       </c>
@@ -14553,7 +14553,7 @@
       </c>
       <c r="G12" s="51"/>
     </row>
-    <row r="13" spans="1:1025" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1025" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="60" t="s">
         <v>98</v>
       </c>
@@ -14572,7 +14572,7 @@
       </c>
       <c r="G13" s="51"/>
     </row>
-    <row r="14" spans="1:1025" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1025" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="60" t="s">
         <v>101</v>
       </c>
@@ -14591,7 +14591,7 @@
       </c>
       <c r="G14" s="51"/>
     </row>
-    <row r="15" spans="1:1025" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1025" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="60" t="s">
         <v>104</v>
       </c>
@@ -14610,7 +14610,7 @@
       </c>
       <c r="G15" s="51"/>
     </row>
-    <row r="16" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A16" s="60" t="s">
         <v>110</v>
       </c>
@@ -14629,7 +14629,7 @@
       </c>
       <c r="G16" s="51"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="60" t="s">
         <v>113</v>
       </c>
@@ -14650,7 +14650,7 @@
       </c>
       <c r="G17" s="51"/>
     </row>
-    <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="60" t="s">
         <v>728</v>
       </c>
@@ -14669,7 +14669,7 @@
       </c>
       <c r="G18" s="51"/>
     </row>
-    <row r="19" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>126</v>
       </c>
@@ -14688,7 +14688,7 @@
       </c>
       <c r="G19" s="50"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="60" t="s">
         <v>129</v>
       </c>
@@ -14707,7 +14707,7 @@
       </c>
       <c r="G20" s="51"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="60" t="s">
         <v>132</v>
       </c>
@@ -14726,7 +14726,7 @@
       </c>
       <c r="G21" s="51"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="60" t="s">
         <v>135</v>
       </c>
@@ -14745,7 +14745,7 @@
       </c>
       <c r="G22" s="51"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="60" t="s">
         <v>138</v>
       </c>
@@ -14764,7 +14764,7 @@
       </c>
       <c r="G23" s="51"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="60" t="s">
         <v>83</v>
       </c>
@@ -14783,7 +14783,7 @@
       </c>
       <c r="G24" s="51"/>
     </row>
-    <row r="25" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="60" t="s">
         <v>118</v>
       </c>
@@ -14802,7 +14802,7 @@
       </c>
       <c r="G25" s="51"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="60" t="s">
         <v>174</v>
       </c>
@@ -14821,7 +14821,7 @@
       </c>
       <c r="G26" s="51"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="60" t="s">
         <v>177</v>
       </c>
@@ -14840,7 +14840,7 @@
       </c>
       <c r="G27" s="51"/>
     </row>
-    <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A28" s="60" t="s">
         <v>153</v>
       </c>
@@ -14859,7 +14859,7 @@
       </c>
       <c r="G28" s="51"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="60" t="s">
         <v>156</v>
       </c>
@@ -14878,7 +14878,7 @@
       </c>
       <c r="G29" s="51"/>
     </row>
-    <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A30" s="60" t="s">
         <v>159</v>
       </c>
@@ -14897,7 +14897,7 @@
       </c>
       <c r="G30" s="51"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="60" t="s">
         <v>162</v>
       </c>
@@ -14916,7 +14916,7 @@
       </c>
       <c r="G31" s="51"/>
     </row>
-    <row r="32" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A32" s="60" t="s">
         <v>165</v>
       </c>
@@ -14935,7 +14935,7 @@
       </c>
       <c r="G32" s="51"/>
     </row>
-    <row r="33" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="60" t="s">
         <v>171</v>
       </c>
@@ -14954,7 +14954,7 @@
       </c>
       <c r="G33" s="51"/>
     </row>
-    <row r="34" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A34" s="60" t="s">
         <v>210</v>
       </c>
@@ -14973,7 +14973,7 @@
       </c>
       <c r="G34" s="51"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="60" t="s">
         <v>213</v>
       </c>
@@ -14992,7 +14992,7 @@
       </c>
       <c r="G35" s="51"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="60" t="s">
         <v>216</v>
       </c>
@@ -15011,7 +15011,7 @@
       </c>
       <c r="G36" s="51"/>
     </row>
-    <row r="37" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A37" s="60" t="s">
         <v>219</v>
       </c>
@@ -15030,7 +15030,7 @@
       </c>
       <c r="G37" s="52"/>
     </row>
-    <row r="38" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A38" s="60" t="s">
         <v>459</v>
       </c>
@@ -15049,7 +15049,7 @@
       </c>
       <c r="G38" s="51"/>
     </row>
-    <row r="39" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="60" t="s">
         <v>232</v>
       </c>
@@ -15068,7 +15068,7 @@
       </c>
       <c r="G39" s="51"/>
     </row>
-    <row r="40" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A40" s="60" t="s">
         <v>226</v>
       </c>
@@ -15087,7 +15087,7 @@
       </c>
       <c r="G40" s="51"/>
     </row>
-    <row r="41" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A41" s="60" t="s">
         <v>224</v>
       </c>
@@ -15106,7 +15106,7 @@
       </c>
       <c r="G41" s="51"/>
     </row>
-    <row r="42" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A42" s="60" t="s">
         <v>231</v>
       </c>
@@ -15125,7 +15125,7 @@
       </c>
       <c r="G42" s="51"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="63" t="s">
         <v>1069</v>
       </c>
@@ -15144,7 +15144,7 @@
       </c>
       <c r="G43" s="33"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="63" t="s">
         <v>1070</v>
       </c>
@@ -15163,7 +15163,7 @@
       </c>
       <c r="G44" s="33"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="63" t="s">
         <v>1071</v>
       </c>
@@ -15182,7 +15182,7 @@
       </c>
       <c r="G45" s="33"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="63" t="s">
         <v>1072</v>
       </c>
@@ -15201,7 +15201,7 @@
       </c>
       <c r="G46" s="33"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="63" t="s">
         <v>1073</v>
       </c>
@@ -15220,7 +15220,7 @@
       </c>
       <c r="G47" s="33"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="63" t="s">
         <v>1074</v>
       </c>
@@ -15239,7 +15239,7 @@
       </c>
       <c r="G48" s="33"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="63" t="s">
         <v>1075</v>
       </c>
@@ -15258,7 +15258,7 @@
       </c>
       <c r="G49" s="33"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="63" t="s">
         <v>1076</v>
       </c>
@@ -15277,7 +15277,7 @@
       </c>
       <c r="G50" s="33"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="63" t="s">
         <v>1077</v>
       </c>
@@ -15296,7 +15296,7 @@
       </c>
       <c r="G51" s="33"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="63" t="s">
         <v>1078</v>
       </c>
@@ -15315,7 +15315,7 @@
       </c>
       <c r="G52" s="33"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="63" t="s">
         <v>1079</v>
       </c>
@@ -15334,7 +15334,7 @@
       </c>
       <c r="G53" s="33"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="63" t="s">
         <v>1108</v>
       </c>
@@ -15353,7 +15353,7 @@
       </c>
       <c r="G54" s="33"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="63" t="s">
         <v>1110</v>
       </c>
@@ -15372,7 +15372,7 @@
       </c>
       <c r="G55" s="33"/>
     </row>
-    <row r="56" spans="1:7" s="49" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" s="49" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A56" s="63" t="s">
         <v>1188</v>
       </c>
@@ -15409,19 +15409,19 @@
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="47.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="80.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="47.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="80.8984375" style="2" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="2" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="2" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="7" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="2" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="7" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="12" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:256" s="12" customFormat="1" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>689</v>
       </c>
@@ -15693,7 +15693,7 @@
       <c r="IU1" s="11"/>
       <c r="IV1" s="11"/>
     </row>
-    <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="60" t="s">
         <v>762</v>
       </c>
@@ -15712,7 +15712,7 @@
       </c>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="60" t="s">
         <v>765</v>
       </c>
@@ -15731,7 +15731,7 @@
       </c>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="60" t="s">
         <v>767</v>
       </c>
@@ -15750,7 +15750,7 @@
       </c>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="60" t="s">
         <v>769</v>
       </c>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
         <v>771</v>
       </c>
@@ -15788,7 +15788,7 @@
       </c>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="60" t="s">
         <v>774</v>
       </c>
@@ -15807,7 +15807,7 @@
       </c>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="60" t="s">
         <v>777</v>
       </c>
@@ -15826,7 +15826,7 @@
       </c>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="60" t="s">
         <v>780</v>
       </c>
@@ -15845,7 +15845,7 @@
       </c>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="60" t="s">
         <v>783</v>
       </c>
@@ -15864,7 +15864,7 @@
       </c>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="60" t="s">
         <v>785</v>
       </c>
@@ -15883,7 +15883,7 @@
       </c>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="60" t="s">
         <v>787</v>
       </c>
@@ -15902,7 +15902,7 @@
       </c>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="60" t="s">
         <v>790</v>
       </c>
@@ -15921,7 +15921,7 @@
       </c>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="60" t="s">
         <v>792</v>
       </c>
@@ -15940,7 +15940,7 @@
       </c>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="60" t="s">
         <v>794</v>
       </c>
@@ -15959,7 +15959,7 @@
       </c>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>992</v>
       </c>
@@ -15978,7 +15978,7 @@
       </c>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>986</v>
       </c>
@@ -15997,7 +15997,7 @@
       </c>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="60" t="s">
         <v>796</v>
       </c>
@@ -16016,7 +16016,7 @@
       </c>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="60" t="s">
         <v>798</v>
       </c>
@@ -16035,7 +16035,7 @@
       </c>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="60" t="s">
         <v>800</v>
       </c>
@@ -16054,7 +16054,7 @@
       </c>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="60" t="s">
         <v>802</v>
       </c>
@@ -16073,7 +16073,7 @@
       </c>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="60" t="s">
         <v>805</v>
       </c>
@@ -16092,7 +16092,7 @@
       </c>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="60" t="s">
         <v>807</v>
       </c>
@@ -16111,7 +16111,7 @@
       </c>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="60" t="s">
         <v>809</v>
       </c>
@@ -16130,7 +16130,7 @@
       </c>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="60" t="s">
         <v>811</v>
       </c>
@@ -16149,7 +16149,7 @@
       </c>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="60" t="s">
         <v>814</v>
       </c>
@@ -16168,7 +16168,7 @@
       </c>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="60" t="s">
         <v>816</v>
       </c>
@@ -16187,7 +16187,7 @@
       </c>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="60" t="s">
         <v>819</v>
       </c>
@@ -16206,7 +16206,7 @@
       </c>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="60" t="s">
         <v>821</v>
       </c>
@@ -16225,7 +16225,7 @@
       </c>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="60" t="s">
         <v>823</v>
       </c>
@@ -16244,7 +16244,7 @@
       </c>
       <c r="G30" s="18"/>
     </row>
-    <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="60" t="s">
         <v>825</v>
       </c>
@@ -16263,7 +16263,7 @@
       </c>
       <c r="G31" s="18"/>
     </row>
-    <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="60" t="s">
         <v>828</v>
       </c>
@@ -16282,7 +16282,7 @@
       </c>
       <c r="G32" s="18"/>
     </row>
-    <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="60" t="s">
         <v>831</v>
       </c>
@@ -16301,7 +16301,7 @@
       </c>
       <c r="G33" s="18"/>
     </row>
-    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="60" t="s">
         <v>834</v>
       </c>
@@ -16320,7 +16320,7 @@
       </c>
       <c r="G34" s="18"/>
     </row>
-    <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="60" t="s">
         <v>837</v>
       </c>
@@ -16339,7 +16339,7 @@
       </c>
       <c r="G35" s="18"/>
     </row>
-    <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="60" t="s">
         <v>839</v>
       </c>
@@ -16358,7 +16358,7 @@
       </c>
       <c r="G36" s="18"/>
     </row>
-    <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="60" t="s">
         <v>842</v>
       </c>
@@ -16377,7 +16377,7 @@
       </c>
       <c r="G37" s="18"/>
     </row>
-    <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="60" t="s">
         <v>845</v>
       </c>
@@ -16396,7 +16396,7 @@
       </c>
       <c r="G38" s="18"/>
     </row>
-    <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="60" t="s">
         <v>848</v>
       </c>
@@ -16415,7 +16415,7 @@
       </c>
       <c r="G39" s="18"/>
     </row>
-    <row r="40" spans="1:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="60" t="s">
         <v>851</v>
       </c>
@@ -16436,7 +16436,7 @@
       </c>
       <c r="G40" s="18"/>
     </row>
-    <row r="41" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="60" t="s">
         <v>855</v>
       </c>
@@ -16455,7 +16455,7 @@
       </c>
       <c r="G41" s="18"/>
     </row>
-    <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="60" t="s">
         <v>858</v>
       </c>
@@ -16474,7 +16474,7 @@
       </c>
       <c r="G42" s="18"/>
     </row>
-    <row r="43" spans="1:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="60" t="s">
         <v>861</v>
       </c>
@@ -16495,7 +16495,7 @@
       </c>
       <c r="G43" s="18"/>
     </row>
-    <row r="44" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="60" t="s">
         <v>865</v>
       </c>
@@ -16516,7 +16516,7 @@
       </c>
       <c r="G44" s="18"/>
     </row>
-    <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="60" t="s">
         <v>868</v>
       </c>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="G45" s="18"/>
     </row>
-    <row r="46" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="60" t="s">
         <v>872</v>
       </c>
@@ -16556,7 +16556,7 @@
       </c>
       <c r="G46" s="18"/>
     </row>
-    <row r="47" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="60" t="s">
         <v>875</v>
       </c>
@@ -16575,7 +16575,7 @@
       </c>
       <c r="G47" s="18"/>
     </row>
-    <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="60" t="s">
         <v>878</v>
       </c>
@@ -16594,7 +16594,7 @@
       </c>
       <c r="G48" s="18"/>
     </row>
-    <row r="49" spans="1:256" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:256" s="23" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
         <v>881</v>
       </c>
@@ -16862,7 +16862,7 @@
       <c r="IU49" s="22"/>
       <c r="IV49" s="22"/>
     </row>
-    <row r="50" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
         <v>1155</v>
       </c>
@@ -16897,21 +16897,21 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="17" customWidth="1"/>
     <col min="2" max="2" width="33.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="41.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.3984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="41.3984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" style="2" customWidth="1"/>
     <col min="7" max="7" width="29" style="2" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="2" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="7" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="2" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="7" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="12" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:256" s="12" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>689</v>
       </c>
@@ -17183,7 +17183,7 @@
       <c r="IU1" s="11"/>
       <c r="IV1" s="11"/>
     </row>
-    <row r="2" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>375</v>
       </c>
@@ -17202,7 +17202,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>378</v>
       </c>
@@ -17221,7 +17221,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>381</v>
       </c>
@@ -17240,7 +17240,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>395</v>
       </c>
@@ -17259,7 +17259,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>384</v>
       </c>
@@ -17278,7 +17278,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>387</v>
       </c>
@@ -17297,7 +17297,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>390</v>
       </c>
@@ -17316,7 +17316,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>393</v>
       </c>
@@ -17335,7 +17335,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>398</v>
       </c>
@@ -17354,7 +17354,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="63" t="s">
         <v>1257</v>
       </c>
@@ -17373,7 +17373,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>901</v>
       </c>
@@ -17392,7 +17392,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:256" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:256" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>401</v>
       </c>
@@ -17413,7 +17413,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="14" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>403</v>
       </c>
@@ -17432,7 +17432,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>406</v>
       </c>
@@ -17452,7 +17452,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="16" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>436</v>
       </c>
@@ -17473,7 +17473,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>438</v>
       </c>
@@ -17496,7 +17496,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>464</v>
       </c>
@@ -17515,7 +17515,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>467</v>
       </c>
@@ -17534,7 +17534,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>470</v>
       </c>
@@ -17553,7 +17553,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>473</v>
       </c>
@@ -17572,7 +17572,7 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>477</v>
       </c>
@@ -17591,7 +17591,7 @@
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>424</v>
       </c>
@@ -17610,7 +17610,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="63" t="s">
         <v>1037</v>
       </c>
@@ -17629,7 +17629,7 @@
       </c>
       <c r="G24" s="65"/>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="63" t="s">
         <v>1041</v>
       </c>
@@ -17648,7 +17648,7 @@
       </c>
       <c r="G25" s="65"/>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="63" t="s">
         <v>1043</v>
       </c>
@@ -17667,7 +17667,7 @@
       </c>
       <c r="G26" s="65"/>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="63" t="s">
         <v>1046</v>
       </c>
@@ -17686,7 +17686,7 @@
       </c>
       <c r="G27" s="65"/>
     </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="63" t="s">
         <v>1049</v>
       </c>
@@ -17705,7 +17705,7 @@
       </c>
       <c r="G28" s="65"/>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="63" t="s">
         <v>1052</v>
       </c>
@@ -17726,7 +17726,7 @@
       </c>
       <c r="G29" s="65"/>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="63" t="s">
         <v>1055</v>
       </c>
@@ -17765,20 +17765,20 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="54.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="75.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="132.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="54.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="75.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="132.3984375" style="2" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="2" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="2" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="7" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="2" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="7" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>689</v>
       </c>
@@ -17801,7 +17801,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="2" spans="1:256" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:256" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>925</v>
       </c>
@@ -18069,7 +18069,7 @@
       <c r="IU2" s="24"/>
       <c r="IV2" s="24"/>
     </row>
-    <row r="3" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>928</v>
       </c>
@@ -18088,7 +18088,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:256" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:256" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>930</v>
       </c>
@@ -18123,21 +18123,21 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="53.3984375" style="8" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="8" customWidth="1"/>
     <col min="4" max="4" width="44.5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="31.875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="31.8984375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="8" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="8" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="8" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="9" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="8" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="9" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:256" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>689</v>
       </c>
@@ -18409,7 +18409,7 @@
       <c r="IU1" s="14"/>
       <c r="IV1" s="14"/>
     </row>
-    <row r="2" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="60" t="s">
         <v>932</v>
       </c>
@@ -18430,7 +18430,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="3" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A3" s="60" t="s">
         <v>568</v>
       </c>
@@ -18449,7 +18449,7 @@
       </c>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A4" s="60" t="s">
         <v>501</v>
       </c>
@@ -18468,7 +18468,7 @@
       </c>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A5" s="60" t="s">
         <v>504</v>
       </c>
@@ -18487,7 +18487,7 @@
       </c>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
         <v>507</v>
       </c>
@@ -18506,7 +18506,7 @@
       </c>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:256" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:256" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A7" s="60" t="s">
         <v>510</v>
       </c>
@@ -18529,7 +18529,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="8" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="60" t="s">
         <v>515</v>
       </c>
@@ -18548,7 +18548,7 @@
       </c>
       <c r="G8" s="19"/>
     </row>
-    <row r="9" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="60" t="s">
         <v>518</v>
       </c>
@@ -18567,7 +18567,7 @@
       </c>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:256" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="60" t="s">
         <v>520</v>
       </c>
@@ -18586,7 +18586,7 @@
       </c>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A11" s="60" t="s">
         <v>523</v>
       </c>
@@ -18605,7 +18605,7 @@
       </c>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:256" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="60" t="s">
         <v>526</v>
       </c>
@@ -18624,7 +18624,7 @@
       </c>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="60" t="s">
         <v>529</v>
       </c>
@@ -18647,7 +18647,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="14" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="60" t="s">
         <v>537</v>
       </c>
@@ -18668,7 +18668,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="15" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="60" t="s">
         <v>540</v>
       </c>
@@ -18687,7 +18687,7 @@
       </c>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="60" t="s">
         <v>571</v>
       </c>
@@ -18706,7 +18706,7 @@
       </c>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="60" t="s">
         <v>964</v>
       </c>
@@ -18725,7 +18725,7 @@
       </c>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="60" t="s">
         <v>603</v>
       </c>
@@ -18744,7 +18744,7 @@
       </c>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="60" t="s">
         <v>969</v>
       </c>
@@ -18767,7 +18767,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="60" t="s">
         <v>637</v>
       </c>
@@ -18786,7 +18786,7 @@
       </c>
       <c r="G20" s="19"/>
     </row>
-    <row r="21" spans="1:7" ht="189" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A21" s="60" t="s">
         <v>639</v>
       </c>
@@ -18809,7 +18809,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="60" t="s">
         <v>978</v>
       </c>
@@ -18832,7 +18832,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="60" t="s">
         <v>999</v>
       </c>
@@ -18849,7 +18849,7 @@
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="60" t="s">
         <v>997</v>
       </c>
@@ -18866,7 +18866,7 @@
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="60" t="s">
         <v>994</v>
       </c>
@@ -18885,7 +18885,7 @@
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
     </row>
-    <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="60" t="s">
         <v>995</v>
       </c>
@@ -18902,7 +18902,7 @@
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="68" t="s">
         <v>996</v>
       </c>
@@ -18919,7 +18919,7 @@
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
     </row>
-    <row r="28" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A28" s="60" t="s">
         <v>1167</v>
       </c>
@@ -18940,7 +18940,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="60" t="s">
         <v>1169</v>
       </c>
@@ -18973,20 +18973,20 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="10" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="53.3984375" style="7" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="7" customWidth="1"/>
     <col min="4" max="4" width="25" style="7" customWidth="1"/>
     <col min="5" max="5" width="46" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="7" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="7" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="7" customWidth="1"/>
+    <col min="8" max="1025" width="8.8984375" style="7" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:256" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>689</v>
       </c>
@@ -19258,7 +19258,7 @@
       <c r="IU1" s="11"/>
       <c r="IV1" s="11"/>
     </row>
-    <row r="2" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1016</v>
       </c>
@@ -19279,7 +19279,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="3" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1020</v>
       </c>
@@ -19300,7 +19300,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1023</v>
       </c>

--- a/conformancelib/testdata/PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/PIV_ICAM_Test_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB21775-ADB3-44A4-8B86-342BFB543DD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F844F3-C4B4-4057-BEEA-85F8810A265C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1668" yWindow="0" windowWidth="20904" windowHeight="12360" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -3503,9 +3503,6 @@
     <t>The Patron Header Version field has a value of 0x03.</t>
   </si>
   <si>
-    <t>X509_CERTIFICATE_FOR_PIV_AUTHENTICATION_OID:2.16.840.1.101.3.2.1.48.11,X509_CERTIFICATE_FOR_DIGITAL_SIGNATURE_OID:2.16.840.1.101.3.2.1.48.9|2.16.840.1.101.3.2.1.48.12,X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID:2.16.840.1.101.3.2.1.48.9|2.16.840.1.101.3.2.1.48.12,X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.101.3.2.1.48.13,CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.6.7</t>
-  </si>
-  <si>
     <t>9.3.2.5</t>
   </si>
   <si>
@@ -3900,6 +3897,9 @@
   </si>
   <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.101.3.6.8,CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.6.7</t>
   </si>
 </sst>
 </file>
@@ -4737,8 +4737,8 @@
   <sheetPr codeName="Sheet2" filterMode="1"/>
   <dimension ref="A1:F489"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A456" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F480" sqref="F480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4767,7 +4767,7 @@
         <v>54</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>1023</v>
@@ -4778,10 +4778,10 @@
         <v>55</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D2" s="37"/>
       <c r="E2" s="37"/>
@@ -4792,7 +4792,7 @@
         <v>55</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C3" s="37" t="s">
         <v>0</v>
@@ -4823,7 +4823,7 @@
         <v>56</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>57</v>
@@ -4949,7 +4949,7 @@
         <v>75</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D12" s="38" t="s">
         <v>76</v>
@@ -4967,7 +4967,7 @@
         <v>77</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D13" s="38" t="s">
         <v>78</v>
@@ -5003,7 +5003,7 @@
         <v>81</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>80</v>
@@ -5018,7 +5018,7 @@
         <v>55</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>1</v>
@@ -5049,7 +5049,7 @@
         <v>84</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>57</v>
@@ -5121,7 +5121,7 @@
         <v>88</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D22" s="38" t="s">
         <v>89</v>
@@ -5265,7 +5265,7 @@
         <v>1086</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D30" s="40" t="s">
         <v>1071</v>
@@ -5406,7 +5406,7 @@
         <v>55</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C38" s="38" t="s">
         <v>728</v>
@@ -5445,7 +5445,7 @@
         <v>111</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D40" s="38" t="s">
         <v>112</v>
@@ -5514,7 +5514,7 @@
         <v>55</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C44" s="37" t="s">
         <v>2</v>
@@ -5545,7 +5545,7 @@
         <v>120</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D46" s="38" t="s">
         <v>57</v>
@@ -5617,10 +5617,10 @@
         <v>124</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E50" s="38"/>
       <c r="F50" s="38" t="s">
@@ -5722,7 +5722,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C56" s="37" t="s">
         <v>3</v>
@@ -5753,7 +5753,7 @@
         <v>138</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D58" s="38" t="s">
         <v>57</v>
@@ -5825,7 +5825,7 @@
         <v>142</v>
       </c>
       <c r="C62" s="38" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D62" s="38" t="s">
         <v>117</v>
@@ -5912,7 +5912,7 @@
         <v>55</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C67" s="37" t="s">
         <v>4</v>
@@ -5943,7 +5943,7 @@
         <v>147</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D69" s="38" t="s">
         <v>57</v>
@@ -6015,7 +6015,7 @@
         <v>151</v>
       </c>
       <c r="C73" s="38" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D73" s="38" t="s">
         <v>152</v>
@@ -6156,7 +6156,7 @@
         <v>55</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C81" s="37" t="s">
         <v>5</v>
@@ -6187,7 +6187,7 @@
         <v>165</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D83" s="38" t="s">
         <v>57</v>
@@ -6259,7 +6259,7 @@
         <v>169</v>
       </c>
       <c r="C87" s="62" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D87" s="38" t="s">
         <v>170</v>
@@ -6328,7 +6328,7 @@
         <v>55</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C91" s="37" t="s">
         <v>6</v>
@@ -6359,7 +6359,7 @@
         <v>177</v>
       </c>
       <c r="C93" s="38" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D93" s="38" t="s">
         <v>57</v>
@@ -6431,10 +6431,10 @@
         <v>181</v>
       </c>
       <c r="C97" s="38" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D97" s="38" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E97" s="38"/>
       <c r="F97" s="38" t="s">
@@ -6536,7 +6536,7 @@
         <v>55</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C103" s="37" t="s">
         <v>7</v>
@@ -6567,7 +6567,7 @@
         <v>186</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D105" s="38" t="s">
         <v>57</v>
@@ -6639,10 +6639,10 @@
         <v>190</v>
       </c>
       <c r="C109" s="38" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E109" s="38"/>
       <c r="F109" s="38" t="s">
@@ -6744,7 +6744,7 @@
         <v>55</v>
       </c>
       <c r="B115" s="38" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C115" s="37" t="s">
         <v>8</v>
@@ -6775,7 +6775,7 @@
         <v>195</v>
       </c>
       <c r="C117" s="38" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D117" s="38" t="s">
         <v>57</v>
@@ -6847,10 +6847,10 @@
         <v>199</v>
       </c>
       <c r="C121" s="62" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D121" s="38" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E121" s="38"/>
       <c r="F121" s="38" t="s">
@@ -6952,7 +6952,7 @@
         <v>55</v>
       </c>
       <c r="B127" s="38" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C127" s="37" t="s">
         <v>9</v>
@@ -6983,7 +6983,7 @@
         <v>204</v>
       </c>
       <c r="C129" s="38" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D129" s="38" t="s">
         <v>57</v>
@@ -7055,7 +7055,7 @@
         <v>208</v>
       </c>
       <c r="C133" s="38" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D133" s="38" t="s">
         <v>209</v>
@@ -7142,7 +7142,7 @@
         <v>55</v>
       </c>
       <c r="B138" s="38" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C138" s="37" t="s">
         <v>10</v>
@@ -7173,7 +7173,7 @@
         <v>219</v>
       </c>
       <c r="C140" s="38" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D140" s="38" t="s">
         <v>57</v>
@@ -7333,7 +7333,7 @@
         <v>1113</v>
       </c>
       <c r="C149" s="38" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D149" s="38" t="s">
         <v>231</v>
@@ -7348,7 +7348,7 @@
         <v>118</v>
       </c>
       <c r="B150" s="38" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C150" s="37" t="s">
         <v>11</v>
@@ -7362,7 +7362,7 @@
         <v>55</v>
       </c>
       <c r="B151" s="53" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C151" s="37" t="s">
         <v>12</v>
@@ -7408,7 +7408,7 @@
         <v>55</v>
       </c>
       <c r="B154" s="53" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C154" s="38" t="s">
         <v>234</v>
@@ -7424,7 +7424,7 @@
         <v>55</v>
       </c>
       <c r="B155" s="53" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C155" s="41" t="s">
         <v>15</v>
@@ -7438,7 +7438,7 @@
         <v>55</v>
       </c>
       <c r="B156" s="53" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C156" s="41" t="s">
         <v>16</v>
@@ -7452,7 +7452,7 @@
         <v>55</v>
       </c>
       <c r="B157" s="53" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C157" s="41" t="s">
         <v>17</v>
@@ -7466,7 +7466,7 @@
         <v>55</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C158" s="36" t="s">
         <v>18</v>
@@ -7480,7 +7480,7 @@
         <v>55</v>
       </c>
       <c r="B159" s="38" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C159" s="37" t="s">
         <v>19</v>
@@ -7826,7 +7826,7 @@
         <v>55</v>
       </c>
       <c r="B179" s="38" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C179" s="42" t="s">
         <v>22</v>
@@ -8154,7 +8154,7 @@
         <v>55</v>
       </c>
       <c r="B198" s="38" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C198" s="37" t="s">
         <v>25</v>
@@ -8340,7 +8340,7 @@
         <v>55</v>
       </c>
       <c r="B209" s="38" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C209" s="38" t="s">
         <v>253</v>
@@ -8484,7 +8484,7 @@
         <v>55</v>
       </c>
       <c r="B217" s="38" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C217" s="42" t="s">
         <v>310</v>
@@ -9020,7 +9020,7 @@
         <v>55</v>
       </c>
       <c r="B248" s="38" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C248" s="41" t="s">
         <v>28</v>
@@ -9048,10 +9048,10 @@
         <v>55</v>
       </c>
       <c r="B250" s="38" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C250" s="43" t="s">
         <v>1233</v>
-      </c>
-      <c r="C250" s="43" t="s">
-        <v>1234</v>
       </c>
       <c r="D250" s="38" t="s">
         <v>823</v>
@@ -9066,10 +9066,10 @@
         <v>55</v>
       </c>
       <c r="B251" s="38" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C251" s="43" t="s">
         <v>1235</v>
-      </c>
-      <c r="C251" s="43" t="s">
-        <v>1236</v>
       </c>
       <c r="D251" s="38" t="s">
         <v>826</v>
@@ -9084,10 +9084,10 @@
         <v>55</v>
       </c>
       <c r="B252" s="38" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C252" s="43" t="s">
         <v>1237</v>
-      </c>
-      <c r="C252" s="43" t="s">
-        <v>1238</v>
       </c>
       <c r="D252" s="38" t="s">
         <v>829</v>
@@ -9102,10 +9102,10 @@
         <v>55</v>
       </c>
       <c r="B253" s="38" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C253" s="43" t="s">
         <v>1239</v>
-      </c>
-      <c r="C253" s="43" t="s">
-        <v>1240</v>
       </c>
       <c r="D253" s="38" t="s">
         <v>832</v>
@@ -9134,10 +9134,10 @@
         <v>55</v>
       </c>
       <c r="B255" s="38" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C255" s="38" t="s">
         <v>1241</v>
-      </c>
-      <c r="C255" s="38" t="s">
-        <v>1242</v>
       </c>
       <c r="D255" s="38" t="s">
         <v>1014</v>
@@ -9152,10 +9152,10 @@
         <v>55</v>
       </c>
       <c r="B256" s="38" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C256" s="38" t="s">
         <v>1243</v>
-      </c>
-      <c r="C256" s="38" t="s">
-        <v>1244</v>
       </c>
       <c r="D256" s="38" t="s">
         <v>1014</v>
@@ -9170,10 +9170,10 @@
         <v>55</v>
       </c>
       <c r="B257" s="38" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C257" s="38" t="s">
         <v>1245</v>
-      </c>
-      <c r="C257" s="38" t="s">
-        <v>1246</v>
       </c>
       <c r="D257" s="38" t="s">
         <v>1014</v>
@@ -9188,10 +9188,10 @@
         <v>55</v>
       </c>
       <c r="B258" s="38" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C258" s="38" t="s">
         <v>1247</v>
-      </c>
-      <c r="C258" s="38" t="s">
-        <v>1248</v>
       </c>
       <c r="D258" s="38" t="s">
         <v>1014</v>
@@ -9206,7 +9206,7 @@
         <v>55</v>
       </c>
       <c r="B259" s="38" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C259" s="37" t="s">
         <v>31</v>
@@ -9256,7 +9256,7 @@
         <v>55</v>
       </c>
       <c r="B262" s="35" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C262" s="36" t="s">
         <v>34</v>
@@ -9270,7 +9270,7 @@
         <v>55</v>
       </c>
       <c r="B263" s="38" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C263" s="37" t="s">
         <v>1</v>
@@ -9427,7 +9427,7 @@
         <v>393</v>
       </c>
       <c r="C272" s="41" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D272" s="41"/>
       <c r="E272" s="41"/>
@@ -9456,7 +9456,7 @@
         <v>55</v>
       </c>
       <c r="B274" s="38" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C274" s="43" t="s">
         <v>1140</v>
@@ -9546,7 +9546,7 @@
         <v>55</v>
       </c>
       <c r="B279" s="38" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C279" s="37" t="s">
         <v>406</v>
@@ -9718,10 +9718,10 @@
         <v>55</v>
       </c>
       <c r="B289" s="38" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C289" s="41" t="s">
         <v>1250</v>
-      </c>
-      <c r="C289" s="41" t="s">
-        <v>1251</v>
       </c>
       <c r="D289" s="41"/>
       <c r="E289" s="41"/>
@@ -9735,7 +9735,7 @@
         <v>422</v>
       </c>
       <c r="C290" s="38" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D290" s="38" t="s">
         <v>423</v>
@@ -9843,7 +9843,7 @@
         <v>433</v>
       </c>
       <c r="C296" s="38" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D296" s="38" t="s">
         <v>435</v>
@@ -9861,7 +9861,7 @@
         <v>436</v>
       </c>
       <c r="C297" s="43" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D297" s="38" t="s">
         <v>1050</v>
@@ -9876,10 +9876,10 @@
         <v>55</v>
       </c>
       <c r="B298" s="38" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C298" s="43" t="s">
         <v>1159</v>
-      </c>
-      <c r="C298" s="43" t="s">
-        <v>1160</v>
       </c>
       <c r="D298" s="38" t="s">
         <v>1053</v>
@@ -9894,7 +9894,7 @@
         <v>55</v>
       </c>
       <c r="B299" s="38" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C299" s="37" t="s">
         <v>36</v>
@@ -10066,10 +10066,10 @@
         <v>55</v>
       </c>
       <c r="B309" s="38" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C309" s="41" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D309" s="41"/>
       <c r="E309" s="41"/>
@@ -10083,7 +10083,7 @@
         <v>447</v>
       </c>
       <c r="C310" s="38" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D310" s="38" t="s">
         <v>423</v>
@@ -10191,7 +10191,7 @@
         <v>453</v>
       </c>
       <c r="C316" s="38" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D316" s="38" t="s">
         <v>435</v>
@@ -10209,7 +10209,7 @@
         <v>454</v>
       </c>
       <c r="C317" s="43" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D317" s="38" t="s">
         <v>1050</v>
@@ -10224,10 +10224,10 @@
         <v>55</v>
       </c>
       <c r="B318" s="38" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C318" s="43" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D318" s="38" t="s">
         <v>1053</v>
@@ -10242,7 +10242,7 @@
         <v>55</v>
       </c>
       <c r="B319" s="38" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C319" s="37" t="s">
         <v>9</v>
@@ -10305,10 +10305,10 @@
         <v>460</v>
       </c>
       <c r="C323" s="38" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D323" s="38" t="s">
         <v>1254</v>
-      </c>
-      <c r="D323" s="38" t="s">
-        <v>1255</v>
       </c>
       <c r="E323" s="38"/>
       <c r="F323" s="38" t="s">
@@ -10395,7 +10395,7 @@
         <v>473</v>
       </c>
       <c r="C328" s="38" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D328" s="38" t="s">
         <v>423</v>
@@ -10428,10 +10428,10 @@
         <v>55</v>
       </c>
       <c r="B330" s="38" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C330" s="41" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D330" s="41"/>
       <c r="E330" s="47"/>
@@ -10442,10 +10442,10 @@
         <v>55</v>
       </c>
       <c r="B331" s="38" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C331" s="38" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D331" s="38" t="s">
         <v>423</v>
@@ -10460,7 +10460,7 @@
         <v>55</v>
       </c>
       <c r="B332" s="38" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C332" s="38" t="s">
         <v>425</v>
@@ -10478,7 +10478,7 @@
         <v>55</v>
       </c>
       <c r="B333" s="38" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C333" s="46" t="s">
         <v>38</v>
@@ -10614,7 +10614,7 @@
         <v>55</v>
       </c>
       <c r="B341" s="38" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C341" s="38" t="s">
         <v>419</v>
@@ -10632,7 +10632,7 @@
         <v>55</v>
       </c>
       <c r="B342" s="38" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C342" s="38" t="s">
         <v>421</v>
@@ -10653,7 +10653,7 @@
         <v>1144</v>
       </c>
       <c r="C343" s="41" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D343" s="41"/>
       <c r="E343" s="41"/>
@@ -10664,10 +10664,10 @@
         <v>55</v>
       </c>
       <c r="B344" s="38" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C344" s="38" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D344" s="38" t="s">
         <v>423</v>
@@ -10682,7 +10682,7 @@
         <v>55</v>
       </c>
       <c r="B345" s="38" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C345" s="38" t="s">
         <v>425</v>
@@ -10775,7 +10775,7 @@
         <v>487</v>
       </c>
       <c r="C350" s="38" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D350" s="38" t="s">
         <v>435</v>
@@ -10793,7 +10793,7 @@
         <v>488</v>
       </c>
       <c r="C351" s="43" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D351" s="38" t="s">
         <v>1050</v>
@@ -10811,7 +10811,7 @@
         <v>489</v>
       </c>
       <c r="C352" s="43" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D352" s="38" t="s">
         <v>1053</v>
@@ -10826,7 +10826,7 @@
         <v>55</v>
       </c>
       <c r="B353" s="35" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C353" s="41" t="s">
         <v>39</v>
@@ -10840,7 +10840,7 @@
         <v>55</v>
       </c>
       <c r="B354" s="38" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C354" s="41" t="s">
         <v>40</v>
@@ -11150,7 +11150,7 @@
         <v>531</v>
       </c>
       <c r="D372" s="38" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E372" s="43"/>
       <c r="F372" s="38" t="s">
@@ -11352,7 +11352,7 @@
         <v>55</v>
       </c>
       <c r="B384" s="38" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C384" s="37" t="s">
         <v>43</v>
@@ -11724,7 +11724,7 @@
         <v>55</v>
       </c>
       <c r="B406" s="38" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C406" s="37" t="s">
         <v>44</v>
@@ -12096,7 +12096,7 @@
         <v>55</v>
       </c>
       <c r="B428" s="38" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C428" s="37" t="s">
         <v>45</v>
@@ -12506,7 +12506,7 @@
         <v>531</v>
       </c>
       <c r="D452" s="38" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E452" s="43"/>
       <c r="F452" s="38" t="s">
@@ -12524,7 +12524,7 @@
         <v>652</v>
       </c>
       <c r="D453" s="38" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E453" s="43"/>
       <c r="F453" s="38" t="s">
@@ -12636,7 +12636,7 @@
         <v>55</v>
       </c>
       <c r="B460" s="38" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C460" s="37" t="s">
         <v>46</v>
@@ -12692,7 +12692,7 @@
         <v>55</v>
       </c>
       <c r="B464" s="38" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C464" s="37" t="s">
         <v>48</v>
@@ -12734,7 +12734,7 @@
         <v>55</v>
       </c>
       <c r="B467" s="38" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C467" s="37" t="s">
         <v>50</v>
@@ -12893,7 +12893,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A477" s="38" t="s">
         <v>55</v>
       </c>
@@ -13104,7 +13104,7 @@
         <v>55</v>
       </c>
       <c r="B489" s="38" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C489" s="38" t="s">
         <v>555</v>
@@ -13182,7 +13182,7 @@
         <v>694</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1" t="s">
@@ -13280,7 +13280,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -14406,7 +14406,7 @@
         <v>709</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E5" s="51"/>
       <c r="F5" s="51" t="s">
@@ -14425,7 +14425,7 @@
         <v>710</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E6" s="51"/>
       <c r="F6" s="51" t="s">
@@ -14444,7 +14444,7 @@
         <v>711</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E7" s="51"/>
       <c r="F7" s="51" t="s">
@@ -14482,7 +14482,7 @@
         <v>717</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E9" s="51"/>
       <c r="F9" s="51" t="s">
@@ -14634,10 +14634,10 @@
         <v>725</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="F17" s="51" t="s">
         <v>695</v>
@@ -14674,7 +14674,7 @@
         <v>730</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E19" s="50"/>
       <c r="F19" s="51" t="s">
@@ -14788,7 +14788,7 @@
         <v>737</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="E25" s="51"/>
       <c r="F25" s="51" t="s">
@@ -14845,7 +14845,7 @@
         <v>742</v>
       </c>
       <c r="D28" s="51" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="E28" s="51"/>
       <c r="F28" s="51" t="s">
@@ -14940,7 +14940,7 @@
         <v>748</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E33" s="51"/>
       <c r="F33" s="51" t="s">
@@ -14959,7 +14959,7 @@
         <v>750</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E34" s="51"/>
       <c r="F34" s="51" t="s">
@@ -15054,7 +15054,7 @@
         <v>755</v>
       </c>
       <c r="D39" s="51" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E39" s="51"/>
       <c r="F39" s="51" t="s">
@@ -15130,7 +15130,7 @@
         <v>1056</v>
       </c>
       <c r="D43" s="63" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E43" s="33"/>
       <c r="F43" s="51" t="s">
@@ -15149,7 +15149,7 @@
         <v>1057</v>
       </c>
       <c r="D44" s="63" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E44" s="33"/>
       <c r="F44" s="51" t="s">
@@ -15168,7 +15168,7 @@
         <v>1058</v>
       </c>
       <c r="D45" s="63" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E45" s="33"/>
       <c r="F45" s="51" t="s">
@@ -15187,7 +15187,7 @@
         <v>1059</v>
       </c>
       <c r="D46" s="63" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E46" s="33"/>
       <c r="F46" s="51" t="s">
@@ -15206,7 +15206,7 @@
         <v>1060</v>
       </c>
       <c r="D47" s="63" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E47" s="33"/>
       <c r="F47" s="51" t="s">
@@ -15225,7 +15225,7 @@
         <v>1061</v>
       </c>
       <c r="D48" s="63" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E48" s="33"/>
       <c r="F48" s="51" t="s">
@@ -15244,7 +15244,7 @@
         <v>1062</v>
       </c>
       <c r="D49" s="63" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E49" s="33"/>
       <c r="F49" s="51" t="s">
@@ -15263,7 +15263,7 @@
         <v>1063</v>
       </c>
       <c r="D50" s="63" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E50" s="33"/>
       <c r="F50" s="51" t="s">
@@ -15282,7 +15282,7 @@
         <v>1064</v>
       </c>
       <c r="D51" s="63" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E51" s="33"/>
       <c r="F51" s="51" t="s">
@@ -15301,7 +15301,7 @@
         <v>1065</v>
       </c>
       <c r="D52" s="63" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E52" s="33"/>
       <c r="F52" s="51" t="s">
@@ -15320,7 +15320,7 @@
         <v>1066</v>
       </c>
       <c r="D53" s="63" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="E53" s="33"/>
       <c r="F53" s="51" t="s">
@@ -15339,7 +15339,7 @@
         <v>1083</v>
       </c>
       <c r="D54" s="63" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E54" s="33"/>
       <c r="F54" s="51" t="s">
@@ -15368,16 +15368,16 @@
     </row>
     <row r="56" spans="1:7" s="49" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A56" s="63" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B56" s="63" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C56" s="63" t="s">
         <v>1214</v>
       </c>
-      <c r="C56" s="63" t="s">
+      <c r="D56" s="50" t="s">
         <v>1215</v>
-      </c>
-      <c r="D56" s="50" t="s">
-        <v>1216</v>
       </c>
       <c r="E56" s="33"/>
       <c r="F56" s="51" t="s">
@@ -16325,7 +16325,7 @@
         <v>836</v>
       </c>
       <c r="D35" s="60" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="E35" s="18"/>
       <c r="F35" s="18" t="s">
@@ -16867,7 +16867,7 @@
         <v>1154</v>
       </c>
       <c r="D50" s="60" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="18" t="s">
@@ -17350,13 +17350,13 @@
     </row>
     <row r="11" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="63" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B11" s="63" t="s">
         <v>1036</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>882</v>
@@ -17378,7 +17378,7 @@
         <v>900</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
@@ -17457,7 +17457,7 @@
         <v>907</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>908</v>
@@ -17596,7 +17596,7 @@
         <v>922</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
@@ -17713,7 +17713,7 @@
         <v>1052</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>695</v>
@@ -17734,7 +17734,7 @@
         <v>1055</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>695</v>
@@ -18115,17 +18115,17 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="53.3984375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="44.5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="31.8984375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="13.59765625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="38.09765625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.8984375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="72.5" style="8" customWidth="1"/>
+    <col min="5" max="5" width="120.69921875" style="8" customWidth="1"/>
     <col min="6" max="6" width="11.8984375" style="8" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="8" customWidth="1"/>
     <col min="8" max="256" width="8.8984375" style="8" customWidth="1"/>
@@ -18426,7 +18426,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="3" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="60" t="s">
         <v>566</v>
       </c>
@@ -18445,7 +18445,7 @@
       </c>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="60" t="s">
         <v>500</v>
       </c>
@@ -18464,7 +18464,7 @@
       </c>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="60" t="s">
         <v>503</v>
       </c>
@@ -18483,7 +18483,7 @@
       </c>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
         <v>506</v>
       </c>
@@ -18502,7 +18502,7 @@
       </c>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:256" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:256" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A7" s="60" t="s">
         <v>509</v>
       </c>
@@ -18513,10 +18513,10 @@
         <v>943</v>
       </c>
       <c r="D7" s="60" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>1286</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>1287</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>695</v>
@@ -18563,7 +18563,7 @@
       </c>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="1:256" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="60" t="s">
         <v>519</v>
       </c>
@@ -18582,7 +18582,7 @@
       </c>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="60" t="s">
         <v>522</v>
       </c>
@@ -18601,7 +18601,7 @@
       </c>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="1:256" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="60" t="s">
         <v>524</v>
       </c>
@@ -18634,13 +18634,13 @@
         <v>954</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>695</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
@@ -18763,7 +18763,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="60" t="s">
         <v>635</v>
       </c>
@@ -18782,7 +18782,7 @@
       </c>
       <c r="G20" s="19"/>
     </row>
-    <row r="21" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A21" s="60" t="s">
         <v>637</v>
       </c>
@@ -18796,7 +18796,7 @@
         <v>974</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>1157</v>
+        <v>1289</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>695</v>
@@ -18845,7 +18845,7 @@
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="60" t="s">
         <v>995</v>
       </c>
@@ -18862,7 +18862,7 @@
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="60" t="s">
         <v>992</v>
       </c>
@@ -18898,7 +18898,7 @@
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A27" s="68" t="s">
         <v>994</v>
       </c>
@@ -18915,36 +18915,36 @@
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
     </row>
-    <row r="28" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A28" s="60" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B28" s="60" t="s">
         <v>931</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D28" s="60" t="s">
         <v>531</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="F28" s="29"/>
       <c r="G28" s="29" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="60" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B29" s="60" t="s">
         <v>931</v>
       </c>
       <c r="C29" s="60" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D29" s="60" t="s">
         <v>532</v>

--- a/conformancelib/testdata/PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/PIV_ICAM_Test_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F844F3-C4B4-4057-BEEA-85F8810A265C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6720A4B-F444-471A-93EF-9173D0A8B47D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1668" yWindow="0" windowWidth="20904" windowHeight="12360" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="1290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="1291">
   <si>
     <t>Card Capabilities Container</t>
   </si>
@@ -3900,6 +3900,9 @@
   </si>
   <si>
     <t>X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.101.3.6.8,CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.6.7</t>
+  </si>
+  <si>
+    <t>Message digest from signed attributes bag matches the digest over Facial Image biometric data (excluding contents of digital signature field)</t>
   </si>
 </sst>
 </file>
@@ -4737,8 +4740,8 @@
   <sheetPr codeName="Sheet2" filterMode="1"/>
   <dimension ref="A1:F489"/>
   <sheetViews>
-    <sheetView topLeftCell="A456" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F480" sqref="F480"/>
+    <sheetView tabSelected="1" topLeftCell="A306" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C312" sqref="C312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -10119,7 +10122,7 @@
         <v>449</v>
       </c>
       <c r="C312" s="38" t="s">
-        <v>427</v>
+        <v>1290</v>
       </c>
       <c r="D312" s="38" t="s">
         <v>899</v>
@@ -18115,7 +18118,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>

--- a/conformancelib/testdata/PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/PIV_ICAM_Test_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6720A4B-F444-471A-93EF-9173D0A8B47D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7F2B71-F9F4-4488-B6BF-E622C41E8289}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -23,14 +23,14 @@
     <sheet name="Placeholders" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Steps Overview'!$D$1:$D$489</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Steps Overview'!$D$1:$D$487</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="1291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3080" uniqueCount="1290">
   <si>
     <t>Card Capabilities Container</t>
   </si>
@@ -3857,12 +3857,6 @@
     <t>10.4.2.8</t>
   </si>
   <si>
-    <t>10.4.2.8.1</t>
-  </si>
-  <si>
-    <t>10.4.2.8.2</t>
-  </si>
-  <si>
     <t>11.7 Content Signing Cert</t>
   </si>
   <si>
@@ -3903,6 +3897,9 @@
   </si>
   <si>
     <t>Message digest from signed attributes bag matches the digest over Facial Image biometric data (excluding contents of digital signature field)</t>
+  </si>
+  <si>
+    <t>The signature in the SignerInfo corresponds to the signed security object and that it is it signed with the certificate that is used to sign the CHUID.</t>
   </si>
 </sst>
 </file>
@@ -3976,7 +3973,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4039,6 +4036,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4143,7 +4146,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4349,6 +4352,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4738,10 +4744,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2" filterMode="1"/>
-  <dimension ref="A1:F489"/>
+  <dimension ref="A1:F487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A306" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C312" sqref="C312"/>
+    <sheetView tabSelected="1" topLeftCell="A327" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C343" sqref="C343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4970,7 +4976,7 @@
         <v>77</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="D13" s="38" t="s">
         <v>78</v>
@@ -9459,7 +9465,7 @@
         <v>55</v>
       </c>
       <c r="B274" s="38" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C274" s="43" t="s">
         <v>1140</v>
@@ -9846,7 +9852,7 @@
         <v>433</v>
       </c>
       <c r="C296" s="38" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="D296" s="38" t="s">
         <v>435</v>
@@ -10122,7 +10128,7 @@
         <v>449</v>
       </c>
       <c r="C312" s="38" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D312" s="38" t="s">
         <v>899</v>
@@ -10426,114 +10432,118 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A330" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B330" s="38" t="s">
+    <row r="330" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="A330" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="B330" s="69" t="s">
         <v>1274</v>
       </c>
-      <c r="C330" s="41" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D330" s="41"/>
-      <c r="E330" s="47"/>
-      <c r="F330" s="47"/>
+      <c r="C330" s="69" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D330" s="69" t="s">
+        <v>405</v>
+      </c>
+      <c r="E330" s="69"/>
+      <c r="F330" s="38" t="s">
+        <v>1033</v>
+      </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B331" s="38" t="s">
-        <v>1275</v>
-      </c>
-      <c r="C331" s="38" t="s">
-        <v>1251</v>
-      </c>
-      <c r="D331" s="38" t="s">
-        <v>423</v>
-      </c>
-      <c r="E331" s="43"/>
-      <c r="F331" s="38" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+        <v>1205</v>
+      </c>
+      <c r="C331" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D331" s="47"/>
+      <c r="E331" s="47"/>
+      <c r="F331" s="47"/>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B332" s="38" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C332" s="38" t="s">
-        <v>425</v>
-      </c>
-      <c r="D332" s="38" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E332" s="43"/>
-      <c r="F332" s="38" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A333" s="38" t="s">
+        <v>477</v>
+      </c>
+      <c r="C332" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D332" s="47"/>
+      <c r="E332" s="47"/>
+      <c r="F332" s="47"/>
+    </row>
+    <row r="333" spans="1:6" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A333" s="56" t="s">
         <v>55</v>
       </c>
       <c r="B333" s="38" t="s">
-        <v>1205</v>
-      </c>
-      <c r="C333" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D333" s="47"/>
-      <c r="E333" s="47"/>
-      <c r="F333" s="47"/>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A334" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="C333" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="D333" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="E333" s="38"/>
+      <c r="F333" s="38" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A334" s="56" t="s">
         <v>55</v>
       </c>
       <c r="B334" s="38" t="s">
-        <v>477</v>
-      </c>
-      <c r="C334" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="D334" s="47"/>
-      <c r="E334" s="47"/>
-      <c r="F334" s="47"/>
-    </row>
-    <row r="335" spans="1:6" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+      <c r="C334" s="38" t="s">
+        <v>411</v>
+      </c>
+      <c r="D334" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="E334" s="38"/>
+      <c r="F334" s="38" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A335" s="56" t="s">
         <v>55</v>
       </c>
       <c r="B335" s="38" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C335" s="38" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D335" s="38" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="E335" s="38"/>
       <c r="F335" s="38" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="336" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A336" s="56" t="s">
         <v>55</v>
       </c>
       <c r="B336" s="38" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C336" s="38" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D336" s="38" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="E336" s="38"/>
       <c r="F336" s="38" t="s">
@@ -10545,31 +10555,31 @@
         <v>55</v>
       </c>
       <c r="B337" s="38" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C337" s="38" t="s">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="D337" s="38" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="E337" s="38"/>
       <c r="F337" s="38" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="338" spans="1:6" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A338" s="56" t="s">
         <v>55</v>
       </c>
       <c r="B338" s="38" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C338" s="38" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="D338" s="38" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="E338" s="38"/>
       <c r="F338" s="38" t="s">
@@ -10581,99 +10591,99 @@
         <v>55</v>
       </c>
       <c r="B339" s="38" t="s">
-        <v>482</v>
+        <v>1276</v>
       </c>
       <c r="C339" s="38" t="s">
-        <v>385</v>
+        <v>419</v>
       </c>
       <c r="D339" s="38" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="E339" s="38"/>
       <c r="F339" s="38" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="340" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A340" s="56" t="s">
         <v>55</v>
       </c>
       <c r="B340" s="38" t="s">
-        <v>483</v>
+        <v>1277</v>
       </c>
       <c r="C340" s="38" t="s">
-        <v>388</v>
+        <v>421</v>
       </c>
       <c r="D340" s="38" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E340" s="38"/>
       <c r="F340" s="38" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="341" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A341" s="56" t="s">
         <v>55</v>
       </c>
       <c r="B341" s="38" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C341" s="41" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D341" s="41"/>
+      <c r="E341" s="41"/>
+      <c r="F341" s="41"/>
+    </row>
+    <row r="342" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A342" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B342" s="38" t="s">
         <v>1278</v>
       </c>
-      <c r="C341" s="38" t="s">
-        <v>419</v>
-      </c>
-      <c r="D341" s="38" t="s">
-        <v>392</v>
-      </c>
-      <c r="E341" s="38"/>
-      <c r="F341" s="38" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A342" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="B342" s="38" t="s">
-        <v>1279</v>
-      </c>
       <c r="C342" s="38" t="s">
-        <v>421</v>
+        <v>1272</v>
       </c>
       <c r="D342" s="38" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="E342" s="38"/>
       <c r="F342" s="38" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="343" spans="1:6" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A343" s="56" t="s">
         <v>55</v>
       </c>
       <c r="B343" s="38" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C343" s="41" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D343" s="41"/>
-      <c r="E343" s="41"/>
-      <c r="F343" s="41"/>
-    </row>
-    <row r="344" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1279</v>
+      </c>
+      <c r="C343" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="D343" s="38" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E343" s="38"/>
+      <c r="F343" s="38" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A344" s="56" t="s">
         <v>55</v>
       </c>
       <c r="B344" s="38" t="s">
-        <v>1280</v>
+        <v>1143</v>
       </c>
       <c r="C344" s="38" t="s">
-        <v>1272</v>
+        <v>427</v>
       </c>
       <c r="D344" s="38" t="s">
-        <v>423</v>
+        <v>899</v>
       </c>
       <c r="E344" s="38"/>
       <c r="F344" s="38" t="s">
@@ -10685,199 +10695,199 @@
         <v>55</v>
       </c>
       <c r="B345" s="38" t="s">
-        <v>1281</v>
+        <v>484</v>
       </c>
       <c r="C345" s="38" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D345" s="38" t="s">
-        <v>1039</v>
+        <v>400</v>
       </c>
       <c r="E345" s="38"/>
       <c r="F345" s="38" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="346" spans="1:6" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" s="61" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A346" s="56" t="s">
         <v>55</v>
       </c>
       <c r="B346" s="38" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C346" s="38" t="s">
-        <v>427</v>
+        <v>485</v>
+      </c>
+      <c r="C346" s="43" t="s">
+        <v>431</v>
       </c>
       <c r="D346" s="38" t="s">
-        <v>899</v>
+        <v>402</v>
       </c>
       <c r="E346" s="38"/>
       <c r="F346" s="38" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="347" spans="1:6" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" s="61" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A347" s="56" t="s">
         <v>55</v>
       </c>
       <c r="B347" s="38" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C347" s="38" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="D347" s="38" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="E347" s="38"/>
       <c r="F347" s="38" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="348" spans="1:6" s="61" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A348" s="56" t="s">
         <v>55</v>
       </c>
       <c r="B348" s="38" t="s">
-        <v>485</v>
-      </c>
-      <c r="C348" s="43" t="s">
-        <v>431</v>
+        <v>487</v>
+      </c>
+      <c r="C348" s="38" t="s">
+        <v>1252</v>
       </c>
       <c r="D348" s="38" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="E348" s="38"/>
       <c r="F348" s="38" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="349" spans="1:6" s="61" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A349" s="56" t="s">
         <v>55</v>
       </c>
       <c r="B349" s="38" t="s">
-        <v>486</v>
-      </c>
-      <c r="C349" s="38" t="s">
-        <v>434</v>
+        <v>488</v>
+      </c>
+      <c r="C349" s="43" t="s">
+        <v>1160</v>
       </c>
       <c r="D349" s="38" t="s">
-        <v>405</v>
+        <v>1050</v>
       </c>
       <c r="E349" s="38"/>
       <c r="F349" s="38" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="350" spans="1:6" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A350" s="56" t="s">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A350" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B350" s="38" t="s">
-        <v>487</v>
-      </c>
-      <c r="C350" s="38" t="s">
-        <v>1252</v>
+        <v>489</v>
+      </c>
+      <c r="C350" s="43" t="s">
+        <v>1159</v>
       </c>
       <c r="D350" s="38" t="s">
-        <v>435</v>
+        <v>1053</v>
       </c>
       <c r="E350" s="38"/>
       <c r="F350" s="38" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="351" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A351" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="B351" s="38" t="s">
-        <v>488</v>
-      </c>
-      <c r="C351" s="43" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D351" s="38" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E351" s="38"/>
-      <c r="F351" s="38" t="s">
-        <v>1150</v>
-      </c>
+    <row r="351" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A351" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="B351" s="35" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C351" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D351" s="41"/>
+      <c r="E351" s="41"/>
+      <c r="F351" s="41"/>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B352" s="38" t="s">
-        <v>489</v>
-      </c>
-      <c r="C352" s="43" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D352" s="38" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E352" s="38"/>
-      <c r="F352" s="38" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A353" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="B353" s="35" t="s">
-        <v>1206</v>
+        <v>1207</v>
+      </c>
+      <c r="C352" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D352" s="41"/>
+      <c r="E352" s="41"/>
+      <c r="F352" s="41"/>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A353" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B353" s="38" t="s">
+        <v>490</v>
       </c>
       <c r="C353" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D353" s="41"/>
       <c r="E353" s="41"/>
       <c r="F353" s="41"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A354" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B354" s="38" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C354" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D354" s="41"/>
-      <c r="E354" s="41"/>
-      <c r="F354" s="41"/>
+        <v>491</v>
+      </c>
+      <c r="C354" s="43" t="s">
+        <v>492</v>
+      </c>
+      <c r="D354" s="38">
+        <v>78.3</v>
+      </c>
+      <c r="E354" s="38"/>
+      <c r="F354" s="38" t="s">
+        <v>1026</v>
+      </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B355" s="38" t="s">
-        <v>490</v>
-      </c>
-      <c r="C355" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D355" s="41"/>
-      <c r="E355" s="41"/>
-      <c r="F355" s="41"/>
-    </row>
-    <row r="356" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+      <c r="C355" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="D355" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E355" s="38"/>
+      <c r="F355" s="38" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B356" s="38" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C356" s="43" t="s">
-        <v>492</v>
+        <v>1145</v>
       </c>
       <c r="D356" s="38">
-        <v>78.3</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="E356" s="38"/>
       <c r="F356" s="38" t="s">
@@ -10889,31 +10899,27 @@
         <v>55</v>
       </c>
       <c r="B357" s="38" t="s">
-        <v>493</v>
-      </c>
-      <c r="C357" s="43" t="s">
-        <v>494</v>
-      </c>
-      <c r="D357" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E357" s="38"/>
-      <c r="F357" s="38" t="s">
-        <v>1026</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="C357" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D357" s="41"/>
+      <c r="E357" s="41"/>
+      <c r="F357" s="41"/>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B358" s="38" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C358" s="43" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D358" s="38">
-        <v>78.099999999999994</v>
+        <v>499</v>
+      </c>
+      <c r="D358" s="38" t="s">
+        <v>500</v>
       </c>
       <c r="E358" s="38"/>
       <c r="F358" s="38" t="s">
@@ -10925,27 +10931,31 @@
         <v>55</v>
       </c>
       <c r="B359" s="38" t="s">
-        <v>497</v>
-      </c>
-      <c r="C359" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D359" s="41"/>
-      <c r="E359" s="41"/>
-      <c r="F359" s="41"/>
+        <v>501</v>
+      </c>
+      <c r="C359" s="43" t="s">
+        <v>502</v>
+      </c>
+      <c r="D359" s="38" t="s">
+        <v>503</v>
+      </c>
+      <c r="E359" s="38"/>
+      <c r="F359" s="38" t="s">
+        <v>1026</v>
+      </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B360" s="38" t="s">
-        <v>498</v>
-      </c>
-      <c r="C360" s="43" t="s">
-        <v>499</v>
+        <v>504</v>
+      </c>
+      <c r="C360" s="38" t="s">
+        <v>505</v>
       </c>
       <c r="D360" s="38" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="E360" s="38"/>
       <c r="F360" s="38" t="s">
@@ -10957,13 +10967,13 @@
         <v>55</v>
       </c>
       <c r="B361" s="38" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="C361" s="43" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="D361" s="38" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="E361" s="38"/>
       <c r="F361" s="38" t="s">
@@ -10975,31 +10985,27 @@
         <v>55</v>
       </c>
       <c r="B362" s="38" t="s">
-        <v>504</v>
-      </c>
-      <c r="C362" s="38" t="s">
-        <v>505</v>
-      </c>
-      <c r="D362" s="38" t="s">
-        <v>506</v>
-      </c>
-      <c r="E362" s="38"/>
-      <c r="F362" s="38" t="s">
-        <v>1026</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="C362" s="41" t="s">
+        <v>511</v>
+      </c>
+      <c r="D362" s="41"/>
+      <c r="E362" s="41"/>
+      <c r="F362" s="41"/>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B363" s="38" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C363" s="43" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="D363" s="38" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="E363" s="38"/>
       <c r="F363" s="38" t="s">
@@ -11011,27 +11017,31 @@
         <v>55</v>
       </c>
       <c r="B364" s="38" t="s">
-        <v>510</v>
-      </c>
-      <c r="C364" s="41" t="s">
-        <v>511</v>
-      </c>
-      <c r="D364" s="41"/>
-      <c r="E364" s="41"/>
-      <c r="F364" s="41"/>
+        <v>515</v>
+      </c>
+      <c r="C364" s="43" t="s">
+        <v>516</v>
+      </c>
+      <c r="D364" s="38" t="s">
+        <v>517</v>
+      </c>
+      <c r="E364" s="38"/>
+      <c r="F364" s="38" t="s">
+        <v>1026</v>
+      </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B365" s="38" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="C365" s="43" t="s">
-        <v>513</v>
+        <v>996</v>
       </c>
       <c r="D365" s="38" t="s">
-        <v>514</v>
+        <v>995</v>
       </c>
       <c r="E365" s="38"/>
       <c r="F365" s="38" t="s">
@@ -11043,33 +11053,33 @@
         <v>55</v>
       </c>
       <c r="B366" s="38" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="C366" s="43" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="D366" s="38" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="E366" s="38"/>
       <c r="F366" s="38" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A367" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B367" s="38" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="C367" s="43" t="s">
-        <v>996</v>
+        <v>571</v>
       </c>
       <c r="D367" s="38" t="s">
-        <v>995</v>
-      </c>
-      <c r="E367" s="38"/>
+        <v>524</v>
+      </c>
+      <c r="E367" s="43"/>
       <c r="F367" s="38" t="s">
         <v>1026</v>
       </c>
@@ -11079,119 +11089,115 @@
         <v>55</v>
       </c>
       <c r="B368" s="38" t="s">
-        <v>520</v>
-      </c>
-      <c r="C368" s="43" t="s">
-        <v>521</v>
-      </c>
-      <c r="D368" s="38" t="s">
-        <v>522</v>
-      </c>
-      <c r="E368" s="38"/>
-      <c r="F368" s="38" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+      <c r="C368" s="41" t="s">
+        <v>526</v>
+      </c>
+      <c r="D368" s="41"/>
+      <c r="E368" s="41"/>
+      <c r="F368" s="41"/>
+    </row>
+    <row r="369" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A369" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B369" s="38" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="C369" s="43" t="s">
-        <v>571</v>
+        <v>529</v>
       </c>
       <c r="D369" s="38" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="E369" s="43"/>
       <c r="F369" s="38" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A370" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B370" s="38" t="s">
-        <v>525</v>
-      </c>
-      <c r="C370" s="41" t="s">
-        <v>526</v>
-      </c>
-      <c r="D370" s="41"/>
-      <c r="E370" s="41"/>
-      <c r="F370" s="41"/>
-    </row>
-    <row r="371" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+      <c r="C370" s="43" t="s">
+        <v>531</v>
+      </c>
+      <c r="D370" s="38" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E370" s="43"/>
+      <c r="F370" s="38" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A371" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B371" s="38" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="C371" s="43" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="D371" s="38" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="E371" s="43"/>
       <c r="F371" s="38" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="372" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B372" s="38" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="C372" s="43" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="D372" s="38" t="s">
-        <v>1164</v>
+        <v>538</v>
       </c>
       <c r="E372" s="43"/>
       <c r="F372" s="38" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B373" s="38" t="s">
-        <v>533</v>
-      </c>
-      <c r="C373" s="43" t="s">
-        <v>534</v>
-      </c>
-      <c r="D373" s="38" t="s">
-        <v>535</v>
-      </c>
-      <c r="E373" s="43"/>
-      <c r="F373" s="38" t="s">
-        <v>1026</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="C373" s="41" t="s">
+        <v>540</v>
+      </c>
+      <c r="D373" s="41"/>
+      <c r="E373" s="41"/>
+      <c r="F373" s="41"/>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B374" s="38" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="C374" s="43" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="D374" s="38" t="s">
-        <v>538</v>
-      </c>
-      <c r="E374" s="43"/>
+        <v>519</v>
+      </c>
+      <c r="E374" s="38"/>
       <c r="F374" s="38" t="s">
         <v>1026</v>
       </c>
@@ -11201,47 +11207,47 @@
         <v>55</v>
       </c>
       <c r="B375" s="38" t="s">
-        <v>539</v>
-      </c>
-      <c r="C375" s="41" t="s">
-        <v>540</v>
-      </c>
-      <c r="D375" s="41"/>
-      <c r="E375" s="41"/>
-      <c r="F375" s="41"/>
+        <v>543</v>
+      </c>
+      <c r="C375" s="38" t="s">
+        <v>544</v>
+      </c>
+      <c r="D375" s="38" t="s">
+        <v>992</v>
+      </c>
+      <c r="E375" s="38"/>
+      <c r="F375" s="38" t="s">
+        <v>1026</v>
+      </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B376" s="38" t="s">
-        <v>541</v>
-      </c>
-      <c r="C376" s="43" t="s">
-        <v>542</v>
-      </c>
-      <c r="D376" s="38" t="s">
-        <v>519</v>
-      </c>
-      <c r="E376" s="38"/>
-      <c r="F376" s="38" t="s">
-        <v>1026</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="C376" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="D376" s="41"/>
+      <c r="E376" s="41"/>
+      <c r="F376" s="41"/>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B377" s="38" t="s">
-        <v>543</v>
-      </c>
-      <c r="C377" s="38" t="s">
-        <v>544</v>
+        <v>547</v>
+      </c>
+      <c r="C377" s="43" t="s">
+        <v>513</v>
       </c>
       <c r="D377" s="38" t="s">
-        <v>992</v>
-      </c>
-      <c r="E377" s="38"/>
+        <v>514</v>
+      </c>
+      <c r="E377" s="43"/>
       <c r="F377" s="38" t="s">
         <v>1026</v>
       </c>
@@ -11251,27 +11257,31 @@
         <v>55</v>
       </c>
       <c r="B378" s="38" t="s">
-        <v>545</v>
-      </c>
-      <c r="C378" s="41" t="s">
-        <v>546</v>
-      </c>
-      <c r="D378" s="41"/>
-      <c r="E378" s="41"/>
-      <c r="F378" s="41"/>
+        <v>548</v>
+      </c>
+      <c r="C378" s="43" t="s">
+        <v>549</v>
+      </c>
+      <c r="D378" s="38" t="s">
+        <v>997</v>
+      </c>
+      <c r="E378" s="43"/>
+      <c r="F378" s="38" t="s">
+        <v>1026</v>
+      </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B379" s="38" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C379" s="43" t="s">
-        <v>513</v>
+        <v>551</v>
       </c>
       <c r="D379" s="38" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="E379" s="43"/>
       <c r="F379" s="38" t="s">
@@ -11283,13 +11293,13 @@
         <v>55</v>
       </c>
       <c r="B380" s="38" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C380" s="43" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D380" s="38" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E380" s="43"/>
       <c r="F380" s="38" t="s">
@@ -11301,15 +11311,15 @@
         <v>55</v>
       </c>
       <c r="B381" s="38" t="s">
-        <v>550</v>
-      </c>
-      <c r="C381" s="43" t="s">
-        <v>551</v>
+        <v>554</v>
+      </c>
+      <c r="C381" s="38" t="s">
+        <v>555</v>
       </c>
       <c r="D381" s="38" t="s">
-        <v>519</v>
-      </c>
-      <c r="E381" s="43"/>
+        <v>993</v>
+      </c>
+      <c r="E381" s="38"/>
       <c r="F381" s="38" t="s">
         <v>1026</v>
       </c>
@@ -11319,77 +11329,77 @@
         <v>55</v>
       </c>
       <c r="B382" s="38" t="s">
-        <v>552</v>
-      </c>
-      <c r="C382" s="43" t="s">
-        <v>553</v>
-      </c>
-      <c r="D382" s="38" t="s">
-        <v>995</v>
-      </c>
-      <c r="E382" s="43"/>
-      <c r="F382" s="38" t="s">
-        <v>1026</v>
-      </c>
+        <v>1208</v>
+      </c>
+      <c r="C382" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D382" s="41"/>
+      <c r="E382" s="41"/>
+      <c r="F382" s="41"/>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B383" s="38" t="s">
-        <v>554</v>
-      </c>
-      <c r="C383" s="38" t="s">
-        <v>555</v>
-      </c>
-      <c r="D383" s="38" t="s">
-        <v>993</v>
-      </c>
-      <c r="E383" s="38"/>
-      <c r="F383" s="38" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+      <c r="C383" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D383" s="41"/>
+      <c r="E383" s="41"/>
+      <c r="F383" s="41"/>
+    </row>
+    <row r="384" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A384" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B384" s="38" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C384" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="D384" s="41"/>
-      <c r="E384" s="41"/>
-      <c r="F384" s="41"/>
+        <v>557</v>
+      </c>
+      <c r="C384" s="43" t="s">
+        <v>492</v>
+      </c>
+      <c r="D384" s="38" t="s">
+        <v>928</v>
+      </c>
+      <c r="E384" s="43"/>
+      <c r="F384" s="38" t="s">
+        <v>1030</v>
+      </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B385" s="38" t="s">
-        <v>556</v>
-      </c>
-      <c r="C385" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D385" s="41"/>
-      <c r="E385" s="41"/>
-      <c r="F385" s="41"/>
-    </row>
-    <row r="386" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+        <v>558</v>
+      </c>
+      <c r="C385" s="43" t="s">
+        <v>559</v>
+      </c>
+      <c r="D385" s="38" t="s">
+        <v>923</v>
+      </c>
+      <c r="E385" s="43"/>
+      <c r="F385" s="38" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B386" s="38" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C386" s="43" t="s">
-        <v>492</v>
-      </c>
-      <c r="D386" s="38" t="s">
-        <v>928</v>
+        <v>496</v>
+      </c>
+      <c r="D386" s="38">
+        <v>78.099999999999994</v>
       </c>
       <c r="E386" s="43"/>
       <c r="F386" s="38" t="s">
@@ -11401,113 +11411,113 @@
         <v>55</v>
       </c>
       <c r="B387" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="C387" s="43" t="s">
-        <v>559</v>
-      </c>
-      <c r="D387" s="38" t="s">
-        <v>923</v>
-      </c>
-      <c r="E387" s="43"/>
-      <c r="F387" s="38" t="s">
-        <v>1030</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="C387" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D387" s="41"/>
+      <c r="E387" s="41"/>
+      <c r="F387" s="41"/>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B388" s="38" t="s">
-        <v>560</v>
-      </c>
-      <c r="C388" s="43" t="s">
-        <v>496</v>
-      </c>
-      <c r="D388" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E388" s="43"/>
-      <c r="F388" s="38" t="s">
-        <v>1030</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="C388" s="41" t="s">
+        <v>563</v>
+      </c>
+      <c r="D388" s="41"/>
+      <c r="E388" s="41"/>
+      <c r="F388" s="41"/>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B389" s="38" t="s">
-        <v>561</v>
-      </c>
-      <c r="C389" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D389" s="41"/>
-      <c r="E389" s="41"/>
-      <c r="F389" s="41"/>
+        <v>564</v>
+      </c>
+      <c r="C389" s="38" t="s">
+        <v>565</v>
+      </c>
+      <c r="D389" s="38" t="s">
+        <v>566</v>
+      </c>
+      <c r="E389" s="43"/>
+      <c r="F389" s="38" t="s">
+        <v>1030</v>
+      </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B390" s="38" t="s">
-        <v>562</v>
-      </c>
-      <c r="C390" s="41" t="s">
-        <v>563</v>
-      </c>
-      <c r="D390" s="41"/>
-      <c r="E390" s="41"/>
-      <c r="F390" s="41"/>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+      <c r="C390" s="43" t="s">
+        <v>568</v>
+      </c>
+      <c r="D390" s="38" t="s">
+        <v>569</v>
+      </c>
+      <c r="E390" s="43"/>
+      <c r="F390" s="38" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A391" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B391" s="38" t="s">
-        <v>564</v>
-      </c>
-      <c r="C391" s="38" t="s">
-        <v>565</v>
+        <v>570</v>
+      </c>
+      <c r="C391" s="43" t="s">
+        <v>571</v>
       </c>
       <c r="D391" s="38" t="s">
-        <v>566</v>
+        <v>524</v>
       </c>
       <c r="E391" s="43"/>
       <c r="F391" s="38" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A392" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B392" s="38" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="C392" s="43" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="D392" s="38" t="s">
-        <v>569</v>
+        <v>535</v>
       </c>
       <c r="E392" s="43"/>
       <c r="F392" s="38" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="393" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B393" s="38" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C393" s="43" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="D393" s="38" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="E393" s="43"/>
       <c r="F393" s="38" t="s">
@@ -11519,13 +11529,13 @@
         <v>55</v>
       </c>
       <c r="B394" s="38" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="C394" s="43" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="D394" s="38" t="s">
-        <v>535</v>
+        <v>509</v>
       </c>
       <c r="E394" s="43"/>
       <c r="F394" s="38" t="s">
@@ -11537,31 +11547,27 @@
         <v>55</v>
       </c>
       <c r="B395" s="38" t="s">
-        <v>574</v>
-      </c>
-      <c r="C395" s="43" t="s">
-        <v>575</v>
-      </c>
-      <c r="D395" s="38" t="s">
-        <v>538</v>
-      </c>
-      <c r="E395" s="43"/>
-      <c r="F395" s="38" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+      <c r="C395" s="41" t="s">
+        <v>540</v>
+      </c>
+      <c r="D395" s="41"/>
+      <c r="E395" s="41"/>
+      <c r="F395" s="41"/>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B396" s="38" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C396" s="43" t="s">
-        <v>577</v>
+        <v>542</v>
       </c>
       <c r="D396" s="38" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="E396" s="43"/>
       <c r="F396" s="38" t="s">
@@ -11573,47 +11579,47 @@
         <v>55</v>
       </c>
       <c r="B397" s="38" t="s">
-        <v>578</v>
-      </c>
-      <c r="C397" s="41" t="s">
-        <v>540</v>
-      </c>
-      <c r="D397" s="41"/>
-      <c r="E397" s="41"/>
-      <c r="F397" s="41"/>
+        <v>580</v>
+      </c>
+      <c r="C397" s="38" t="s">
+        <v>544</v>
+      </c>
+      <c r="D397" s="38" t="s">
+        <v>992</v>
+      </c>
+      <c r="E397" s="38"/>
+      <c r="F397" s="38" t="s">
+        <v>1030</v>
+      </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B398" s="38" t="s">
-        <v>579</v>
-      </c>
-      <c r="C398" s="43" t="s">
-        <v>542</v>
-      </c>
-      <c r="D398" s="38" t="s">
-        <v>519</v>
-      </c>
-      <c r="E398" s="43"/>
-      <c r="F398" s="38" t="s">
-        <v>1030</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="C398" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="D398" s="41"/>
+      <c r="E398" s="41"/>
+      <c r="F398" s="41"/>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B399" s="38" t="s">
-        <v>580</v>
-      </c>
-      <c r="C399" s="38" t="s">
-        <v>544</v>
+        <v>582</v>
+      </c>
+      <c r="C399" s="43" t="s">
+        <v>513</v>
       </c>
       <c r="D399" s="38" t="s">
-        <v>992</v>
-      </c>
-      <c r="E399" s="38"/>
+        <v>514</v>
+      </c>
+      <c r="E399" s="43"/>
       <c r="F399" s="38" t="s">
         <v>1030</v>
       </c>
@@ -11623,27 +11629,31 @@
         <v>55</v>
       </c>
       <c r="B400" s="38" t="s">
-        <v>581</v>
-      </c>
-      <c r="C400" s="41" t="s">
-        <v>546</v>
-      </c>
-      <c r="D400" s="41"/>
-      <c r="E400" s="41"/>
-      <c r="F400" s="41"/>
+        <v>583</v>
+      </c>
+      <c r="C400" s="43" t="s">
+        <v>584</v>
+      </c>
+      <c r="D400" s="38" t="s">
+        <v>997</v>
+      </c>
+      <c r="E400" s="43"/>
+      <c r="F400" s="38" t="s">
+        <v>1030</v>
+      </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B401" s="38" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C401" s="43" t="s">
-        <v>513</v>
+        <v>551</v>
       </c>
       <c r="D401" s="38" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="E401" s="43"/>
       <c r="F401" s="38" t="s">
@@ -11655,15 +11665,15 @@
         <v>55</v>
       </c>
       <c r="B402" s="38" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C402" s="43" t="s">
-        <v>584</v>
+        <v>553</v>
       </c>
       <c r="D402" s="38" t="s">
-        <v>997</v>
-      </c>
-      <c r="E402" s="43"/>
+        <v>995</v>
+      </c>
+      <c r="E402" s="38"/>
       <c r="F402" s="38" t="s">
         <v>1030</v>
       </c>
@@ -11673,15 +11683,15 @@
         <v>55</v>
       </c>
       <c r="B403" s="38" t="s">
-        <v>585</v>
-      </c>
-      <c r="C403" s="43" t="s">
-        <v>551</v>
+        <v>587</v>
+      </c>
+      <c r="C403" s="38" t="s">
+        <v>555</v>
       </c>
       <c r="D403" s="38" t="s">
-        <v>519</v>
-      </c>
-      <c r="E403" s="43"/>
+        <v>993</v>
+      </c>
+      <c r="E403" s="38"/>
       <c r="F403" s="38" t="s">
         <v>1030</v>
       </c>
@@ -11691,77 +11701,77 @@
         <v>55</v>
       </c>
       <c r="B404" s="38" t="s">
-        <v>586</v>
-      </c>
-      <c r="C404" s="43" t="s">
-        <v>553</v>
-      </c>
-      <c r="D404" s="38" t="s">
-        <v>995</v>
-      </c>
-      <c r="E404" s="38"/>
-      <c r="F404" s="38" t="s">
-        <v>1030</v>
-      </c>
+        <v>1209</v>
+      </c>
+      <c r="C404" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D404" s="41"/>
+      <c r="E404" s="41"/>
+      <c r="F404" s="41"/>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B405" s="38" t="s">
-        <v>587</v>
-      </c>
-      <c r="C405" s="38" t="s">
-        <v>555</v>
-      </c>
-      <c r="D405" s="38" t="s">
-        <v>993</v>
-      </c>
-      <c r="E405" s="38"/>
-      <c r="F405" s="38" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+      <c r="C405" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D405" s="41"/>
+      <c r="E405" s="41"/>
+      <c r="F405" s="41"/>
+    </row>
+    <row r="406" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A406" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B406" s="38" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C406" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D406" s="41"/>
-      <c r="E406" s="41"/>
-      <c r="F406" s="41"/>
+        <v>589</v>
+      </c>
+      <c r="C406" s="43" t="s">
+        <v>590</v>
+      </c>
+      <c r="D406" s="38">
+        <v>78.3</v>
+      </c>
+      <c r="E406" s="43"/>
+      <c r="F406" s="38" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B407" s="38" t="s">
-        <v>588</v>
-      </c>
-      <c r="C407" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D407" s="41"/>
-      <c r="E407" s="41"/>
-      <c r="F407" s="41"/>
-    </row>
-    <row r="408" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+      <c r="C407" s="38" t="s">
+        <v>592</v>
+      </c>
+      <c r="D407" s="38" t="s">
+        <v>923</v>
+      </c>
+      <c r="E407" s="38"/>
+      <c r="F407" s="38" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B408" s="38" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C408" s="43" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="D408" s="38">
-        <v>78.3</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="E408" s="43"/>
       <c r="F408" s="38" t="s">
@@ -11773,95 +11783,95 @@
         <v>55</v>
       </c>
       <c r="B409" s="38" t="s">
-        <v>591</v>
-      </c>
-      <c r="C409" s="38" t="s">
-        <v>592</v>
-      </c>
-      <c r="D409" s="38" t="s">
-        <v>923</v>
-      </c>
-      <c r="E409" s="38"/>
-      <c r="F409" s="38" t="s">
-        <v>1031</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="C409" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D409" s="41"/>
+      <c r="E409" s="41"/>
+      <c r="F409" s="41"/>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B410" s="38" t="s">
-        <v>593</v>
-      </c>
-      <c r="C410" s="43" t="s">
-        <v>594</v>
-      </c>
-      <c r="D410" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E410" s="43"/>
-      <c r="F410" s="38" t="s">
-        <v>1031</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="C410" s="41" t="s">
+        <v>563</v>
+      </c>
+      <c r="D410" s="41"/>
+      <c r="E410" s="41"/>
+      <c r="F410" s="41"/>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B411" s="38" t="s">
-        <v>595</v>
-      </c>
-      <c r="C411" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D411" s="41"/>
-      <c r="E411" s="41"/>
-      <c r="F411" s="41"/>
+        <v>597</v>
+      </c>
+      <c r="C411" s="43" t="s">
+        <v>598</v>
+      </c>
+      <c r="D411" s="38" t="s">
+        <v>962</v>
+      </c>
+      <c r="E411" s="43"/>
+      <c r="F411" s="38" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B412" s="38" t="s">
-        <v>596</v>
-      </c>
-      <c r="C412" s="41" t="s">
-        <v>563</v>
-      </c>
-      <c r="D412" s="41"/>
-      <c r="E412" s="41"/>
-      <c r="F412" s="41"/>
+        <v>599</v>
+      </c>
+      <c r="C412" s="43" t="s">
+        <v>600</v>
+      </c>
+      <c r="D412" s="38" t="s">
+        <v>601</v>
+      </c>
+      <c r="E412" s="43"/>
+      <c r="F412" s="38" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B413" s="38" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="C413" s="43" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="D413" s="38" t="s">
-        <v>962</v>
+        <v>503</v>
       </c>
       <c r="E413" s="43"/>
       <c r="F413" s="38" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A414" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B414" s="38" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="C414" s="43" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="D414" s="38" t="s">
-        <v>601</v>
+        <v>524</v>
       </c>
       <c r="E414" s="43"/>
       <c r="F414" s="38" t="s">
@@ -11873,13 +11883,13 @@
         <v>55</v>
       </c>
       <c r="B415" s="38" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="C415" s="43" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D415" s="38" t="s">
-        <v>503</v>
+        <v>538</v>
       </c>
       <c r="E415" s="43"/>
       <c r="F415" s="38" t="s">
@@ -11891,13 +11901,13 @@
         <v>55</v>
       </c>
       <c r="B416" s="38" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C416" s="43" t="s">
-        <v>605</v>
+        <v>577</v>
       </c>
       <c r="D416" s="38" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="E416" s="43"/>
       <c r="F416" s="38" t="s">
@@ -11909,31 +11919,27 @@
         <v>55</v>
       </c>
       <c r="B417" s="38" t="s">
-        <v>606</v>
-      </c>
-      <c r="C417" s="43" t="s">
-        <v>607</v>
-      </c>
-      <c r="D417" s="38" t="s">
-        <v>538</v>
-      </c>
-      <c r="E417" s="43"/>
-      <c r="F417" s="38" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="418" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+        <v>609</v>
+      </c>
+      <c r="C417" s="41" t="s">
+        <v>540</v>
+      </c>
+      <c r="D417" s="41"/>
+      <c r="E417" s="41"/>
+      <c r="F417" s="41"/>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B418" s="38" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C418" s="43" t="s">
-        <v>577</v>
+        <v>542</v>
       </c>
       <c r="D418" s="38" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="E418" s="43"/>
       <c r="F418" s="38" t="s">
@@ -11945,47 +11951,47 @@
         <v>55</v>
       </c>
       <c r="B419" s="38" t="s">
-        <v>609</v>
-      </c>
-      <c r="C419" s="41" t="s">
-        <v>540</v>
-      </c>
-      <c r="D419" s="41"/>
-      <c r="E419" s="41"/>
-      <c r="F419" s="41"/>
+        <v>611</v>
+      </c>
+      <c r="C419" s="38" t="s">
+        <v>544</v>
+      </c>
+      <c r="D419" s="38" t="s">
+        <v>992</v>
+      </c>
+      <c r="E419" s="38"/>
+      <c r="F419" s="38" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B420" s="38" t="s">
-        <v>610</v>
-      </c>
-      <c r="C420" s="43" t="s">
-        <v>542</v>
-      </c>
-      <c r="D420" s="38" t="s">
-        <v>519</v>
-      </c>
-      <c r="E420" s="43"/>
-      <c r="F420" s="38" t="s">
-        <v>1031</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="C420" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="D420" s="41"/>
+      <c r="E420" s="41"/>
+      <c r="F420" s="41"/>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B421" s="38" t="s">
-        <v>611</v>
-      </c>
-      <c r="C421" s="38" t="s">
-        <v>544</v>
+        <v>613</v>
+      </c>
+      <c r="C421" s="43" t="s">
+        <v>513</v>
       </c>
       <c r="D421" s="38" t="s">
-        <v>992</v>
-      </c>
-      <c r="E421" s="38"/>
+        <v>514</v>
+      </c>
+      <c r="E421" s="43"/>
       <c r="F421" s="38" t="s">
         <v>1031</v>
       </c>
@@ -11995,27 +12001,31 @@
         <v>55</v>
       </c>
       <c r="B422" s="38" t="s">
-        <v>612</v>
-      </c>
-      <c r="C422" s="41" t="s">
-        <v>546</v>
-      </c>
-      <c r="D422" s="41"/>
-      <c r="E422" s="41"/>
-      <c r="F422" s="41"/>
+        <v>614</v>
+      </c>
+      <c r="C422" s="43" t="s">
+        <v>584</v>
+      </c>
+      <c r="D422" s="38" t="s">
+        <v>997</v>
+      </c>
+      <c r="E422" s="43"/>
+      <c r="F422" s="38" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B423" s="38" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C423" s="43" t="s">
-        <v>513</v>
+        <v>551</v>
       </c>
       <c r="D423" s="38" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="E423" s="43"/>
       <c r="F423" s="38" t="s">
@@ -12027,15 +12037,15 @@
         <v>55</v>
       </c>
       <c r="B424" s="38" t="s">
-        <v>614</v>
-      </c>
-      <c r="C424" s="43" t="s">
-        <v>584</v>
+        <v>616</v>
+      </c>
+      <c r="C424" s="38" t="s">
+        <v>553</v>
       </c>
       <c r="D424" s="38" t="s">
-        <v>997</v>
-      </c>
-      <c r="E424" s="43"/>
+        <v>995</v>
+      </c>
+      <c r="E424" s="38"/>
       <c r="F424" s="38" t="s">
         <v>1031</v>
       </c>
@@ -12045,15 +12055,15 @@
         <v>55</v>
       </c>
       <c r="B425" s="38" t="s">
-        <v>615</v>
-      </c>
-      <c r="C425" s="43" t="s">
-        <v>551</v>
+        <v>617</v>
+      </c>
+      <c r="C425" s="38" t="s">
+        <v>555</v>
       </c>
       <c r="D425" s="38" t="s">
-        <v>519</v>
-      </c>
-      <c r="E425" s="43"/>
+        <v>993</v>
+      </c>
+      <c r="E425" s="38"/>
       <c r="F425" s="38" t="s">
         <v>1031</v>
       </c>
@@ -12063,77 +12073,77 @@
         <v>55</v>
       </c>
       <c r="B426" s="38" t="s">
-        <v>616</v>
-      </c>
-      <c r="C426" s="38" t="s">
-        <v>553</v>
-      </c>
-      <c r="D426" s="38" t="s">
-        <v>995</v>
-      </c>
-      <c r="E426" s="38"/>
-      <c r="F426" s="38" t="s">
-        <v>1031</v>
-      </c>
+        <v>1210</v>
+      </c>
+      <c r="C426" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D426" s="41"/>
+      <c r="E426" s="41"/>
+      <c r="F426" s="41"/>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B427" s="38" t="s">
-        <v>617</v>
-      </c>
-      <c r="C427" s="38" t="s">
-        <v>555</v>
-      </c>
-      <c r="D427" s="38" t="s">
-        <v>993</v>
-      </c>
-      <c r="E427" s="38"/>
-      <c r="F427" s="38" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+        <v>618</v>
+      </c>
+      <c r="C427" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D427" s="41"/>
+      <c r="E427" s="41"/>
+      <c r="F427" s="41"/>
+    </row>
+    <row r="428" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A428" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B428" s="38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C428" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D428" s="41"/>
-      <c r="E428" s="41"/>
-      <c r="F428" s="41"/>
+        <v>619</v>
+      </c>
+      <c r="C428" s="43" t="s">
+        <v>590</v>
+      </c>
+      <c r="D428" s="38">
+        <v>78.3</v>
+      </c>
+      <c r="E428" s="43"/>
+      <c r="F428" s="38" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B429" s="38" t="s">
-        <v>618</v>
-      </c>
-      <c r="C429" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D429" s="41"/>
-      <c r="E429" s="41"/>
-      <c r="F429" s="41"/>
-    </row>
-    <row r="430" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+        <v>620</v>
+      </c>
+      <c r="C429" s="43" t="s">
+        <v>621</v>
+      </c>
+      <c r="D429" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E429" s="43"/>
+      <c r="F429" s="38" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B430" s="38" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C430" s="43" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="D430" s="38">
-        <v>78.3</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="E430" s="43"/>
       <c r="F430" s="38" t="s">
@@ -12145,79 +12155,79 @@
         <v>55</v>
       </c>
       <c r="B431" s="38" t="s">
-        <v>620</v>
-      </c>
-      <c r="C431" s="43" t="s">
-        <v>621</v>
-      </c>
-      <c r="D431" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E431" s="43"/>
-      <c r="F431" s="38" t="s">
-        <v>1032</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="C431" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D431" s="41"/>
+      <c r="E431" s="41"/>
+      <c r="F431" s="41"/>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B432" s="38" t="s">
-        <v>622</v>
-      </c>
-      <c r="C432" s="43" t="s">
-        <v>594</v>
-      </c>
-      <c r="D432" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E432" s="43"/>
-      <c r="F432" s="38" t="s">
-        <v>1032</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="C432" s="41" t="s">
+        <v>563</v>
+      </c>
+      <c r="D432" s="41"/>
+      <c r="E432" s="41"/>
+      <c r="F432" s="41"/>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B433" s="38" t="s">
-        <v>623</v>
-      </c>
-      <c r="C433" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D433" s="41"/>
-      <c r="E433" s="41"/>
-      <c r="F433" s="41"/>
+        <v>625</v>
+      </c>
+      <c r="C433" s="38" t="s">
+        <v>565</v>
+      </c>
+      <c r="D433" s="38" t="s">
+        <v>566</v>
+      </c>
+      <c r="E433" s="38"/>
+      <c r="F433" s="38" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B434" s="38" t="s">
-        <v>624</v>
-      </c>
-      <c r="C434" s="41" t="s">
-        <v>563</v>
-      </c>
-      <c r="D434" s="41"/>
-      <c r="E434" s="41"/>
-      <c r="F434" s="41"/>
+        <v>626</v>
+      </c>
+      <c r="C434" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="D434" s="38" t="s">
+        <v>500</v>
+      </c>
+      <c r="E434" s="43"/>
+      <c r="F434" s="38" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B435" s="38" t="s">
-        <v>625</v>
-      </c>
-      <c r="C435" s="38" t="s">
-        <v>565</v>
+        <v>628</v>
+      </c>
+      <c r="C435" s="43" t="s">
+        <v>629</v>
       </c>
       <c r="D435" s="38" t="s">
-        <v>566</v>
-      </c>
-      <c r="E435" s="38"/>
+        <v>503</v>
+      </c>
+      <c r="E435" s="43"/>
       <c r="F435" s="38" t="s">
         <v>1032</v>
       </c>
@@ -12227,15 +12237,15 @@
         <v>55</v>
       </c>
       <c r="B436" s="38" t="s">
-        <v>626</v>
-      </c>
-      <c r="C436" s="43" t="s">
-        <v>627</v>
+        <v>630</v>
+      </c>
+      <c r="C436" s="38" t="s">
+        <v>631</v>
       </c>
       <c r="D436" s="38" t="s">
-        <v>500</v>
-      </c>
-      <c r="E436" s="43"/>
+        <v>509</v>
+      </c>
+      <c r="E436" s="38"/>
       <c r="F436" s="38" t="s">
         <v>1032</v>
       </c>
@@ -12245,31 +12255,27 @@
         <v>55</v>
       </c>
       <c r="B437" s="38" t="s">
-        <v>628</v>
-      </c>
-      <c r="C437" s="43" t="s">
-        <v>629</v>
-      </c>
-      <c r="D437" s="38" t="s">
-        <v>503</v>
-      </c>
-      <c r="E437" s="43"/>
-      <c r="F437" s="38" t="s">
-        <v>1032</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="C437" s="41" t="s">
+        <v>633</v>
+      </c>
+      <c r="D437" s="41"/>
+      <c r="E437" s="41"/>
+      <c r="F437" s="41"/>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B438" s="38" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C438" s="38" t="s">
-        <v>631</v>
+        <v>1147</v>
       </c>
       <c r="D438" s="38" t="s">
-        <v>509</v>
+        <v>635</v>
       </c>
       <c r="E438" s="38"/>
       <c r="F438" s="38" t="s">
@@ -12281,27 +12287,31 @@
         <v>55</v>
       </c>
       <c r="B439" s="38" t="s">
-        <v>632</v>
-      </c>
-      <c r="C439" s="41" t="s">
-        <v>633</v>
-      </c>
-      <c r="D439" s="41"/>
-      <c r="E439" s="41"/>
-      <c r="F439" s="41"/>
+        <v>636</v>
+      </c>
+      <c r="C439" s="38" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D439" s="38" t="s">
+        <v>637</v>
+      </c>
+      <c r="E439" s="38"/>
+      <c r="F439" s="38" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B440" s="38" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C440" s="38" t="s">
-        <v>1147</v>
+        <v>639</v>
       </c>
       <c r="D440" s="38" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E440" s="38"/>
       <c r="F440" s="38" t="s">
@@ -12313,33 +12323,29 @@
         <v>55</v>
       </c>
       <c r="B441" s="38" t="s">
-        <v>636</v>
-      </c>
-      <c r="C441" s="38" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D441" s="38" t="s">
-        <v>637</v>
-      </c>
-      <c r="E441" s="38"/>
-      <c r="F441" s="38" t="s">
-        <v>1032</v>
-      </c>
+        <v>640</v>
+      </c>
+      <c r="C441" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="D441" s="41"/>
+      <c r="E441" s="41"/>
+      <c r="F441" s="41"/>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B442" s="38" t="s">
-        <v>638</v>
-      </c>
-      <c r="C442" s="38" t="s">
-        <v>639</v>
+        <v>641</v>
+      </c>
+      <c r="C442" s="43" t="s">
+        <v>513</v>
       </c>
       <c r="D442" s="38" t="s">
-        <v>637</v>
-      </c>
-      <c r="E442" s="38"/>
+        <v>514</v>
+      </c>
+      <c r="E442" s="43"/>
       <c r="F442" s="38" t="s">
         <v>1032</v>
       </c>
@@ -12349,27 +12355,31 @@
         <v>55</v>
       </c>
       <c r="B443" s="38" t="s">
-        <v>640</v>
-      </c>
-      <c r="C443" s="41" t="s">
-        <v>546</v>
-      </c>
-      <c r="D443" s="41"/>
-      <c r="E443" s="41"/>
-      <c r="F443" s="41"/>
+        <v>642</v>
+      </c>
+      <c r="C443" s="43" t="s">
+        <v>643</v>
+      </c>
+      <c r="D443" s="38" t="s">
+        <v>517</v>
+      </c>
+      <c r="E443" s="43"/>
+      <c r="F443" s="38" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B444" s="38" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C444" s="43" t="s">
-        <v>513</v>
+        <v>551</v>
       </c>
       <c r="D444" s="38" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="E444" s="43"/>
       <c r="F444" s="38" t="s">
@@ -12381,15 +12391,15 @@
         <v>55</v>
       </c>
       <c r="B445" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="C445" s="43" t="s">
-        <v>643</v>
+        <v>645</v>
+      </c>
+      <c r="C445" s="38" t="s">
+        <v>553</v>
       </c>
       <c r="D445" s="38" t="s">
-        <v>517</v>
-      </c>
-      <c r="E445" s="43"/>
+        <v>519</v>
+      </c>
+      <c r="E445" s="38"/>
       <c r="F445" s="38" t="s">
         <v>1032</v>
       </c>
@@ -12399,33 +12409,33 @@
         <v>55</v>
       </c>
       <c r="B446" s="38" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C446" s="43" t="s">
-        <v>551</v>
+        <v>521</v>
       </c>
       <c r="D446" s="38" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="E446" s="43"/>
       <c r="F446" s="38" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A447" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B447" s="38" t="s">
-        <v>645</v>
-      </c>
-      <c r="C447" s="38" t="s">
-        <v>553</v>
+        <v>647</v>
+      </c>
+      <c r="C447" s="43" t="s">
+        <v>605</v>
       </c>
       <c r="D447" s="38" t="s">
-        <v>519</v>
-      </c>
-      <c r="E447" s="38"/>
+        <v>524</v>
+      </c>
+      <c r="E447" s="43"/>
       <c r="F447" s="38" t="s">
         <v>1032</v>
       </c>
@@ -12435,81 +12445,81 @@
         <v>55</v>
       </c>
       <c r="B448" s="38" t="s">
-        <v>646</v>
-      </c>
-      <c r="C448" s="43" t="s">
-        <v>521</v>
-      </c>
-      <c r="D448" s="38" t="s">
-        <v>522</v>
-      </c>
-      <c r="E448" s="43"/>
-      <c r="F448" s="38" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="449" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+        <v>648</v>
+      </c>
+      <c r="C448" s="41" t="s">
+        <v>526</v>
+      </c>
+      <c r="D448" s="41"/>
+      <c r="E448" s="41"/>
+      <c r="F448" s="41"/>
+    </row>
+    <row r="449" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A449" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B449" s="38" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C449" s="43" t="s">
-        <v>605</v>
+        <v>529</v>
       </c>
       <c r="D449" s="38" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="E449" s="43"/>
       <c r="F449" s="38" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A450" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B450" s="38" t="s">
-        <v>648</v>
-      </c>
-      <c r="C450" s="41" t="s">
-        <v>526</v>
-      </c>
-      <c r="D450" s="41"/>
-      <c r="E450" s="41"/>
-      <c r="F450" s="41"/>
-    </row>
-    <row r="451" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+        <v>650</v>
+      </c>
+      <c r="C450" s="43" t="s">
+        <v>531</v>
+      </c>
+      <c r="D450" s="38" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E450" s="43"/>
+      <c r="F450" s="38" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B451" s="38" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C451" s="43" t="s">
-        <v>529</v>
+        <v>652</v>
       </c>
       <c r="D451" s="38" t="s">
-        <v>527</v>
+        <v>1166</v>
       </c>
       <c r="E451" s="43"/>
       <c r="F451" s="38" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="452" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B452" s="38" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C452" s="43" t="s">
-        <v>531</v>
+        <v>607</v>
       </c>
       <c r="D452" s="38" t="s">
-        <v>1164</v>
+        <v>538</v>
       </c>
       <c r="E452" s="43"/>
       <c r="F452" s="38" t="s">
@@ -12521,31 +12531,27 @@
         <v>55</v>
       </c>
       <c r="B453" s="38" t="s">
-        <v>651</v>
-      </c>
-      <c r="C453" s="43" t="s">
-        <v>652</v>
-      </c>
-      <c r="D453" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="E453" s="43"/>
-      <c r="F453" s="38" t="s">
-        <v>1032</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="C453" s="41" t="s">
+        <v>540</v>
+      </c>
+      <c r="D453" s="41"/>
+      <c r="E453" s="41"/>
+      <c r="F453" s="41"/>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B454" s="38" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C454" s="43" t="s">
-        <v>607</v>
+        <v>542</v>
       </c>
       <c r="D454" s="38" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="E454" s="43"/>
       <c r="F454" s="38" t="s">
@@ -12557,63 +12563,63 @@
         <v>55</v>
       </c>
       <c r="B455" s="38" t="s">
-        <v>654</v>
-      </c>
-      <c r="C455" s="41" t="s">
-        <v>540</v>
-      </c>
-      <c r="D455" s="41"/>
-      <c r="E455" s="41"/>
-      <c r="F455" s="41"/>
+        <v>656</v>
+      </c>
+      <c r="C455" s="38" t="s">
+        <v>544</v>
+      </c>
+      <c r="D455" s="38" t="s">
+        <v>992</v>
+      </c>
+      <c r="E455" s="38"/>
+      <c r="F455" s="38" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B456" s="38" t="s">
-        <v>655</v>
-      </c>
-      <c r="C456" s="43" t="s">
-        <v>542</v>
-      </c>
-      <c r="D456" s="38" t="s">
-        <v>519</v>
-      </c>
-      <c r="E456" s="43"/>
-      <c r="F456" s="38" t="s">
-        <v>1032</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="C456" s="41" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D456" s="41"/>
+      <c r="E456" s="41"/>
+      <c r="F456" s="41"/>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B457" s="38" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C457" s="38" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="D457" s="38" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E457" s="38"/>
       <c r="F457" s="38" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A458" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B458" s="38" t="s">
-        <v>657</v>
-      </c>
-      <c r="C458" s="41" t="s">
-        <v>1002</v>
+        <v>1211</v>
+      </c>
+      <c r="C458" s="37" t="s">
+        <v>46</v>
       </c>
       <c r="D458" s="41"/>
-      <c r="E458" s="41"/>
+      <c r="E458" s="37"/>
       <c r="F458" s="41"/>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
@@ -12621,42 +12627,38 @@
         <v>55</v>
       </c>
       <c r="B459" s="38" t="s">
-        <v>658</v>
-      </c>
-      <c r="C459" s="38" t="s">
-        <v>555</v>
-      </c>
-      <c r="D459" s="38" t="s">
-        <v>993</v>
-      </c>
-      <c r="E459" s="38"/>
-      <c r="F459" s="38" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="460" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+        <v>659</v>
+      </c>
+      <c r="C459" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D459" s="38"/>
+      <c r="E459" s="43"/>
+      <c r="F459" s="38"/>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B460" s="38" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C460" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D460" s="41"/>
-      <c r="E460" s="37"/>
-      <c r="F460" s="41"/>
+        <v>660</v>
+      </c>
+      <c r="C460" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D460" s="38"/>
+      <c r="E460" s="43"/>
+      <c r="F460" s="38"/>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B461" s="38" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C461" s="43" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D461" s="38"/>
       <c r="E461" s="43"/>
@@ -12667,24 +12669,24 @@
         <v>55</v>
       </c>
       <c r="B462" s="38" t="s">
-        <v>660</v>
-      </c>
-      <c r="C462" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D462" s="38"/>
-      <c r="E462" s="43"/>
-      <c r="F462" s="38"/>
+        <v>1212</v>
+      </c>
+      <c r="C462" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D462" s="41"/>
+      <c r="E462" s="37"/>
+      <c r="F462" s="41"/>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B463" s="38" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C463" s="43" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D463" s="38"/>
       <c r="E463" s="43"/>
@@ -12695,83 +12697,91 @@
         <v>55</v>
       </c>
       <c r="B464" s="38" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C464" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="D464" s="41"/>
-      <c r="E464" s="37"/>
-      <c r="F464" s="41"/>
+        <v>663</v>
+      </c>
+      <c r="C464" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D464" s="38"/>
+      <c r="E464" s="43"/>
+      <c r="F464" s="38"/>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B465" s="38" t="s">
-        <v>662</v>
-      </c>
-      <c r="C465" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="D465" s="38"/>
-      <c r="E465" s="43"/>
-      <c r="F465" s="38"/>
+        <v>1275</v>
+      </c>
+      <c r="C465" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D465" s="41"/>
+      <c r="E465" s="37"/>
+      <c r="F465" s="41"/>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B466" s="38" t="s">
-        <v>663</v>
-      </c>
-      <c r="C466" s="43" t="s">
+        <v>664</v>
+      </c>
+      <c r="C466" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D466" s="38"/>
-      <c r="E466" s="43"/>
-      <c r="F466" s="38"/>
-    </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D466" s="41"/>
+      <c r="E466" s="41"/>
+      <c r="F466" s="41"/>
+    </row>
+    <row r="467" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A467" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B467" s="38" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C467" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D467" s="41"/>
-      <c r="E467" s="37"/>
-      <c r="F467" s="41"/>
+        <v>665</v>
+      </c>
+      <c r="C467" s="43" t="s">
+        <v>590</v>
+      </c>
+      <c r="D467" s="38">
+        <v>78.3</v>
+      </c>
+      <c r="E467" s="43"/>
+      <c r="F467" s="38" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B468" s="38" t="s">
-        <v>664</v>
-      </c>
-      <c r="C468" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D468" s="41"/>
-      <c r="E468" s="41"/>
-      <c r="F468" s="41"/>
-    </row>
-    <row r="469" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+        <v>666</v>
+      </c>
+      <c r="C468" s="43" t="s">
+        <v>621</v>
+      </c>
+      <c r="D468" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E468" s="43"/>
+      <c r="F468" s="38" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B469" s="38" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C469" s="43" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="D469" s="38">
-        <v>78.3</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="E469" s="43"/>
       <c r="F469" s="38" t="s">
@@ -12783,97 +12793,97 @@
         <v>55</v>
       </c>
       <c r="B470" s="38" t="s">
-        <v>666</v>
-      </c>
-      <c r="C470" s="43" t="s">
-        <v>621</v>
-      </c>
-      <c r="D470" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E470" s="43"/>
-      <c r="F470" s="38" t="s">
-        <v>1025</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="C470" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D470" s="41"/>
+      <c r="E470" s="41"/>
+      <c r="F470" s="41"/>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B471" s="38" t="s">
-        <v>667</v>
-      </c>
-      <c r="C471" s="43" t="s">
-        <v>594</v>
-      </c>
-      <c r="D471" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E471" s="43"/>
-      <c r="F471" s="38" t="s">
-        <v>1025</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="C471" s="41" t="s">
+        <v>563</v>
+      </c>
+      <c r="D471" s="41"/>
+      <c r="E471" s="41"/>
+      <c r="F471" s="41"/>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B472" s="38" t="s">
-        <v>668</v>
-      </c>
-      <c r="C472" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D472" s="41"/>
-      <c r="E472" s="41"/>
-      <c r="F472" s="41"/>
+        <v>670</v>
+      </c>
+      <c r="C472" s="43" t="s">
+        <v>671</v>
+      </c>
+      <c r="D472" s="38" t="s">
+        <v>500</v>
+      </c>
+      <c r="E472" s="43"/>
+      <c r="F472" s="38" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B473" s="38" t="s">
-        <v>669</v>
-      </c>
-      <c r="C473" s="41" t="s">
-        <v>563</v>
-      </c>
-      <c r="D473" s="41"/>
-      <c r="E473" s="41"/>
-      <c r="F473" s="41"/>
+        <v>672</v>
+      </c>
+      <c r="C473" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="D473" s="38" t="s">
+        <v>503</v>
+      </c>
+      <c r="E473" s="43"/>
+      <c r="F473" s="38" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B474" s="38" t="s">
-        <v>670</v>
-      </c>
-      <c r="C474" s="43" t="s">
-        <v>671</v>
+        <v>673</v>
+      </c>
+      <c r="C474" s="38" t="s">
+        <v>674</v>
       </c>
       <c r="D474" s="38" t="s">
-        <v>500</v>
-      </c>
-      <c r="E474" s="43"/>
+        <v>994</v>
+      </c>
+      <c r="E474" s="38"/>
       <c r="F474" s="38" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A475" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B475" s="38" t="s">
-        <v>672</v>
-      </c>
-      <c r="C475" s="43" t="s">
-        <v>629</v>
+        <v>675</v>
+      </c>
+      <c r="C475" s="38" t="s">
+        <v>676</v>
       </c>
       <c r="D475" s="38" t="s">
-        <v>503</v>
-      </c>
-      <c r="E475" s="43"/>
+        <v>538</v>
+      </c>
+      <c r="E475" s="38"/>
       <c r="F475" s="38" t="s">
         <v>1025</v>
       </c>
@@ -12883,14 +12893,12 @@
         <v>55</v>
       </c>
       <c r="B476" s="38" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C476" s="38" t="s">
-        <v>674</v>
-      </c>
-      <c r="D476" s="38" t="s">
-        <v>994</v>
-      </c>
+        <v>1011</v>
+      </c>
+      <c r="D476" s="38"/>
       <c r="E476" s="38"/>
       <c r="F476" s="38" t="s">
         <v>1025</v>
@@ -12901,13 +12909,13 @@
         <v>55</v>
       </c>
       <c r="B477" s="38" t="s">
-        <v>675</v>
+        <v>1012</v>
       </c>
       <c r="C477" s="38" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D477" s="38" t="s">
-        <v>538</v>
+        <v>509</v>
       </c>
       <c r="E477" s="38"/>
       <c r="F477" s="38" t="s">
@@ -12919,49 +12927,47 @@
         <v>55</v>
       </c>
       <c r="B478" s="38" t="s">
-        <v>677</v>
+        <v>1013</v>
       </c>
       <c r="C478" s="38" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D478" s="38"/>
+        <v>1010</v>
+      </c>
+      <c r="D478" s="38" t="s">
+        <v>637</v>
+      </c>
       <c r="E478" s="38"/>
       <c r="F478" s="38" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="479" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B479" s="38" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C479" s="38" t="s">
-        <v>678</v>
-      </c>
-      <c r="D479" s="38" t="s">
-        <v>509</v>
-      </c>
-      <c r="E479" s="38"/>
-      <c r="F479" s="38" t="s">
-        <v>1025</v>
-      </c>
+        <v>679</v>
+      </c>
+      <c r="C479" s="41" t="s">
+        <v>540</v>
+      </c>
+      <c r="D479" s="41"/>
+      <c r="E479" s="41"/>
+      <c r="F479" s="41"/>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B480" s="38" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C480" s="38" t="s">
-        <v>1010</v>
+        <v>680</v>
+      </c>
+      <c r="C480" s="43" t="s">
+        <v>542</v>
       </c>
       <c r="D480" s="38" t="s">
-        <v>637</v>
-      </c>
-      <c r="E480" s="38"/>
+        <v>519</v>
+      </c>
+      <c r="E480" s="43"/>
       <c r="F480" s="38" t="s">
         <v>1025</v>
       </c>
@@ -12971,47 +12977,47 @@
         <v>55</v>
       </c>
       <c r="B481" s="38" t="s">
-        <v>679</v>
-      </c>
-      <c r="C481" s="41" t="s">
-        <v>540</v>
-      </c>
-      <c r="D481" s="41"/>
-      <c r="E481" s="41"/>
-      <c r="F481" s="41"/>
+        <v>681</v>
+      </c>
+      <c r="C481" s="38" t="s">
+        <v>544</v>
+      </c>
+      <c r="D481" s="38" t="s">
+        <v>992</v>
+      </c>
+      <c r="E481" s="38"/>
+      <c r="F481" s="38" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B482" s="38" t="s">
-        <v>680</v>
-      </c>
-      <c r="C482" s="43" t="s">
-        <v>542</v>
-      </c>
-      <c r="D482" s="38" t="s">
-        <v>519</v>
-      </c>
-      <c r="E482" s="43"/>
-      <c r="F482" s="38" t="s">
-        <v>1025</v>
-      </c>
+        <v>682</v>
+      </c>
+      <c r="C482" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="D482" s="41"/>
+      <c r="E482" s="41"/>
+      <c r="F482" s="41"/>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B483" s="38" t="s">
-        <v>681</v>
-      </c>
-      <c r="C483" s="38" t="s">
-        <v>544</v>
+        <v>683</v>
+      </c>
+      <c r="C483" s="43" t="s">
+        <v>513</v>
       </c>
       <c r="D483" s="38" t="s">
-        <v>992</v>
-      </c>
-      <c r="E483" s="38"/>
+        <v>514</v>
+      </c>
+      <c r="E483" s="43"/>
       <c r="F483" s="38" t="s">
         <v>1025</v>
       </c>
@@ -13021,27 +13027,31 @@
         <v>55</v>
       </c>
       <c r="B484" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="C484" s="41" t="s">
-        <v>546</v>
-      </c>
-      <c r="D484" s="41"/>
-      <c r="E484" s="41"/>
-      <c r="F484" s="41"/>
+        <v>684</v>
+      </c>
+      <c r="C484" s="43" t="s">
+        <v>584</v>
+      </c>
+      <c r="D484" s="38" t="s">
+        <v>517</v>
+      </c>
+      <c r="E484" s="43"/>
+      <c r="F484" s="38" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B485" s="38" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C485" s="43" t="s">
-        <v>513</v>
+        <v>551</v>
       </c>
       <c r="D485" s="38" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="E485" s="43"/>
       <c r="F485" s="38" t="s">
@@ -13053,15 +13063,15 @@
         <v>55</v>
       </c>
       <c r="B486" s="38" t="s">
-        <v>684</v>
-      </c>
-      <c r="C486" s="43" t="s">
-        <v>584</v>
+        <v>686</v>
+      </c>
+      <c r="C486" s="38" t="s">
+        <v>553</v>
       </c>
       <c r="D486" s="38" t="s">
-        <v>517</v>
-      </c>
-      <c r="E486" s="43"/>
+        <v>995</v>
+      </c>
+      <c r="E486" s="38"/>
       <c r="F486" s="38" t="s">
         <v>1025</v>
       </c>
@@ -13071,57 +13081,21 @@
         <v>55</v>
       </c>
       <c r="B487" s="38" t="s">
-        <v>685</v>
-      </c>
-      <c r="C487" s="43" t="s">
-        <v>551</v>
+        <v>1163</v>
+      </c>
+      <c r="C487" s="38" t="s">
+        <v>555</v>
       </c>
       <c r="D487" s="38" t="s">
-        <v>519</v>
-      </c>
-      <c r="E487" s="43"/>
+        <v>993</v>
+      </c>
+      <c r="E487" s="38"/>
       <c r="F487" s="38" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A488" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B488" s="38" t="s">
-        <v>686</v>
-      </c>
-      <c r="C488" s="38" t="s">
-        <v>553</v>
-      </c>
-      <c r="D488" s="38" t="s">
-        <v>995</v>
-      </c>
-      <c r="E488" s="38"/>
-      <c r="F488" s="38" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A489" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B489" s="38" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C489" s="38" t="s">
-        <v>555</v>
-      </c>
-      <c r="D489" s="38" t="s">
-        <v>993</v>
-      </c>
-      <c r="E489" s="38"/>
-      <c r="F489" s="38" t="s">
-        <v>1025</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="D1:D489" xr:uid="{9979DB17-DD3C-4836-94F3-6ACDFC434949}">
+  <autoFilter ref="D1:D487" xr:uid="{9979DB17-DD3C-4836-94F3-6ACDFC434949}">
     <filterColumn colId="0">
       <filters>
         <filter val="PKIX.13"/>
@@ -13283,8 +13257,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK56"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C38" sqref="A38:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -14428,7 +14402,7 @@
         <v>710</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="E6" s="51"/>
       <c r="F6" s="51" t="s">
@@ -14640,7 +14614,7 @@
         <v>1228</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="F17" s="51" t="s">
         <v>695</v>
@@ -17737,7 +17711,7 @@
         <v>1055</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>695</v>
@@ -18516,10 +18490,10 @@
         <v>943</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>695</v>
@@ -18799,7 +18773,7 @@
         <v>974</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>695</v>

--- a/conformancelib/testdata/PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/PIV_ICAM_Test_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786D1A2A-5BFA-4146-8C77-7CC571160FC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4F6E84-8B3A-4D9F-B43B-13A33D32BFD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="12360" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="432" yWindow="12" windowWidth="22992" windowHeight="12360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -25,8 +25,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Steps Overview'!$D$1:$D$487</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -4150,7 +4159,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4373,10 +4382,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4768,9 +4774,7 @@
   <sheetPr codeName="Sheet2" filterMode="1"/>
   <dimension ref="A1:F487"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5436,13 +5440,13 @@
       <c r="A38" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="68" t="s">
+      <c r="B38" s="62" t="s">
         <v>1222</v>
       </c>
-      <c r="C38" s="68" t="s">
+      <c r="C38" s="62" t="s">
         <v>1290</v>
       </c>
-      <c r="D38" s="68" t="s">
+      <c r="D38" s="62" t="s">
         <v>97</v>
       </c>
       <c r="E38" s="38"/>
@@ -13134,7 +13138,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13279,9 +13283,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -14547,16 +14549,16 @@
       <c r="G12" s="51"/>
     </row>
     <row r="13" spans="1:1025" ht="78" x14ac:dyDescent="0.3">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="51" t="s">
         <v>713</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="51" t="s">
         <v>718</v>
       </c>
-      <c r="D13" s="75" t="s">
+      <c r="D13" s="51" t="s">
         <v>1290</v>
       </c>
       <c r="E13" s="51"/>
@@ -15398,8 +15400,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:IV50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -16888,9 +16890,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -17758,9 +17758,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:IV4"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -18118,9 +18116,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -18970,7 +18966,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:IV4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>

--- a/conformancelib/testdata/PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/PIV_ICAM_Test_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bf7450\git\piv-conformance-new\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4F6E84-8B3A-4D9F-B43B-13A33D32BFD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D9295A-398E-4F2A-A7BC-2452177D0172}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="432" yWindow="12" windowWidth="22992" windowHeight="12360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="20220" windowHeight="11940" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -2145,9 +2145,6 @@
     <t>Setting final byte of command string to 0x00 retrieves entire data object regardless of size</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.SP800_73_4CCCTests</t>
-  </si>
-  <si>
     <t xml:space="preserve">sp800_73_4_Test_1 </t>
   </si>
   <si>
@@ -2181,9 +2178,6 @@
     <t>No tags other than (0xF0, 0xF1, 0xF2, 0xF3, 0xF4, 0xF5, 0xF6, 0xF7, 0xFA, 0xFB, 0xFC, 0xFD, 0xE3, 0xE4, 0xFE) are present</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.SP800_73_4CHUIDTests</t>
-  </si>
-  <si>
     <t xml:space="preserve">sp800_73_4_Test_8 </t>
   </si>
   <si>
@@ -2220,9 +2214,6 @@
     <t>No tags other than (0xEE, 0x30, 0x32, 0x33, 0x34, 0x35, 0x36, 0x3E, 0xFE) are present</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.X509DataObjectTests</t>
-  </si>
-  <si>
     <t>sp800_73_4_Test_18</t>
   </si>
   <si>
@@ -2241,9 +2232,6 @@
     <t>sp800_73_4_Test_23</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.SP800_73_4FingerprintsTests</t>
-  </si>
-  <si>
     <t>sp800_73_4_Test_24</t>
   </si>
   <si>
@@ -2256,9 +2244,6 @@
     <t>sp800_73_4_Test_26</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.SP800_73_4PrintedInfoTests</t>
-  </si>
-  <si>
     <t>sp800_73_4_Test_27</t>
   </si>
   <si>
@@ -2274,15 +2259,9 @@
     <t>sp800_73_4_Test_31</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.SP800_73_4FacialImageTests</t>
-  </si>
-  <si>
     <t>sp800_73_4_Test_32</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.SP800_73_4SecurityObjectTests</t>
-  </si>
-  <si>
     <t>sp800_73_4_Test_33</t>
   </si>
   <si>
@@ -2316,9 +2295,6 @@
     <t>76.1</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.SP800_76_Tests</t>
-  </si>
-  <si>
     <t>sp800_76Test_1</t>
   </si>
   <si>
@@ -2802,9 +2778,6 @@
     <t>78.1</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.SP800_78_X509DataObjectTests</t>
-  </si>
-  <si>
     <t>sp800_78_Test_1</t>
   </si>
   <si>
@@ -2823,9 +2796,6 @@
     <t>PKIX.1</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.PKIX_X509DataObjectTests</t>
-  </si>
-  <si>
     <t>PKIX_Test_1</t>
   </si>
   <si>
@@ -2979,9 +2949,6 @@
     <t>Used to track missing atoms</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.SP800_73_4DiscoveryObjectTests</t>
-  </si>
-  <si>
     <t>76.15b</t>
   </si>
   <si>
@@ -3054,12 +3021,6 @@
     <t>Card Auth ICAM Test Card certificate policy OID</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.BER_TLVTests</t>
-  </si>
-  <si>
-    <t>gov.gsa.conformancelib.tests.CMSTests</t>
-  </si>
-  <si>
     <t>extended key usage (extKeyUsage) asserts id-PIV-content-signing.</t>
   </si>
   <si>
@@ -3096,9 +3057,6 @@
     <t>PlaceholderTest.3</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.PlaceholderTests</t>
-  </si>
-  <si>
     <t>Container ID</t>
   </si>
   <si>
@@ -3666,9 +3624,6 @@
     <t>11.6 Intermediate CVC</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.SP800_73_4CommmonObjectTests</t>
-  </si>
-  <si>
     <t>sp800_73_4_Test_56</t>
   </si>
   <si>
@@ -3913,6 +3868,51 @@
   </si>
   <si>
     <t>The Agency Code, System Code, and Credential Number of the FASC-N are present. The credential series, individual credential issue, person identifier, organizational category, organizational identifier, and person/organization association category of the FASC-N are populated</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.BER_TLVTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.SP800_73_4CCCTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.SP800_73_4CHUIDTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.X509DataObjectTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.SP800_73_4FingerprintsTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.SP800_73_4PrintedInfoTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.SP800_73_4FacialImageTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.SP800_73_4SecurityObjectTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.SP800_73_4DiscoveryObjectTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.SP800_73_4CommmonObjectTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.SP800_76_Tests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.CMSTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.SP800_78_X509DataObjectTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.PKIX_X509DataObjectTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.PlaceholderTests</t>
   </si>
 </sst>
 </file>
@@ -4774,7 +4774,7 @@
   <sheetPr codeName="Sheet2" filterMode="1"/>
   <dimension ref="A1:F487"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4802,10 +4802,10 @@
         <v>54</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>1157</v>
+        <v>1143</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -4813,10 +4813,10 @@
         <v>55</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>1176</v>
+        <v>1162</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>1219</v>
+        <v>1204</v>
       </c>
       <c r="D2" s="37"/>
       <c r="E2" s="37"/>
@@ -4827,7 +4827,7 @@
         <v>55</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1177</v>
+        <v>1163</v>
       </c>
       <c r="C3" s="37" t="s">
         <v>0</v>
@@ -4841,10 +4841,10 @@
         <v>55</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>1112</v>
+        <v>1098</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>1113</v>
+        <v>1099</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
@@ -4858,14 +4858,14 @@
         <v>56</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>1168</v>
+        <v>1154</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>57</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="38" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4883,7 +4883,7 @@
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="38" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -4901,7 +4901,7 @@
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="38" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="38" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -4937,7 +4937,7 @@
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="38" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="38" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -4973,7 +4973,7 @@
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="38" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -4984,14 +4984,14 @@
         <v>75</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>1220</v>
+        <v>1205</v>
       </c>
       <c r="D12" s="38" t="s">
         <v>76</v>
       </c>
       <c r="E12" s="38"/>
       <c r="F12" s="38" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5002,14 +5002,14 @@
         <v>77</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>1280</v>
+        <v>1265</v>
       </c>
       <c r="D13" s="38" t="s">
         <v>78</v>
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="38" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="38" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -5038,14 +5038,14 @@
         <v>81</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>1169</v>
+        <v>1155</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>80</v>
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="38" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -5053,7 +5053,7 @@
         <v>55</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>1178</v>
+        <v>1164</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>1</v>
@@ -5067,10 +5067,10 @@
         <v>55</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>1114</v>
+        <v>1100</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>1113</v>
+        <v>1099</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
@@ -5084,14 +5084,14 @@
         <v>84</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>1168</v>
+        <v>1154</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>57</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="E20" s="38"/>
       <c r="F20" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -5145,7 +5145,7 @@
       </c>
       <c r="E21" s="38"/>
       <c r="F21" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -5156,14 +5156,14 @@
         <v>88</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>1170</v>
+        <v>1156</v>
       </c>
       <c r="D22" s="38" t="s">
         <v>89</v>
       </c>
       <c r="E22" s="38"/>
       <c r="F22" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -5174,14 +5174,14 @@
         <v>90</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>1074</v>
+        <v>1060</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>92</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -5192,14 +5192,14 @@
         <v>93</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>1073</v>
+        <v>1059</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>1062</v>
+        <v>1048</v>
       </c>
       <c r="E24" s="40"/>
       <c r="F24" s="40" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="E25" s="38"/>
       <c r="F25" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -5228,14 +5228,14 @@
         <v>98</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>1077</v>
+        <v>1063</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>1063</v>
+        <v>1049</v>
       </c>
       <c r="E26" s="40"/>
       <c r="F26" s="40" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -5246,14 +5246,14 @@
         <v>101</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>1089</v>
+        <v>1075</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>1064</v>
+        <v>1050</v>
       </c>
       <c r="E27" s="40"/>
       <c r="F27" s="40" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -5264,14 +5264,14 @@
         <v>104</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>1075</v>
+        <v>1061</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>1065</v>
+        <v>1051</v>
       </c>
       <c r="E28" s="40"/>
       <c r="F28" s="40" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -5279,17 +5279,17 @@
         <v>55</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>1080</v>
+        <v>1066</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>1221</v>
+        <v>1206</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>1066</v>
+        <v>1052</v>
       </c>
       <c r="E29" s="40"/>
       <c r="F29" s="40" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -5297,17 +5297,17 @@
         <v>55</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>1081</v>
+        <v>1067</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>1076</v>
+        <v>1062</v>
       </c>
       <c r="D30" s="38" t="s">
         <v>100</v>
       </c>
       <c r="E30" s="38"/>
       <c r="F30" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -5315,17 +5315,17 @@
         <v>55</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>1082</v>
+        <v>1068</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>1289</v>
+        <v>1274</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>103</v>
       </c>
       <c r="E31" s="38"/>
       <c r="F31" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -5333,17 +5333,17 @@
         <v>55</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>1083</v>
+        <v>1069</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>1090</v>
+        <v>1076</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>1067</v>
+        <v>1053</v>
       </c>
       <c r="E32" s="40"/>
       <c r="F32" s="40" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -5351,17 +5351,17 @@
         <v>55</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>1084</v>
+        <v>1070</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>1091</v>
+        <v>1077</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>1068</v>
+        <v>1054</v>
       </c>
       <c r="E33" s="40"/>
       <c r="F33" s="40" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -5369,17 +5369,17 @@
         <v>55</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>1085</v>
+        <v>1071</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>1092</v>
+        <v>1078</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>1069</v>
+        <v>1055</v>
       </c>
       <c r="E34" s="40"/>
       <c r="F34" s="40" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -5387,17 +5387,17 @@
         <v>55</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>1086</v>
+        <v>1072</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>1093</v>
+        <v>1079</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>1070</v>
+        <v>1056</v>
       </c>
       <c r="E35" s="40"/>
       <c r="F35" s="40" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -5405,7 +5405,7 @@
         <v>55</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>1087</v>
+        <v>1073</v>
       </c>
       <c r="C36" s="38" t="s">
         <v>105</v>
@@ -5415,7 +5415,7 @@
       </c>
       <c r="E36" s="38"/>
       <c r="F36" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -5423,17 +5423,17 @@
         <v>55</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>1088</v>
+        <v>1074</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E37" s="38"/>
       <c r="F37" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -5441,17 +5441,17 @@
         <v>55</v>
       </c>
       <c r="B38" s="62" t="s">
-        <v>1222</v>
+        <v>1207</v>
       </c>
       <c r="C38" s="62" t="s">
-        <v>1290</v>
+        <v>1275</v>
       </c>
       <c r="D38" s="62" t="s">
         <v>97</v>
       </c>
       <c r="E38" s="38"/>
       <c r="F38" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -5469,7 +5469,7 @@
       </c>
       <c r="E39" s="38"/>
       <c r="F39" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -5480,14 +5480,14 @@
         <v>110</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>1223</v>
+        <v>1208</v>
       </c>
       <c r="D40" s="38" t="s">
         <v>111</v>
       </c>
       <c r="E40" s="38"/>
       <c r="F40" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -5505,7 +5505,7 @@
       </c>
       <c r="E41" s="38"/>
       <c r="F41" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="E42" s="38"/>
       <c r="F42" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -5531,7 +5531,7 @@
         <v>117</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>1125</v>
+        <v>1111</v>
       </c>
       <c r="C43" s="38" t="s">
         <v>118</v>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="E43" s="38"/>
       <c r="F43" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -5549,7 +5549,7 @@
         <v>55</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>1179</v>
+        <v>1165</v>
       </c>
       <c r="C44" s="37" t="s">
         <v>2</v>
@@ -5563,10 +5563,10 @@
         <v>55</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>1115</v>
+        <v>1101</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>1113</v>
+        <v>1099</v>
       </c>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
@@ -5580,14 +5580,14 @@
         <v>119</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>1168</v>
+        <v>1154</v>
       </c>
       <c r="D46" s="38" t="s">
         <v>57</v>
       </c>
       <c r="E46" s="38"/>
       <c r="F46" s="38" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -5605,7 +5605,7 @@
       </c>
       <c r="E47" s="38"/>
       <c r="F47" s="38" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="E48" s="38"/>
       <c r="F48" s="38" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="E49" s="38"/>
       <c r="F49" s="38" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -5652,14 +5652,14 @@
         <v>123</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>1172</v>
+        <v>1158</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>1180</v>
+        <v>1166</v>
       </c>
       <c r="E50" s="38"/>
       <c r="F50" s="38" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -5677,7 +5677,7 @@
       </c>
       <c r="E51" s="38"/>
       <c r="F51" s="38" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -5695,7 +5695,7 @@
       </c>
       <c r="E52" s="38"/>
       <c r="F52" s="38" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="E53" s="38"/>
       <c r="F53" s="38" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -5731,7 +5731,7 @@
       </c>
       <c r="E54" s="38"/>
       <c r="F54" s="38" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -5739,7 +5739,7 @@
         <v>117</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>1117</v>
+        <v>1103</v>
       </c>
       <c r="C55" s="38" t="s">
         <v>118</v>
@@ -5749,7 +5749,7 @@
       </c>
       <c r="E55" s="38"/>
       <c r="F55" s="38" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -5757,7 +5757,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>1181</v>
+        <v>1167</v>
       </c>
       <c r="C56" s="37" t="s">
         <v>3</v>
@@ -5771,10 +5771,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>1116</v>
+        <v>1102</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>1113</v>
+        <v>1099</v>
       </c>
       <c r="D57" s="37"/>
       <c r="E57" s="37"/>
@@ -5788,14 +5788,14 @@
         <v>137</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>1168</v>
+        <v>1154</v>
       </c>
       <c r="D58" s="38" t="s">
         <v>57</v>
       </c>
       <c r="E58" s="38"/>
       <c r="F58" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -5813,7 +5813,7 @@
       </c>
       <c r="E59" s="38"/>
       <c r="F59" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="E60" s="38"/>
       <c r="F60" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -5849,7 +5849,7 @@
       </c>
       <c r="E61" s="38"/>
       <c r="F61" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -5860,14 +5860,14 @@
         <v>141</v>
       </c>
       <c r="C62" s="38" t="s">
-        <v>1171</v>
+        <v>1157</v>
       </c>
       <c r="D62" s="38" t="s">
         <v>116</v>
       </c>
       <c r="E62" s="38"/>
       <c r="F62" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -5885,7 +5885,7 @@
       </c>
       <c r="E63" s="38"/>
       <c r="F63" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -5903,7 +5903,7 @@
       </c>
       <c r="E64" s="38"/>
       <c r="F64" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -5921,7 +5921,7 @@
       </c>
       <c r="E65" s="38"/>
       <c r="F65" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -5939,7 +5939,7 @@
       </c>
       <c r="E66" s="38"/>
       <c r="F66" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -5947,7 +5947,7 @@
         <v>55</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>1182</v>
+        <v>1168</v>
       </c>
       <c r="C67" s="37" t="s">
         <v>4</v>
@@ -5961,10 +5961,10 @@
         <v>55</v>
       </c>
       <c r="B68" s="38" t="s">
-        <v>1118</v>
+        <v>1104</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>1113</v>
+        <v>1099</v>
       </c>
       <c r="D68" s="37"/>
       <c r="E68" s="37"/>
@@ -5978,14 +5978,14 @@
         <v>146</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>1168</v>
+        <v>1154</v>
       </c>
       <c r="D69" s="38" t="s">
         <v>57</v>
       </c>
       <c r="E69" s="38"/>
       <c r="F69" s="38" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="E70" s="38"/>
       <c r="F70" s="38" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -6021,7 +6021,7 @@
       </c>
       <c r="E71" s="38"/>
       <c r="F71" s="38" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -6039,7 +6039,7 @@
       </c>
       <c r="E72" s="38"/>
       <c r="F72" s="38" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -6050,14 +6050,14 @@
         <v>150</v>
       </c>
       <c r="C73" s="38" t="s">
-        <v>1173</v>
+        <v>1159</v>
       </c>
       <c r="D73" s="38" t="s">
         <v>151</v>
       </c>
       <c r="E73" s="38"/>
       <c r="F73" s="38" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -6075,7 +6075,7 @@
       </c>
       <c r="E74" s="38"/>
       <c r="F74" s="38" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -6086,14 +6086,14 @@
         <v>155</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>1096</v>
+        <v>1082</v>
       </c>
       <c r="D75" s="40" t="s">
-        <v>1071</v>
+        <v>1057</v>
       </c>
       <c r="E75" s="40"/>
       <c r="F75" s="40" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -6104,14 +6104,14 @@
         <v>158</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>1097</v>
+        <v>1083</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>1072</v>
+        <v>1058</v>
       </c>
       <c r="E76" s="40"/>
       <c r="F76" s="40" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -6129,7 +6129,7 @@
       </c>
       <c r="E77" s="38"/>
       <c r="F77" s="38" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -6137,7 +6137,7 @@
         <v>55</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>1111</v>
+        <v>1097</v>
       </c>
       <c r="C78" s="38" t="s">
         <v>159</v>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="E78" s="38"/>
       <c r="F78" s="38" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -6155,7 +6155,7 @@
         <v>55</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>1094</v>
+        <v>1080</v>
       </c>
       <c r="C79" s="38" t="s">
         <v>162</v>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="E79" s="38"/>
       <c r="F79" s="38" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -6173,7 +6173,7 @@
         <v>117</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>1095</v>
+        <v>1081</v>
       </c>
       <c r="C80" s="38" t="s">
         <v>118</v>
@@ -6183,7 +6183,7 @@
       </c>
       <c r="E80" s="38"/>
       <c r="F80" s="38" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -6191,7 +6191,7 @@
         <v>55</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>1183</v>
+        <v>1169</v>
       </c>
       <c r="C81" s="37" t="s">
         <v>5</v>
@@ -6205,10 +6205,10 @@
         <v>55</v>
       </c>
       <c r="B82" s="38" t="s">
-        <v>1119</v>
+        <v>1105</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>1113</v>
+        <v>1099</v>
       </c>
       <c r="D82" s="37"/>
       <c r="E82" s="37"/>
@@ -6222,14 +6222,14 @@
         <v>164</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>1168</v>
+        <v>1154</v>
       </c>
       <c r="D83" s="38" t="s">
         <v>57</v>
       </c>
       <c r="E83" s="38"/>
       <c r="F83" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="E84" s="38"/>
       <c r="F84" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="E85" s="38"/>
       <c r="F85" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -6283,7 +6283,7 @@
       </c>
       <c r="E86" s="38"/>
       <c r="F86" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -6294,14 +6294,14 @@
         <v>168</v>
       </c>
       <c r="C87" s="62" t="s">
-        <v>1217</v>
+        <v>1202</v>
       </c>
       <c r="D87" s="38" t="s">
         <v>169</v>
       </c>
       <c r="E87" s="38"/>
       <c r="F87" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -6319,7 +6319,7 @@
       </c>
       <c r="E88" s="38"/>
       <c r="F88" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -6337,7 +6337,7 @@
       </c>
       <c r="E89" s="38"/>
       <c r="F89" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -6345,7 +6345,7 @@
         <v>117</v>
       </c>
       <c r="B90" s="38" t="s">
-        <v>1126</v>
+        <v>1112</v>
       </c>
       <c r="C90" s="38" t="s">
         <v>118</v>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="E90" s="38"/>
       <c r="F90" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -6363,7 +6363,7 @@
         <v>55</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>1184</v>
+        <v>1170</v>
       </c>
       <c r="C91" s="37" t="s">
         <v>6</v>
@@ -6377,10 +6377,10 @@
         <v>55</v>
       </c>
       <c r="B92" s="38" t="s">
-        <v>1120</v>
+        <v>1106</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>1113</v>
+        <v>1099</v>
       </c>
       <c r="D92" s="37"/>
       <c r="E92" s="37"/>
@@ -6394,14 +6394,14 @@
         <v>176</v>
       </c>
       <c r="C93" s="38" t="s">
-        <v>1168</v>
+        <v>1154</v>
       </c>
       <c r="D93" s="38" t="s">
         <v>57</v>
       </c>
       <c r="E93" s="38"/>
       <c r="F93" s="38" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -6419,7 +6419,7 @@
       </c>
       <c r="E94" s="38"/>
       <c r="F94" s="38" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -6437,7 +6437,7 @@
       </c>
       <c r="E95" s="38"/>
       <c r="F95" s="38" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -6455,7 +6455,7 @@
       </c>
       <c r="E96" s="38"/>
       <c r="F96" s="38" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -6466,14 +6466,14 @@
         <v>180</v>
       </c>
       <c r="C97" s="38" t="s">
-        <v>1185</v>
+        <v>1171</v>
       </c>
       <c r="D97" s="38" t="s">
-        <v>1180</v>
+        <v>1166</v>
       </c>
       <c r="E97" s="38"/>
       <c r="F97" s="38" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="E98" s="38"/>
       <c r="F98" s="38" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="E99" s="38"/>
       <c r="F99" s="38" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -6527,7 +6527,7 @@
       </c>
       <c r="E100" s="38"/>
       <c r="F100" s="38" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="E101" s="38"/>
       <c r="F101" s="38" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -6553,7 +6553,7 @@
         <v>117</v>
       </c>
       <c r="B102" s="38" t="s">
-        <v>1127</v>
+        <v>1113</v>
       </c>
       <c r="C102" s="38" t="s">
         <v>118</v>
@@ -6563,7 +6563,7 @@
       </c>
       <c r="E102" s="38"/>
       <c r="F102" s="38" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -6571,7 +6571,7 @@
         <v>55</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>1186</v>
+        <v>1172</v>
       </c>
       <c r="C103" s="37" t="s">
         <v>7</v>
@@ -6585,10 +6585,10 @@
         <v>55</v>
       </c>
       <c r="B104" s="38" t="s">
-        <v>1121</v>
+        <v>1107</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>1113</v>
+        <v>1099</v>
       </c>
       <c r="D104" s="37"/>
       <c r="E104" s="37"/>
@@ -6602,14 +6602,14 @@
         <v>185</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>1168</v>
+        <v>1154</v>
       </c>
       <c r="D105" s="38" t="s">
         <v>57</v>
       </c>
       <c r="E105" s="38"/>
       <c r="F105" s="38" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="E106" s="38"/>
       <c r="F106" s="38" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="E107" s="38"/>
       <c r="F107" s="38" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="E108" s="38"/>
       <c r="F108" s="38" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -6674,14 +6674,14 @@
         <v>189</v>
       </c>
       <c r="C109" s="38" t="s">
-        <v>1187</v>
+        <v>1173</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>1180</v>
+        <v>1166</v>
       </c>
       <c r="E109" s="38"/>
       <c r="F109" s="38" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="E110" s="38"/>
       <c r="F110" s="38" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -6717,7 +6717,7 @@
       </c>
       <c r="E111" s="38"/>
       <c r="F111" s="38" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="E112" s="38"/>
       <c r="F112" s="38" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -6753,7 +6753,7 @@
       </c>
       <c r="E113" s="38"/>
       <c r="F113" s="38" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -6761,7 +6761,7 @@
         <v>117</v>
       </c>
       <c r="B114" s="38" t="s">
-        <v>1128</v>
+        <v>1114</v>
       </c>
       <c r="C114" s="38" t="s">
         <v>118</v>
@@ -6771,7 +6771,7 @@
       </c>
       <c r="E114" s="38"/>
       <c r="F114" s="38" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -6779,7 +6779,7 @@
         <v>55</v>
       </c>
       <c r="B115" s="38" t="s">
-        <v>1188</v>
+        <v>1174</v>
       </c>
       <c r="C115" s="37" t="s">
         <v>8</v>
@@ -6793,10 +6793,10 @@
         <v>55</v>
       </c>
       <c r="B116" s="38" t="s">
-        <v>1122</v>
+        <v>1108</v>
       </c>
       <c r="C116" s="37" t="s">
-        <v>1113</v>
+        <v>1099</v>
       </c>
       <c r="D116" s="37"/>
       <c r="E116" s="37"/>
@@ -6810,14 +6810,14 @@
         <v>194</v>
       </c>
       <c r="C117" s="38" t="s">
-        <v>1168</v>
+        <v>1154</v>
       </c>
       <c r="D117" s="38" t="s">
         <v>57</v>
       </c>
       <c r="E117" s="38"/>
       <c r="F117" s="38" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -6835,7 +6835,7 @@
       </c>
       <c r="E118" s="38"/>
       <c r="F118" s="38" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -6853,7 +6853,7 @@
       </c>
       <c r="E119" s="38"/>
       <c r="F119" s="38" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="E120" s="38"/>
       <c r="F120" s="38" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -6882,14 +6882,14 @@
         <v>198</v>
       </c>
       <c r="C121" s="62" t="s">
-        <v>1218</v>
+        <v>1203</v>
       </c>
       <c r="D121" s="38" t="s">
-        <v>1180</v>
+        <v>1166</v>
       </c>
       <c r="E121" s="38"/>
       <c r="F121" s="38" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -6907,7 +6907,7 @@
       </c>
       <c r="E122" s="38"/>
       <c r="F122" s="38" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="E123" s="38"/>
       <c r="F123" s="38" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -6943,7 +6943,7 @@
       </c>
       <c r="E124" s="38"/>
       <c r="F124" s="38" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -6961,7 +6961,7 @@
       </c>
       <c r="E125" s="38"/>
       <c r="F125" s="38" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -6969,7 +6969,7 @@
         <v>117</v>
       </c>
       <c r="B126" s="38" t="s">
-        <v>1129</v>
+        <v>1115</v>
       </c>
       <c r="C126" s="38" t="s">
         <v>118</v>
@@ -6979,7 +6979,7 @@
       </c>
       <c r="E126" s="38"/>
       <c r="F126" s="38" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -6987,7 +6987,7 @@
         <v>55</v>
       </c>
       <c r="B127" s="38" t="s">
-        <v>1189</v>
+        <v>1175</v>
       </c>
       <c r="C127" s="37" t="s">
         <v>9</v>
@@ -7001,10 +7001,10 @@
         <v>55</v>
       </c>
       <c r="B128" s="38" t="s">
-        <v>1123</v>
+        <v>1109</v>
       </c>
       <c r="C128" s="37" t="s">
-        <v>1113</v>
+        <v>1099</v>
       </c>
       <c r="D128" s="37"/>
       <c r="E128" s="37"/>
@@ -7018,14 +7018,14 @@
         <v>203</v>
       </c>
       <c r="C129" s="38" t="s">
-        <v>1168</v>
+        <v>1154</v>
       </c>
       <c r="D129" s="38" t="s">
         <v>57</v>
       </c>
       <c r="E129" s="38"/>
       <c r="F129" s="38" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -7043,7 +7043,7 @@
       </c>
       <c r="E130" s="38"/>
       <c r="F130" s="38" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="E131" s="38"/>
       <c r="F131" s="38" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -7079,7 +7079,7 @@
       </c>
       <c r="E132" s="38"/>
       <c r="F132" s="38" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -7090,14 +7090,14 @@
         <v>207</v>
       </c>
       <c r="C133" s="38" t="s">
-        <v>1174</v>
+        <v>1160</v>
       </c>
       <c r="D133" s="38" t="s">
         <v>208</v>
       </c>
       <c r="E133" s="38"/>
       <c r="F133" s="38" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -7108,14 +7108,14 @@
         <v>209</v>
       </c>
       <c r="C134" s="38" t="s">
-        <v>1098</v>
+        <v>1084</v>
       </c>
       <c r="D134" s="38" t="s">
         <v>211</v>
       </c>
       <c r="E134" s="38"/>
       <c r="F134" s="38" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -7126,14 +7126,14 @@
         <v>212</v>
       </c>
       <c r="C135" s="40" t="s">
-        <v>1099</v>
+        <v>1085</v>
       </c>
       <c r="D135" s="40" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
       <c r="E135" s="40"/>
       <c r="F135" s="40" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -7151,7 +7151,7 @@
       </c>
       <c r="E136" s="38"/>
       <c r="F136" s="38" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -7159,7 +7159,7 @@
         <v>55</v>
       </c>
       <c r="B137" s="38" t="s">
-        <v>1100</v>
+        <v>1086</v>
       </c>
       <c r="C137" s="38" t="s">
         <v>216</v>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="E137" s="38"/>
       <c r="F137" s="38" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -7177,7 +7177,7 @@
         <v>55</v>
       </c>
       <c r="B138" s="38" t="s">
-        <v>1190</v>
+        <v>1176</v>
       </c>
       <c r="C138" s="37" t="s">
         <v>10</v>
@@ -7191,10 +7191,10 @@
         <v>55</v>
       </c>
       <c r="B139" s="38" t="s">
-        <v>1124</v>
+        <v>1110</v>
       </c>
       <c r="C139" s="37" t="s">
-        <v>1113</v>
+        <v>1099</v>
       </c>
       <c r="D139" s="37"/>
       <c r="E139" s="37"/>
@@ -7208,14 +7208,14 @@
         <v>218</v>
       </c>
       <c r="C140" s="38" t="s">
-        <v>1168</v>
+        <v>1154</v>
       </c>
       <c r="D140" s="38" t="s">
         <v>57</v>
       </c>
       <c r="E140" s="38"/>
       <c r="F140" s="38" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -7233,7 +7233,7 @@
       </c>
       <c r="E141" s="38"/>
       <c r="F141" s="38" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -7251,7 +7251,7 @@
       </c>
       <c r="E142" s="38"/>
       <c r="F142" s="38" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -7269,7 +7269,7 @@
       </c>
       <c r="E143" s="38"/>
       <c r="F143" s="38" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -7280,14 +7280,14 @@
         <v>223</v>
       </c>
       <c r="C144" s="38" t="s">
-        <v>1105</v>
+        <v>1091</v>
       </c>
       <c r="D144" s="38" t="s">
         <v>224</v>
       </c>
       <c r="E144" s="38"/>
       <c r="F144" s="38" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -7298,14 +7298,14 @@
         <v>225</v>
       </c>
       <c r="C145" s="38" t="s">
-        <v>1104</v>
+        <v>1090</v>
       </c>
       <c r="D145" s="38" t="s">
         <v>222</v>
       </c>
       <c r="E145" s="38"/>
       <c r="F145" s="38" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -7316,14 +7316,14 @@
         <v>227</v>
       </c>
       <c r="C146" s="40" t="s">
-        <v>1102</v>
+        <v>1088</v>
       </c>
       <c r="D146" s="40" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="E146" s="40"/>
       <c r="F146" s="40" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -7331,13 +7331,13 @@
         <v>55</v>
       </c>
       <c r="B147" s="38" t="s">
-        <v>1106</v>
+        <v>1092</v>
       </c>
       <c r="C147" s="38" t="s">
         <v>226</v>
       </c>
       <c r="D147" s="38" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="E147" s="38"/>
       <c r="F147" s="38"/>
@@ -7347,7 +7347,7 @@
         <v>55</v>
       </c>
       <c r="B148" s="38" t="s">
-        <v>1107</v>
+        <v>1093</v>
       </c>
       <c r="C148" s="38" t="s">
         <v>228</v>
@@ -7357,7 +7357,7 @@
       </c>
       <c r="E148" s="38"/>
       <c r="F148" s="38" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -7365,17 +7365,17 @@
         <v>117</v>
       </c>
       <c r="B149" s="38" t="s">
-        <v>1108</v>
+        <v>1094</v>
       </c>
       <c r="C149" s="38" t="s">
-        <v>1167</v>
+        <v>1153</v>
       </c>
       <c r="D149" s="38" t="s">
         <v>230</v>
       </c>
       <c r="E149" s="38"/>
       <c r="F149" s="38" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -7383,7 +7383,7 @@
         <v>117</v>
       </c>
       <c r="B150" s="38" t="s">
-        <v>1211</v>
+        <v>1196</v>
       </c>
       <c r="C150" s="37" t="s">
         <v>11</v>
@@ -7397,7 +7397,7 @@
         <v>55</v>
       </c>
       <c r="B151" s="53" t="s">
-        <v>1214</v>
+        <v>1199</v>
       </c>
       <c r="C151" s="37" t="s">
         <v>12</v>
@@ -7417,7 +7417,7 @@
         <v>13</v>
       </c>
       <c r="D152" s="38" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="E152" s="38"/>
       <c r="F152" s="38"/>
@@ -7433,7 +7433,7 @@
         <v>14</v>
       </c>
       <c r="D153" s="38" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="E153" s="38"/>
       <c r="F153" s="38"/>
@@ -7443,13 +7443,13 @@
         <v>55</v>
       </c>
       <c r="B154" s="53" t="s">
-        <v>1215</v>
+        <v>1200</v>
       </c>
       <c r="C154" s="38" t="s">
         <v>233</v>
       </c>
       <c r="D154" s="38" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="E154" s="38"/>
       <c r="F154" s="38"/>
@@ -7459,7 +7459,7 @@
         <v>55</v>
       </c>
       <c r="B155" s="53" t="s">
-        <v>1212</v>
+        <v>1197</v>
       </c>
       <c r="C155" s="41" t="s">
         <v>15</v>
@@ -7473,7 +7473,7 @@
         <v>55</v>
       </c>
       <c r="B156" s="53" t="s">
-        <v>1213</v>
+        <v>1198</v>
       </c>
       <c r="C156" s="41" t="s">
         <v>16</v>
@@ -7487,7 +7487,7 @@
         <v>55</v>
       </c>
       <c r="B157" s="53" t="s">
-        <v>1216</v>
+        <v>1201</v>
       </c>
       <c r="C157" s="41" t="s">
         <v>17</v>
@@ -7501,7 +7501,7 @@
         <v>55</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>1191</v>
+        <v>1177</v>
       </c>
       <c r="C158" s="36" t="s">
         <v>18</v>
@@ -7515,7 +7515,7 @@
         <v>55</v>
       </c>
       <c r="B159" s="38" t="s">
-        <v>1192</v>
+        <v>1178</v>
       </c>
       <c r="C159" s="37" t="s">
         <v>19</v>
@@ -7553,7 +7553,7 @@
       </c>
       <c r="E161" s="45"/>
       <c r="F161" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -7564,14 +7564,14 @@
         <v>237</v>
       </c>
       <c r="C162" s="38" t="s">
-        <v>1147</v>
+        <v>1133</v>
       </c>
       <c r="D162" s="38">
         <v>76.2</v>
       </c>
       <c r="E162" s="38"/>
       <c r="F162" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -7585,11 +7585,11 @@
         <v>242</v>
       </c>
       <c r="D163" s="38" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="E163" s="38"/>
       <c r="F163" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -7600,14 +7600,14 @@
         <v>241</v>
       </c>
       <c r="C164" s="38" t="s">
-        <v>1146</v>
+        <v>1132</v>
       </c>
       <c r="D164" s="38" t="s">
-        <v>1148</v>
+        <v>1134</v>
       </c>
       <c r="E164" s="38"/>
       <c r="F164" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -7615,17 +7615,17 @@
         <v>55</v>
       </c>
       <c r="B165" s="38" t="s">
-        <v>1150</v>
+        <v>1136</v>
       </c>
       <c r="C165" s="38" t="s">
         <v>245</v>
       </c>
       <c r="D165" s="38" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="E165" s="38"/>
       <c r="F165" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -7650,14 +7650,14 @@
         <v>244</v>
       </c>
       <c r="C167" s="38" t="s">
-        <v>1151</v>
+        <v>1137</v>
       </c>
       <c r="D167" s="38" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="E167" s="38"/>
       <c r="F167" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -7675,7 +7675,7 @@
       </c>
       <c r="E168" s="38"/>
       <c r="F168" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -7693,7 +7693,7 @@
       </c>
       <c r="E169" s="38"/>
       <c r="F169" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -7704,14 +7704,14 @@
         <v>250</v>
       </c>
       <c r="C170" s="38" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="D170" s="38" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="E170" s="38"/>
       <c r="F170" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -7729,7 +7729,7 @@
       </c>
       <c r="E171" s="38"/>
       <c r="F171" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -7747,7 +7747,7 @@
       </c>
       <c r="E172" s="38"/>
       <c r="F172" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -7765,7 +7765,7 @@
       </c>
       <c r="E173" s="38"/>
       <c r="F173" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -7783,7 +7783,7 @@
       </c>
       <c r="E174" s="38"/>
       <c r="F174" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="E175" s="38"/>
       <c r="F175" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -7819,7 +7819,7 @@
       </c>
       <c r="E176" s="38"/>
       <c r="F176" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -7833,7 +7833,7 @@
         <v>263</v>
       </c>
       <c r="D177" s="38" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="E177" s="38"/>
       <c r="F177" s="38"/>
@@ -7853,7 +7853,7 @@
       </c>
       <c r="E178" s="38"/>
       <c r="F178" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -7861,7 +7861,7 @@
         <v>55</v>
       </c>
       <c r="B179" s="38" t="s">
-        <v>1193</v>
+        <v>1179</v>
       </c>
       <c r="C179" s="42" t="s">
         <v>22</v>
@@ -7899,7 +7899,7 @@
       </c>
       <c r="E181" s="38"/>
       <c r="F181" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -7917,7 +7917,7 @@
       </c>
       <c r="E182" s="38"/>
       <c r="F182" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -7931,11 +7931,11 @@
         <v>240</v>
       </c>
       <c r="D183" s="38" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="E183" s="38"/>
       <c r="F183" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -7949,11 +7949,11 @@
         <v>242</v>
       </c>
       <c r="D184" s="38" t="s">
-        <v>1148</v>
+        <v>1134</v>
       </c>
       <c r="E184" s="38"/>
       <c r="F184" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="E186" s="38"/>
       <c r="F186" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -8003,7 +8003,7 @@
       </c>
       <c r="E187" s="38"/>
       <c r="F187" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -8021,7 +8021,7 @@
       </c>
       <c r="E188" s="38"/>
       <c r="F188" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -8032,14 +8032,14 @@
         <v>275</v>
       </c>
       <c r="C189" s="38" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="D189" s="38" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="E189" s="38"/>
       <c r="F189" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -8057,7 +8057,7 @@
       </c>
       <c r="E190" s="38"/>
       <c r="F190" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -8075,7 +8075,7 @@
       </c>
       <c r="E191" s="38"/>
       <c r="F191" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -8093,7 +8093,7 @@
       </c>
       <c r="E192" s="38"/>
       <c r="F192" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -8111,7 +8111,7 @@
       </c>
       <c r="E193" s="38"/>
       <c r="F193" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -8129,7 +8129,7 @@
       </c>
       <c r="E194" s="38"/>
       <c r="F194" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -8147,7 +8147,7 @@
       </c>
       <c r="E195" s="38"/>
       <c r="F195" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -8161,7 +8161,7 @@
         <v>263</v>
       </c>
       <c r="D196" s="38" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="E196" s="38"/>
       <c r="F196" s="38"/>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="E197" s="38"/>
       <c r="F197" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -8189,7 +8189,7 @@
         <v>55</v>
       </c>
       <c r="B198" s="38" t="s">
-        <v>1225</v>
+        <v>1210</v>
       </c>
       <c r="C198" s="37" t="s">
         <v>25</v>
@@ -8227,7 +8227,7 @@
       </c>
       <c r="E200" s="38"/>
       <c r="F200" s="38" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -8245,7 +8245,7 @@
       </c>
       <c r="E201" s="38"/>
       <c r="F201" s="38" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -8259,11 +8259,11 @@
         <v>240</v>
       </c>
       <c r="D202" s="38" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="E202" s="38"/>
       <c r="F202" s="38" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -8277,11 +8277,11 @@
         <v>242</v>
       </c>
       <c r="D203" s="38" t="s">
-        <v>1148</v>
+        <v>1134</v>
       </c>
       <c r="E203" s="38"/>
       <c r="F203" s="38" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -8309,11 +8309,11 @@
         <v>294</v>
       </c>
       <c r="D205" s="38" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="E205" s="38"/>
       <c r="F205" s="38" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -8331,7 +8331,7 @@
       </c>
       <c r="E206" s="38"/>
       <c r="F206" s="38" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -8349,7 +8349,7 @@
       </c>
       <c r="E207" s="38"/>
       <c r="F207" s="38" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -8363,11 +8363,11 @@
         <v>299</v>
       </c>
       <c r="D208" s="38" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="E208" s="38"/>
       <c r="F208" s="38" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -8375,7 +8375,7 @@
         <v>55</v>
       </c>
       <c r="B209" s="38" t="s">
-        <v>1152</v>
+        <v>1138</v>
       </c>
       <c r="C209" s="38" t="s">
         <v>252</v>
@@ -8385,7 +8385,7 @@
       </c>
       <c r="E209" s="38"/>
       <c r="F209" s="38" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="E210" s="38"/>
       <c r="F210" s="38" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="E211" s="38"/>
       <c r="F211" s="38" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -8439,7 +8439,7 @@
       </c>
       <c r="E212" s="38"/>
       <c r="F212" s="38" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -8457,7 +8457,7 @@
       </c>
       <c r="E213" s="38"/>
       <c r="F213" s="38" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -8475,7 +8475,7 @@
       </c>
       <c r="E214" s="38"/>
       <c r="F214" s="38" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -8489,11 +8489,11 @@
         <v>263</v>
       </c>
       <c r="D215" s="38" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="E215" s="38"/>
       <c r="F215" s="38" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -8511,7 +8511,7 @@
       </c>
       <c r="E216" s="38"/>
       <c r="F216" s="38" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -8519,7 +8519,7 @@
         <v>55</v>
       </c>
       <c r="B217" s="38" t="s">
-        <v>1194</v>
+        <v>1180</v>
       </c>
       <c r="C217" s="42" t="s">
         <v>309</v>
@@ -8557,7 +8557,7 @@
       </c>
       <c r="E219" s="38"/>
       <c r="F219" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
@@ -8575,7 +8575,7 @@
       </c>
       <c r="E220" s="38"/>
       <c r="F220" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -8593,7 +8593,7 @@
       </c>
       <c r="E221" s="38"/>
       <c r="F221" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="E222" s="38"/>
       <c r="F222" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -8629,7 +8629,7 @@
       </c>
       <c r="E223" s="38"/>
       <c r="F223" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -8643,11 +8643,11 @@
         <v>322</v>
       </c>
       <c r="D224" s="38" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="E224" s="38"/>
       <c r="F224" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="E225" s="38"/>
       <c r="F225" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -8676,14 +8676,14 @@
         <v>325</v>
       </c>
       <c r="C226" s="38" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="D226" s="38" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="E226" s="38"/>
       <c r="F226" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -8697,11 +8697,11 @@
         <v>327</v>
       </c>
       <c r="D227" s="38" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="E227" s="38"/>
       <c r="F227" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -8712,14 +8712,14 @@
         <v>328</v>
       </c>
       <c r="C228" s="38" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="D228" s="38">
         <v>76.16</v>
       </c>
       <c r="E228" s="38"/>
       <c r="F228" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -8737,7 +8737,7 @@
       </c>
       <c r="E229" s="38"/>
       <c r="F229" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -8755,7 +8755,7 @@
       </c>
       <c r="E230" s="38"/>
       <c r="F230" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="E232" s="38"/>
       <c r="F232" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -8801,11 +8801,11 @@
         <v>338</v>
       </c>
       <c r="D233" s="38" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="E233" s="38"/>
       <c r="F233" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="E234" s="38"/>
       <c r="F234" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
@@ -8841,7 +8841,7 @@
       </c>
       <c r="E235" s="38"/>
       <c r="F235" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -8855,11 +8855,11 @@
         <v>344</v>
       </c>
       <c r="D236" s="38" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="E236" s="38"/>
       <c r="F236" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -8877,7 +8877,7 @@
       </c>
       <c r="E237" s="38"/>
       <c r="F237" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="E238" s="38"/>
       <c r="F238" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
@@ -8913,7 +8913,7 @@
       </c>
       <c r="E239" s="38"/>
       <c r="F239" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="E240" s="38"/>
       <c r="F240" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
@@ -8949,7 +8949,7 @@
       </c>
       <c r="E241" s="38"/>
       <c r="F241" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="E242" s="38"/>
       <c r="F242" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
@@ -8999,7 +8999,7 @@
       </c>
       <c r="E244" s="38"/>
       <c r="F244" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
@@ -9017,7 +9017,7 @@
       </c>
       <c r="E245" s="38"/>
       <c r="F245" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="246" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9045,7 +9045,7 @@
         <v>365</v>
       </c>
       <c r="D247" s="38" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="E247" s="38"/>
       <c r="F247" s="38"/>
@@ -9055,7 +9055,7 @@
         <v>55</v>
       </c>
       <c r="B248" s="38" t="s">
-        <v>1226</v>
+        <v>1211</v>
       </c>
       <c r="C248" s="41" t="s">
         <v>28</v>
@@ -9083,17 +9083,17 @@
         <v>55</v>
       </c>
       <c r="B250" s="38" t="s">
-        <v>1227</v>
+        <v>1212</v>
       </c>
       <c r="C250" s="43" t="s">
-        <v>1228</v>
+        <v>1213</v>
       </c>
       <c r="D250" s="38" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="E250" s="38"/>
       <c r="F250" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="251" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9101,17 +9101,17 @@
         <v>55</v>
       </c>
       <c r="B251" s="38" t="s">
-        <v>1229</v>
+        <v>1214</v>
       </c>
       <c r="C251" s="43" t="s">
-        <v>1230</v>
+        <v>1215</v>
       </c>
       <c r="D251" s="38" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="E251" s="38"/>
       <c r="F251" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="252" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9119,17 +9119,17 @@
         <v>55</v>
       </c>
       <c r="B252" s="38" t="s">
-        <v>1231</v>
+        <v>1216</v>
       </c>
       <c r="C252" s="43" t="s">
-        <v>1232</v>
+        <v>1217</v>
       </c>
       <c r="D252" s="38" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="E252" s="38"/>
       <c r="F252" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="253" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9137,17 +9137,17 @@
         <v>55</v>
       </c>
       <c r="B253" s="38" t="s">
-        <v>1233</v>
+        <v>1218</v>
       </c>
       <c r="C253" s="43" t="s">
-        <v>1234</v>
+        <v>1219</v>
       </c>
       <c r="D253" s="38" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="E253" s="38"/>
       <c r="F253" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="254" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9169,17 +9169,17 @@
         <v>55</v>
       </c>
       <c r="B255" s="38" t="s">
-        <v>1235</v>
+        <v>1220</v>
       </c>
       <c r="C255" s="38" t="s">
-        <v>1236</v>
+        <v>1221</v>
       </c>
       <c r="D255" s="38" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="E255" s="38"/>
       <c r="F255" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="256" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9187,17 +9187,17 @@
         <v>55</v>
       </c>
       <c r="B256" s="38" t="s">
-        <v>1237</v>
+        <v>1222</v>
       </c>
       <c r="C256" s="38" t="s">
-        <v>1238</v>
+        <v>1223</v>
       </c>
       <c r="D256" s="38" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="E256" s="38"/>
       <c r="F256" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="257" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9205,17 +9205,17 @@
         <v>55</v>
       </c>
       <c r="B257" s="38" t="s">
-        <v>1239</v>
+        <v>1224</v>
       </c>
       <c r="C257" s="38" t="s">
-        <v>1240</v>
+        <v>1225</v>
       </c>
       <c r="D257" s="38" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="E257" s="38"/>
       <c r="F257" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="258" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9223,17 +9223,17 @@
         <v>55</v>
       </c>
       <c r="B258" s="38" t="s">
-        <v>1241</v>
+        <v>1226</v>
       </c>
       <c r="C258" s="38" t="s">
-        <v>1242</v>
+        <v>1227</v>
       </c>
       <c r="D258" s="38" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="E258" s="38"/>
       <c r="F258" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="259" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9241,7 +9241,7 @@
         <v>55</v>
       </c>
       <c r="B259" s="38" t="s">
-        <v>1243</v>
+        <v>1228</v>
       </c>
       <c r="C259" s="37" t="s">
         <v>31</v>
@@ -9261,11 +9261,11 @@
         <v>32</v>
       </c>
       <c r="D260" s="38" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="E260" s="38"/>
       <c r="F260" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="261" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9279,11 +9279,11 @@
         <v>33</v>
       </c>
       <c r="D261" s="38" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="E261" s="38"/>
       <c r="F261" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -9291,7 +9291,7 @@
         <v>55</v>
       </c>
       <c r="B262" s="35" t="s">
-        <v>1195</v>
+        <v>1181</v>
       </c>
       <c r="C262" s="36" t="s">
         <v>34</v>
@@ -9305,7 +9305,7 @@
         <v>55</v>
       </c>
       <c r="B263" s="38" t="s">
-        <v>1196</v>
+        <v>1182</v>
       </c>
       <c r="C263" s="37" t="s">
         <v>1</v>
@@ -9343,7 +9343,7 @@
       </c>
       <c r="E265" s="43"/>
       <c r="F265" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -9361,7 +9361,7 @@
       </c>
       <c r="E266" s="43"/>
       <c r="F266" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
@@ -9379,7 +9379,7 @@
       </c>
       <c r="E267" s="43"/>
       <c r="F267" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9390,14 +9390,14 @@
         <v>380</v>
       </c>
       <c r="C268" s="43" t="s">
-        <v>1288</v>
+        <v>1273</v>
       </c>
       <c r="D268" s="38" t="s">
         <v>381</v>
       </c>
       <c r="E268" s="43"/>
       <c r="F268" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E269" s="43"/>
       <c r="F269" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="E270" s="43"/>
       <c r="F270" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9451,7 +9451,7 @@
       </c>
       <c r="E271" s="43"/>
       <c r="F271" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="272" spans="1:6" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9462,7 +9462,7 @@
         <v>391</v>
       </c>
       <c r="C272" s="41" t="s">
-        <v>1245</v>
+        <v>1230</v>
       </c>
       <c r="D272" s="41"/>
       <c r="E272" s="41"/>
@@ -9473,17 +9473,17 @@
         <v>55</v>
       </c>
       <c r="B273" s="38" t="s">
-        <v>1134</v>
+        <v>1120</v>
       </c>
       <c r="C273" s="43" t="s">
-        <v>1133</v>
+        <v>1119</v>
       </c>
       <c r="D273" s="38" t="s">
         <v>420</v>
       </c>
       <c r="E273" s="43"/>
       <c r="F273" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9491,17 +9491,17 @@
         <v>55</v>
       </c>
       <c r="B274" s="38" t="s">
-        <v>1275</v>
+        <v>1260</v>
       </c>
       <c r="C274" s="43" t="s">
-        <v>1135</v>
+        <v>1121</v>
       </c>
       <c r="D274" s="38" t="s">
-        <v>1034</v>
+        <v>1020</v>
       </c>
       <c r="E274" s="43"/>
       <c r="F274" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -9515,11 +9515,11 @@
         <v>394</v>
       </c>
       <c r="D275" s="38" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="E275" s="43"/>
       <c r="F275" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9537,7 +9537,7 @@
       </c>
       <c r="E276" s="43"/>
       <c r="F276" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -9555,7 +9555,7 @@
       </c>
       <c r="E277" s="43"/>
       <c r="F277" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
@@ -9563,7 +9563,7 @@
         <v>55</v>
       </c>
       <c r="B278" s="38" t="s">
-        <v>1137</v>
+        <v>1123</v>
       </c>
       <c r="C278" s="43" t="s">
         <v>402</v>
@@ -9573,7 +9573,7 @@
       </c>
       <c r="E278" s="43"/>
       <c r="F278" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
@@ -9581,7 +9581,7 @@
         <v>55</v>
       </c>
       <c r="B279" s="38" t="s">
-        <v>1197</v>
+        <v>1183</v>
       </c>
       <c r="C279" s="37" t="s">
         <v>404</v>
@@ -9619,7 +9619,7 @@
       </c>
       <c r="E281" s="43"/>
       <c r="F281" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
@@ -9637,7 +9637,7 @@
       </c>
       <c r="E282" s="43"/>
       <c r="F282" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
@@ -9655,7 +9655,7 @@
       </c>
       <c r="E283" s="43"/>
       <c r="F283" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9666,14 +9666,14 @@
         <v>412</v>
       </c>
       <c r="C284" s="43" t="s">
-        <v>1288</v>
+        <v>1273</v>
       </c>
       <c r="D284" s="38" t="s">
         <v>381</v>
       </c>
       <c r="E284" s="43"/>
       <c r="F284" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
@@ -9691,7 +9691,7 @@
       </c>
       <c r="E285" s="43"/>
       <c r="F285" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="E286" s="43"/>
       <c r="F286" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
@@ -9727,7 +9727,7 @@
       </c>
       <c r="E287" s="43"/>
       <c r="F287" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9745,7 +9745,7 @@
       </c>
       <c r="E288" s="43"/>
       <c r="F288" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="289" spans="1:6" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9753,10 +9753,10 @@
         <v>55</v>
       </c>
       <c r="B289" s="38" t="s">
-        <v>1244</v>
+        <v>1229</v>
       </c>
       <c r="C289" s="41" t="s">
-        <v>1245</v>
+        <v>1230</v>
       </c>
       <c r="D289" s="41"/>
       <c r="E289" s="41"/>
@@ -9770,14 +9770,14 @@
         <v>419</v>
       </c>
       <c r="C290" s="38" t="s">
-        <v>1246</v>
+        <v>1231</v>
       </c>
       <c r="D290" s="38" t="s">
         <v>420</v>
       </c>
       <c r="E290" s="43"/>
       <c r="F290" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9791,11 +9791,11 @@
         <v>422</v>
       </c>
       <c r="D291" s="38" t="s">
-        <v>1034</v>
+        <v>1020</v>
       </c>
       <c r="E291" s="43"/>
       <c r="F291" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9809,11 +9809,11 @@
         <v>424</v>
       </c>
       <c r="D292" s="38" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="E292" s="43"/>
       <c r="F292" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9831,7 +9831,7 @@
       </c>
       <c r="E293" s="38"/>
       <c r="F293" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -9849,7 +9849,7 @@
       </c>
       <c r="E294" s="43"/>
       <c r="F294" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -9867,7 +9867,7 @@
       </c>
       <c r="E295" s="38"/>
       <c r="F295" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -9878,14 +9878,14 @@
         <v>430</v>
       </c>
       <c r="C296" s="38" t="s">
-        <v>1276</v>
+        <v>1261</v>
       </c>
       <c r="D296" s="38" t="s">
         <v>432</v>
       </c>
       <c r="E296" s="43"/>
       <c r="F296" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
@@ -9896,14 +9896,14 @@
         <v>433</v>
       </c>
       <c r="C297" s="43" t="s">
-        <v>1155</v>
+        <v>1141</v>
       </c>
       <c r="D297" s="38" t="s">
-        <v>1045</v>
+        <v>1031</v>
       </c>
       <c r="E297" s="43"/>
       <c r="F297" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
@@ -9911,17 +9911,17 @@
         <v>55</v>
       </c>
       <c r="B298" s="38" t="s">
-        <v>1153</v>
+        <v>1139</v>
       </c>
       <c r="C298" s="43" t="s">
-        <v>1154</v>
+        <v>1140</v>
       </c>
       <c r="D298" s="38" t="s">
-        <v>1048</v>
+        <v>1034</v>
       </c>
       <c r="E298" s="43"/>
       <c r="F298" s="38" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
@@ -9929,7 +9929,7 @@
         <v>55</v>
       </c>
       <c r="B299" s="38" t="s">
-        <v>1198</v>
+        <v>1184</v>
       </c>
       <c r="C299" s="37" t="s">
         <v>36</v>
@@ -9967,7 +9967,7 @@
       </c>
       <c r="E301" s="43"/>
       <c r="F301" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
@@ -9985,7 +9985,7 @@
       </c>
       <c r="E302" s="43"/>
       <c r="F302" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
@@ -10003,7 +10003,7 @@
       </c>
       <c r="E303" s="43"/>
       <c r="F303" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10014,14 +10014,14 @@
         <v>439</v>
       </c>
       <c r="C304" s="43" t="s">
-        <v>1287</v>
+        <v>1272</v>
       </c>
       <c r="D304" s="38" t="s">
         <v>381</v>
       </c>
       <c r="E304" s="43"/>
       <c r="F304" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
@@ -10039,7 +10039,7 @@
       </c>
       <c r="E305" s="43"/>
       <c r="F305" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="E306" s="43"/>
       <c r="F306" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
@@ -10075,7 +10075,7 @@
       </c>
       <c r="E307" s="43"/>
       <c r="F307" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10093,7 +10093,7 @@
       </c>
       <c r="E308" s="43"/>
       <c r="F308" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="309" spans="1:6" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -10101,10 +10101,10 @@
         <v>55</v>
       </c>
       <c r="B309" s="38" t="s">
-        <v>1268</v>
+        <v>1253</v>
       </c>
       <c r="C309" s="41" t="s">
-        <v>1245</v>
+        <v>1230</v>
       </c>
       <c r="D309" s="41"/>
       <c r="E309" s="41"/>
@@ -10118,14 +10118,14 @@
         <v>444</v>
       </c>
       <c r="C310" s="38" t="s">
-        <v>1246</v>
+        <v>1231</v>
       </c>
       <c r="D310" s="38" t="s">
         <v>420</v>
       </c>
       <c r="E310" s="43"/>
       <c r="F310" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10139,11 +10139,11 @@
         <v>422</v>
       </c>
       <c r="D311" s="38" t="s">
-        <v>1034</v>
+        <v>1020</v>
       </c>
       <c r="E311" s="43"/>
       <c r="F311" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10154,14 +10154,14 @@
         <v>446</v>
       </c>
       <c r="C312" s="38" t="s">
-        <v>1283</v>
+        <v>1268</v>
       </c>
       <c r="D312" s="38" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="E312" s="43"/>
       <c r="F312" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10179,7 +10179,7 @@
       </c>
       <c r="E313" s="38"/>
       <c r="F313" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="E314" s="43"/>
       <c r="F314" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -10215,7 +10215,7 @@
       </c>
       <c r="E315" s="38"/>
       <c r="F315" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10226,14 +10226,14 @@
         <v>450</v>
       </c>
       <c r="C316" s="38" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
       <c r="D316" s="38" t="s">
         <v>432</v>
       </c>
       <c r="E316" s="43"/>
       <c r="F316" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
@@ -10244,14 +10244,14 @@
         <v>451</v>
       </c>
       <c r="C317" s="43" t="s">
-        <v>1155</v>
+        <v>1141</v>
       </c>
       <c r="D317" s="38" t="s">
-        <v>1045</v>
+        <v>1031</v>
       </c>
       <c r="E317" s="43"/>
       <c r="F317" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
@@ -10259,17 +10259,17 @@
         <v>55</v>
       </c>
       <c r="B318" s="38" t="s">
-        <v>1156</v>
+        <v>1142</v>
       </c>
       <c r="C318" s="43" t="s">
-        <v>1154</v>
+        <v>1140</v>
       </c>
       <c r="D318" s="38" t="s">
-        <v>1048</v>
+        <v>1034</v>
       </c>
       <c r="E318" s="43"/>
       <c r="F318" s="38" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -10277,7 +10277,7 @@
         <v>55</v>
       </c>
       <c r="B319" s="38" t="s">
-        <v>1199</v>
+        <v>1185</v>
       </c>
       <c r="C319" s="37" t="s">
         <v>9</v>
@@ -10315,7 +10315,7 @@
       </c>
       <c r="E321" s="43"/>
       <c r="F321" s="38" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
@@ -10340,14 +10340,14 @@
         <v>457</v>
       </c>
       <c r="C323" s="38" t="s">
-        <v>1248</v>
+        <v>1233</v>
       </c>
       <c r="D323" s="38" t="s">
-        <v>1249</v>
+        <v>1234</v>
       </c>
       <c r="E323" s="38"/>
       <c r="F323" s="38" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
@@ -10365,7 +10365,7 @@
       </c>
       <c r="E324" s="43"/>
       <c r="F324" s="38" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
@@ -10383,7 +10383,7 @@
       </c>
       <c r="E325" s="43"/>
       <c r="F325" s="38" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10401,7 +10401,7 @@
       </c>
       <c r="E326" s="43"/>
       <c r="F326" s="38" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
@@ -10419,7 +10419,7 @@
       </c>
       <c r="E327" s="43"/>
       <c r="F327" s="38" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
@@ -10430,14 +10430,14 @@
         <v>470</v>
       </c>
       <c r="C328" s="38" t="s">
-        <v>1267</v>
+        <v>1252</v>
       </c>
       <c r="D328" s="38" t="s">
         <v>420</v>
       </c>
       <c r="E328" s="43"/>
       <c r="F328" s="38" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -10455,7 +10455,7 @@
       </c>
       <c r="E329" s="43"/>
       <c r="F329" s="38" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10463,17 +10463,17 @@
         <v>55</v>
       </c>
       <c r="B330" s="68" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C330" s="68" t="s">
         <v>1269</v>
-      </c>
-      <c r="C330" s="68" t="s">
-        <v>1284</v>
       </c>
       <c r="D330" s="68" t="s">
         <v>403</v>
       </c>
       <c r="E330" s="68"/>
       <c r="F330" s="38" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
@@ -10481,7 +10481,7 @@
         <v>55</v>
       </c>
       <c r="B331" s="38" t="s">
-        <v>1200</v>
+        <v>1186</v>
       </c>
       <c r="C331" s="46" t="s">
         <v>38</v>
@@ -10519,7 +10519,7 @@
       </c>
       <c r="E333" s="38"/>
       <c r="F333" s="38" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="334" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -10537,7 +10537,7 @@
       </c>
       <c r="E334" s="38"/>
       <c r="F334" s="38" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="335" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -10555,7 +10555,7 @@
       </c>
       <c r="E335" s="38"/>
       <c r="F335" s="38" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="336" spans="1:6" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.3">
@@ -10566,14 +10566,14 @@
         <v>478</v>
       </c>
       <c r="C336" s="38" t="s">
-        <v>1288</v>
+        <v>1273</v>
       </c>
       <c r="D336" s="38" t="s">
         <v>381</v>
       </c>
       <c r="E336" s="38"/>
       <c r="F336" s="38" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="337" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -10591,7 +10591,7 @@
       </c>
       <c r="E337" s="38"/>
       <c r="F337" s="38" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="338" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -10609,7 +10609,7 @@
       </c>
       <c r="E338" s="38"/>
       <c r="F338" s="38" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="339" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -10617,7 +10617,7 @@
         <v>55</v>
       </c>
       <c r="B339" s="38" t="s">
-        <v>1271</v>
+        <v>1256</v>
       </c>
       <c r="C339" s="38" t="s">
         <v>416</v>
@@ -10627,7 +10627,7 @@
       </c>
       <c r="E339" s="38"/>
       <c r="F339" s="38" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="340" spans="1:6" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.3">
@@ -10635,7 +10635,7 @@
         <v>55</v>
       </c>
       <c r="B340" s="38" t="s">
-        <v>1272</v>
+        <v>1257</v>
       </c>
       <c r="C340" s="38" t="s">
         <v>418</v>
@@ -10645,7 +10645,7 @@
       </c>
       <c r="E340" s="38"/>
       <c r="F340" s="38" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="341" spans="1:6" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -10653,10 +10653,10 @@
         <v>55</v>
       </c>
       <c r="B341" s="38" t="s">
-        <v>1139</v>
+        <v>1125</v>
       </c>
       <c r="C341" s="41" t="s">
-        <v>1245</v>
+        <v>1230</v>
       </c>
       <c r="D341" s="41"/>
       <c r="E341" s="41"/>
@@ -10667,17 +10667,17 @@
         <v>55</v>
       </c>
       <c r="B342" s="38" t="s">
-        <v>1273</v>
+        <v>1258</v>
       </c>
       <c r="C342" s="38" t="s">
-        <v>1267</v>
+        <v>1252</v>
       </c>
       <c r="D342" s="38" t="s">
         <v>420</v>
       </c>
       <c r="E342" s="38"/>
       <c r="F342" s="38" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="343" spans="1:6" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.3">
@@ -10685,17 +10685,17 @@
         <v>55</v>
       </c>
       <c r="B343" s="38" t="s">
-        <v>1274</v>
+        <v>1259</v>
       </c>
       <c r="C343" s="38" t="s">
         <v>422</v>
       </c>
       <c r="D343" s="38" t="s">
-        <v>1034</v>
+        <v>1020</v>
       </c>
       <c r="E343" s="38"/>
       <c r="F343" s="38" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="344" spans="1:6" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.3">
@@ -10703,17 +10703,17 @@
         <v>55</v>
       </c>
       <c r="B344" s="38" t="s">
-        <v>1138</v>
+        <v>1124</v>
       </c>
       <c r="C344" s="38" t="s">
         <v>424</v>
       </c>
       <c r="D344" s="38" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="E344" s="38"/>
       <c r="F344" s="38" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="345" spans="1:6" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.3">
@@ -10731,7 +10731,7 @@
       </c>
       <c r="E345" s="38"/>
       <c r="F345" s="38" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="346" spans="1:6" s="61" customFormat="1" ht="45" x14ac:dyDescent="0.3">
@@ -10749,7 +10749,7 @@
       </c>
       <c r="E346" s="38"/>
       <c r="F346" s="38" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="347" spans="1:6" s="61" customFormat="1" ht="45" x14ac:dyDescent="0.3">
@@ -10767,7 +10767,7 @@
       </c>
       <c r="E347" s="38"/>
       <c r="F347" s="38" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="348" spans="1:6" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.3">
@@ -10778,14 +10778,14 @@
         <v>484</v>
       </c>
       <c r="C348" s="38" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
       <c r="D348" s="38" t="s">
         <v>432</v>
       </c>
       <c r="E348" s="38"/>
       <c r="F348" s="38" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="349" spans="1:6" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -10796,14 +10796,14 @@
         <v>485</v>
       </c>
       <c r="C349" s="43" t="s">
-        <v>1155</v>
+        <v>1141</v>
       </c>
       <c r="D349" s="38" t="s">
-        <v>1045</v>
+        <v>1031</v>
       </c>
       <c r="E349" s="38"/>
       <c r="F349" s="38" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
@@ -10814,14 +10814,14 @@
         <v>486</v>
       </c>
       <c r="C350" s="43" t="s">
-        <v>1154</v>
+        <v>1140</v>
       </c>
       <c r="D350" s="38" t="s">
-        <v>1048</v>
+        <v>1034</v>
       </c>
       <c r="E350" s="38"/>
       <c r="F350" s="38" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="351" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
@@ -10829,7 +10829,7 @@
         <v>55</v>
       </c>
       <c r="B351" s="35" t="s">
-        <v>1201</v>
+        <v>1187</v>
       </c>
       <c r="C351" s="41" t="s">
         <v>39</v>
@@ -10843,7 +10843,7 @@
         <v>55</v>
       </c>
       <c r="B352" s="38" t="s">
-        <v>1202</v>
+        <v>1188</v>
       </c>
       <c r="C352" s="41" t="s">
         <v>40</v>
@@ -10881,7 +10881,7 @@
       </c>
       <c r="E354" s="38"/>
       <c r="F354" s="38" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
@@ -10899,7 +10899,7 @@
       </c>
       <c r="E355" s="38"/>
       <c r="F355" s="38" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
@@ -10910,14 +10910,14 @@
         <v>492</v>
       </c>
       <c r="C356" s="43" t="s">
-        <v>1140</v>
+        <v>1126</v>
       </c>
       <c r="D356" s="38">
         <v>78.099999999999994</v>
       </c>
       <c r="E356" s="38"/>
       <c r="F356" s="38" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -10949,7 +10949,7 @@
       </c>
       <c r="E358" s="38"/>
       <c r="F358" s="38" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
@@ -10967,7 +10967,7 @@
       </c>
       <c r="E359" s="38"/>
       <c r="F359" s="38" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
@@ -10985,7 +10985,7 @@
       </c>
       <c r="E360" s="38"/>
       <c r="F360" s="38" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
@@ -11003,7 +11003,7 @@
       </c>
       <c r="E361" s="38"/>
       <c r="F361" s="38" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
@@ -11035,7 +11035,7 @@
       </c>
       <c r="E363" s="38"/>
       <c r="F363" s="38" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
@@ -11053,7 +11053,7 @@
       </c>
       <c r="E364" s="38"/>
       <c r="F364" s="38" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
@@ -11064,14 +11064,14 @@
         <v>515</v>
       </c>
       <c r="C365" s="43" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
       <c r="D365" s="38" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="E365" s="38"/>
       <c r="F365" s="38" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
@@ -11089,7 +11089,7 @@
       </c>
       <c r="E366" s="38"/>
       <c r="F366" s="38" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="367" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -11107,7 +11107,7 @@
       </c>
       <c r="E367" s="43"/>
       <c r="F367" s="38" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
@@ -11139,7 +11139,7 @@
       </c>
       <c r="E369" s="43"/>
       <c r="F369" s="38" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="370" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -11153,11 +11153,11 @@
         <v>528</v>
       </c>
       <c r="D370" s="38" t="s">
-        <v>1159</v>
+        <v>1145</v>
       </c>
       <c r="E370" s="43"/>
       <c r="F370" s="38" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="371" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -11175,7 +11175,7 @@
       </c>
       <c r="E371" s="43"/>
       <c r="F371" s="38" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
@@ -11193,7 +11193,7 @@
       </c>
       <c r="E372" s="43"/>
       <c r="F372" s="38" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
@@ -11225,7 +11225,7 @@
       </c>
       <c r="E374" s="38"/>
       <c r="F374" s="38" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
@@ -11239,11 +11239,11 @@
         <v>541</v>
       </c>
       <c r="D375" s="38" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="E375" s="38"/>
       <c r="F375" s="38" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
@@ -11275,7 +11275,7 @@
       </c>
       <c r="E377" s="43"/>
       <c r="F377" s="38" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
@@ -11289,11 +11289,11 @@
         <v>546</v>
       </c>
       <c r="D378" s="38" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="E378" s="43"/>
       <c r="F378" s="38" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
@@ -11311,7 +11311,7 @@
       </c>
       <c r="E379" s="43"/>
       <c r="F379" s="38" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
@@ -11325,11 +11325,11 @@
         <v>550</v>
       </c>
       <c r="D380" s="38" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="E380" s="43"/>
       <c r="F380" s="38" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
@@ -11343,11 +11343,11 @@
         <v>552</v>
       </c>
       <c r="D381" s="38" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="E381" s="38"/>
       <c r="F381" s="38" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
@@ -11355,7 +11355,7 @@
         <v>55</v>
       </c>
       <c r="B382" s="38" t="s">
-        <v>1203</v>
+        <v>1189</v>
       </c>
       <c r="C382" s="37" t="s">
         <v>43</v>
@@ -11389,11 +11389,11 @@
         <v>489</v>
       </c>
       <c r="D384" s="38" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="E384" s="43"/>
       <c r="F384" s="38" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
@@ -11407,11 +11407,11 @@
         <v>556</v>
       </c>
       <c r="D385" s="38" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="E385" s="43"/>
       <c r="F385" s="38" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
@@ -11429,7 +11429,7 @@
       </c>
       <c r="E386" s="43"/>
       <c r="F386" s="38" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
@@ -11475,7 +11475,7 @@
       </c>
       <c r="E389" s="43"/>
       <c r="F389" s="38" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
@@ -11493,7 +11493,7 @@
       </c>
       <c r="E390" s="43"/>
       <c r="F390" s="38" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="391" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -11511,7 +11511,7 @@
       </c>
       <c r="E391" s="43"/>
       <c r="F391" s="38" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="392" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -11529,7 +11529,7 @@
       </c>
       <c r="E392" s="43"/>
       <c r="F392" s="38" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
@@ -11547,7 +11547,7 @@
       </c>
       <c r="E393" s="43"/>
       <c r="F393" s="38" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="394" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -11565,7 +11565,7 @@
       </c>
       <c r="E394" s="43"/>
       <c r="F394" s="38" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
@@ -11597,7 +11597,7 @@
       </c>
       <c r="E396" s="43"/>
       <c r="F396" s="38" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
@@ -11611,11 +11611,11 @@
         <v>541</v>
       </c>
       <c r="D397" s="38" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="E397" s="38"/>
       <c r="F397" s="38" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
@@ -11647,7 +11647,7 @@
       </c>
       <c r="E399" s="43"/>
       <c r="F399" s="38" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
@@ -11661,11 +11661,11 @@
         <v>581</v>
       </c>
       <c r="D400" s="38" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="E400" s="43"/>
       <c r="F400" s="38" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
@@ -11683,7 +11683,7 @@
       </c>
       <c r="E401" s="43"/>
       <c r="F401" s="38" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
@@ -11697,11 +11697,11 @@
         <v>550</v>
       </c>
       <c r="D402" s="38" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="E402" s="38"/>
       <c r="F402" s="38" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
@@ -11715,11 +11715,11 @@
         <v>552</v>
       </c>
       <c r="D403" s="38" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="E403" s="38"/>
       <c r="F403" s="38" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
@@ -11727,7 +11727,7 @@
         <v>55</v>
       </c>
       <c r="B404" s="38" t="s">
-        <v>1204</v>
+        <v>1190</v>
       </c>
       <c r="C404" s="37" t="s">
         <v>44</v>
@@ -11765,7 +11765,7 @@
       </c>
       <c r="E406" s="43"/>
       <c r="F406" s="38" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
@@ -11779,11 +11779,11 @@
         <v>589</v>
       </c>
       <c r="D407" s="38" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="E407" s="38"/>
       <c r="F407" s="38" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
@@ -11801,7 +11801,7 @@
       </c>
       <c r="E408" s="43"/>
       <c r="F408" s="38" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
@@ -11843,11 +11843,11 @@
         <v>595</v>
       </c>
       <c r="D411" s="38" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="E411" s="43"/>
       <c r="F411" s="38" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
@@ -11865,7 +11865,7 @@
       </c>
       <c r="E412" s="43"/>
       <c r="F412" s="38" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
@@ -11883,7 +11883,7 @@
       </c>
       <c r="E413" s="43"/>
       <c r="F413" s="38" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="414" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -11901,7 +11901,7 @@
       </c>
       <c r="E414" s="43"/>
       <c r="F414" s="38" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
@@ -11919,7 +11919,7 @@
       </c>
       <c r="E415" s="43"/>
       <c r="F415" s="38" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="416" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="E416" s="43"/>
       <c r="F416" s="38" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
@@ -11969,7 +11969,7 @@
       </c>
       <c r="E418" s="43"/>
       <c r="F418" s="38" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
@@ -11983,11 +11983,11 @@
         <v>541</v>
       </c>
       <c r="D419" s="38" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="E419" s="38"/>
       <c r="F419" s="38" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
@@ -12019,7 +12019,7 @@
       </c>
       <c r="E421" s="43"/>
       <c r="F421" s="38" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
@@ -12033,11 +12033,11 @@
         <v>581</v>
       </c>
       <c r="D422" s="38" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="E422" s="43"/>
       <c r="F422" s="38" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
@@ -12055,7 +12055,7 @@
       </c>
       <c r="E423" s="43"/>
       <c r="F423" s="38" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
@@ -12069,11 +12069,11 @@
         <v>550</v>
       </c>
       <c r="D424" s="38" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="E424" s="38"/>
       <c r="F424" s="38" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
@@ -12087,11 +12087,11 @@
         <v>552</v>
       </c>
       <c r="D425" s="38" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="E425" s="38"/>
       <c r="F425" s="38" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
@@ -12099,7 +12099,7 @@
         <v>55</v>
       </c>
       <c r="B426" s="38" t="s">
-        <v>1205</v>
+        <v>1191</v>
       </c>
       <c r="C426" s="37" t="s">
         <v>45</v>
@@ -12137,7 +12137,7 @@
       </c>
       <c r="E428" s="43"/>
       <c r="F428" s="38" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
@@ -12155,7 +12155,7 @@
       </c>
       <c r="E429" s="43"/>
       <c r="F429" s="38" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
@@ -12173,7 +12173,7 @@
       </c>
       <c r="E430" s="43"/>
       <c r="F430" s="38" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
@@ -12219,7 +12219,7 @@
       </c>
       <c r="E433" s="38"/>
       <c r="F433" s="38" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
@@ -12237,7 +12237,7 @@
       </c>
       <c r="E434" s="43"/>
       <c r="F434" s="38" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
@@ -12255,7 +12255,7 @@
       </c>
       <c r="E435" s="43"/>
       <c r="F435" s="38" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.3">
@@ -12273,7 +12273,7 @@
       </c>
       <c r="E436" s="38"/>
       <c r="F436" s="38" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
@@ -12298,14 +12298,14 @@
         <v>631</v>
       </c>
       <c r="C438" s="38" t="s">
-        <v>1142</v>
+        <v>1128</v>
       </c>
       <c r="D438" s="38" t="s">
         <v>632</v>
       </c>
       <c r="E438" s="38"/>
       <c r="F438" s="38" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.3">
@@ -12316,14 +12316,14 @@
         <v>633</v>
       </c>
       <c r="C439" s="38" t="s">
-        <v>1143</v>
+        <v>1129</v>
       </c>
       <c r="D439" s="38" t="s">
         <v>634</v>
       </c>
       <c r="E439" s="38"/>
       <c r="F439" s="38" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
@@ -12341,7 +12341,7 @@
       </c>
       <c r="E440" s="38"/>
       <c r="F440" s="38" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
@@ -12373,7 +12373,7 @@
       </c>
       <c r="E442" s="43"/>
       <c r="F442" s="38" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
@@ -12391,7 +12391,7 @@
       </c>
       <c r="E443" s="43"/>
       <c r="F443" s="38" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
@@ -12409,7 +12409,7 @@
       </c>
       <c r="E444" s="43"/>
       <c r="F444" s="38" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
@@ -12427,7 +12427,7 @@
       </c>
       <c r="E445" s="38"/>
       <c r="F445" s="38" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
@@ -12445,7 +12445,7 @@
       </c>
       <c r="E446" s="43"/>
       <c r="F446" s="38" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="447" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -12463,7 +12463,7 @@
       </c>
       <c r="E447" s="43"/>
       <c r="F447" s="38" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
@@ -12495,7 +12495,7 @@
       </c>
       <c r="E449" s="43"/>
       <c r="F449" s="38" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="450" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -12509,11 +12509,11 @@
         <v>528</v>
       </c>
       <c r="D450" s="38" t="s">
-        <v>1159</v>
+        <v>1145</v>
       </c>
       <c r="E450" s="43"/>
       <c r="F450" s="38" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.3">
@@ -12527,11 +12527,11 @@
         <v>649</v>
       </c>
       <c r="D451" s="38" t="s">
-        <v>1161</v>
+        <v>1147</v>
       </c>
       <c r="E451" s="43"/>
       <c r="F451" s="38" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
@@ -12549,7 +12549,7 @@
       </c>
       <c r="E452" s="43"/>
       <c r="F452" s="38" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.3">
@@ -12581,7 +12581,7 @@
       </c>
       <c r="E454" s="43"/>
       <c r="F454" s="38" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.3">
@@ -12595,11 +12595,11 @@
         <v>541</v>
       </c>
       <c r="D455" s="38" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="E455" s="38"/>
       <c r="F455" s="38" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
@@ -12610,7 +12610,7 @@
         <v>654</v>
       </c>
       <c r="C456" s="41" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="D456" s="41"/>
       <c r="E456" s="41"/>
@@ -12627,11 +12627,11 @@
         <v>552</v>
       </c>
       <c r="D457" s="38" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="E457" s="38"/>
       <c r="F457" s="38" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="458" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -12639,7 +12639,7 @@
         <v>55</v>
       </c>
       <c r="B458" s="38" t="s">
-        <v>1206</v>
+        <v>1192</v>
       </c>
       <c r="C458" s="37" t="s">
         <v>46</v>
@@ -12695,7 +12695,7 @@
         <v>55</v>
       </c>
       <c r="B462" s="38" t="s">
-        <v>1207</v>
+        <v>1193</v>
       </c>
       <c r="C462" s="37" t="s">
         <v>48</v>
@@ -12737,7 +12737,7 @@
         <v>55</v>
       </c>
       <c r="B465" s="38" t="s">
-        <v>1270</v>
+        <v>1255</v>
       </c>
       <c r="C465" s="37" t="s">
         <v>50</v>
@@ -12775,7 +12775,7 @@
       </c>
       <c r="E467" s="43"/>
       <c r="F467" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.3">
@@ -12793,7 +12793,7 @@
       </c>
       <c r="E468" s="43"/>
       <c r="F468" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.3">
@@ -12811,7 +12811,7 @@
       </c>
       <c r="E469" s="43"/>
       <c r="F469" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.3">
@@ -12857,7 +12857,7 @@
       </c>
       <c r="E472" s="43"/>
       <c r="F472" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.3">
@@ -12875,7 +12875,7 @@
       </c>
       <c r="E473" s="43"/>
       <c r="F473" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">
@@ -12889,11 +12889,11 @@
         <v>671</v>
       </c>
       <c r="D474" s="38" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="E474" s="38"/>
       <c r="F474" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="475" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -12911,7 +12911,7 @@
       </c>
       <c r="E475" s="38"/>
       <c r="F475" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.3">
@@ -12922,12 +12922,12 @@
         <v>674</v>
       </c>
       <c r="C476" s="38" t="s">
-        <v>1007</v>
+        <v>994</v>
       </c>
       <c r="D476" s="38"/>
       <c r="E476" s="38"/>
       <c r="F476" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="477" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -12935,7 +12935,7 @@
         <v>55</v>
       </c>
       <c r="B477" s="38" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="C477" s="38" t="s">
         <v>675</v>
@@ -12945,7 +12945,7 @@
       </c>
       <c r="E477" s="38"/>
       <c r="F477" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.3">
@@ -12953,17 +12953,17 @@
         <v>55</v>
       </c>
       <c r="B478" s="38" t="s">
-        <v>1009</v>
+        <v>996</v>
       </c>
       <c r="C478" s="38" t="s">
-        <v>1006</v>
+        <v>993</v>
       </c>
       <c r="D478" s="38" t="s">
         <v>634</v>
       </c>
       <c r="E478" s="38"/>
       <c r="F478" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.3">
@@ -12995,7 +12995,7 @@
       </c>
       <c r="E480" s="43"/>
       <c r="F480" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.3">
@@ -13009,11 +13009,11 @@
         <v>541</v>
       </c>
       <c r="D481" s="38" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="E481" s="38"/>
       <c r="F481" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.3">
@@ -13045,7 +13045,7 @@
       </c>
       <c r="E483" s="43"/>
       <c r="F483" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.3">
@@ -13063,7 +13063,7 @@
       </c>
       <c r="E484" s="43"/>
       <c r="F484" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.3">
@@ -13081,7 +13081,7 @@
       </c>
       <c r="E485" s="43"/>
       <c r="F485" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.3">
@@ -13095,11 +13095,11 @@
         <v>550</v>
       </c>
       <c r="D486" s="38" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="E486" s="38"/>
       <c r="F486" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.3">
@@ -13107,17 +13107,17 @@
         <v>55</v>
       </c>
       <c r="B487" s="38" t="s">
-        <v>1158</v>
+        <v>1144</v>
       </c>
       <c r="C487" s="38" t="s">
         <v>552</v>
       </c>
       <c r="D487" s="38" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="E487" s="38"/>
       <c r="F487" s="38" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
   </sheetData>
@@ -13138,7 +13138,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13179,13 +13181,13 @@
         <v>57</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1004</v>
+        <v>1276</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>691</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1168</v>
+        <v>1154</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1" t="s">
@@ -13198,7 +13200,7 @@
         <v>59</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>1004</v>
+        <v>1276</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>693</v>
@@ -13217,7 +13219,7 @@
         <v>62</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>1004</v>
+        <v>1276</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>694</v>
@@ -13236,7 +13238,7 @@
         <v>65</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>1004</v>
+        <v>1276</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>695</v>
@@ -13255,7 +13257,7 @@
         <v>698</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>1004</v>
+        <v>1276</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>699</v>
@@ -14344,13 +14346,13 @@
         <v>68</v>
       </c>
       <c r="B2" s="60" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C2" s="60" t="s">
         <v>701</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="D2" s="51" t="s">
         <v>702</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>703</v>
       </c>
       <c r="E2" s="51"/>
       <c r="F2" s="51" t="s">
@@ -14363,10 +14365,10 @@
         <v>71</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>701</v>
+        <v>1277</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>70</v>
@@ -14382,10 +14384,10 @@
         <v>74</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>701</v>
+        <v>1277</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D4" s="51" t="s">
         <v>73</v>
@@ -14401,13 +14403,13 @@
         <v>76</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>701</v>
+        <v>1277</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>1220</v>
+        <v>1205</v>
       </c>
       <c r="E5" s="51"/>
       <c r="F5" s="51" t="s">
@@ -14420,13 +14422,13 @@
         <v>78</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>701</v>
+        <v>1277</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>1280</v>
+        <v>1265</v>
       </c>
       <c r="E6" s="51"/>
       <c r="F6" s="51" t="s">
@@ -14439,13 +14441,13 @@
         <v>80</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>701</v>
+        <v>1277</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>1169</v>
+        <v>1155</v>
       </c>
       <c r="E7" s="51"/>
       <c r="F7" s="51" t="s">
@@ -14455,16 +14457,16 @@
     </row>
     <row r="8" spans="1:1025" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="60" t="s">
+        <v>709</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C8" s="60" t="s">
         <v>710</v>
       </c>
-      <c r="B8" s="60" t="s">
-        <v>701</v>
-      </c>
-      <c r="C8" s="60" t="s">
+      <c r="D8" s="51" t="s">
         <v>711</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>712</v>
       </c>
       <c r="E8" s="51"/>
       <c r="F8" s="51" t="s">
@@ -14477,13 +14479,13 @@
         <v>89</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>713</v>
+        <v>1278</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>1170</v>
+        <v>1156</v>
       </c>
       <c r="E9" s="51"/>
       <c r="F9" s="51" t="s">
@@ -14496,10 +14498,10 @@
         <v>106</v>
       </c>
       <c r="B10" s="60" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C10" s="60" t="s">
         <v>713</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>715</v>
       </c>
       <c r="D10" s="51" t="s">
         <v>105</v>
@@ -14515,10 +14517,10 @@
         <v>92</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>713</v>
+        <v>1278</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D11" s="51" t="s">
         <v>91</v>
@@ -14534,10 +14536,10 @@
         <v>95</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>713</v>
+        <v>1278</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D12" s="51" t="s">
         <v>94</v>
@@ -14553,13 +14555,13 @@
         <v>97</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>713</v>
+        <v>1278</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>1290</v>
+        <v>1275</v>
       </c>
       <c r="E13" s="51"/>
       <c r="F13" s="51" t="s">
@@ -14572,10 +14574,10 @@
         <v>100</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>713</v>
+        <v>1278</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D14" s="51" t="s">
         <v>99</v>
@@ -14591,10 +14593,10 @@
         <v>103</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>713</v>
+        <v>1278</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D15" s="51" t="s">
         <v>102</v>
@@ -14610,10 +14612,10 @@
         <v>109</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>713</v>
+        <v>1278</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D16" s="51" t="s">
         <v>108</v>
@@ -14629,16 +14631,16 @@
         <v>111</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>713</v>
+        <v>1278</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>1223</v>
+        <v>1208</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>1281</v>
+        <v>1266</v>
       </c>
       <c r="F17" s="51" t="s">
         <v>692</v>
@@ -14647,16 +14649,16 @@
     </row>
     <row r="18" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="60" t="s">
+        <v>721</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>722</v>
+      </c>
+      <c r="D18" s="51" t="s">
         <v>723</v>
-      </c>
-      <c r="B18" s="60" t="s">
-        <v>713</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>724</v>
-      </c>
-      <c r="D18" s="51" t="s">
-        <v>725</v>
       </c>
       <c r="E18" s="51"/>
       <c r="F18" s="51" t="s">
@@ -14669,13 +14671,13 @@
         <v>124</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>726</v>
+        <v>1279</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>1250</v>
+        <v>1235</v>
       </c>
       <c r="E19" s="50"/>
       <c r="F19" s="51" t="s">
@@ -14688,10 +14690,10 @@
         <v>127</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>726</v>
+        <v>1279</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D20" s="51" t="s">
         <v>126</v>
@@ -14707,10 +14709,10 @@
         <v>130</v>
       </c>
       <c r="B21" s="60" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C21" s="60" t="s">
         <v>726</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>729</v>
       </c>
       <c r="D21" s="51" t="s">
         <v>129</v>
@@ -14726,10 +14728,10 @@
         <v>133</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>726</v>
+        <v>1279</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D22" s="51" t="s">
         <v>132</v>
@@ -14745,10 +14747,10 @@
         <v>136</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>726</v>
+        <v>1279</v>
       </c>
       <c r="C23" s="60" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D23" s="51" t="s">
         <v>135</v>
@@ -14764,10 +14766,10 @@
         <v>83</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>726</v>
+        <v>1279</v>
       </c>
       <c r="C24" s="60" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D24" s="51" t="s">
         <v>82</v>
@@ -14783,13 +14785,13 @@
         <v>116</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>733</v>
+        <v>1280</v>
       </c>
       <c r="C25" s="60" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>1171</v>
+        <v>1157</v>
       </c>
       <c r="E25" s="51"/>
       <c r="F25" s="51" t="s">
@@ -14802,13 +14804,13 @@
         <v>172</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>733</v>
+        <v>1280</v>
       </c>
       <c r="C26" s="60" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="E26" s="51"/>
       <c r="F26" s="51" t="s">
@@ -14821,10 +14823,10 @@
         <v>175</v>
       </c>
       <c r="B27" s="60" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C27" s="60" t="s">
         <v>733</v>
-      </c>
-      <c r="C27" s="60" t="s">
-        <v>737</v>
       </c>
       <c r="D27" s="51" t="s">
         <v>174</v>
@@ -14840,13 +14842,13 @@
         <v>151</v>
       </c>
       <c r="B28" s="60" t="s">
-        <v>738</v>
+        <v>1281</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D28" s="51" t="s">
-        <v>1173</v>
+        <v>1159</v>
       </c>
       <c r="E28" s="51"/>
       <c r="F28" s="51" t="s">
@@ -14859,10 +14861,10 @@
         <v>154</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>738</v>
+        <v>1281</v>
       </c>
       <c r="C29" s="60" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D29" s="51" t="s">
         <v>153</v>
@@ -14878,10 +14880,10 @@
         <v>157</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>738</v>
+        <v>1281</v>
       </c>
       <c r="C30" s="60" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D30" s="51" t="s">
         <v>156</v>
@@ -14897,10 +14899,10 @@
         <v>160</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>738</v>
+        <v>1281</v>
       </c>
       <c r="C31" s="60" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D31" s="51" t="s">
         <v>159</v>
@@ -14916,10 +14918,10 @@
         <v>163</v>
       </c>
       <c r="B32" s="60" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C32" s="60" t="s">
         <v>738</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>743</v>
       </c>
       <c r="D32" s="51" t="s">
         <v>162</v>
@@ -14935,13 +14937,13 @@
         <v>169</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>744</v>
+        <v>1282</v>
       </c>
       <c r="C33" s="60" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>1175</v>
+        <v>1161</v>
       </c>
       <c r="E33" s="51"/>
       <c r="F33" s="51" t="s">
@@ -14954,13 +14956,13 @@
         <v>208</v>
       </c>
       <c r="B34" s="60" t="s">
-        <v>746</v>
+        <v>1283</v>
       </c>
       <c r="C34" s="60" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>1174</v>
+        <v>1160</v>
       </c>
       <c r="E34" s="51"/>
       <c r="F34" s="51" t="s">
@@ -14968,15 +14970,15 @@
       </c>
       <c r="G34" s="51"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A35" s="60" t="s">
         <v>211</v>
       </c>
       <c r="B35" s="60" t="s">
-        <v>746</v>
+        <v>1283</v>
       </c>
       <c r="C35" s="60" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="D35" s="51" t="s">
         <v>210</v>
@@ -14987,15 +14989,15 @@
       </c>
       <c r="G35" s="51"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A36" s="60" t="s">
         <v>214</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>746</v>
+        <v>1283</v>
       </c>
       <c r="C36" s="60" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="D36" s="51" t="s">
         <v>213</v>
@@ -15011,10 +15013,10 @@
         <v>217</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>746</v>
+        <v>1283</v>
       </c>
       <c r="C37" s="60" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="D37" s="51" t="s">
         <v>216</v>
@@ -15030,10 +15032,10 @@
         <v>455</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>746</v>
+        <v>1283</v>
       </c>
       <c r="C38" s="60" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="D38" s="51" t="s">
         <v>454</v>
@@ -15049,13 +15051,13 @@
         <v>230</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>979</v>
+        <v>1284</v>
       </c>
       <c r="C39" s="60" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="D39" s="51" t="s">
-        <v>1167</v>
+        <v>1153</v>
       </c>
       <c r="E39" s="51"/>
       <c r="F39" s="51" t="s">
@@ -15068,13 +15070,13 @@
         <v>224</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>979</v>
+        <v>1284</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="D40" s="50" t="s">
-        <v>1109</v>
+        <v>1095</v>
       </c>
       <c r="E40" s="51"/>
       <c r="F40" s="51" t="s">
@@ -15087,13 +15089,13 @@
         <v>222</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>979</v>
+        <v>1284</v>
       </c>
       <c r="C41" s="60" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="D41" s="52" t="s">
-        <v>1110</v>
+        <v>1096</v>
       </c>
       <c r="E41" s="51"/>
       <c r="F41" s="51" t="s">
@@ -15106,13 +15108,13 @@
         <v>229</v>
       </c>
       <c r="B42" s="60" t="s">
-        <v>979</v>
+        <v>1284</v>
       </c>
       <c r="C42" s="60" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="D42" s="51" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="E42" s="51"/>
       <c r="F42" s="51" t="s">
@@ -15120,18 +15122,18 @@
       </c>
       <c r="G42" s="51"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="63" t="s">
-        <v>1062</v>
+        <v>1048</v>
       </c>
       <c r="B43" s="63" t="s">
-        <v>713</v>
+        <v>1278</v>
       </c>
       <c r="C43" s="63" t="s">
-        <v>1051</v>
+        <v>1037</v>
       </c>
       <c r="D43" s="63" t="s">
-        <v>1251</v>
+        <v>1236</v>
       </c>
       <c r="E43" s="33"/>
       <c r="F43" s="51" t="s">
@@ -15139,18 +15141,18 @@
       </c>
       <c r="G43" s="33"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="63" t="s">
-        <v>1063</v>
+        <v>1049</v>
       </c>
       <c r="B44" s="63" t="s">
-        <v>713</v>
+        <v>1278</v>
       </c>
       <c r="C44" s="63" t="s">
-        <v>1052</v>
+        <v>1038</v>
       </c>
       <c r="D44" s="63" t="s">
-        <v>1252</v>
+        <v>1237</v>
       </c>
       <c r="E44" s="33"/>
       <c r="F44" s="51" t="s">
@@ -15158,18 +15160,18 @@
       </c>
       <c r="G44" s="33"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="63" t="s">
-        <v>1064</v>
+        <v>1050</v>
       </c>
       <c r="B45" s="63" t="s">
-        <v>713</v>
+        <v>1278</v>
       </c>
       <c r="C45" s="63" t="s">
-        <v>1053</v>
+        <v>1039</v>
       </c>
       <c r="D45" s="63" t="s">
-        <v>1253</v>
+        <v>1238</v>
       </c>
       <c r="E45" s="33"/>
       <c r="F45" s="51" t="s">
@@ -15177,18 +15179,18 @@
       </c>
       <c r="G45" s="33"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="63" t="s">
-        <v>1065</v>
+        <v>1051</v>
       </c>
       <c r="B46" s="63" t="s">
-        <v>713</v>
+        <v>1278</v>
       </c>
       <c r="C46" s="63" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="D46" s="63" t="s">
-        <v>1254</v>
+        <v>1239</v>
       </c>
       <c r="E46" s="33"/>
       <c r="F46" s="51" t="s">
@@ -15196,18 +15198,18 @@
       </c>
       <c r="G46" s="33"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="63" t="s">
-        <v>1066</v>
+        <v>1052</v>
       </c>
       <c r="B47" s="63" t="s">
-        <v>713</v>
+        <v>1278</v>
       </c>
       <c r="C47" s="63" t="s">
-        <v>1055</v>
+        <v>1041</v>
       </c>
       <c r="D47" s="63" t="s">
-        <v>1255</v>
+        <v>1240</v>
       </c>
       <c r="E47" s="33"/>
       <c r="F47" s="51" t="s">
@@ -15215,18 +15217,18 @@
       </c>
       <c r="G47" s="33"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="63" t="s">
-        <v>1067</v>
+        <v>1053</v>
       </c>
       <c r="B48" s="63" t="s">
-        <v>713</v>
+        <v>1278</v>
       </c>
       <c r="C48" s="63" t="s">
-        <v>1056</v>
+        <v>1042</v>
       </c>
       <c r="D48" s="63" t="s">
-        <v>1256</v>
+        <v>1241</v>
       </c>
       <c r="E48" s="33"/>
       <c r="F48" s="51" t="s">
@@ -15234,18 +15236,18 @@
       </c>
       <c r="G48" s="33"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="63" t="s">
-        <v>1068</v>
+        <v>1054</v>
       </c>
       <c r="B49" s="63" t="s">
-        <v>713</v>
+        <v>1278</v>
       </c>
       <c r="C49" s="63" t="s">
-        <v>1057</v>
+        <v>1043</v>
       </c>
       <c r="D49" s="63" t="s">
-        <v>1257</v>
+        <v>1242</v>
       </c>
       <c r="E49" s="33"/>
       <c r="F49" s="51" t="s">
@@ -15253,18 +15255,18 @@
       </c>
       <c r="G49" s="33"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="63" t="s">
-        <v>1069</v>
+        <v>1055</v>
       </c>
       <c r="B50" s="63" t="s">
-        <v>713</v>
+        <v>1278</v>
       </c>
       <c r="C50" s="63" t="s">
-        <v>1058</v>
+        <v>1044</v>
       </c>
       <c r="D50" s="63" t="s">
-        <v>1258</v>
+        <v>1243</v>
       </c>
       <c r="E50" s="33"/>
       <c r="F50" s="51" t="s">
@@ -15272,18 +15274,18 @@
       </c>
       <c r="G50" s="33"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="63" t="s">
-        <v>1070</v>
+        <v>1056</v>
       </c>
       <c r="B51" s="63" t="s">
-        <v>713</v>
+        <v>1278</v>
       </c>
       <c r="C51" s="63" t="s">
-        <v>1059</v>
+        <v>1045</v>
       </c>
       <c r="D51" s="63" t="s">
-        <v>1259</v>
+        <v>1244</v>
       </c>
       <c r="E51" s="33"/>
       <c r="F51" s="51" t="s">
@@ -15291,18 +15293,18 @@
       </c>
       <c r="G51" s="33"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="63" t="s">
-        <v>1071</v>
+        <v>1057</v>
       </c>
       <c r="B52" s="63" t="s">
-        <v>738</v>
+        <v>1281</v>
       </c>
       <c r="C52" s="63" t="s">
-        <v>1060</v>
+        <v>1046</v>
       </c>
       <c r="D52" s="63" t="s">
-        <v>1224</v>
+        <v>1209</v>
       </c>
       <c r="E52" s="33"/>
       <c r="F52" s="51" t="s">
@@ -15310,18 +15312,18 @@
       </c>
       <c r="G52" s="33"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="63" t="s">
-        <v>1072</v>
+        <v>1058</v>
       </c>
       <c r="B53" s="63" t="s">
-        <v>738</v>
+        <v>1281</v>
       </c>
       <c r="C53" s="63" t="s">
-        <v>1061</v>
+        <v>1047</v>
       </c>
       <c r="D53" s="63" t="s">
-        <v>1260</v>
+        <v>1245</v>
       </c>
       <c r="E53" s="33"/>
       <c r="F53" s="51" t="s">
@@ -15329,18 +15331,18 @@
       </c>
       <c r="G53" s="33"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="63" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
       <c r="B54" s="63" t="s">
-        <v>746</v>
+        <v>1283</v>
       </c>
       <c r="C54" s="63" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="D54" s="63" t="s">
-        <v>1261</v>
+        <v>1246</v>
       </c>
       <c r="E54" s="33"/>
       <c r="F54" s="51" t="s">
@@ -15348,18 +15350,18 @@
       </c>
       <c r="G54" s="33"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="63" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="B55" s="63" t="s">
-        <v>979</v>
+        <v>1284</v>
       </c>
       <c r="C55" s="63" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
       <c r="D55" s="63" t="s">
-        <v>1102</v>
+        <v>1088</v>
       </c>
       <c r="E55" s="33"/>
       <c r="F55" s="51" t="s">
@@ -15369,16 +15371,16 @@
     </row>
     <row r="56" spans="1:7" s="49" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A56" s="63" t="s">
-        <v>1180</v>
+        <v>1166</v>
       </c>
       <c r="B56" s="63" t="s">
-        <v>1208</v>
+        <v>1285</v>
       </c>
       <c r="C56" s="63" t="s">
-        <v>1209</v>
+        <v>1194</v>
       </c>
       <c r="D56" s="50" t="s">
-        <v>1210</v>
+        <v>1195</v>
       </c>
       <c r="E56" s="33"/>
       <c r="F56" s="51" t="s">
@@ -15690,13 +15692,13 @@
     </row>
     <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="60" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="D2" s="60" t="s">
         <v>238</v>
@@ -15709,16 +15711,16 @@
     </row>
     <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="60" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>1147</v>
+        <v>1133</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18" t="s">
@@ -15728,13 +15730,13 @@
     </row>
     <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="60" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="D4" s="60" t="s">
         <v>242</v>
@@ -15747,13 +15749,13 @@
     </row>
     <row r="5" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="60" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="D5" s="60" t="s">
         <v>245</v>
@@ -15766,16 +15768,16 @@
     </row>
     <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
@@ -15785,16 +15787,16 @@
     </row>
     <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="60" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
@@ -15804,16 +15806,16 @@
     </row>
     <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="60" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
@@ -15823,16 +15825,16 @@
     </row>
     <row r="9" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="60" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18" t="s">
@@ -15842,13 +15844,13 @@
     </row>
     <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="60" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="D10" s="60" t="s">
         <v>313</v>
@@ -15861,13 +15863,13 @@
     </row>
     <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="60" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="D11" s="60" t="s">
         <v>315</v>
@@ -15880,16 +15882,16 @@
     </row>
     <row r="12" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="60" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
@@ -15899,13 +15901,13 @@
     </row>
     <row r="13" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="60" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="D13" s="60" t="s">
         <v>319</v>
@@ -15918,13 +15920,13 @@
     </row>
     <row r="14" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="60" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="D14" s="60" t="s">
         <v>322</v>
@@ -15937,13 +15939,13 @@
     </row>
     <row r="15" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="60" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="D15" s="60" t="s">
         <v>324</v>
@@ -15956,16 +15958,16 @@
     </row>
     <row r="16" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18" t="s">
@@ -15975,16 +15977,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18" t="s">
@@ -15994,16 +15996,16 @@
     </row>
     <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="60" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18" t="s">
@@ -16013,13 +16015,13 @@
     </row>
     <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="60" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="D19" s="60" t="s">
         <v>330</v>
@@ -16032,13 +16034,13 @@
     </row>
     <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="60" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="D20" s="60" t="s">
         <v>332</v>
@@ -16051,16 +16053,16 @@
     </row>
     <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="60" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D21" s="60" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18" t="s">
@@ -16070,13 +16072,13 @@
     </row>
     <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="60" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="D22" s="60" t="s">
         <v>338</v>
@@ -16089,13 +16091,13 @@
     </row>
     <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="60" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C23" s="60" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="D23" s="60" t="s">
         <v>340</v>
@@ -16108,13 +16110,13 @@
     </row>
     <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="60" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C24" s="60" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="D24" s="60" t="s">
         <v>342</v>
@@ -16127,16 +16129,16 @@
     </row>
     <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="60" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C25" s="60" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="D25" s="60" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18" t="s">
@@ -16146,13 +16148,13 @@
     </row>
     <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="60" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C26" s="60" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="D26" s="60" t="s">
         <v>348</v>
@@ -16165,16 +16167,16 @@
     </row>
     <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="60" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C27" s="60" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D27" s="60" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="18" t="s">
@@ -16184,13 +16186,13 @@
     </row>
     <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="60" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="B28" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="D28" s="60" t="s">
         <v>352</v>
@@ -16203,13 +16205,13 @@
     </row>
     <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="60" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C29" s="60" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="D29" s="60" t="s">
         <v>354</v>
@@ -16222,13 +16224,13 @@
     </row>
     <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="60" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C30" s="60" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="D30" s="60" t="s">
         <v>356</v>
@@ -16241,16 +16243,16 @@
     </row>
     <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="60" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C31" s="60" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="D31" s="60" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="18" t="s">
@@ -16260,16 +16262,16 @@
     </row>
     <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="60" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C32" s="60" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="D32" s="60" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="18" t="s">
@@ -16279,16 +16281,16 @@
     </row>
     <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="60" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C33" s="60" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="D33" s="60" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="18" t="s">
@@ -16298,16 +16300,16 @@
     </row>
     <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="60" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="B34" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C34" s="60" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="D34" s="60" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="18" t="s">
@@ -16317,16 +16319,16 @@
     </row>
     <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="60" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="B35" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C35" s="60" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="D35" s="60" t="s">
-        <v>1262</v>
+        <v>1247</v>
       </c>
       <c r="E35" s="18"/>
       <c r="F35" s="18" t="s">
@@ -16336,16 +16338,16 @@
     </row>
     <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="60" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C36" s="60" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="D36" s="60" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="18" t="s">
@@ -16355,16 +16357,16 @@
     </row>
     <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="60" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C37" s="60" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="D37" s="60" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="18" t="s">
@@ -16374,16 +16376,16 @@
     </row>
     <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="60" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C38" s="60" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="D38" s="60" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="E38" s="18"/>
       <c r="F38" s="18" t="s">
@@ -16393,16 +16395,16 @@
     </row>
     <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="60" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C39" s="60" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="D39" s="60" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="18" t="s">
@@ -16412,19 +16414,19 @@
     </row>
     <row r="40" spans="1:7" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="60" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C40" s="60" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="D40" s="60" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>692</v>
@@ -16433,16 +16435,16 @@
     </row>
     <row r="41" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="60" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="B41" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C41" s="60" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="D41" s="60" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="18" t="s">
@@ -16452,16 +16454,16 @@
     </row>
     <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="60" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="B42" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C42" s="60" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="D42" s="60" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="18" t="s">
@@ -16471,19 +16473,19 @@
     </row>
     <row r="43" spans="1:7" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="60" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="B43" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C43" s="60" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="D43" s="60" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="F43" s="18" t="s">
         <v>692</v>
@@ -16492,19 +16494,19 @@
     </row>
     <row r="44" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="60" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="B44" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C44" s="60" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="D44" s="60" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>1144</v>
+        <v>1130</v>
       </c>
       <c r="F44" s="18" t="s">
         <v>692</v>
@@ -16513,19 +16515,19 @@
     </row>
     <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="60" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="B45" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C45" s="60" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="D45" s="60" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="F45" s="18" t="s">
         <v>692</v>
@@ -16534,16 +16536,16 @@
     </row>
     <row r="46" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="60" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="B46" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C46" s="60" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="D46" s="60" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="18" t="s">
@@ -16553,16 +16555,16 @@
     </row>
     <row r="47" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="60" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="B47" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C47" s="60" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="D47" s="60" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="E47" s="18"/>
       <c r="F47" s="18" t="s">
@@ -16572,16 +16574,16 @@
     </row>
     <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="60" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="B48" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C48" s="60" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="D48" s="60" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="E48" s="18"/>
       <c r="F48" s="18" t="s">
@@ -16591,16 +16593,16 @@
     </row>
     <row r="49" spans="1:256" s="23" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="B49" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C49" s="64" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="D49" s="64" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="18" t="s">
@@ -16857,18 +16859,18 @@
       <c r="IU49" s="22"/>
       <c r="IV49" s="22"/>
     </row>
-    <row r="50" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
-        <v>1148</v>
+        <v>1134</v>
       </c>
       <c r="B50" s="60" t="s">
-        <v>758</v>
+        <v>1286</v>
       </c>
       <c r="C50" s="60" t="s">
-        <v>1149</v>
+        <v>1135</v>
       </c>
       <c r="D50" s="60" t="s">
-        <v>1263</v>
+        <v>1248</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="18" t="s">
@@ -17183,13 +17185,13 @@
         <v>373</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>1005</v>
+        <v>1287</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
@@ -17202,13 +17204,13 @@
         <v>376</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>1005</v>
+        <v>1287</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
@@ -17221,13 +17223,13 @@
         <v>379</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>1005</v>
+        <v>1287</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
@@ -17240,13 +17242,13 @@
         <v>392</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>1005</v>
+        <v>1287</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
@@ -17259,16 +17261,16 @@
         <v>381</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>1005</v>
+        <v>1287</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>1286</v>
+        <v>1271</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1285</v>
+        <v>1270</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>692</v>
@@ -17280,13 +17282,13 @@
         <v>384</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>1005</v>
+        <v>1287</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
@@ -17299,13 +17301,13 @@
         <v>387</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>1005</v>
+        <v>1287</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
@@ -17318,13 +17320,13 @@
         <v>390</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>1005</v>
+        <v>1287</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
@@ -17337,13 +17339,13 @@
         <v>395</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>1005</v>
+        <v>1287</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
@@ -17353,16 +17355,16 @@
     </row>
     <row r="11" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="71" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B11" s="71" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C11" s="71" t="s">
         <v>1249</v>
       </c>
-      <c r="B11" s="71" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C11" s="71" t="s">
-        <v>1264</v>
-      </c>
       <c r="D11" s="29" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
@@ -17372,16 +17374,16 @@
     </row>
     <row r="12" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>1005</v>
+        <v>1287</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>1265</v>
+        <v>1250</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
@@ -17394,20 +17396,20 @@
         <v>398</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>1005</v>
+        <v>1287</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="6" t="s">
         <v>692</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -17415,13 +17417,13 @@
         <v>400</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>1005</v>
+        <v>1287</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
@@ -17434,10 +17436,10 @@
         <v>403</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>1005</v>
+        <v>1287</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="D15" s="29" t="s">
         <v>431</v>
@@ -17446,7 +17448,7 @@
         <v>692</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
     </row>
     <row r="16" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17454,16 +17456,16 @@
         <v>432</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>1005</v>
+        <v>1287</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>1266</v>
+        <v>1251</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>692</v>
@@ -17475,22 +17477,22 @@
         <v>434</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>1005</v>
+        <v>1287</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>692</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -17498,10 +17500,10 @@
         <v>460</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>1005</v>
+        <v>1287</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="D18" s="29" t="s">
         <v>459</v>
@@ -17517,10 +17519,10 @@
         <v>463</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>1005</v>
+        <v>1287</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="D19" s="29" t="s">
         <v>462</v>
@@ -17536,13 +17538,13 @@
         <v>466</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>1005</v>
+        <v>1287</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
@@ -17555,13 +17557,13 @@
         <v>469</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>1005</v>
+        <v>1287</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
@@ -17574,13 +17576,13 @@
         <v>473</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>1005</v>
+        <v>1287</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
@@ -17593,13 +17595,13 @@
         <v>420</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>1005</v>
+        <v>1287</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>1246</v>
+        <v>1231</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
@@ -17607,18 +17609,18 @@
       </c>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="71" t="s">
-        <v>1031</v>
+        <v>1017</v>
       </c>
       <c r="B24" s="71" t="s">
-        <v>1005</v>
+        <v>1287</v>
       </c>
       <c r="C24" s="71" t="s">
-        <v>1032</v>
+        <v>1018</v>
       </c>
       <c r="D24" s="71" t="s">
-        <v>1033</v>
+        <v>1019</v>
       </c>
       <c r="E24" s="72"/>
       <c r="F24" s="6" t="s">
@@ -17628,16 +17630,16 @@
     </row>
     <row r="25" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A25" s="71" t="s">
-        <v>1034</v>
+        <v>1020</v>
       </c>
       <c r="B25" s="71" t="s">
-        <v>1005</v>
+        <v>1287</v>
       </c>
       <c r="C25" s="71" t="s">
-        <v>1035</v>
+        <v>1021</v>
       </c>
       <c r="D25" s="71" t="s">
-        <v>1136</v>
+        <v>1122</v>
       </c>
       <c r="E25" s="72"/>
       <c r="F25" s="6" t="s">
@@ -17647,16 +17649,16 @@
     </row>
     <row r="26" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="71" t="s">
-        <v>1036</v>
+        <v>1022</v>
       </c>
       <c r="B26" s="71" t="s">
-        <v>1005</v>
+        <v>1287</v>
       </c>
       <c r="C26" s="71" t="s">
-        <v>1037</v>
+        <v>1023</v>
       </c>
       <c r="D26" s="71" t="s">
-        <v>1038</v>
+        <v>1024</v>
       </c>
       <c r="E26" s="72"/>
       <c r="F26" s="6" t="s">
@@ -17666,16 +17668,16 @@
     </row>
     <row r="27" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A27" s="71" t="s">
-        <v>1039</v>
+        <v>1025</v>
       </c>
       <c r="B27" s="71" t="s">
-        <v>1005</v>
+        <v>1287</v>
       </c>
       <c r="C27" s="71" t="s">
-        <v>1040</v>
+        <v>1026</v>
       </c>
       <c r="D27" s="71" t="s">
-        <v>1041</v>
+        <v>1027</v>
       </c>
       <c r="E27" s="72"/>
       <c r="F27" s="6" t="s">
@@ -17685,16 +17687,16 @@
     </row>
     <row r="28" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A28" s="71" t="s">
-        <v>1042</v>
+        <v>1028</v>
       </c>
       <c r="B28" s="71" t="s">
-        <v>1005</v>
+        <v>1287</v>
       </c>
       <c r="C28" s="71" t="s">
-        <v>1043</v>
+        <v>1029</v>
       </c>
       <c r="D28" s="71" t="s">
-        <v>1044</v>
+        <v>1030</v>
       </c>
       <c r="E28" s="72"/>
       <c r="F28" s="6" t="s">
@@ -17704,19 +17706,19 @@
     </row>
     <row r="29" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A29" s="71" t="s">
-        <v>1045</v>
+        <v>1031</v>
       </c>
       <c r="B29" s="71" t="s">
-        <v>1005</v>
+        <v>1287</v>
       </c>
       <c r="C29" s="71" t="s">
-        <v>1046</v>
+        <v>1032</v>
       </c>
       <c r="D29" s="71" t="s">
-        <v>1047</v>
+        <v>1033</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>1164</v>
+        <v>1150</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>692</v>
@@ -17725,19 +17727,19 @@
     </row>
     <row r="30" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A30" s="71" t="s">
-        <v>1048</v>
+        <v>1034</v>
       </c>
       <c r="B30" s="71" t="s">
-        <v>1005</v>
+        <v>1287</v>
       </c>
       <c r="C30" s="71" t="s">
-        <v>1049</v>
+        <v>1035</v>
       </c>
       <c r="D30" s="71" t="s">
-        <v>1050</v>
+        <v>1036</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>1277</v>
+        <v>1262</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>692</v>
@@ -17798,16 +17800,16 @@
     </row>
     <row r="2" spans="1:256" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>920</v>
+        <v>1288</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>1130</v>
+        <v>1116</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="16" t="s">
@@ -18066,16 +18068,16 @@
     </row>
     <row r="3" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>920</v>
+        <v>1288</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1131</v>
+        <v>1117</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="1" t="s">
@@ -18085,16 +18087,16 @@
     </row>
     <row r="4" spans="1:256" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>920</v>
+        <v>1288</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>1132</v>
+        <v>1118</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="1" t="s">
@@ -18406,23 +18408,23 @@
     </row>
     <row r="2" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="60" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>927</v>
+        <v>1289</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="19" t="s">
         <v>692</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
@@ -18430,13 +18432,13 @@
         <v>563</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>927</v>
+        <v>1289</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="19" t="s">
@@ -18449,13 +18451,13 @@
         <v>497</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>927</v>
+        <v>1289</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19" t="s">
@@ -18468,13 +18470,13 @@
         <v>500</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>927</v>
+        <v>1289</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="19" t="s">
@@ -18487,13 +18489,13 @@
         <v>503</v>
       </c>
       <c r="B6" s="60" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C6" s="60" t="s">
         <v>927</v>
       </c>
-      <c r="C6" s="60" t="s">
-        <v>937</v>
-      </c>
       <c r="D6" s="60" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="19" t="s">
@@ -18506,22 +18508,22 @@
         <v>506</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>927</v>
+        <v>1289</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>1278</v>
+        <v>1263</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>1279</v>
+        <v>1264</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>692</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>1002</v>
+        <v>991</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
@@ -18529,13 +18531,13 @@
         <v>511</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>927</v>
+        <v>1289</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19" t="s">
@@ -18548,13 +18550,13 @@
         <v>514</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>927</v>
+        <v>1289</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19" t="s">
@@ -18567,13 +18569,13 @@
         <v>516</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>927</v>
+        <v>1289</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="19" t="s">
@@ -18586,13 +18588,13 @@
         <v>519</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>927</v>
+        <v>1289</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="19" t="s">
@@ -18605,10 +18607,10 @@
         <v>521</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>927</v>
+        <v>1289</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="D12" s="60" t="s">
         <v>568</v>
@@ -18624,22 +18626,22 @@
         <v>524</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>927</v>
+        <v>1289</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>1164</v>
+        <v>1150</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>692</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>1166</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
@@ -18647,20 +18649,20 @@
         <v>532</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>927</v>
+        <v>1289</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="D14" s="60" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19" t="s">
         <v>692</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
@@ -18668,13 +18670,13 @@
         <v>535</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>927</v>
+        <v>1289</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="D15" s="60" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19" t="s">
@@ -18687,13 +18689,13 @@
         <v>566</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>927</v>
+        <v>1289</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="D16" s="60" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19" t="s">
@@ -18703,16 +18705,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="60" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>927</v>
+        <v>1289</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
       <c r="D17" s="60" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19" t="s">
@@ -18725,13 +18727,13 @@
         <v>598</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>927</v>
+        <v>1289</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="D18" s="60" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19" t="s">
@@ -18741,25 +18743,25 @@
     </row>
     <row r="19" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="60" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>927</v>
+        <v>1289</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>692</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>1003</v>
+        <v>992</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -18767,13 +18769,13 @@
         <v>632</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>927</v>
+        <v>1289</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="D20" s="60" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="19" t="s">
@@ -18786,56 +18788,56 @@
         <v>634</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>927</v>
+        <v>1289</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="D21" s="60" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>1282</v>
+        <v>1267</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>692</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="60" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>927</v>
+        <v>1289</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="D22" s="60" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="60" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>927</v>
+        <v>1289</v>
       </c>
       <c r="C23" s="60" t="s">
-        <v>994</v>
+        <v>983</v>
       </c>
       <c r="D23" s="60" t="s">
         <v>546</v>
@@ -18846,13 +18848,13 @@
     </row>
     <row r="24" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="60" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>927</v>
+        <v>1289</v>
       </c>
       <c r="C24" s="60" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
       <c r="D24" s="60" t="s">
         <v>550</v>
@@ -18863,32 +18865,32 @@
     </row>
     <row r="25" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="60" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>927</v>
+        <v>1289</v>
       </c>
       <c r="C25" s="60" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
       <c r="D25" s="60" t="s">
         <v>541</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>1141</v>
+        <v>1127</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
     </row>
     <row r="26" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="60" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>927</v>
+        <v>1289</v>
       </c>
       <c r="C26" s="60" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="D26" s="60" t="s">
         <v>552</v>
@@ -18899,13 +18901,13 @@
     </row>
     <row r="27" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A27" s="67" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>927</v>
+        <v>1289</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="D27" s="60" t="s">
         <v>671</v>
@@ -18916,34 +18918,34 @@
     </row>
     <row r="28" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A28" s="60" t="s">
-        <v>1159</v>
+        <v>1145</v>
       </c>
       <c r="B28" s="60" t="s">
-        <v>927</v>
+        <v>1289</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>1160</v>
+        <v>1146</v>
       </c>
       <c r="D28" s="60" t="s">
         <v>528</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>1163</v>
+        <v>1149</v>
       </c>
       <c r="F28" s="29"/>
       <c r="G28" s="29" t="s">
-        <v>1165</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="60" t="s">
-        <v>1161</v>
+        <v>1147</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>927</v>
+        <v>1289</v>
       </c>
       <c r="C29" s="60" t="s">
-        <v>1162</v>
+        <v>1148</v>
       </c>
       <c r="D29" s="60" t="s">
         <v>529</v>
@@ -18966,7 +18968,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:IV4"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -19255,64 +19257,64 @@
     </row>
     <row r="2" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1018</v>
+        <v>1290</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1011</v>
+        <v>998</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
         <v>692</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
     </row>
     <row r="3" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>1014</v>
+        <v>1001</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1018</v>
+        <v>1290</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>1013</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1018</v>
+        <v>1290</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1015</v>
+        <v>1002</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>1016</v>
+        <v>1003</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G4" s="4"/>
     </row>

--- a/conformancelib/testdata/PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/PIV_ICAM_Test_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance-0.2.3-beta\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49F93A4-5A0A-47C1-A43D-E6E45434342E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EE0D4F-D707-45E0-86AD-93CE6F2AEC1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="384" windowWidth="20112" windowHeight="12948" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="852" windowWidth="22920" windowHeight="12948" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="1" r:id="rId1"/>
@@ -4701,8 +4701,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AMK489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A436" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:F489"/>
+    <sheetView tabSelected="1" topLeftCell="B454" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11868,7 +11868,7 @@
       </c>
       <c r="E356" s="58"/>
       <c r="F356" s="51" t="s">
-        <v>206</v>
+        <v>124</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -12448,7 +12448,7 @@
       </c>
       <c r="E390" s="58"/>
       <c r="F390" s="51" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="391" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -12802,7 +12802,7 @@
       </c>
       <c r="E411" s="58"/>
       <c r="F411" s="51" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
@@ -13830,7 +13830,7 @@
       </c>
       <c r="E473" s="51"/>
       <c r="F473" s="51" t="s">
-        <v>236</v>
+        <v>51</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">
@@ -17724,7 +17724,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMK4"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>

--- a/conformancelib/testdata/PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/PIV_ICAM_Test_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance-0.2.3-beta\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD06989F-DA00-427C-8592-9FF66C710B38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2987B80-3A7E-4FAD-B2AC-31456D3E5BEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="20988" windowHeight="12948" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="336" windowWidth="22296" windowHeight="12960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="1" r:id="rId1"/>
@@ -4779,9 +4779,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AMK490"/>
   <sheetViews>
-    <sheetView topLeftCell="D472" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F490" sqref="A1:F490"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -19175,9 +19173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMK32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:G32"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>

--- a/conformancelib/testdata/PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/PIV_ICAM_Test_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance-0.2.3-beta\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2987B80-3A7E-4FAD-B2AC-31456D3E5BEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375D84BF-8EB1-40AE-9EFF-AB17922C5F84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="336" windowWidth="22296" windowHeight="12960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="744" yWindow="1152" windowWidth="22296" windowHeight="12960" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Steps Overview'!$D$1:$D$485</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3124" uniqueCount="1305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3124" uniqueCount="1303">
   <si>
     <t>Document</t>
   </si>
@@ -2380,9 +2380,6 @@
     <t>11.3.1.1</t>
   </si>
   <si>
-    <t>If the algorithm value is id-RSASSA-PSS, verify that the signature-&gt;parameters field is populated with SHA-256 (OID = 2.16.840.1.101.3.4.2.1). For the other RSA algorithms, the parameters field is populated with NULL. For ECDSA, the parameters field is absent.</t>
-  </si>
-  <si>
     <t>11.3.1.2</t>
   </si>
   <si>
@@ -3632,9 +3629,6 @@
   </si>
   <si>
     <t>sp800_78_Test_3</t>
-  </si>
-  <si>
-    <t>If the algorithm value is id-RSASSA-PSS, verify that the signature-&gt;parameters field is populated with SHA-256 (OID = 2.16.840.1.101.3.4.2.1). For the other RSA algorithms, the parameters field is populated with NULL. For ECDSA, the parameters field is absent. (Table 3-3)</t>
   </si>
   <si>
     <t>PKIX.1</t>
@@ -4779,7 +4773,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AMK490"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A329" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C469" sqref="C469"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6295,7 +6291,7 @@
         <v>117</v>
       </c>
       <c r="B87" s="45" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C87" s="45" t="s">
         <v>119</v>
@@ -7373,7 +7369,7 @@
       </c>
       <c r="E149" s="45"/>
       <c r="F149" s="45" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7391,7 +7387,7 @@
       </c>
       <c r="E150" s="45"/>
       <c r="F150" s="45" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -7409,7 +7405,7 @@
       </c>
       <c r="E151" s="45"/>
       <c r="F151" s="45" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -11920,7 +11916,7 @@
         <v>6</v>
       </c>
       <c r="B355" s="45" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="C355" s="46" t="s">
         <v>754</v>
@@ -11970,7 +11966,7 @@
         <v>6</v>
       </c>
       <c r="B358" s="45" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C358" s="52" t="s">
         <v>687</v>
@@ -11988,7 +11984,7 @@
         <v>6</v>
       </c>
       <c r="B359" s="45" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="C359" s="45" t="s">
         <v>690</v>
@@ -12041,7 +12037,7 @@
         <v>696</v>
       </c>
       <c r="C362" s="52" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="D362" s="45" t="s">
         <v>698</v>
@@ -12076,7 +12072,7 @@
         <v>702</v>
       </c>
       <c r="C364" s="56" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="D364" s="56" t="s">
         <v>727</v>
@@ -12090,10 +12086,10 @@
         <v>6</v>
       </c>
       <c r="B365" s="57" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C365" s="57" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="D365" s="57" t="s">
         <v>703</v>
@@ -12110,7 +12106,7 @@
         <v>704</v>
       </c>
       <c r="C366" s="52" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="D366" s="45" t="s">
         <v>705</v>
@@ -12246,10 +12242,10 @@
         <v>725</v>
       </c>
       <c r="C374" s="68" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="D374" s="67" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="E374" s="67"/>
       <c r="F374" s="67" t="s">
@@ -13350,10 +13346,10 @@
         <v>737</v>
       </c>
       <c r="C379" s="56" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="D379" s="56" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="F379" s="56" t="s">
         <v>124</v>
@@ -13367,10 +13363,10 @@
         <v>738</v>
       </c>
       <c r="C380" s="57" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D380" s="57" t="s">
         <v>1293</v>
-      </c>
-      <c r="D380" s="57" t="s">
-        <v>1295</v>
       </c>
       <c r="F380" s="57" t="s">
         <v>124</v>
@@ -13545,10 +13541,10 @@
         <v>6</v>
       </c>
       <c r="B391" s="45" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="C391" s="52" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D391" s="45" t="s">
         <v>688</v>
@@ -13652,10 +13648,10 @@
         <v>769</v>
       </c>
       <c r="C397" s="67" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="D397" s="67" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="F397" s="67" t="s">
         <v>206</v>
@@ -13736,10 +13732,10 @@
         <v>774</v>
       </c>
       <c r="C402" s="56" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="D402" s="56" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="F402" s="56" t="s">
         <v>206</v>
@@ -13753,10 +13749,10 @@
         <v>775</v>
       </c>
       <c r="C403" s="57" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D403" s="57" t="s">
         <v>1293</v>
-      </c>
-      <c r="D403" s="57" t="s">
-        <v>1295</v>
       </c>
       <c r="F403" s="57" t="s">
         <v>206</v>
@@ -13808,7 +13804,7 @@
       <c r="E406" s="46"/>
       <c r="F406" s="46"/>
     </row>
-    <row r="407" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A407" s="45" t="s">
         <v>6</v>
       </c>
@@ -13816,7 +13812,7 @@
         <v>780</v>
       </c>
       <c r="C407" s="52" t="s">
-        <v>781</v>
+        <v>676</v>
       </c>
       <c r="D407" s="45">
         <v>78.3</v>
@@ -13831,10 +13827,10 @@
         <v>6</v>
       </c>
       <c r="B408" s="45" t="s">
+        <v>781</v>
+      </c>
+      <c r="C408" s="45" t="s">
         <v>782</v>
-      </c>
-      <c r="C408" s="45" t="s">
-        <v>783</v>
       </c>
       <c r="D408" s="45" t="s">
         <v>749</v>
@@ -13849,10 +13845,10 @@
         <v>6</v>
       </c>
       <c r="B409" s="45" t="s">
+        <v>783</v>
+      </c>
+      <c r="C409" s="52" t="s">
         <v>784</v>
-      </c>
-      <c r="C409" s="52" t="s">
-        <v>785</v>
       </c>
       <c r="D409" s="45">
         <v>78.099999999999994</v>
@@ -13867,7 +13863,7 @@
         <v>6</v>
       </c>
       <c r="B410" s="45" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C410" s="46" t="s">
         <v>682</v>
@@ -13881,7 +13877,7 @@
         <v>6</v>
       </c>
       <c r="B411" s="45" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C411" s="46" t="s">
         <v>754</v>
@@ -13895,7 +13891,7 @@
         <v>6</v>
       </c>
       <c r="B412" s="45" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C412" s="45" t="s">
         <v>756</v>
@@ -13913,10 +13909,10 @@
         <v>6</v>
       </c>
       <c r="B413" s="45" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C413" s="52" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D413" s="45" t="s">
         <v>688</v>
@@ -13931,10 +13927,10 @@
         <v>6</v>
       </c>
       <c r="B414" s="45" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="C414" s="52" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D414" s="45" t="s">
         <v>688</v>
@@ -13949,10 +13945,10 @@
         <v>6</v>
       </c>
       <c r="B415" s="45" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C415" s="52" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D415" s="45" t="s">
         <v>688</v>
@@ -13967,10 +13963,10 @@
         <v>6</v>
       </c>
       <c r="B416" s="45" t="s">
+        <v>793</v>
+      </c>
+      <c r="C416" s="52" t="s">
         <v>794</v>
-      </c>
-      <c r="C416" s="52" t="s">
-        <v>795</v>
       </c>
       <c r="D416" s="45" t="s">
         <v>708</v>
@@ -13985,10 +13981,10 @@
         <v>6</v>
       </c>
       <c r="B417" s="45" t="s">
+        <v>795</v>
+      </c>
+      <c r="C417" s="52" t="s">
         <v>796</v>
-      </c>
-      <c r="C417" s="52" t="s">
-        <v>797</v>
       </c>
       <c r="D417" s="45" t="s">
         <v>722</v>
@@ -14003,7 +13999,7 @@
         <v>6</v>
       </c>
       <c r="B418" s="45" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C418" s="52" t="s">
         <v>767</v>
@@ -14021,7 +14017,7 @@
         <v>6</v>
       </c>
       <c r="B419" s="45" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C419" s="46" t="s">
         <v>724</v>
@@ -14035,13 +14031,13 @@
         <v>6</v>
       </c>
       <c r="B420" s="67" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C420" s="67" t="s">
         <v>726</v>
       </c>
       <c r="D420" s="67" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="F420" s="67" t="s">
         <v>221</v>
@@ -14052,7 +14048,7 @@
         <v>6</v>
       </c>
       <c r="B421" s="45" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C421" s="45" t="s">
         <v>729</v>
@@ -14070,7 +14066,7 @@
         <v>6</v>
       </c>
       <c r="B422" s="45" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C422" s="46" t="s">
         <v>732</v>
@@ -14084,7 +14080,7 @@
         <v>6</v>
       </c>
       <c r="B423" s="45" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C423" s="52" t="s">
         <v>697</v>
@@ -14102,7 +14098,7 @@
         <v>6</v>
       </c>
       <c r="B424" s="55" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C424" s="55" t="s">
         <v>735</v>
@@ -14119,13 +14115,13 @@
         <v>6</v>
       </c>
       <c r="B425" s="56" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C425" s="56" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="D425" s="56" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="F425" s="56" t="s">
         <v>221</v>
@@ -14136,13 +14132,13 @@
         <v>6</v>
       </c>
       <c r="B426" s="57" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C426" s="57" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D426" s="57" t="s">
         <v>1293</v>
-      </c>
-      <c r="D426" s="57" t="s">
-        <v>1295</v>
       </c>
       <c r="F426" s="57" t="s">
         <v>221</v>
@@ -14153,7 +14149,7 @@
         <v>6</v>
       </c>
       <c r="B427" s="45" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C427" s="45" t="s">
         <v>740</v>
@@ -14171,10 +14167,10 @@
         <v>6</v>
       </c>
       <c r="B428" s="45" t="s">
+        <v>807</v>
+      </c>
+      <c r="C428" s="44" t="s">
         <v>808</v>
-      </c>
-      <c r="C428" s="44" t="s">
-        <v>809</v>
       </c>
       <c r="D428" s="46"/>
       <c r="E428" s="46"/>
@@ -14185,7 +14181,7 @@
         <v>6</v>
       </c>
       <c r="B429" s="45" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C429" s="46" t="s">
         <v>674</v>
@@ -14194,15 +14190,15 @@
       <c r="E429" s="46"/>
       <c r="F429" s="46"/>
     </row>
-    <row r="430" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A430" s="45" t="s">
         <v>6</v>
       </c>
       <c r="B430" s="45" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C430" s="52" t="s">
-        <v>781</v>
+        <v>676</v>
       </c>
       <c r="D430" s="45">
         <v>78.3</v>
@@ -14217,10 +14213,10 @@
         <v>6</v>
       </c>
       <c r="B431" s="45" t="s">
+        <v>811</v>
+      </c>
+      <c r="C431" s="52" t="s">
         <v>812</v>
-      </c>
-      <c r="C431" s="52" t="s">
-        <v>813</v>
       </c>
       <c r="D431" s="45">
         <v>78.099999999999994</v>
@@ -14235,10 +14231,10 @@
         <v>6</v>
       </c>
       <c r="B432" s="45" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C432" s="52" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D432" s="45">
         <v>78.099999999999994</v>
@@ -14253,7 +14249,7 @@
         <v>6</v>
       </c>
       <c r="B433" s="45" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C433" s="46" t="s">
         <v>682</v>
@@ -14267,7 +14263,7 @@
         <v>6</v>
       </c>
       <c r="B434" s="45" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C434" s="46" t="s">
         <v>754</v>
@@ -14281,7 +14277,7 @@
         <v>6</v>
       </c>
       <c r="B435" s="45" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C435" s="45" t="s">
         <v>756</v>
@@ -14299,10 +14295,10 @@
         <v>6</v>
       </c>
       <c r="B436" s="45" t="s">
+        <v>817</v>
+      </c>
+      <c r="C436" s="52" t="s">
         <v>818</v>
-      </c>
-      <c r="C436" s="52" t="s">
-        <v>819</v>
       </c>
       <c r="D436" s="45" t="s">
         <v>688</v>
@@ -14317,10 +14313,10 @@
         <v>6</v>
       </c>
       <c r="B437" s="45" t="s">
+        <v>819</v>
+      </c>
+      <c r="C437" s="52" t="s">
         <v>820</v>
-      </c>
-      <c r="C437" s="52" t="s">
-        <v>821</v>
       </c>
       <c r="D437" s="45" t="s">
         <v>688</v>
@@ -14335,10 +14331,10 @@
         <v>6</v>
       </c>
       <c r="B438" s="45" t="s">
+        <v>821</v>
+      </c>
+      <c r="C438" s="45" t="s">
         <v>822</v>
-      </c>
-      <c r="C438" s="45" t="s">
-        <v>823</v>
       </c>
       <c r="D438" s="45" t="s">
         <v>693</v>
@@ -14353,10 +14349,10 @@
         <v>6</v>
       </c>
       <c r="B439" s="45" t="s">
+        <v>823</v>
+      </c>
+      <c r="C439" s="46" t="s">
         <v>824</v>
-      </c>
-      <c r="C439" s="46" t="s">
-        <v>825</v>
       </c>
       <c r="D439" s="46"/>
       <c r="E439" s="46"/>
@@ -14367,13 +14363,13 @@
         <v>6</v>
       </c>
       <c r="B440" s="45" t="s">
+        <v>825</v>
+      </c>
+      <c r="C440" s="45" t="s">
         <v>826</v>
       </c>
-      <c r="C440" s="45" t="s">
+      <c r="D440" s="45" t="s">
         <v>827</v>
-      </c>
-      <c r="D440" s="45" t="s">
-        <v>828</v>
       </c>
       <c r="E440" s="45"/>
       <c r="F440" s="45" t="s">
@@ -14385,13 +14381,13 @@
         <v>6</v>
       </c>
       <c r="B441" s="45" t="s">
+        <v>828</v>
+      </c>
+      <c r="C441" s="45" t="s">
         <v>829</v>
       </c>
-      <c r="C441" s="45" t="s">
+      <c r="D441" s="45" t="s">
         <v>830</v>
-      </c>
-      <c r="D441" s="45" t="s">
-        <v>831</v>
       </c>
       <c r="E441" s="45"/>
       <c r="F441" s="45" t="s">
@@ -14403,13 +14399,13 @@
         <v>6</v>
       </c>
       <c r="B442" s="45" t="s">
+        <v>831</v>
+      </c>
+      <c r="C442" s="45" t="s">
         <v>832</v>
       </c>
-      <c r="C442" s="45" t="s">
-        <v>833</v>
-      </c>
       <c r="D442" s="45" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E442" s="45"/>
       <c r="F442" s="45" t="s">
@@ -14421,7 +14417,7 @@
         <v>6</v>
       </c>
       <c r="B443" s="45" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C443" s="46" t="s">
         <v>732</v>
@@ -14435,7 +14431,7 @@
         <v>6</v>
       </c>
       <c r="B444" s="45" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C444" s="52" t="s">
         <v>697</v>
@@ -14453,7 +14449,7 @@
         <v>6</v>
       </c>
       <c r="B445" s="55" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C445" s="55" t="s">
         <v>735</v>
@@ -14470,13 +14466,13 @@
         <v>6</v>
       </c>
       <c r="B446" s="56" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C446" s="56" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="D446" s="56" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="F446" s="56" t="s">
         <v>236</v>
@@ -14487,13 +14483,13 @@
         <v>6</v>
       </c>
       <c r="B447" s="57" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C447" s="57" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D447" s="57" t="s">
         <v>1293</v>
-      </c>
-      <c r="D447" s="57" t="s">
-        <v>1295</v>
       </c>
       <c r="F447" s="57" t="s">
         <v>236</v>
@@ -14504,10 +14500,10 @@
         <v>6</v>
       </c>
       <c r="B448" s="45" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C448" s="52" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="D448" s="45" t="s">
         <v>705</v>
@@ -14522,10 +14518,10 @@
         <v>6</v>
       </c>
       <c r="B449" s="45" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C449" s="52" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D449" s="45" t="s">
         <v>708</v>
@@ -14540,7 +14536,7 @@
         <v>6</v>
       </c>
       <c r="B450" s="45" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C450" s="46" t="s">
         <v>710</v>
@@ -14554,7 +14550,7 @@
         <v>6</v>
       </c>
       <c r="B451" s="45" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C451" s="52" t="s">
         <v>712</v>
@@ -14572,7 +14568,7 @@
         <v>6</v>
       </c>
       <c r="B452" s="45" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C452" s="52" t="s">
         <v>715</v>
@@ -14590,13 +14586,13 @@
         <v>6</v>
       </c>
       <c r="B453" s="45" t="s">
+        <v>843</v>
+      </c>
+      <c r="C453" s="52" t="s">
         <v>844</v>
       </c>
-      <c r="C453" s="52" t="s">
+      <c r="D453" s="45" t="s">
         <v>845</v>
-      </c>
-      <c r="D453" s="45" t="s">
-        <v>846</v>
       </c>
       <c r="E453" s="52"/>
       <c r="F453" s="45" t="s">
@@ -14608,10 +14604,10 @@
         <v>6</v>
       </c>
       <c r="B454" s="45" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C454" s="52" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D454" s="45" t="s">
         <v>722</v>
@@ -14626,7 +14622,7 @@
         <v>6</v>
       </c>
       <c r="B455" s="45" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C455" s="46" t="s">
         <v>724</v>
@@ -14640,13 +14636,13 @@
         <v>6</v>
       </c>
       <c r="B456" s="67" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C456" s="67" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="D456" s="67" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="F456" s="67" t="s">
         <v>236</v>
@@ -14657,7 +14653,7 @@
         <v>6</v>
       </c>
       <c r="B457" s="45" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C457" s="45" t="s">
         <v>729</v>
@@ -14675,10 +14671,10 @@
         <v>6</v>
       </c>
       <c r="B458" s="45" t="s">
+        <v>850</v>
+      </c>
+      <c r="C458" s="46" t="s">
         <v>851</v>
-      </c>
-      <c r="C458" s="46" t="s">
-        <v>852</v>
       </c>
       <c r="D458" s="46"/>
       <c r="E458" s="46"/>
@@ -14689,7 +14685,7 @@
         <v>6</v>
       </c>
       <c r="B459" s="45" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C459" s="45" t="s">
         <v>740</v>
@@ -14707,10 +14703,10 @@
         <v>6</v>
       </c>
       <c r="B460" s="45" t="s">
+        <v>853</v>
+      </c>
+      <c r="C460" s="44" t="s">
         <v>854</v>
-      </c>
-      <c r="C460" s="44" t="s">
-        <v>855</v>
       </c>
       <c r="D460" s="46"/>
       <c r="E460" s="44"/>
@@ -14721,10 +14717,10 @@
         <v>6</v>
       </c>
       <c r="B461" s="45" t="s">
+        <v>855</v>
+      </c>
+      <c r="C461" s="52" t="s">
         <v>856</v>
-      </c>
-      <c r="C461" s="52" t="s">
-        <v>857</v>
       </c>
       <c r="D461" s="45"/>
       <c r="E461" s="52"/>
@@ -14735,7 +14731,7 @@
         <v>6</v>
       </c>
       <c r="B462" s="45" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C462" s="52" t="s">
         <v>674</v>
@@ -14749,7 +14745,7 @@
         <v>6</v>
       </c>
       <c r="B463" s="45" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C463" s="52" t="s">
         <v>682</v>
@@ -14763,10 +14759,10 @@
         <v>6</v>
       </c>
       <c r="B464" s="45" t="s">
+        <v>859</v>
+      </c>
+      <c r="C464" s="44" t="s">
         <v>860</v>
-      </c>
-      <c r="C464" s="44" t="s">
-        <v>861</v>
       </c>
       <c r="D464" s="46"/>
       <c r="E464" s="44"/>
@@ -14777,10 +14773,10 @@
         <v>6</v>
       </c>
       <c r="B465" s="45" t="s">
+        <v>861</v>
+      </c>
+      <c r="C465" s="52" t="s">
         <v>862</v>
-      </c>
-      <c r="C465" s="52" t="s">
-        <v>863</v>
       </c>
       <c r="D465" s="45"/>
       <c r="E465" s="52"/>
@@ -14791,7 +14787,7 @@
         <v>6</v>
       </c>
       <c r="B466" s="45" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C466" s="52" t="s">
         <v>674</v>
@@ -14805,10 +14801,10 @@
         <v>6</v>
       </c>
       <c r="B467" s="45" t="s">
+        <v>864</v>
+      </c>
+      <c r="C467" s="44" t="s">
         <v>865</v>
-      </c>
-      <c r="C467" s="44" t="s">
-        <v>866</v>
       </c>
       <c r="D467" s="46"/>
       <c r="E467" s="44"/>
@@ -14819,7 +14815,7 @@
         <v>6</v>
       </c>
       <c r="B468" s="45" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C468" s="46" t="s">
         <v>674</v>
@@ -14828,15 +14824,15 @@
       <c r="E468" s="46"/>
       <c r="F468" s="46"/>
     </row>
-    <row r="469" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A469" s="45" t="s">
         <v>6</v>
       </c>
       <c r="B469" s="45" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C469" s="52" t="s">
-        <v>781</v>
+        <v>676</v>
       </c>
       <c r="D469" s="45">
         <v>78.3</v>
@@ -14851,10 +14847,10 @@
         <v>6</v>
       </c>
       <c r="B470" s="45" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C470" s="52" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D470" s="45">
         <v>78.099999999999994</v>
@@ -14869,10 +14865,10 @@
         <v>6</v>
       </c>
       <c r="B471" s="45" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C471" s="52" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D471" s="45">
         <v>78.099999999999994</v>
@@ -14887,7 +14883,7 @@
         <v>6</v>
       </c>
       <c r="B472" s="45" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C472" s="46" t="s">
         <v>682</v>
@@ -14901,7 +14897,7 @@
         <v>6</v>
       </c>
       <c r="B473" s="45" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C473" s="46" t="s">
         <v>754</v>
@@ -14915,7 +14911,7 @@
         <v>6</v>
       </c>
       <c r="B474" s="45" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C474" s="45" t="s">
         <v>756</v>
@@ -14933,10 +14929,10 @@
         <v>6</v>
       </c>
       <c r="B475" s="45" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C475" s="52" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D475" s="45" t="s">
         <v>688</v>
@@ -14951,10 +14947,10 @@
         <v>6</v>
       </c>
       <c r="B476" s="45" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="C476" s="52" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D476" s="45" t="s">
         <v>688</v>
@@ -14969,13 +14965,13 @@
         <v>6</v>
       </c>
       <c r="B477" s="45" t="s">
+        <v>875</v>
+      </c>
+      <c r="C477" s="45" t="s">
         <v>876</v>
       </c>
-      <c r="C477" s="45" t="s">
+      <c r="D477" s="45" t="s">
         <v>877</v>
-      </c>
-      <c r="D477" s="45" t="s">
-        <v>878</v>
       </c>
       <c r="E477" s="45"/>
       <c r="F477" s="45" t="s">
@@ -14987,10 +14983,10 @@
         <v>6</v>
       </c>
       <c r="B478" s="45" t="s">
+        <v>878</v>
+      </c>
+      <c r="C478" s="45" t="s">
         <v>879</v>
-      </c>
-      <c r="C478" s="45" t="s">
-        <v>880</v>
       </c>
       <c r="D478" s="45" t="s">
         <v>722</v>
@@ -15005,10 +15001,10 @@
         <v>6</v>
       </c>
       <c r="B479" s="45" t="s">
+        <v>880</v>
+      </c>
+      <c r="C479" s="45" t="s">
         <v>881</v>
-      </c>
-      <c r="C479" s="45" t="s">
-        <v>882</v>
       </c>
       <c r="D479" s="45"/>
       <c r="E479" s="45"/>
@@ -15021,10 +15017,10 @@
         <v>6</v>
       </c>
       <c r="B480" s="45" t="s">
+        <v>882</v>
+      </c>
+      <c r="C480" s="45" t="s">
         <v>883</v>
-      </c>
-      <c r="C480" s="45" t="s">
-        <v>884</v>
       </c>
       <c r="D480" s="45" t="s">
         <v>693</v>
@@ -15039,13 +15035,13 @@
         <v>6</v>
       </c>
       <c r="B481" s="45" t="s">
+        <v>884</v>
+      </c>
+      <c r="C481" s="45" t="s">
         <v>885</v>
       </c>
-      <c r="C481" s="45" t="s">
-        <v>886</v>
-      </c>
       <c r="D481" s="45" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E481" s="45"/>
       <c r="F481" s="45" t="s">
@@ -15057,7 +15053,7 @@
         <v>6</v>
       </c>
       <c r="B482" s="45" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C482" s="46" t="s">
         <v>724</v>
@@ -15071,13 +15067,13 @@
         <v>6</v>
       </c>
       <c r="B483" s="67" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C483" s="67" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="D483" s="67" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="F483" s="67" t="s">
         <v>51</v>
@@ -15088,7 +15084,7 @@
         <v>6</v>
       </c>
       <c r="B484" s="45" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C484" s="45" t="s">
         <v>729</v>
@@ -15106,7 +15102,7 @@
         <v>6</v>
       </c>
       <c r="B485" s="45" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C485" s="46" t="s">
         <v>732</v>
@@ -15120,7 +15116,7 @@
         <v>6</v>
       </c>
       <c r="B486" s="45" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C486" s="52" t="s">
         <v>697</v>
@@ -15138,7 +15134,7 @@
         <v>6</v>
       </c>
       <c r="B487" s="55" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C487" s="55" t="s">
         <v>735</v>
@@ -15155,13 +15151,13 @@
         <v>6</v>
       </c>
       <c r="B488" s="56" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C488" s="56" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="D488" s="56" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="F488" s="56" t="s">
         <v>51</v>
@@ -15172,13 +15168,13 @@
         <v>6</v>
       </c>
       <c r="B489" s="57" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C489" s="57" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D489" s="57" t="s">
         <v>1293</v>
-      </c>
-      <c r="D489" s="57" t="s">
-        <v>1295</v>
       </c>
       <c r="F489" s="57" t="s">
         <v>51</v>
@@ -15189,7 +15185,7 @@
         <v>6</v>
       </c>
       <c r="B490" s="45" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C490" s="45" t="s">
         <v>740</v>
@@ -15235,25 +15231,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>895</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>896</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>897</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>898</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>899</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>900</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>901</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -15261,17 +15257,17 @@
         <v>15</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>902</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>903</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>904</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G2" s="11"/>
     </row>
@@ -15280,17 +15276,17 @@
         <v>19</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -15299,17 +15295,17 @@
         <v>22</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -15318,36 +15314,36 @@
         <v>25</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="11" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
+        <v>909</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>902</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>910</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>903</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>911</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>912</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -15380,25 +15376,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
+        <v>895</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>896</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>897</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>898</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>899</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>900</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>901</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -15406,17 +15402,17 @@
         <v>28</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>912</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>913</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="17" t="s">
         <v>914</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>915</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G2" s="17"/>
     </row>
@@ -15425,17 +15421,17 @@
         <v>31</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G3" s="17"/>
     </row>
@@ -15444,17 +15440,17 @@
         <v>34</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G4" s="17"/>
     </row>
@@ -15463,17 +15459,17 @@
         <v>37</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G5" s="17"/>
     </row>
@@ -15482,17 +15478,17 @@
         <v>40</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G6" s="17"/>
     </row>
@@ -15501,36 +15497,36 @@
         <v>46</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
+        <v>920</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>912</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>921</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>913</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="D8" s="17" t="s">
         <v>922</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>923</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G8" s="17"/>
     </row>
@@ -15539,17 +15535,17 @@
         <v>57</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>923</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>924</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>925</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G9" s="17"/>
     </row>
@@ -15558,17 +15554,17 @@
         <v>99</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>98</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G10" s="17"/>
     </row>
@@ -15577,17 +15573,17 @@
         <v>60</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C11" s="16" t="s">
+        <v>926</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>927</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>928</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G11" s="17"/>
     </row>
@@ -15596,17 +15592,17 @@
         <v>66</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>65</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G12" s="17"/>
     </row>
@@ -15615,17 +15611,17 @@
         <v>105</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>104</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G13" s="17"/>
     </row>
@@ -15634,17 +15630,17 @@
         <v>81</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C14" s="16" t="s">
+        <v>930</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>931</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>932</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G14" s="17"/>
     </row>
@@ -15653,17 +15649,17 @@
         <v>84</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C15" s="16" t="s">
+        <v>932</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>933</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>934</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G15" s="17"/>
     </row>
@@ -15672,17 +15668,17 @@
         <v>108</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>107</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G16" s="17"/>
     </row>
@@ -15691,19 +15687,19 @@
         <v>111</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>110</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G17" s="17"/>
     </row>
@@ -15712,36 +15708,36 @@
         <v>102</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>101</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
+        <v>938</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>939</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>940</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="D19" s="19" t="s">
         <v>941</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>942</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G19" s="19"/>
     </row>
@@ -15750,17 +15746,17 @@
         <v>133</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>132</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G20" s="17"/>
     </row>
@@ -15769,17 +15765,17 @@
         <v>136</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>135</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G21" s="17"/>
     </row>
@@ -15788,17 +15784,17 @@
         <v>139</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>138</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G22" s="17"/>
     </row>
@@ -15807,17 +15803,17 @@
         <v>142</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>141</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G23" s="17"/>
     </row>
@@ -15826,17 +15822,17 @@
         <v>43</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G24" s="17"/>
     </row>
@@ -15845,17 +15841,17 @@
         <v>116</v>
       </c>
       <c r="B25" s="16" t="s">
+        <v>947</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>948</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>949</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>153</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G25" s="17"/>
     </row>
@@ -15864,17 +15860,17 @@
         <v>198</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>949</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>950</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>951</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G26" s="17"/>
     </row>
@@ -15883,17 +15879,17 @@
         <v>201</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>200</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G27" s="17"/>
     </row>
@@ -15902,17 +15898,17 @@
         <v>165</v>
       </c>
       <c r="B28" s="16" t="s">
+        <v>952</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>953</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>954</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>164</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G28" s="17"/>
     </row>
@@ -15921,17 +15917,17 @@
         <v>168</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>167</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G29" s="17"/>
     </row>
@@ -15940,17 +15936,17 @@
         <v>177</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>176</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G30" s="17"/>
     </row>
@@ -15959,17 +15955,17 @@
         <v>180</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>179</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G31" s="17"/>
     </row>
@@ -15978,17 +15974,17 @@
         <v>183</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G32" s="17"/>
     </row>
@@ -15997,17 +15993,17 @@
         <v>195</v>
       </c>
       <c r="B33" s="16" t="s">
+        <v>958</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>959</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="D33" s="17" t="s">
         <v>960</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>961</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G33" s="17"/>
     </row>
@@ -16016,17 +16012,17 @@
         <v>257</v>
       </c>
       <c r="B34" s="16" t="s">
+        <v>961</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>962</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>963</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>256</v>
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G34" s="17"/>
     </row>
@@ -16035,17 +16031,17 @@
         <v>260</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C35" s="16" t="s">
+        <v>963</v>
+      </c>
+      <c r="D35" s="17" t="s">
         <v>964</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>965</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G35" s="17"/>
     </row>
@@ -16054,17 +16050,17 @@
         <v>266</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>265</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G36" s="17"/>
     </row>
@@ -16073,17 +16069,17 @@
         <v>269</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>268</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G37" s="19"/>
     </row>
@@ -16092,17 +16088,17 @@
         <v>624</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>623</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G38" s="17"/>
     </row>
@@ -16111,17 +16107,17 @@
         <v>295</v>
       </c>
       <c r="B39" s="16" t="s">
+        <v>968</v>
+      </c>
+      <c r="C39" s="16" t="s">
         <v>969</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>970</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>294</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G39" s="17"/>
     </row>
@@ -16130,17 +16126,17 @@
         <v>280</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C40" s="15" t="s">
+        <v>970</v>
+      </c>
+      <c r="D40" s="19" t="s">
         <v>971</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>972</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G40" s="17"/>
     </row>
@@ -16149,17 +16145,17 @@
         <v>283</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C41" s="16" t="s">
+        <v>972</v>
+      </c>
+      <c r="D41" s="19" t="s">
         <v>973</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>974</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G41" s="17"/>
     </row>
@@ -16168,17 +16164,17 @@
         <v>292</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C42" s="16" t="s">
+        <v>974</v>
+      </c>
+      <c r="D42" s="17" t="s">
         <v>975</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>976</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G42" s="17"/>
     </row>
@@ -16187,17 +16183,17 @@
         <v>63</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C43" s="20" t="s">
+        <v>976</v>
+      </c>
+      <c r="D43" s="20" t="s">
         <v>977</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>978</v>
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G43" s="21"/>
     </row>
@@ -16206,17 +16202,17 @@
         <v>69</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C44" s="20" t="s">
+        <v>978</v>
+      </c>
+      <c r="D44" s="20" t="s">
         <v>979</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>980</v>
       </c>
       <c r="E44" s="21"/>
       <c r="F44" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G44" s="21"/>
     </row>
@@ -16225,17 +16221,17 @@
         <v>72</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C45" s="20" t="s">
+        <v>980</v>
+      </c>
+      <c r="D45" s="20" t="s">
         <v>981</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>982</v>
       </c>
       <c r="E45" s="21"/>
       <c r="F45" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G45" s="21"/>
     </row>
@@ -16244,17 +16240,17 @@
         <v>75</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C46" s="20" t="s">
+        <v>982</v>
+      </c>
+      <c r="D46" s="20" t="s">
         <v>983</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>984</v>
       </c>
       <c r="E46" s="21"/>
       <c r="F46" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G46" s="21"/>
     </row>
@@ -16263,17 +16259,17 @@
         <v>78</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C47" s="20" t="s">
+        <v>984</v>
+      </c>
+      <c r="D47" s="20" t="s">
         <v>985</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>986</v>
       </c>
       <c r="E47" s="21"/>
       <c r="F47" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G47" s="21"/>
     </row>
@@ -16282,17 +16278,17 @@
         <v>87</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C48" s="20" t="s">
+        <v>986</v>
+      </c>
+      <c r="D48" s="20" t="s">
         <v>987</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>988</v>
       </c>
       <c r="E48" s="21"/>
       <c r="F48" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G48" s="21"/>
     </row>
@@ -16301,17 +16297,17 @@
         <v>90</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C49" s="20" t="s">
+        <v>988</v>
+      </c>
+      <c r="D49" s="20" t="s">
         <v>989</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>990</v>
       </c>
       <c r="E49" s="21"/>
       <c r="F49" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G49" s="21"/>
     </row>
@@ -16320,17 +16316,17 @@
         <v>93</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C50" s="20" t="s">
+        <v>990</v>
+      </c>
+      <c r="D50" s="20" t="s">
         <v>991</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>992</v>
       </c>
       <c r="E50" s="21"/>
       <c r="F50" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G50" s="21"/>
     </row>
@@ -16339,17 +16335,17 @@
         <v>96</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C51" s="20" t="s">
+        <v>992</v>
+      </c>
+      <c r="D51" s="20" t="s">
         <v>993</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>994</v>
       </c>
       <c r="E51" s="21"/>
       <c r="F51" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G51" s="21"/>
     </row>
@@ -16358,17 +16354,17 @@
         <v>171</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C52" s="20" t="s">
+        <v>994</v>
+      </c>
+      <c r="D52" s="20" t="s">
         <v>995</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>996</v>
       </c>
       <c r="E52" s="21"/>
       <c r="F52" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G52" s="21"/>
     </row>
@@ -16377,17 +16373,17 @@
         <v>174</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C53" s="20" t="s">
+        <v>996</v>
+      </c>
+      <c r="D53" s="20" t="s">
         <v>997</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>998</v>
       </c>
       <c r="E53" s="21"/>
       <c r="F53" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G53" s="21"/>
     </row>
@@ -16396,17 +16392,17 @@
         <v>263</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C54" s="20" t="s">
+        <v>998</v>
+      </c>
+      <c r="D54" s="20" t="s">
         <v>999</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>1000</v>
       </c>
       <c r="E54" s="21"/>
       <c r="F54" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G54" s="21"/>
     </row>
@@ -16415,17 +16411,17 @@
         <v>286</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D55" s="20" t="s">
         <v>285</v>
       </c>
       <c r="E55" s="21"/>
       <c r="F55" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G55" s="21"/>
     </row>
@@ -16434,17 +16430,17 @@
         <v>130</v>
       </c>
       <c r="B56" s="20" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C56" s="20" t="s">
         <v>1002</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="D56" s="19" t="s">
         <v>1003</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>1004</v>
       </c>
       <c r="E56" s="21"/>
       <c r="F56" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G56" s="21"/>
     </row>
@@ -16478,25 +16474,25 @@
   <sheetData>
     <row r="1" spans="1:256" s="25" customFormat="1" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
+        <v>895</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>896</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>897</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>898</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="23" t="s">
         <v>899</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>900</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>901</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>902</v>
       </c>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
@@ -16750,39 +16746,39 @@
     </row>
     <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>1005</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="16" t="s">
         <v>1006</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>1007</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>319</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>1008</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>1009</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>321</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G3" s="23"/>
     </row>
@@ -16791,17 +16787,17 @@
         <v>324</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>323</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G4" s="23"/>
     </row>
@@ -16810,17 +16806,17 @@
         <v>330</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>329</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G5" s="23"/>
     </row>
@@ -16829,150 +16825,150 @@
         <v>335</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>1012</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>1013</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>1014</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="D7" s="16" t="s">
         <v>1015</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>1016</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>1017</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="D8" s="16" t="s">
         <v>1018</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>1019</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>1020</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="16" t="s">
         <v>1021</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>1022</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>1023</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>1024</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>420</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>1025</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>1026</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>422</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>1027</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="D12" s="16" t="s">
         <v>1028</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>1029</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>1030</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>1031</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>426</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G13" s="23"/>
     </row>
@@ -16981,150 +16977,150 @@
         <v>430</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>429</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>1033</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>1034</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>432</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>1035</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>1036</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>434</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>1037</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C17" s="15" t="s">
+      <c r="D17" s="15" t="s">
         <v>1038</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>1039</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>1040</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>1041</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>438</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G18" s="23"/>
     </row>
     <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>1042</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>1043</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>440</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G19" s="23"/>
     </row>
     <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>1044</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>1045</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>442</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G20" s="23"/>
     </row>
     <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>1046</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="D21" s="16" t="s">
         <v>1047</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>1048</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G21" s="23"/>
     </row>
@@ -17133,169 +17129,169 @@
         <v>449</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>448</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G22" s="23"/>
     </row>
     <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>1050</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>1051</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>451</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>1052</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>1053</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>453</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G24" s="23"/>
     </row>
     <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>1054</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C25" s="16" t="s">
+      <c r="D25" s="16" t="s">
         <v>1055</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>1056</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G25" s="23"/>
     </row>
     <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>1057</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>1058</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>460</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G26" s="23"/>
     </row>
     <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>1059</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C27" s="16" t="s">
+      <c r="D27" s="16" t="s">
         <v>1060</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>1061</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G27" s="23"/>
     </row>
     <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>1062</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>1063</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>464</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G28" s="23"/>
     </row>
     <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>1064</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>1065</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>466</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G29" s="23"/>
     </row>
     <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>1066</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>1067</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>468</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G30" s="23"/>
     </row>
@@ -17304,17 +17300,17 @@
         <v>484</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>1068</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>1069</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G31" s="23"/>
     </row>
@@ -17323,17 +17319,17 @@
         <v>487</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>1070</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>1071</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G32" s="23"/>
     </row>
@@ -17342,17 +17338,17 @@
         <v>490</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>1072</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>1073</v>
       </c>
       <c r="E33" s="23"/>
       <c r="F33" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G33" s="23"/>
     </row>
@@ -17361,112 +17357,112 @@
         <v>493</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C34" s="16" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D34" s="16" t="s">
         <v>1074</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>1075</v>
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G34" s="23"/>
     </row>
     <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>1076</v>
       </c>
-      <c r="B35" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C35" s="16" t="s">
+      <c r="D35" s="16" t="s">
         <v>1077</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>1078</v>
       </c>
       <c r="E35" s="23"/>
       <c r="F35" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G35" s="23"/>
     </row>
     <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C36" s="16" t="s">
         <v>1079</v>
       </c>
-      <c r="B36" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C36" s="16" t="s">
+      <c r="D36" s="16" t="s">
         <v>1080</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>1081</v>
       </c>
       <c r="E36" s="23"/>
       <c r="F36" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G36" s="23"/>
     </row>
     <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>1082</v>
       </c>
-      <c r="B37" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C37" s="16" t="s">
+      <c r="D37" s="16" t="s">
         <v>1083</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>1084</v>
       </c>
       <c r="E37" s="23"/>
       <c r="F37" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G37" s="23"/>
     </row>
     <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C38" s="16" t="s">
         <v>1085</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C38" s="16" t="s">
+      <c r="D38" s="16" t="s">
         <v>1086</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>1087</v>
       </c>
       <c r="E38" s="23"/>
       <c r="F38" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G38" s="23"/>
     </row>
     <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C39" s="16" t="s">
         <v>1088</v>
       </c>
-      <c r="B39" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C39" s="16" t="s">
+      <c r="D39" s="16" t="s">
         <v>1089</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>1090</v>
       </c>
       <c r="E39" s="23"/>
       <c r="F39" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G39" s="23"/>
     </row>
@@ -17475,139 +17471,139 @@
         <v>342</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C40" s="16" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D40" s="16" t="s">
         <v>1091</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="E40" s="23" t="s">
         <v>1092</v>
       </c>
-      <c r="E40" s="23" t="s">
-        <v>1093</v>
-      </c>
       <c r="F40" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G40" s="23"/>
     </row>
     <row r="41" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C41" s="16" t="s">
         <v>1094</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C41" s="16" t="s">
+      <c r="D41" s="16" t="s">
         <v>1095</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>1096</v>
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G41" s="23"/>
     </row>
     <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C42" s="16" t="s">
         <v>1097</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C42" s="16" t="s">
+      <c r="D42" s="16" t="s">
         <v>1098</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>1099</v>
       </c>
       <c r="E42" s="23"/>
       <c r="F42" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G42" s="23"/>
     </row>
     <row r="43" spans="1:7" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C43" s="16" t="s">
         <v>1100</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C43" s="16" t="s">
+      <c r="D43" s="16" t="s">
         <v>1101</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="E43" s="23" t="s">
         <v>1102</v>
       </c>
-      <c r="E43" s="23" t="s">
-        <v>1103</v>
-      </c>
       <c r="F43" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G43" s="23"/>
     </row>
     <row r="44" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C44" s="16" t="s">
         <v>1104</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C44" s="16" t="s">
+      <c r="D44" s="16" t="s">
         <v>1105</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="E44" s="23" t="s">
         <v>1106</v>
       </c>
-      <c r="E44" s="23" t="s">
-        <v>1107</v>
-      </c>
       <c r="F44" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G44" s="23"/>
     </row>
     <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C45" s="16" t="s">
         <v>1108</v>
       </c>
-      <c r="B45" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C45" s="16" t="s">
+      <c r="D45" s="16" t="s">
         <v>1109</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="E45" s="23" t="s">
         <v>1110</v>
       </c>
-      <c r="E45" s="23" t="s">
-        <v>1111</v>
-      </c>
       <c r="F45" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G45" s="23"/>
     </row>
     <row r="46" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C46" s="16" t="s">
         <v>1112</v>
       </c>
-      <c r="B46" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C46" s="16" t="s">
+      <c r="D46" s="16" t="s">
         <v>1113</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>1114</v>
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G46" s="23"/>
     </row>
@@ -17616,36 +17612,36 @@
         <v>357</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C47" s="16" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D47" s="16" t="s">
         <v>1115</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>1116</v>
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G47" s="23"/>
     </row>
     <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C48" s="16" t="s">
         <v>1117</v>
       </c>
-      <c r="B48" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C48" s="16" t="s">
+      <c r="D48" s="16" t="s">
         <v>1118</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>1119</v>
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G48" s="23"/>
     </row>
@@ -17654,17 +17650,17 @@
         <v>456</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C49" s="26" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D49" s="26" t="s">
         <v>1120</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>1121</v>
       </c>
       <c r="E49" s="27"/>
       <c r="F49" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G49" s="27"/>
       <c r="H49" s="14"/>
@@ -17922,17 +17918,17 @@
         <v>327</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C50" s="16" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D50" s="16" t="s">
         <v>1122</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>1123</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G50" s="29"/>
     </row>
@@ -17966,25 +17962,25 @@
   <sheetData>
     <row r="1" spans="1:256" s="35" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
+        <v>895</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>896</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>897</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>898</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="33" t="s">
         <v>899</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>900</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="33" t="s">
         <v>901</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>902</v>
       </c>
       <c r="H1" s="34"/>
       <c r="I1" s="34"/>
@@ -18241,17 +18237,17 @@
         <v>517</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>1124</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="15" t="s">
         <v>1125</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>1126</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G2" s="33"/>
     </row>
@@ -18260,17 +18256,17 @@
         <v>520</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>1127</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>1128</v>
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G3" s="33"/>
     </row>
@@ -18279,17 +18275,17 @@
         <v>523</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>1129</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>1130</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G4" s="33"/>
     </row>
@@ -18298,17 +18294,17 @@
         <v>653</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C5" s="15" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>1131</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>1132</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G5" s="33"/>
     </row>
@@ -18317,19 +18313,19 @@
         <v>526</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C6" s="15" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>1133</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="33" t="s">
         <v>1134</v>
       </c>
-      <c r="E6" s="33" t="s">
-        <v>1135</v>
-      </c>
       <c r="F6" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G6" s="33"/>
     </row>
@@ -18338,17 +18334,17 @@
         <v>529</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C7" s="15" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>1136</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>1137</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G7" s="33"/>
     </row>
@@ -18357,17 +18353,17 @@
         <v>532</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C8" s="15" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>1138</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>1139</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G8" s="33"/>
     </row>
@@ -18376,17 +18372,17 @@
         <v>535</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C9" s="15" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>1140</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>1141</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G9" s="33"/>
     </row>
@@ -18395,17 +18391,17 @@
         <v>572</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C10" s="15" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>1142</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>1143</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G10" s="33"/>
     </row>
@@ -18414,17 +18410,17 @@
         <v>628</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G11" s="33"/>
     </row>
@@ -18433,17 +18429,17 @@
         <v>546</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C12" s="15" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>1145</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>1146</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G12" s="33"/>
     </row>
@@ -18452,20 +18448,20 @@
         <v>549</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C13" s="15" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>1147</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>1148</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -18473,17 +18469,17 @@
         <v>552</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>1150</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>1151</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G14" s="33"/>
     </row>
@@ -18492,19 +18488,19 @@
         <v>555</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>585</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="16" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18512,43 +18508,43 @@
         <v>588</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C16" s="15" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>1154</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="E16" s="33" t="s">
         <v>1155</v>
       </c>
-      <c r="E16" s="33" t="s">
-        <v>1156</v>
-      </c>
       <c r="F16" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G16" s="33"/>
     </row>
     <row r="17" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>1157</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C17" s="15" t="s">
+      <c r="D17" s="15" t="s">
         <v>1158</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="E17" s="33" t="s">
         <v>1159</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="F17" s="33" t="s">
+        <v>904</v>
+      </c>
+      <c r="G17" s="33" t="s">
         <v>1160</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>905</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -18556,17 +18552,17 @@
         <v>631</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>630</v>
       </c>
       <c r="E18" s="33"/>
       <c r="F18" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G18" s="33"/>
     </row>
@@ -18575,17 +18571,17 @@
         <v>634</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>633</v>
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G19" s="33"/>
     </row>
@@ -18594,17 +18590,17 @@
         <v>637</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C20" s="15" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>1164</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>1165</v>
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G20" s="33"/>
     </row>
@@ -18613,36 +18609,36 @@
         <v>640</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C21" s="15" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>1166</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>1167</v>
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G21" s="33"/>
     </row>
     <row r="22" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>1168</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C22" s="15" t="s">
+      <c r="D22" s="15" t="s">
         <v>1169</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>1170</v>
       </c>
       <c r="E22" s="33"/>
       <c r="F22" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G22" s="33"/>
     </row>
@@ -18651,36 +18647,36 @@
         <v>540</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>575</v>
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G23" s="33"/>
     </row>
     <row r="24" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="36" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C24" s="36" t="s">
         <v>1172</v>
       </c>
-      <c r="B24" s="36" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C24" s="36" t="s">
+      <c r="D24" s="36" t="s">
         <v>1173</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>1174</v>
       </c>
       <c r="E24" s="36"/>
       <c r="F24" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G24" s="36"/>
     </row>
@@ -18689,74 +18685,74 @@
         <v>543</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C25" s="36" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D25" s="36" t="s">
         <v>1175</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>1176</v>
       </c>
       <c r="E25" s="36"/>
       <c r="F25" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G25" s="36"/>
     </row>
     <row r="26" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="36" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C26" s="36" t="s">
         <v>1177</v>
       </c>
-      <c r="B26" s="36" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C26" s="36" t="s">
+      <c r="D26" s="36" t="s">
         <v>1178</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>1179</v>
       </c>
       <c r="E26" s="36"/>
       <c r="F26" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G26" s="36"/>
     </row>
     <row r="27" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A27" s="36" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C27" s="36" t="s">
         <v>1180</v>
       </c>
-      <c r="B27" s="36" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C27" s="36" t="s">
+      <c r="D27" s="36" t="s">
         <v>1181</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>1182</v>
       </c>
       <c r="E27" s="36"/>
       <c r="F27" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G27" s="36"/>
     </row>
     <row r="28" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A28" s="36" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C28" s="36" t="s">
         <v>1183</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C28" s="36" t="s">
+      <c r="D28" s="36" t="s">
         <v>1184</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>1185</v>
       </c>
       <c r="E28" s="36"/>
       <c r="F28" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G28" s="36"/>
     </row>
@@ -18765,19 +18761,19 @@
         <v>591</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C29" s="36" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D29" s="36" t="s">
         <v>1186</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="E29" s="33" t="s">
         <v>1187</v>
       </c>
-      <c r="E29" s="33" t="s">
-        <v>1188</v>
-      </c>
       <c r="F29" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G29" s="36"/>
     </row>
@@ -18786,19 +18782,19 @@
         <v>594</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C30" s="36" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D30" s="36" t="s">
         <v>1189</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="E30" s="33" t="s">
         <v>1190</v>
       </c>
-      <c r="E30" s="33" t="s">
-        <v>1191</v>
-      </c>
       <c r="F30" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G30" s="36"/>
     </row>
@@ -18815,8 +18811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMK4"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -18833,25 +18829,25 @@
   <sheetData>
     <row r="1" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>895</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>896</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>897</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>898</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>899</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>900</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>901</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="2" spans="1:256" s="32" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
@@ -18859,17 +18855,17 @@
         <v>749</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>1192</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="D2" s="33" t="s">
         <v>1193</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>1194</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="12" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="31"/>
@@ -19124,39 +19120,39 @@
     </row>
     <row r="3" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>1195</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>1196</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>1197</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:256" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:256" ht="78" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>746</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>1199</v>
+        <v>676</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -19191,25 +19187,25 @@
   <sheetData>
     <row r="1" spans="1:256" s="59" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
+        <v>895</v>
+      </c>
+      <c r="B1" s="63" t="s">
         <v>896</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="C1" s="63" t="s">
         <v>897</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="D1" s="63" t="s">
         <v>898</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="E1" s="64" t="s">
         <v>899</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="F1" s="71" t="s">
         <v>900</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="G1" s="64" t="s">
         <v>901</v>
-      </c>
-      <c r="G1" s="64" t="s">
-        <v>902</v>
       </c>
       <c r="H1" s="58"/>
       <c r="I1" s="58"/>
@@ -19463,23 +19459,23 @@
     </row>
     <row r="2" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="63" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C2" s="63" t="s">
         <v>1200</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="D2" s="63" t="s">
         <v>1201</v>
-      </c>
-      <c r="C2" s="63" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D2" s="63" t="s">
-        <v>1203</v>
       </c>
       <c r="E2" s="64"/>
       <c r="F2" s="71" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G2" s="64" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
@@ -19487,17 +19483,17 @@
         <v>757</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="D3" s="63" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="E3" s="64"/>
       <c r="F3" s="71" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G3" s="64"/>
     </row>
@@ -19506,17 +19502,17 @@
         <v>685</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="E4" s="64"/>
       <c r="F4" s="71" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G4" s="64"/>
     </row>
@@ -19525,17 +19521,17 @@
         <v>688</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="E5" s="64"/>
       <c r="F5" s="71" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G5" s="64"/>
     </row>
@@ -19544,17 +19540,17 @@
         <v>691</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="E6" s="64"/>
       <c r="F6" s="71" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G6" s="64"/>
     </row>
@@ -19563,22 +19559,22 @@
         <v>693</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C7" s="63" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D7" s="63" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E7" s="64" t="s">
         <v>1213</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="F7" s="71" t="s">
+        <v>904</v>
+      </c>
+      <c r="G7" s="64" t="s">
         <v>1214</v>
-      </c>
-      <c r="E7" s="64" t="s">
-        <v>1215</v>
-      </c>
-      <c r="F7" s="71" t="s">
-        <v>905</v>
-      </c>
-      <c r="G7" s="64" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
@@ -19586,17 +19582,17 @@
         <v>698</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="D8" s="63" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="E8" s="64"/>
       <c r="F8" s="71" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G8" s="64"/>
     </row>
@@ -19605,17 +19601,17 @@
         <v>701</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="D9" s="63" t="s">
         <v>700</v>
       </c>
       <c r="E9" s="64"/>
       <c r="F9" s="71" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G9" s="64"/>
     </row>
@@ -19624,17 +19620,17 @@
         <v>727</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="E10" s="64"/>
       <c r="F10" s="71" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G10" s="64"/>
     </row>
@@ -19643,17 +19639,17 @@
         <v>705</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="E11" s="64"/>
       <c r="F11" s="71" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G11" s="64"/>
     </row>
@@ -19662,17 +19658,17 @@
         <v>708</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="D12" s="63" t="s">
         <v>707</v>
       </c>
       <c r="E12" s="64"/>
       <c r="F12" s="71" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G12" s="64"/>
     </row>
@@ -19681,22 +19677,22 @@
         <v>713</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C13" s="63" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E13" s="66" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F13" s="71" t="s">
+        <v>904</v>
+      </c>
+      <c r="G13" s="64" t="s">
         <v>1223</v>
-      </c>
-      <c r="D13" s="63" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E13" s="66" t="s">
-        <v>1188</v>
-      </c>
-      <c r="F13" s="71" t="s">
-        <v>905</v>
-      </c>
-      <c r="G13" s="64" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
@@ -19704,20 +19700,20 @@
         <v>719</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E14" s="64"/>
       <c r="F14" s="71" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
@@ -19725,17 +19721,17 @@
         <v>722</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="E15" s="64"/>
       <c r="F15" s="71" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G15" s="64"/>
     </row>
@@ -19744,144 +19740,144 @@
         <v>760</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="E16" s="64"/>
       <c r="F16" s="71" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G16" s="64"/>
     </row>
     <row r="17" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="63" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C17" s="63" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E17" s="64"/>
       <c r="F17" s="71" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G17" s="64"/>
     </row>
     <row r="18" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="63" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C18" s="63" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="D18" s="63" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="E18" s="64"/>
       <c r="F18" s="71" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G18" s="64"/>
     </row>
     <row r="19" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="63" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C19" s="63" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D19" s="63" t="s">
         <v>1237</v>
       </c>
-      <c r="B19" s="63" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C19" s="63" t="s">
+      <c r="E19" s="64" t="s">
         <v>1238</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="F19" s="71" t="s">
+        <v>904</v>
+      </c>
+      <c r="G19" s="64" t="s">
         <v>1239</v>
-      </c>
-      <c r="E19" s="64" t="s">
-        <v>1240</v>
-      </c>
-      <c r="F19" s="71" t="s">
-        <v>905</v>
-      </c>
-      <c r="G19" s="64" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="63" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C20" s="63" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="D20" s="63" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="E20" s="64"/>
       <c r="F20" s="71" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G20" s="64"/>
     </row>
     <row r="21" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A21" s="63" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C21" s="63" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E21" s="64" t="s">
         <v>1244</v>
       </c>
-      <c r="D21" s="63" t="s">
+      <c r="F21" s="71" t="s">
+        <v>904</v>
+      </c>
+      <c r="G21" s="64" t="s">
         <v>1245</v>
-      </c>
-      <c r="E21" s="64" t="s">
-        <v>1246</v>
-      </c>
-      <c r="F21" s="71" t="s">
-        <v>905</v>
-      </c>
-      <c r="G21" s="64" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="63" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D22" s="63" t="s">
         <v>1248</v>
       </c>
-      <c r="B22" s="63" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C22" s="63" t="s">
+      <c r="E22" s="64" t="s">
         <v>1249</v>
       </c>
-      <c r="D22" s="63" t="s">
-        <v>1250</v>
-      </c>
-      <c r="E22" s="64" t="s">
+      <c r="F22" s="71" t="s">
+        <v>904</v>
+      </c>
+      <c r="G22" s="64" t="s">
         <v>1251</v>
-      </c>
-      <c r="F22" s="71" t="s">
-        <v>905</v>
-      </c>
-      <c r="G22" s="64" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -19889,17 +19885,17 @@
         <v>736</v>
       </c>
       <c r="B23" s="63" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C23" s="63" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="D23" s="63" t="s">
         <v>735</v>
       </c>
       <c r="E23" s="64"/>
       <c r="F23" s="71" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G23" s="64"/>
     </row>
@@ -19908,17 +19904,17 @@
         <v>703</v>
       </c>
       <c r="B24" s="63" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C24" s="63" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="D24" s="63" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="E24" s="64"/>
       <c r="F24" s="71" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G24" s="64"/>
     </row>
@@ -19927,17 +19923,17 @@
         <v>730</v>
       </c>
       <c r="B25" s="63" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C25" s="63" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="D25" s="63" t="s">
         <v>729</v>
       </c>
       <c r="E25" s="64"/>
       <c r="F25" s="71" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G25" s="64"/>
     </row>
@@ -19946,36 +19942,36 @@
         <v>741</v>
       </c>
       <c r="B26" s="63" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C26" s="63" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="D26" s="63" t="s">
         <v>740</v>
       </c>
       <c r="E26" s="64"/>
       <c r="F26" s="71" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G26" s="64"/>
     </row>
     <row r="27" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A27" s="63" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B27" s="63" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C27" s="66" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D27" s="63" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E27" s="64"/>
       <c r="F27" s="71" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G27" s="64"/>
     </row>
@@ -19984,97 +19980,97 @@
         <v>716</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C28" s="63" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D28" s="63" t="s">
         <v>715</v>
       </c>
       <c r="E28" s="66" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="F28" s="71" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G28" s="66" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="63" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C29" s="63" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="D29" s="63" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="E29" s="66"/>
       <c r="F29" s="71" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G29" s="66"/>
     </row>
     <row r="30" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A30" s="65" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C30" s="65" t="s">
         <v>1294</v>
       </c>
-      <c r="B30" s="63" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C30" s="65" t="s">
-        <v>1296</v>
-      </c>
       <c r="D30" s="65" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="E30" s="64"/>
       <c r="F30" s="71" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G30" s="64"/>
     </row>
     <row r="31" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="65" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="B31" s="63" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C31" s="65" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="D31" s="65" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="E31" s="64"/>
       <c r="F31" s="71" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G31" s="64"/>
     </row>
     <row r="32" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A32" s="65" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B32" s="63" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C32" s="65" t="s">
         <v>1300</v>
       </c>
-      <c r="B32" s="63" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C32" s="65" t="s">
-        <v>1302</v>
-      </c>
       <c r="D32" s="65" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E32" s="64"/>
       <c r="F32" s="71" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G32" s="64"/>
     </row>
@@ -20107,25 +20103,25 @@
   <sheetData>
     <row r="1" spans="1:256" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>895</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>896</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>897</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>898</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>899</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>900</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>901</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>902</v>
       </c>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
@@ -20382,61 +20378,61 @@
         <v>289</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>1264</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>1266</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>1268</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>1269</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>1266</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>1270</v>
-      </c>
       <c r="F3" s="9" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>1271</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>1266</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>1273</v>
-      </c>
       <c r="F4" s="9" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="G4" s="9"/>
     </row>

--- a/conformancelib/testdata/PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/PIV_ICAM_Test_Cards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance-0.2.3-beta\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADCEE3E-4678-4C59-93E9-75DC85D3F7EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F87FD33-DFDF-4463-964F-579B39BB0EFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="16800" windowHeight="13416" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="1" r:id="rId1"/>
@@ -2242,9 +2242,6 @@
     <t>11.1.2.10.5</t>
   </si>
   <si>
-    <t>File contains a CMS a certs-only CMS message (see RFC 3851).</t>
-  </si>
-  <si>
     <t>PKIX.25</t>
   </si>
   <si>
@@ -3962,6 +3959,9 @@
   </si>
   <si>
     <t>Verify that container tag order and value lengths comply with Appendix A SP 800-73-4</t>
+  </si>
+  <si>
+    <t>File has an extension of “.p7c” containing a certs-only CMS message (see RFC 3851)</t>
   </si>
 </sst>
 </file>
@@ -4791,8 +4791,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AMK490"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A466" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C490" sqref="C490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5056,7 +5056,7 @@
         <v>44</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D15" s="45" t="s">
         <v>129</v>
@@ -5174,7 +5174,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D22" s="45" t="s">
         <v>129</v>
@@ -5670,7 +5670,7 @@
         <v>128</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D50" s="45" t="s">
         <v>129</v>
@@ -5878,7 +5878,7 @@
         <v>151</v>
       </c>
       <c r="C62" s="45" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D62" s="45" t="s">
         <v>129</v>
@@ -6014,7 +6014,7 @@
         <v>162</v>
       </c>
       <c r="C70" s="45" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D70" s="45" t="s">
         <v>129</v>
@@ -6258,7 +6258,7 @@
         <v>192</v>
       </c>
       <c r="C84" s="45" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D84" s="45" t="s">
         <v>129</v>
@@ -6309,7 +6309,7 @@
         <v>117</v>
       </c>
       <c r="B87" s="45" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C87" s="45" t="s">
         <v>119</v>
@@ -6430,7 +6430,7 @@
         <v>208</v>
       </c>
       <c r="C94" s="45" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D94" s="45" t="s">
         <v>129</v>
@@ -6638,7 +6638,7 @@
         <v>222</v>
       </c>
       <c r="C106" s="45" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D106" s="45" t="s">
         <v>129</v>
@@ -6846,7 +6846,7 @@
         <v>236</v>
       </c>
       <c r="C118" s="45" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D118" s="45" t="s">
         <v>129</v>
@@ -7054,7 +7054,7 @@
         <v>250</v>
       </c>
       <c r="C130" s="45" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D130" s="45" t="s">
         <v>129</v>
@@ -7334,7 +7334,7 @@
         <v>288</v>
       </c>
       <c r="C146" s="45" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D146" s="45" t="s">
         <v>129</v>
@@ -7387,7 +7387,7 @@
       </c>
       <c r="E149" s="45"/>
       <c r="F149" s="45" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="E150" s="45"/>
       <c r="F150" s="45" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -7423,7 +7423,7 @@
       </c>
       <c r="E151" s="45"/>
       <c r="F151" s="45" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -11934,10 +11934,10 @@
         <v>6</v>
       </c>
       <c r="B355" s="45" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C355" s="46" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D355" s="46"/>
       <c r="E355" s="46"/>
@@ -11951,10 +11951,10 @@
         <v>678</v>
       </c>
       <c r="C356" s="45" t="s">
+        <v>750</v>
+      </c>
+      <c r="D356" s="45" t="s">
         <v>751</v>
-      </c>
-      <c r="D356" s="45" t="s">
-        <v>752</v>
       </c>
       <c r="E356" s="52"/>
       <c r="F356" s="45" t="s">
@@ -11984,7 +11984,7 @@
         <v>6</v>
       </c>
       <c r="B358" s="45" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C358" s="52" t="s">
         <v>682</v>
@@ -12002,7 +12002,7 @@
         <v>6</v>
       </c>
       <c r="B359" s="45" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C359" s="45" t="s">
         <v>685</v>
@@ -12055,7 +12055,7 @@
         <v>691</v>
       </c>
       <c r="C362" s="52" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D362" s="45" t="s">
         <v>693</v>
@@ -12090,7 +12090,7 @@
         <v>697</v>
       </c>
       <c r="C364" s="56" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D364" s="56" t="s">
         <v>722</v>
@@ -12104,10 +12104,10 @@
         <v>6</v>
       </c>
       <c r="B365" s="57" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C365" s="57" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D365" s="57" t="s">
         <v>698</v>
@@ -12124,7 +12124,7 @@
         <v>699</v>
       </c>
       <c r="C366" s="52" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D366" s="45" t="s">
         <v>700</v>
@@ -12260,10 +12260,10 @@
         <v>720</v>
       </c>
       <c r="C374" s="68" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D374" s="67" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E374" s="67"/>
       <c r="F374" s="67" t="s">
@@ -13364,10 +13364,10 @@
         <v>732</v>
       </c>
       <c r="C379" s="56" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D379" s="56" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="F379" s="56" t="s">
         <v>124</v>
@@ -13381,10 +13381,10 @@
         <v>733</v>
       </c>
       <c r="C380" s="57" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D380" s="57" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="F380" s="57" t="s">
         <v>124</v>
@@ -13398,10 +13398,10 @@
         <v>734</v>
       </c>
       <c r="C381" s="45" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D381" s="45" t="s">
         <v>735</v>
-      </c>
-      <c r="D381" s="45" t="s">
-        <v>736</v>
       </c>
       <c r="E381" s="45"/>
       <c r="F381" s="45" t="s">
@@ -13413,10 +13413,10 @@
         <v>6</v>
       </c>
       <c r="B382" s="45" t="s">
+        <v>736</v>
+      </c>
+      <c r="C382" s="44" t="s">
         <v>737</v>
-      </c>
-      <c r="C382" s="44" t="s">
-        <v>738</v>
       </c>
       <c r="D382" s="46"/>
       <c r="E382" s="46"/>
@@ -13427,7 +13427,7 @@
         <v>6</v>
       </c>
       <c r="B383" s="45" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C383" s="46" t="s">
         <v>669</v>
@@ -13441,13 +13441,13 @@
         <v>6</v>
       </c>
       <c r="B384" s="45" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C384" s="52" t="s">
         <v>671</v>
       </c>
       <c r="D384" s="45" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E384" s="52"/>
       <c r="F384" s="45" t="s">
@@ -13459,13 +13459,13 @@
         <v>6</v>
       </c>
       <c r="B385" s="45" t="s">
+        <v>741</v>
+      </c>
+      <c r="C385" s="52" t="s">
         <v>742</v>
       </c>
-      <c r="C385" s="52" t="s">
+      <c r="D385" s="45" t="s">
         <v>743</v>
-      </c>
-      <c r="D385" s="45" t="s">
-        <v>744</v>
       </c>
       <c r="E385" s="52"/>
       <c r="F385" s="45" t="s">
@@ -13477,10 +13477,10 @@
         <v>6</v>
       </c>
       <c r="B386" s="45" t="s">
+        <v>744</v>
+      </c>
+      <c r="C386" s="52" t="s">
         <v>745</v>
-      </c>
-      <c r="C386" s="52" t="s">
-        <v>746</v>
       </c>
       <c r="D386" s="45">
         <v>78.099999999999994</v>
@@ -13495,7 +13495,7 @@
         <v>6</v>
       </c>
       <c r="B387" s="45" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C387" s="46" t="s">
         <v>677</v>
@@ -13509,10 +13509,10 @@
         <v>6</v>
       </c>
       <c r="B388" s="45" t="s">
+        <v>747</v>
+      </c>
+      <c r="C388" s="46" t="s">
         <v>748</v>
-      </c>
-      <c r="C388" s="46" t="s">
-        <v>749</v>
       </c>
       <c r="D388" s="46"/>
       <c r="E388" s="46"/>
@@ -13523,13 +13523,13 @@
         <v>6</v>
       </c>
       <c r="B389" s="45" t="s">
+        <v>749</v>
+      </c>
+      <c r="C389" s="45" t="s">
         <v>750</v>
       </c>
-      <c r="C389" s="45" t="s">
+      <c r="D389" s="45" t="s">
         <v>751</v>
-      </c>
-      <c r="D389" s="45" t="s">
-        <v>752</v>
       </c>
       <c r="E389" s="52"/>
       <c r="F389" s="45" t="s">
@@ -13541,10 +13541,10 @@
         <v>6</v>
       </c>
       <c r="B390" s="45" t="s">
+        <v>752</v>
+      </c>
+      <c r="C390" s="52" t="s">
         <v>753</v>
-      </c>
-      <c r="C390" s="52" t="s">
-        <v>754</v>
       </c>
       <c r="D390" s="45" t="s">
         <v>683</v>
@@ -13559,10 +13559,10 @@
         <v>6</v>
       </c>
       <c r="B391" s="45" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C391" s="52" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D391" s="45" t="s">
         <v>683</v>
@@ -13577,7 +13577,7 @@
         <v>6</v>
       </c>
       <c r="B392" s="45" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C392" s="52" t="s">
         <v>702</v>
@@ -13595,10 +13595,10 @@
         <v>6</v>
       </c>
       <c r="B393" s="45" t="s">
+        <v>756</v>
+      </c>
+      <c r="C393" s="52" t="s">
         <v>757</v>
-      </c>
-      <c r="C393" s="52" t="s">
-        <v>758</v>
       </c>
       <c r="D393" s="45" t="s">
         <v>714</v>
@@ -13613,10 +13613,10 @@
         <v>6</v>
       </c>
       <c r="B394" s="45" t="s">
+        <v>758</v>
+      </c>
+      <c r="C394" s="52" t="s">
         <v>759</v>
-      </c>
-      <c r="C394" s="52" t="s">
-        <v>760</v>
       </c>
       <c r="D394" s="45" t="s">
         <v>717</v>
@@ -13631,10 +13631,10 @@
         <v>6</v>
       </c>
       <c r="B395" s="45" t="s">
+        <v>760</v>
+      </c>
+      <c r="C395" s="52" t="s">
         <v>761</v>
-      </c>
-      <c r="C395" s="52" t="s">
-        <v>762</v>
       </c>
       <c r="D395" s="45" t="s">
         <v>688</v>
@@ -13649,7 +13649,7 @@
         <v>6</v>
       </c>
       <c r="B396" s="45" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C396" s="46" t="s">
         <v>719</v>
@@ -13663,13 +13663,13 @@
         <v>6</v>
       </c>
       <c r="B397" s="67" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C397" s="67" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D397" s="67" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="F397" s="67" t="s">
         <v>204</v>
@@ -13680,7 +13680,7 @@
         <v>6</v>
       </c>
       <c r="B398" s="45" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C398" s="45" t="s">
         <v>724</v>
@@ -13698,7 +13698,7 @@
         <v>6</v>
       </c>
       <c r="B399" s="45" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C399" s="46" t="s">
         <v>727</v>
@@ -13712,7 +13712,7 @@
         <v>6</v>
       </c>
       <c r="B400" s="45" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C400" s="52" t="s">
         <v>692</v>
@@ -13730,7 +13730,7 @@
         <v>6</v>
       </c>
       <c r="B401" s="55" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C401" s="55" t="s">
         <v>730</v>
@@ -13747,13 +13747,13 @@
         <v>6</v>
       </c>
       <c r="B402" s="56" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C402" s="56" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D402" s="56" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="F402" s="56" t="s">
         <v>204</v>
@@ -13764,13 +13764,13 @@
         <v>6</v>
       </c>
       <c r="B403" s="57" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C403" s="57" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D403" s="57" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="F403" s="57" t="s">
         <v>204</v>
@@ -13781,13 +13781,13 @@
         <v>6</v>
       </c>
       <c r="B404" s="45" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C404" s="45" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D404" s="45" t="s">
         <v>735</v>
-      </c>
-      <c r="D404" s="45" t="s">
-        <v>736</v>
       </c>
       <c r="E404" s="45"/>
       <c r="F404" s="45" t="s">
@@ -13799,10 +13799,10 @@
         <v>6</v>
       </c>
       <c r="B405" s="45" t="s">
+        <v>771</v>
+      </c>
+      <c r="C405" s="44" t="s">
         <v>772</v>
-      </c>
-      <c r="C405" s="44" t="s">
-        <v>773</v>
       </c>
       <c r="D405" s="46"/>
       <c r="E405" s="46"/>
@@ -13813,7 +13813,7 @@
         <v>6</v>
       </c>
       <c r="B406" s="45" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C406" s="46" t="s">
         <v>669</v>
@@ -13827,7 +13827,7 @@
         <v>6</v>
       </c>
       <c r="B407" s="45" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C407" s="52" t="s">
         <v>671</v>
@@ -13845,13 +13845,13 @@
         <v>6</v>
       </c>
       <c r="B408" s="45" t="s">
+        <v>775</v>
+      </c>
+      <c r="C408" s="45" t="s">
         <v>776</v>
       </c>
-      <c r="C408" s="45" t="s">
-        <v>777</v>
-      </c>
       <c r="D408" s="45" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E408" s="45"/>
       <c r="F408" s="45" t="s">
@@ -13863,10 +13863,10 @@
         <v>6</v>
       </c>
       <c r="B409" s="45" t="s">
+        <v>777</v>
+      </c>
+      <c r="C409" s="52" t="s">
         <v>778</v>
-      </c>
-      <c r="C409" s="52" t="s">
-        <v>779</v>
       </c>
       <c r="D409" s="45">
         <v>78.099999999999994</v>
@@ -13881,7 +13881,7 @@
         <v>6</v>
       </c>
       <c r="B410" s="45" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C410" s="46" t="s">
         <v>677</v>
@@ -13895,10 +13895,10 @@
         <v>6</v>
       </c>
       <c r="B411" s="45" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C411" s="46" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D411" s="46"/>
       <c r="E411" s="46"/>
@@ -13909,13 +13909,13 @@
         <v>6</v>
       </c>
       <c r="B412" s="45" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C412" s="45" t="s">
+        <v>750</v>
+      </c>
+      <c r="D412" s="45" t="s">
         <v>751</v>
-      </c>
-      <c r="D412" s="45" t="s">
-        <v>752</v>
       </c>
       <c r="E412" s="52"/>
       <c r="F412" s="45" t="s">
@@ -13927,10 +13927,10 @@
         <v>6</v>
       </c>
       <c r="B413" s="45" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C413" s="52" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D413" s="45" t="s">
         <v>683</v>
@@ -13945,10 +13945,10 @@
         <v>6</v>
       </c>
       <c r="B414" s="45" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C414" s="52" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D414" s="45" t="s">
         <v>683</v>
@@ -13963,10 +13963,10 @@
         <v>6</v>
       </c>
       <c r="B415" s="45" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C415" s="52" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D415" s="45" t="s">
         <v>683</v>
@@ -13981,10 +13981,10 @@
         <v>6</v>
       </c>
       <c r="B416" s="45" t="s">
+        <v>787</v>
+      </c>
+      <c r="C416" s="52" t="s">
         <v>788</v>
-      </c>
-      <c r="C416" s="52" t="s">
-        <v>789</v>
       </c>
       <c r="D416" s="45" t="s">
         <v>703</v>
@@ -13999,10 +13999,10 @@
         <v>6</v>
       </c>
       <c r="B417" s="45" t="s">
+        <v>789</v>
+      </c>
+      <c r="C417" s="52" t="s">
         <v>790</v>
-      </c>
-      <c r="C417" s="52" t="s">
-        <v>791</v>
       </c>
       <c r="D417" s="45" t="s">
         <v>717</v>
@@ -14017,10 +14017,10 @@
         <v>6</v>
       </c>
       <c r="B418" s="45" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C418" s="52" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D418" s="45" t="s">
         <v>688</v>
@@ -14035,7 +14035,7 @@
         <v>6</v>
       </c>
       <c r="B419" s="45" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C419" s="46" t="s">
         <v>719</v>
@@ -14049,13 +14049,13 @@
         <v>6</v>
       </c>
       <c r="B420" s="67" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C420" s="67" t="s">
         <v>721</v>
       </c>
       <c r="D420" s="67" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="F420" s="67" t="s">
         <v>218</v>
@@ -14066,7 +14066,7 @@
         <v>6</v>
       </c>
       <c r="B421" s="45" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C421" s="45" t="s">
         <v>724</v>
@@ -14084,7 +14084,7 @@
         <v>6</v>
       </c>
       <c r="B422" s="45" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C422" s="46" t="s">
         <v>727</v>
@@ -14098,7 +14098,7 @@
         <v>6</v>
       </c>
       <c r="B423" s="45" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C423" s="52" t="s">
         <v>692</v>
@@ -14116,7 +14116,7 @@
         <v>6</v>
       </c>
       <c r="B424" s="55" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C424" s="55" t="s">
         <v>730</v>
@@ -14133,13 +14133,13 @@
         <v>6</v>
       </c>
       <c r="B425" s="56" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C425" s="56" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D425" s="56" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="F425" s="56" t="s">
         <v>218</v>
@@ -14150,13 +14150,13 @@
         <v>6</v>
       </c>
       <c r="B426" s="57" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C426" s="57" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D426" s="57" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="F426" s="57" t="s">
         <v>218</v>
@@ -14167,13 +14167,13 @@
         <v>6</v>
       </c>
       <c r="B427" s="45" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C427" s="45" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D427" s="45" t="s">
         <v>735</v>
-      </c>
-      <c r="D427" s="45" t="s">
-        <v>736</v>
       </c>
       <c r="E427" s="45"/>
       <c r="F427" s="45" t="s">
@@ -14185,10 +14185,10 @@
         <v>6</v>
       </c>
       <c r="B428" s="45" t="s">
+        <v>801</v>
+      </c>
+      <c r="C428" s="44" t="s">
         <v>802</v>
-      </c>
-      <c r="C428" s="44" t="s">
-        <v>803</v>
       </c>
       <c r="D428" s="46"/>
       <c r="E428" s="46"/>
@@ -14199,7 +14199,7 @@
         <v>6</v>
       </c>
       <c r="B429" s="45" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C429" s="46" t="s">
         <v>669</v>
@@ -14213,7 +14213,7 @@
         <v>6</v>
       </c>
       <c r="B430" s="45" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C430" s="52" t="s">
         <v>671</v>
@@ -14231,10 +14231,10 @@
         <v>6</v>
       </c>
       <c r="B431" s="45" t="s">
+        <v>805</v>
+      </c>
+      <c r="C431" s="52" t="s">
         <v>806</v>
-      </c>
-      <c r="C431" s="52" t="s">
-        <v>807</v>
       </c>
       <c r="D431" s="45">
         <v>78.099999999999994</v>
@@ -14249,10 +14249,10 @@
         <v>6</v>
       </c>
       <c r="B432" s="45" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C432" s="52" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D432" s="45">
         <v>78.099999999999994</v>
@@ -14267,7 +14267,7 @@
         <v>6</v>
       </c>
       <c r="B433" s="45" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C433" s="46" t="s">
         <v>677</v>
@@ -14281,10 +14281,10 @@
         <v>6</v>
       </c>
       <c r="B434" s="45" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C434" s="46" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D434" s="46"/>
       <c r="E434" s="46"/>
@@ -14295,13 +14295,13 @@
         <v>6</v>
       </c>
       <c r="B435" s="45" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C435" s="45" t="s">
+        <v>750</v>
+      </c>
+      <c r="D435" s="45" t="s">
         <v>751</v>
-      </c>
-      <c r="D435" s="45" t="s">
-        <v>752</v>
       </c>
       <c r="E435" s="45"/>
       <c r="F435" s="45" t="s">
@@ -14313,10 +14313,10 @@
         <v>6</v>
       </c>
       <c r="B436" s="45" t="s">
+        <v>811</v>
+      </c>
+      <c r="C436" s="52" t="s">
         <v>812</v>
-      </c>
-      <c r="C436" s="52" t="s">
-        <v>813</v>
       </c>
       <c r="D436" s="45" t="s">
         <v>683</v>
@@ -14331,10 +14331,10 @@
         <v>6</v>
       </c>
       <c r="B437" s="45" t="s">
+        <v>813</v>
+      </c>
+      <c r="C437" s="52" t="s">
         <v>814</v>
-      </c>
-      <c r="C437" s="52" t="s">
-        <v>815</v>
       </c>
       <c r="D437" s="45" t="s">
         <v>683</v>
@@ -14349,10 +14349,10 @@
         <v>6</v>
       </c>
       <c r="B438" s="45" t="s">
+        <v>815</v>
+      </c>
+      <c r="C438" s="45" t="s">
         <v>816</v>
-      </c>
-      <c r="C438" s="45" t="s">
-        <v>817</v>
       </c>
       <c r="D438" s="45" t="s">
         <v>688</v>
@@ -14367,10 +14367,10 @@
         <v>6</v>
       </c>
       <c r="B439" s="45" t="s">
+        <v>817</v>
+      </c>
+      <c r="C439" s="46" t="s">
         <v>818</v>
-      </c>
-      <c r="C439" s="46" t="s">
-        <v>819</v>
       </c>
       <c r="D439" s="46"/>
       <c r="E439" s="46"/>
@@ -14381,13 +14381,13 @@
         <v>6</v>
       </c>
       <c r="B440" s="45" t="s">
+        <v>819</v>
+      </c>
+      <c r="C440" s="45" t="s">
         <v>820</v>
       </c>
-      <c r="C440" s="45" t="s">
+      <c r="D440" s="45" t="s">
         <v>821</v>
-      </c>
-      <c r="D440" s="45" t="s">
-        <v>822</v>
       </c>
       <c r="E440" s="45"/>
       <c r="F440" s="45" t="s">
@@ -14399,13 +14399,13 @@
         <v>6</v>
       </c>
       <c r="B441" s="45" t="s">
+        <v>822</v>
+      </c>
+      <c r="C441" s="45" t="s">
         <v>823</v>
       </c>
-      <c r="C441" s="45" t="s">
+      <c r="D441" s="45" t="s">
         <v>824</v>
-      </c>
-      <c r="D441" s="45" t="s">
-        <v>825</v>
       </c>
       <c r="E441" s="45"/>
       <c r="F441" s="45" t="s">
@@ -14417,13 +14417,13 @@
         <v>6</v>
       </c>
       <c r="B442" s="45" t="s">
+        <v>825</v>
+      </c>
+      <c r="C442" s="45" t="s">
         <v>826</v>
       </c>
-      <c r="C442" s="45" t="s">
-        <v>827</v>
-      </c>
       <c r="D442" s="45" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E442" s="45"/>
       <c r="F442" s="45" t="s">
@@ -14435,7 +14435,7 @@
         <v>6</v>
       </c>
       <c r="B443" s="45" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C443" s="46" t="s">
         <v>727</v>
@@ -14449,7 +14449,7 @@
         <v>6</v>
       </c>
       <c r="B444" s="45" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C444" s="52" t="s">
         <v>692</v>
@@ -14467,7 +14467,7 @@
         <v>6</v>
       </c>
       <c r="B445" s="55" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C445" s="55" t="s">
         <v>730</v>
@@ -14484,13 +14484,13 @@
         <v>6</v>
       </c>
       <c r="B446" s="56" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C446" s="56" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D446" s="56" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="F446" s="56" t="s">
         <v>232</v>
@@ -14501,13 +14501,13 @@
         <v>6</v>
       </c>
       <c r="B447" s="57" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C447" s="57" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D447" s="57" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="F447" s="57" t="s">
         <v>232</v>
@@ -14518,10 +14518,10 @@
         <v>6</v>
       </c>
       <c r="B448" s="45" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C448" s="52" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D448" s="45" t="s">
         <v>700</v>
@@ -14536,10 +14536,10 @@
         <v>6</v>
       </c>
       <c r="B449" s="45" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C449" s="52" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D449" s="45" t="s">
         <v>703</v>
@@ -14554,7 +14554,7 @@
         <v>6</v>
       </c>
       <c r="B450" s="45" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C450" s="46" t="s">
         <v>705</v>
@@ -14568,7 +14568,7 @@
         <v>6</v>
       </c>
       <c r="B451" s="45" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C451" s="52" t="s">
         <v>707</v>
@@ -14586,7 +14586,7 @@
         <v>6</v>
       </c>
       <c r="B452" s="45" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C452" s="52" t="s">
         <v>710</v>
@@ -14604,13 +14604,13 @@
         <v>6</v>
       </c>
       <c r="B453" s="45" t="s">
+        <v>837</v>
+      </c>
+      <c r="C453" s="52" t="s">
         <v>838</v>
       </c>
-      <c r="C453" s="52" t="s">
+      <c r="D453" s="45" t="s">
         <v>839</v>
-      </c>
-      <c r="D453" s="45" t="s">
-        <v>840</v>
       </c>
       <c r="E453" s="52"/>
       <c r="F453" s="45" t="s">
@@ -14622,10 +14622,10 @@
         <v>6</v>
       </c>
       <c r="B454" s="45" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C454" s="52" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D454" s="45" t="s">
         <v>717</v>
@@ -14640,7 +14640,7 @@
         <v>6</v>
       </c>
       <c r="B455" s="45" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C455" s="46" t="s">
         <v>719</v>
@@ -14654,13 +14654,13 @@
         <v>6</v>
       </c>
       <c r="B456" s="67" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C456" s="67" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D456" s="67" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="F456" s="67" t="s">
         <v>232</v>
@@ -14671,7 +14671,7 @@
         <v>6</v>
       </c>
       <c r="B457" s="45" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C457" s="45" t="s">
         <v>724</v>
@@ -14689,10 +14689,10 @@
         <v>6</v>
       </c>
       <c r="B458" s="45" t="s">
+        <v>844</v>
+      </c>
+      <c r="C458" s="46" t="s">
         <v>845</v>
-      </c>
-      <c r="C458" s="46" t="s">
-        <v>846</v>
       </c>
       <c r="D458" s="46"/>
       <c r="E458" s="46"/>
@@ -14703,13 +14703,13 @@
         <v>6</v>
       </c>
       <c r="B459" s="45" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C459" s="45" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D459" s="45" t="s">
         <v>735</v>
-      </c>
-      <c r="D459" s="45" t="s">
-        <v>736</v>
       </c>
       <c r="E459" s="45"/>
       <c r="F459" s="45" t="s">
@@ -14721,10 +14721,10 @@
         <v>6</v>
       </c>
       <c r="B460" s="45" t="s">
+        <v>847</v>
+      </c>
+      <c r="C460" s="44" t="s">
         <v>848</v>
-      </c>
-      <c r="C460" s="44" t="s">
-        <v>849</v>
       </c>
       <c r="D460" s="46"/>
       <c r="E460" s="44"/>
@@ -14735,10 +14735,10 @@
         <v>6</v>
       </c>
       <c r="B461" s="45" t="s">
+        <v>849</v>
+      </c>
+      <c r="C461" s="52" t="s">
         <v>850</v>
-      </c>
-      <c r="C461" s="52" t="s">
-        <v>851</v>
       </c>
       <c r="D461" s="45"/>
       <c r="E461" s="52"/>
@@ -14749,7 +14749,7 @@
         <v>6</v>
       </c>
       <c r="B462" s="45" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C462" s="52" t="s">
         <v>669</v>
@@ -14763,7 +14763,7 @@
         <v>6</v>
       </c>
       <c r="B463" s="45" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C463" s="52" t="s">
         <v>677</v>
@@ -14777,10 +14777,10 @@
         <v>6</v>
       </c>
       <c r="B464" s="45" t="s">
+        <v>853</v>
+      </c>
+      <c r="C464" s="44" t="s">
         <v>854</v>
-      </c>
-      <c r="C464" s="44" t="s">
-        <v>855</v>
       </c>
       <c r="D464" s="46"/>
       <c r="E464" s="44"/>
@@ -14791,10 +14791,10 @@
         <v>6</v>
       </c>
       <c r="B465" s="45" t="s">
+        <v>855</v>
+      </c>
+      <c r="C465" s="52" t="s">
         <v>856</v>
-      </c>
-      <c r="C465" s="52" t="s">
-        <v>857</v>
       </c>
       <c r="D465" s="45"/>
       <c r="E465" s="52"/>
@@ -14805,7 +14805,7 @@
         <v>6</v>
       </c>
       <c r="B466" s="45" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C466" s="52" t="s">
         <v>669</v>
@@ -14819,10 +14819,10 @@
         <v>6</v>
       </c>
       <c r="B467" s="45" t="s">
+        <v>858</v>
+      </c>
+      <c r="C467" s="44" t="s">
         <v>859</v>
-      </c>
-      <c r="C467" s="44" t="s">
-        <v>860</v>
       </c>
       <c r="D467" s="46"/>
       <c r="E467" s="44"/>
@@ -14833,7 +14833,7 @@
         <v>6</v>
       </c>
       <c r="B468" s="45" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C468" s="46" t="s">
         <v>669</v>
@@ -14847,7 +14847,7 @@
         <v>6</v>
       </c>
       <c r="B469" s="45" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C469" s="52" t="s">
         <v>671</v>
@@ -14865,10 +14865,10 @@
         <v>6</v>
       </c>
       <c r="B470" s="45" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C470" s="52" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D470" s="45">
         <v>78.099999999999994</v>
@@ -14883,10 +14883,10 @@
         <v>6</v>
       </c>
       <c r="B471" s="45" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C471" s="52" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D471" s="45">
         <v>78.099999999999994</v>
@@ -14901,7 +14901,7 @@
         <v>6</v>
       </c>
       <c r="B472" s="45" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C472" s="46" t="s">
         <v>677</v>
@@ -14915,10 +14915,10 @@
         <v>6</v>
       </c>
       <c r="B473" s="45" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C473" s="46" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D473" s="46"/>
       <c r="E473" s="46"/>
@@ -14929,13 +14929,13 @@
         <v>6</v>
       </c>
       <c r="B474" s="45" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C474" s="45" t="s">
+        <v>750</v>
+      </c>
+      <c r="D474" s="45" t="s">
         <v>751</v>
-      </c>
-      <c r="D474" s="45" t="s">
-        <v>752</v>
       </c>
       <c r="E474" s="45"/>
       <c r="F474" s="45" t="s">
@@ -14947,10 +14947,10 @@
         <v>6</v>
       </c>
       <c r="B475" s="45" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C475" s="52" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D475" s="45" t="s">
         <v>683</v>
@@ -14965,10 +14965,10 @@
         <v>6</v>
       </c>
       <c r="B476" s="45" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C476" s="52" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D476" s="45" t="s">
         <v>683</v>
@@ -14983,13 +14983,13 @@
         <v>6</v>
       </c>
       <c r="B477" s="45" t="s">
+        <v>869</v>
+      </c>
+      <c r="C477" s="45" t="s">
         <v>870</v>
       </c>
-      <c r="C477" s="45" t="s">
+      <c r="D477" s="45" t="s">
         <v>871</v>
-      </c>
-      <c r="D477" s="45" t="s">
-        <v>872</v>
       </c>
       <c r="E477" s="45"/>
       <c r="F477" s="45" t="s">
@@ -15001,10 +15001,10 @@
         <v>6</v>
       </c>
       <c r="B478" s="45" t="s">
+        <v>872</v>
+      </c>
+      <c r="C478" s="45" t="s">
         <v>873</v>
-      </c>
-      <c r="C478" s="45" t="s">
-        <v>874</v>
       </c>
       <c r="D478" s="45" t="s">
         <v>717</v>
@@ -15019,10 +15019,10 @@
         <v>6</v>
       </c>
       <c r="B479" s="45" t="s">
+        <v>874</v>
+      </c>
+      <c r="C479" s="45" t="s">
         <v>875</v>
-      </c>
-      <c r="C479" s="45" t="s">
-        <v>876</v>
       </c>
       <c r="D479" s="45"/>
       <c r="E479" s="45"/>
@@ -15035,10 +15035,10 @@
         <v>6</v>
       </c>
       <c r="B480" s="45" t="s">
+        <v>876</v>
+      </c>
+      <c r="C480" s="45" t="s">
         <v>877</v>
-      </c>
-      <c r="C480" s="45" t="s">
-        <v>878</v>
       </c>
       <c r="D480" s="45" t="s">
         <v>688</v>
@@ -15053,13 +15053,13 @@
         <v>6</v>
       </c>
       <c r="B481" s="45" t="s">
+        <v>878</v>
+      </c>
+      <c r="C481" s="45" t="s">
         <v>879</v>
       </c>
-      <c r="C481" s="45" t="s">
-        <v>880</v>
-      </c>
       <c r="D481" s="45" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E481" s="45"/>
       <c r="F481" s="45" t="s">
@@ -15071,7 +15071,7 @@
         <v>6</v>
       </c>
       <c r="B482" s="45" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C482" s="46" t="s">
         <v>719</v>
@@ -15085,13 +15085,13 @@
         <v>6</v>
       </c>
       <c r="B483" s="67" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C483" s="67" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D483" s="67" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="F483" s="67" t="s">
         <v>51</v>
@@ -15102,7 +15102,7 @@
         <v>6</v>
       </c>
       <c r="B484" s="45" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C484" s="45" t="s">
         <v>724</v>
@@ -15120,7 +15120,7 @@
         <v>6</v>
       </c>
       <c r="B485" s="45" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C485" s="46" t="s">
         <v>727</v>
@@ -15134,7 +15134,7 @@
         <v>6</v>
       </c>
       <c r="B486" s="45" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C486" s="52" t="s">
         <v>692</v>
@@ -15152,7 +15152,7 @@
         <v>6</v>
       </c>
       <c r="B487" s="55" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C487" s="55" t="s">
         <v>730</v>
@@ -15169,13 +15169,13 @@
         <v>6</v>
       </c>
       <c r="B488" s="56" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C488" s="56" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D488" s="56" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="F488" s="56" t="s">
         <v>51</v>
@@ -15186,13 +15186,13 @@
         <v>6</v>
       </c>
       <c r="B489" s="57" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C489" s="57" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D489" s="57" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="F489" s="57" t="s">
         <v>51</v>
@@ -15203,13 +15203,13 @@
         <v>6</v>
       </c>
       <c r="B490" s="45" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C490" s="45" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D490" s="45" t="s">
         <v>735</v>
-      </c>
-      <c r="D490" s="45" t="s">
-        <v>736</v>
       </c>
       <c r="E490" s="45"/>
       <c r="F490" s="45" t="s">
@@ -15249,25 +15249,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>890</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>891</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>892</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>893</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>894</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>895</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -15275,17 +15275,17 @@
         <v>15</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>896</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>897</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>898</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="11" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G2" s="11"/>
     </row>
@@ -15294,17 +15294,17 @@
         <v>19</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="11" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -15313,17 +15313,17 @@
         <v>22</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="11" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -15332,36 +15332,36 @@
         <v>25</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="11" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
+        <v>903</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>896</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>904</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>897</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>905</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>906</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="11" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -15378,7 +15378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
@@ -15396,25 +15396,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
+        <v>889</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>890</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>891</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>892</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>893</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>894</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>895</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -15422,17 +15422,17 @@
         <v>28</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>906</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>907</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="17" t="s">
         <v>908</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>909</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G2" s="17"/>
     </row>
@@ -15441,17 +15441,17 @@
         <v>31</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G3" s="17"/>
     </row>
@@ -15460,17 +15460,17 @@
         <v>34</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G4" s="17"/>
     </row>
@@ -15479,17 +15479,17 @@
         <v>37</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G5" s="17"/>
     </row>
@@ -15498,17 +15498,17 @@
         <v>40</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G6" s="17"/>
     </row>
@@ -15517,36 +15517,36 @@
         <v>46</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
+        <v>914</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>906</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>915</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>907</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="D8" s="17" t="s">
         <v>916</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>917</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G8" s="17"/>
     </row>
@@ -15555,17 +15555,17 @@
         <v>57</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>917</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>918</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>919</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G9" s="17"/>
     </row>
@@ -15574,17 +15574,17 @@
         <v>99</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>98</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G10" s="17"/>
     </row>
@@ -15593,17 +15593,17 @@
         <v>60</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C11" s="16" t="s">
+        <v>920</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>921</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>922</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G11" s="17"/>
     </row>
@@ -15612,17 +15612,17 @@
         <v>66</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>65</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G12" s="17"/>
     </row>
@@ -15631,17 +15631,17 @@
         <v>105</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>104</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G13" s="17"/>
     </row>
@@ -15650,17 +15650,17 @@
         <v>81</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C14" s="16" t="s">
+        <v>924</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>925</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>926</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G14" s="17"/>
     </row>
@@ -15669,17 +15669,17 @@
         <v>84</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C15" s="16" t="s">
+        <v>926</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>927</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>928</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G15" s="17"/>
     </row>
@@ -15688,17 +15688,17 @@
         <v>108</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>107</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G16" s="17"/>
     </row>
@@ -15707,19 +15707,19 @@
         <v>111</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>110</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G17" s="17"/>
     </row>
@@ -15728,36 +15728,36 @@
         <v>102</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>101</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
+        <v>932</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>933</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>934</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="D19" s="19" t="s">
         <v>935</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>936</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G19" s="19"/>
     </row>
@@ -15766,17 +15766,17 @@
         <v>132</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>131</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G20" s="17"/>
     </row>
@@ -15785,17 +15785,17 @@
         <v>135</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>134</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G21" s="17"/>
     </row>
@@ -15804,17 +15804,17 @@
         <v>138</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>137</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G22" s="17"/>
     </row>
@@ -15823,17 +15823,17 @@
         <v>141</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>140</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G23" s="17"/>
     </row>
@@ -15842,17 +15842,17 @@
         <v>43</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G24" s="17"/>
     </row>
@@ -15861,17 +15861,17 @@
         <v>116</v>
       </c>
       <c r="B25" s="16" t="s">
+        <v>941</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>942</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>943</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>152</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G25" s="17"/>
     </row>
@@ -15880,17 +15880,17 @@
         <v>196</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>943</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>944</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>945</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G26" s="17"/>
     </row>
@@ -15899,17 +15899,17 @@
         <v>199</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>198</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G27" s="17"/>
     </row>
@@ -15918,17 +15918,17 @@
         <v>164</v>
       </c>
       <c r="B28" s="16" t="s">
+        <v>946</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>947</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>948</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>163</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G28" s="17"/>
     </row>
@@ -15937,17 +15937,17 @@
         <v>167</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>166</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G29" s="17"/>
     </row>
@@ -15956,17 +15956,17 @@
         <v>176</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>175</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G30" s="17"/>
     </row>
@@ -15975,17 +15975,17 @@
         <v>179</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>178</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G31" s="17"/>
     </row>
@@ -15994,17 +15994,17 @@
         <v>182</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>181</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G32" s="17"/>
     </row>
@@ -16013,17 +16013,17 @@
         <v>193</v>
       </c>
       <c r="B33" s="16" t="s">
+        <v>952</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>953</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="D33" s="17" t="s">
         <v>954</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>955</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G33" s="17"/>
     </row>
@@ -16032,17 +16032,17 @@
         <v>252</v>
       </c>
       <c r="B34" s="16" t="s">
+        <v>955</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>956</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>957</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>251</v>
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G34" s="17"/>
     </row>
@@ -16051,17 +16051,17 @@
         <v>255</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C35" s="16" t="s">
+        <v>957</v>
+      </c>
+      <c r="D35" s="17" t="s">
         <v>958</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>959</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G35" s="17"/>
     </row>
@@ -16070,17 +16070,17 @@
         <v>261</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>260</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G36" s="17"/>
     </row>
@@ -16089,17 +16089,17 @@
         <v>264</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>263</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G37" s="19"/>
     </row>
@@ -16108,17 +16108,17 @@
         <v>619</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>618</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G38" s="17"/>
     </row>
@@ -16127,17 +16127,17 @@
         <v>290</v>
       </c>
       <c r="B39" s="16" t="s">
+        <v>962</v>
+      </c>
+      <c r="C39" s="16" t="s">
         <v>963</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>964</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>289</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G39" s="17"/>
     </row>
@@ -16146,17 +16146,17 @@
         <v>275</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C40" s="15" t="s">
+        <v>964</v>
+      </c>
+      <c r="D40" s="19" t="s">
         <v>965</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>966</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G40" s="17"/>
     </row>
@@ -16165,17 +16165,17 @@
         <v>278</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C41" s="16" t="s">
+        <v>966</v>
+      </c>
+      <c r="D41" s="19" t="s">
         <v>967</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>968</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G41" s="17"/>
     </row>
@@ -16184,17 +16184,17 @@
         <v>287</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C42" s="16" t="s">
+        <v>968</v>
+      </c>
+      <c r="D42" s="17" t="s">
         <v>969</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>970</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G42" s="17"/>
     </row>
@@ -16203,17 +16203,17 @@
         <v>63</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C43" s="20" t="s">
+        <v>970</v>
+      </c>
+      <c r="D43" s="20" t="s">
         <v>971</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>972</v>
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G43" s="21"/>
     </row>
@@ -16222,17 +16222,17 @@
         <v>69</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C44" s="20" t="s">
+        <v>972</v>
+      </c>
+      <c r="D44" s="20" t="s">
         <v>973</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>974</v>
       </c>
       <c r="E44" s="21"/>
       <c r="F44" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G44" s="21"/>
     </row>
@@ -16241,17 +16241,17 @@
         <v>72</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C45" s="20" t="s">
+        <v>974</v>
+      </c>
+      <c r="D45" s="20" t="s">
         <v>975</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>976</v>
       </c>
       <c r="E45" s="21"/>
       <c r="F45" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G45" s="21"/>
     </row>
@@ -16260,17 +16260,17 @@
         <v>75</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C46" s="20" t="s">
+        <v>976</v>
+      </c>
+      <c r="D46" s="20" t="s">
         <v>977</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>978</v>
       </c>
       <c r="E46" s="21"/>
       <c r="F46" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G46" s="21"/>
     </row>
@@ -16279,17 +16279,17 @@
         <v>78</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C47" s="20" t="s">
+        <v>978</v>
+      </c>
+      <c r="D47" s="20" t="s">
         <v>979</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>980</v>
       </c>
       <c r="E47" s="21"/>
       <c r="F47" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G47" s="21"/>
     </row>
@@ -16298,17 +16298,17 @@
         <v>87</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C48" s="20" t="s">
+        <v>980</v>
+      </c>
+      <c r="D48" s="20" t="s">
         <v>981</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>982</v>
       </c>
       <c r="E48" s="21"/>
       <c r="F48" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G48" s="21"/>
     </row>
@@ -16317,17 +16317,17 @@
         <v>90</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C49" s="20" t="s">
+        <v>982</v>
+      </c>
+      <c r="D49" s="20" t="s">
         <v>983</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>984</v>
       </c>
       <c r="E49" s="21"/>
       <c r="F49" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G49" s="21"/>
     </row>
@@ -16336,17 +16336,17 @@
         <v>93</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C50" s="20" t="s">
+        <v>984</v>
+      </c>
+      <c r="D50" s="20" t="s">
         <v>985</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>986</v>
       </c>
       <c r="E50" s="21"/>
       <c r="F50" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G50" s="21"/>
     </row>
@@ -16355,17 +16355,17 @@
         <v>96</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C51" s="20" t="s">
+        <v>986</v>
+      </c>
+      <c r="D51" s="20" t="s">
         <v>987</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>988</v>
       </c>
       <c r="E51" s="21"/>
       <c r="F51" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G51" s="21"/>
     </row>
@@ -16374,17 +16374,17 @@
         <v>170</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C52" s="20" t="s">
+        <v>988</v>
+      </c>
+      <c r="D52" s="20" t="s">
         <v>989</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>990</v>
       </c>
       <c r="E52" s="21"/>
       <c r="F52" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G52" s="21"/>
     </row>
@@ -16393,17 +16393,17 @@
         <v>173</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C53" s="20" t="s">
+        <v>990</v>
+      </c>
+      <c r="D53" s="20" t="s">
         <v>991</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>992</v>
       </c>
       <c r="E53" s="21"/>
       <c r="F53" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G53" s="21"/>
     </row>
@@ -16412,17 +16412,17 @@
         <v>258</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C54" s="20" t="s">
+        <v>992</v>
+      </c>
+      <c r="D54" s="20" t="s">
         <v>993</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>994</v>
       </c>
       <c r="E54" s="21"/>
       <c r="F54" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G54" s="21"/>
     </row>
@@ -16431,17 +16431,17 @@
         <v>281</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D55" s="20" t="s">
         <v>280</v>
       </c>
       <c r="E55" s="21"/>
       <c r="F55" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G55" s="21"/>
     </row>
@@ -16450,17 +16450,17 @@
         <v>129</v>
       </c>
       <c r="B56" s="20" t="s">
+        <v>995</v>
+      </c>
+      <c r="C56" s="20" t="s">
         <v>996</v>
       </c>
-      <c r="C56" s="20" t="s">
-        <v>997</v>
-      </c>
       <c r="D56" s="19" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E56" s="21"/>
       <c r="F56" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G56" s="21"/>
     </row>
@@ -16494,25 +16494,25 @@
   <sheetData>
     <row r="1" spans="1:256" s="25" customFormat="1" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
+        <v>889</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>890</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>891</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>892</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="23" t="s">
         <v>893</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>894</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>895</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>896</v>
       </c>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
@@ -16766,39 +16766,39 @@
     </row>
     <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
+        <v>997</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>998</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="16" t="s">
         <v>999</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>1000</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>314</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>1001</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>1002</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>316</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G3" s="23"/>
     </row>
@@ -16807,17 +16807,17 @@
         <v>319</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>318</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G4" s="23"/>
     </row>
@@ -16826,17 +16826,17 @@
         <v>325</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>324</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G5" s="23"/>
     </row>
@@ -16845,150 +16845,150 @@
         <v>330</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>1005</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>1006</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>1007</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="D7" s="16" t="s">
         <v>1008</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>1009</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>1010</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="D8" s="16" t="s">
         <v>1011</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>1012</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>1013</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="16" t="s">
         <v>1014</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>1015</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>1016</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>1017</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>415</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>1018</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>1019</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>417</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>1020</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="D12" s="16" t="s">
         <v>1021</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>1022</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>1023</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>1024</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>421</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G13" s="23"/>
     </row>
@@ -16997,150 +16997,150 @@
         <v>425</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>424</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>1026</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>1027</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>427</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>1028</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>1029</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>429</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>1030</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C17" s="15" t="s">
+      <c r="D17" s="15" t="s">
         <v>1031</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>1032</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>1033</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>1034</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>433</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G18" s="23"/>
     </row>
     <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>1035</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>1036</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>435</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G19" s="23"/>
     </row>
     <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>1037</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>1038</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>437</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G20" s="23"/>
     </row>
     <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>1039</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="D21" s="16" t="s">
         <v>1040</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>1041</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G21" s="23"/>
     </row>
@@ -17149,169 +17149,169 @@
         <v>444</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>443</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G22" s="23"/>
     </row>
     <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>1043</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>1044</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>446</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>1045</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>1046</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>448</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G24" s="23"/>
     </row>
     <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>1047</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C25" s="16" t="s">
+      <c r="D25" s="16" t="s">
         <v>1048</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>1049</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G25" s="23"/>
     </row>
     <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>1050</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>1051</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>455</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G26" s="23"/>
     </row>
     <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>1052</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C27" s="16" t="s">
+      <c r="D27" s="16" t="s">
         <v>1053</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>1054</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G27" s="23"/>
     </row>
     <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>1055</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>1056</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>459</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G28" s="23"/>
     </row>
     <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>1057</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>1058</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>461</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G29" s="23"/>
     </row>
     <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>1059</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>1060</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>463</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G30" s="23"/>
     </row>
@@ -17320,17 +17320,17 @@
         <v>479</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>1061</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>1062</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G31" s="23"/>
     </row>
@@ -17339,17 +17339,17 @@
         <v>482</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>1063</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>1064</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G32" s="23"/>
     </row>
@@ -17358,17 +17358,17 @@
         <v>485</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>1065</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>1066</v>
       </c>
       <c r="E33" s="23"/>
       <c r="F33" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G33" s="23"/>
     </row>
@@ -17377,112 +17377,112 @@
         <v>488</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C34" s="16" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D34" s="16" t="s">
         <v>1067</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>1068</v>
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G34" s="23"/>
     </row>
     <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>1069</v>
       </c>
-      <c r="B35" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C35" s="16" t="s">
+      <c r="D35" s="16" t="s">
         <v>1070</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>1071</v>
       </c>
       <c r="E35" s="23"/>
       <c r="F35" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G35" s="23"/>
     </row>
     <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C36" s="16" t="s">
         <v>1072</v>
       </c>
-      <c r="B36" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C36" s="16" t="s">
+      <c r="D36" s="16" t="s">
         <v>1073</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>1074</v>
       </c>
       <c r="E36" s="23"/>
       <c r="F36" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G36" s="23"/>
     </row>
     <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>1075</v>
       </c>
-      <c r="B37" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C37" s="16" t="s">
+      <c r="D37" s="16" t="s">
         <v>1076</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>1077</v>
       </c>
       <c r="E37" s="23"/>
       <c r="F37" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G37" s="23"/>
     </row>
     <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C38" s="16" t="s">
         <v>1078</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C38" s="16" t="s">
+      <c r="D38" s="16" t="s">
         <v>1079</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>1080</v>
       </c>
       <c r="E38" s="23"/>
       <c r="F38" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G38" s="23"/>
     </row>
     <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C39" s="16" t="s">
         <v>1081</v>
       </c>
-      <c r="B39" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C39" s="16" t="s">
+      <c r="D39" s="16" t="s">
         <v>1082</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>1083</v>
       </c>
       <c r="E39" s="23"/>
       <c r="F39" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G39" s="23"/>
     </row>
@@ -17491,139 +17491,139 @@
         <v>337</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C40" s="16" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D40" s="16" t="s">
         <v>1084</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="E40" s="23" t="s">
         <v>1085</v>
       </c>
-      <c r="E40" s="23" t="s">
-        <v>1086</v>
-      </c>
       <c r="F40" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G40" s="23"/>
     </row>
     <row r="41" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C41" s="16" t="s">
         <v>1087</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C41" s="16" t="s">
+      <c r="D41" s="16" t="s">
         <v>1088</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>1089</v>
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G41" s="23"/>
     </row>
     <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C42" s="16" t="s">
         <v>1090</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C42" s="16" t="s">
+      <c r="D42" s="16" t="s">
         <v>1091</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>1092</v>
       </c>
       <c r="E42" s="23"/>
       <c r="F42" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G42" s="23"/>
     </row>
     <row r="43" spans="1:7" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C43" s="16" t="s">
         <v>1093</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C43" s="16" t="s">
+      <c r="D43" s="16" t="s">
         <v>1094</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="E43" s="23" t="s">
         <v>1095</v>
       </c>
-      <c r="E43" s="23" t="s">
-        <v>1096</v>
-      </c>
       <c r="F43" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G43" s="23"/>
     </row>
     <row r="44" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C44" s="16" t="s">
         <v>1097</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C44" s="16" t="s">
+      <c r="D44" s="16" t="s">
         <v>1098</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="E44" s="23" t="s">
         <v>1099</v>
       </c>
-      <c r="E44" s="23" t="s">
-        <v>1100</v>
-      </c>
       <c r="F44" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G44" s="23"/>
     </row>
     <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C45" s="16" t="s">
         <v>1101</v>
       </c>
-      <c r="B45" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C45" s="16" t="s">
+      <c r="D45" s="16" t="s">
         <v>1102</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="E45" s="23" t="s">
         <v>1103</v>
       </c>
-      <c r="E45" s="23" t="s">
-        <v>1104</v>
-      </c>
       <c r="F45" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G45" s="23"/>
     </row>
     <row r="46" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C46" s="16" t="s">
         <v>1105</v>
       </c>
-      <c r="B46" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C46" s="16" t="s">
+      <c r="D46" s="16" t="s">
         <v>1106</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>1107</v>
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G46" s="23"/>
     </row>
@@ -17632,36 +17632,36 @@
         <v>352</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C47" s="16" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D47" s="16" t="s">
         <v>1108</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>1109</v>
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G47" s="23"/>
     </row>
     <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C48" s="16" t="s">
         <v>1110</v>
       </c>
-      <c r="B48" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C48" s="16" t="s">
+      <c r="D48" s="16" t="s">
         <v>1111</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>1112</v>
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G48" s="23"/>
     </row>
@@ -17670,17 +17670,17 @@
         <v>451</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C49" s="26" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D49" s="26" t="s">
         <v>1113</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>1114</v>
       </c>
       <c r="E49" s="27"/>
       <c r="F49" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G49" s="27"/>
       <c r="H49" s="14"/>
@@ -17938,17 +17938,17 @@
         <v>322</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C50" s="16" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D50" s="16" t="s">
         <v>1115</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>1116</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G50" s="29"/>
     </row>
@@ -17982,25 +17982,25 @@
   <sheetData>
     <row r="1" spans="1:256" s="35" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
+        <v>889</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>890</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>891</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>892</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="33" t="s">
         <v>893</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>894</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="33" t="s">
         <v>895</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>896</v>
       </c>
       <c r="H1" s="34"/>
       <c r="I1" s="34"/>
@@ -18257,17 +18257,17 @@
         <v>512</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>1117</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="15" t="s">
         <v>1118</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>1119</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="33" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G2" s="33"/>
     </row>
@@ -18276,17 +18276,17 @@
         <v>515</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>1120</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>1121</v>
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="33" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G3" s="33"/>
     </row>
@@ -18295,17 +18295,17 @@
         <v>518</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>1122</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>1123</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="33" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G4" s="33"/>
     </row>
@@ -18314,17 +18314,17 @@
         <v>648</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C5" s="15" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>1124</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>1125</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G5" s="33"/>
     </row>
@@ -18333,19 +18333,19 @@
         <v>521</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C6" s="15" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>1126</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="33" t="s">
         <v>1127</v>
       </c>
-      <c r="E6" s="33" t="s">
-        <v>1128</v>
-      </c>
       <c r="F6" s="33" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G6" s="33"/>
     </row>
@@ -18354,17 +18354,17 @@
         <v>524</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C7" s="15" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>1129</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>1130</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="33" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G7" s="33"/>
     </row>
@@ -18373,17 +18373,17 @@
         <v>527</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C8" s="15" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>1131</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>1132</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="33" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G8" s="33"/>
     </row>
@@ -18392,17 +18392,17 @@
         <v>530</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C9" s="15" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>1133</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>1134</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="33" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G9" s="33"/>
     </row>
@@ -18411,17 +18411,17 @@
         <v>567</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C10" s="15" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>1135</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>1136</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="33" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G10" s="33"/>
     </row>
@@ -18430,17 +18430,17 @@
         <v>623</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="33" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G11" s="33"/>
     </row>
@@ -18449,17 +18449,17 @@
         <v>541</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C12" s="15" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>1138</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>1139</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="33" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G12" s="33"/>
     </row>
@@ -18468,20 +18468,20 @@
         <v>544</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C13" s="15" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>1140</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>1141</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="33" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -18489,17 +18489,17 @@
         <v>547</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>1143</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>1144</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="33" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G14" s="33"/>
     </row>
@@ -18508,19 +18508,19 @@
         <v>550</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>580</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="16" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18528,43 +18528,43 @@
         <v>583</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C16" s="15" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>1147</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="E16" s="33" t="s">
         <v>1148</v>
       </c>
-      <c r="E16" s="33" t="s">
-        <v>1149</v>
-      </c>
       <c r="F16" s="33" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G16" s="33"/>
     </row>
     <row r="17" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>1150</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C17" s="15" t="s">
+      <c r="D17" s="15" t="s">
         <v>1151</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="E17" s="33" t="s">
         <v>1152</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="F17" s="33" t="s">
+        <v>898</v>
+      </c>
+      <c r="G17" s="33" t="s">
         <v>1153</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>899</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -18572,17 +18572,17 @@
         <v>626</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>625</v>
       </c>
       <c r="E18" s="33"/>
       <c r="F18" s="33" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G18" s="33"/>
     </row>
@@ -18591,17 +18591,17 @@
         <v>629</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>628</v>
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="33" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G19" s="33"/>
     </row>
@@ -18610,17 +18610,17 @@
         <v>632</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C20" s="15" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>1157</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>1158</v>
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="33" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G20" s="33"/>
     </row>
@@ -18629,36 +18629,36 @@
         <v>635</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C21" s="15" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>1159</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>1160</v>
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="33" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G21" s="33"/>
     </row>
     <row r="22" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>1161</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C22" s="15" t="s">
+      <c r="D22" s="15" t="s">
         <v>1162</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>1163</v>
       </c>
       <c r="E22" s="33"/>
       <c r="F22" s="33" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G22" s="33"/>
     </row>
@@ -18667,36 +18667,36 @@
         <v>535</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>570</v>
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="33" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G23" s="33"/>
     </row>
     <row r="24" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="36" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C24" s="36" t="s">
         <v>1165</v>
       </c>
-      <c r="B24" s="36" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C24" s="36" t="s">
+      <c r="D24" s="36" t="s">
         <v>1166</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>1167</v>
       </c>
       <c r="E24" s="36"/>
       <c r="F24" s="33" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G24" s="36"/>
     </row>
@@ -18705,74 +18705,74 @@
         <v>538</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C25" s="36" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D25" s="36" t="s">
         <v>1168</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>1169</v>
       </c>
       <c r="E25" s="36"/>
       <c r="F25" s="33" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G25" s="36"/>
     </row>
     <row r="26" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="36" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C26" s="36" t="s">
         <v>1170</v>
       </c>
-      <c r="B26" s="36" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C26" s="36" t="s">
+      <c r="D26" s="36" t="s">
         <v>1171</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>1172</v>
       </c>
       <c r="E26" s="36"/>
       <c r="F26" s="33" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G26" s="36"/>
     </row>
     <row r="27" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A27" s="36" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C27" s="36" t="s">
         <v>1173</v>
       </c>
-      <c r="B27" s="36" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C27" s="36" t="s">
+      <c r="D27" s="36" t="s">
         <v>1174</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>1175</v>
       </c>
       <c r="E27" s="36"/>
       <c r="F27" s="33" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G27" s="36"/>
     </row>
     <row r="28" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A28" s="36" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C28" s="36" t="s">
         <v>1176</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C28" s="36" t="s">
+      <c r="D28" s="36" t="s">
         <v>1177</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>1178</v>
       </c>
       <c r="E28" s="36"/>
       <c r="F28" s="33" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G28" s="36"/>
     </row>
@@ -18781,19 +18781,19 @@
         <v>586</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C29" s="36" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D29" s="36" t="s">
         <v>1179</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="E29" s="33" t="s">
         <v>1180</v>
       </c>
-      <c r="E29" s="33" t="s">
-        <v>1181</v>
-      </c>
       <c r="F29" s="33" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G29" s="36"/>
     </row>
@@ -18802,19 +18802,19 @@
         <v>589</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C30" s="36" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D30" s="36" t="s">
         <v>1182</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="E30" s="33" t="s">
         <v>1183</v>
       </c>
-      <c r="E30" s="33" t="s">
-        <v>1184</v>
-      </c>
       <c r="F30" s="33" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G30" s="36"/>
     </row>
@@ -18849,43 +18849,43 @@
   <sheetData>
     <row r="1" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>890</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>891</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>892</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>893</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>894</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>895</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="2" spans="1:256" s="32" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>1185</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="D2" s="33" t="s">
         <v>1186</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>1187</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="12" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="31"/>
@@ -19140,39 +19140,39 @@
     </row>
     <row r="3" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>1188</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>1189</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>1190</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="11" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:256" ht="78" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>671</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="11" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -19189,7 +19189,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMK32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -19207,25 +19209,25 @@
   <sheetData>
     <row r="1" spans="1:256" s="59" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
+        <v>889</v>
+      </c>
+      <c r="B1" s="63" t="s">
         <v>890</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="C1" s="63" t="s">
         <v>891</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="D1" s="63" t="s">
         <v>892</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="E1" s="64" t="s">
         <v>893</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="F1" s="71" t="s">
         <v>894</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="G1" s="64" t="s">
         <v>895</v>
-      </c>
-      <c r="G1" s="64" t="s">
-        <v>896</v>
       </c>
       <c r="H1" s="58"/>
       <c r="I1" s="58"/>
@@ -19479,41 +19481,41 @@
     </row>
     <row r="2" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="63" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B2" s="63" t="s">
         <v>1192</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="C2" s="63" t="s">
         <v>1193</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="D2" s="63" t="s">
         <v>1194</v>
-      </c>
-      <c r="D2" s="63" t="s">
-        <v>1195</v>
       </c>
       <c r="E2" s="64"/>
       <c r="F2" s="71" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G2" s="64" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="63" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C3" s="63" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D3" s="63" t="s">
         <v>1197</v>
-      </c>
-      <c r="D3" s="63" t="s">
-        <v>1198</v>
       </c>
       <c r="E3" s="64"/>
       <c r="F3" s="71" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G3" s="64"/>
     </row>
@@ -19522,17 +19524,17 @@
         <v>680</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C4" s="63" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D4" s="63" t="s">
         <v>1199</v>
-      </c>
-      <c r="D4" s="63" t="s">
-        <v>1200</v>
       </c>
       <c r="E4" s="64"/>
       <c r="F4" s="71" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G4" s="64"/>
     </row>
@@ -19541,17 +19543,17 @@
         <v>683</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C5" s="63" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D5" s="63" t="s">
         <v>1201</v>
-      </c>
-      <c r="D5" s="63" t="s">
-        <v>1202</v>
       </c>
       <c r="E5" s="64"/>
       <c r="F5" s="71" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G5" s="64"/>
     </row>
@@ -19560,17 +19562,17 @@
         <v>686</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C6" s="63" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D6" s="63" t="s">
         <v>1203</v>
-      </c>
-      <c r="D6" s="63" t="s">
-        <v>1204</v>
       </c>
       <c r="E6" s="64"/>
       <c r="F6" s="71" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G6" s="64"/>
     </row>
@@ -19579,22 +19581,22 @@
         <v>688</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C7" s="63" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D7" s="63" t="s">
         <v>1205</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="E7" s="64" t="s">
         <v>1206</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="F7" s="71" t="s">
+        <v>898</v>
+      </c>
+      <c r="G7" s="64" t="s">
         <v>1207</v>
-      </c>
-      <c r="F7" s="71" t="s">
-        <v>899</v>
-      </c>
-      <c r="G7" s="64" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
@@ -19602,17 +19604,17 @@
         <v>693</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D8" s="63" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E8" s="64"/>
       <c r="F8" s="71" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G8" s="64"/>
     </row>
@@ -19621,17 +19623,17 @@
         <v>696</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D9" s="63" t="s">
         <v>695</v>
       </c>
       <c r="E9" s="64"/>
       <c r="F9" s="71" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G9" s="64"/>
     </row>
@@ -19640,17 +19642,17 @@
         <v>722</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="E10" s="64"/>
       <c r="F10" s="71" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G10" s="64"/>
     </row>
@@ -19659,17 +19661,17 @@
         <v>700</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C11" s="63" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D11" s="63" t="s">
         <v>1212</v>
-      </c>
-      <c r="D11" s="63" t="s">
-        <v>1213</v>
       </c>
       <c r="E11" s="64"/>
       <c r="F11" s="71" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G11" s="64"/>
     </row>
@@ -19678,17 +19680,17 @@
         <v>703</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D12" s="63" t="s">
         <v>702</v>
       </c>
       <c r="E12" s="64"/>
       <c r="F12" s="71" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G12" s="64"/>
     </row>
@@ -19697,22 +19699,22 @@
         <v>708</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C13" s="63" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D13" s="63" t="s">
         <v>1215</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="E13" s="66" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F13" s="71" t="s">
+        <v>898</v>
+      </c>
+      <c r="G13" s="64" t="s">
         <v>1216</v>
-      </c>
-      <c r="E13" s="66" t="s">
-        <v>1181</v>
-      </c>
-      <c r="F13" s="71" t="s">
-        <v>899</v>
-      </c>
-      <c r="G13" s="64" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
@@ -19720,20 +19722,20 @@
         <v>714</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C14" s="63" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D14" s="63" t="s">
         <v>1218</v>
-      </c>
-      <c r="D14" s="63" t="s">
-        <v>1219</v>
       </c>
       <c r="E14" s="64"/>
       <c r="F14" s="71" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
@@ -19741,163 +19743,163 @@
         <v>717</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C15" s="63" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D15" s="63" t="s">
         <v>1221</v>
-      </c>
-      <c r="D15" s="63" t="s">
-        <v>1222</v>
       </c>
       <c r="E15" s="64"/>
       <c r="F15" s="71" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G15" s="64"/>
     </row>
     <row r="16" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="63" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C16" s="63" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D16" s="63" t="s">
         <v>1223</v>
-      </c>
-      <c r="D16" s="63" t="s">
-        <v>1224</v>
       </c>
       <c r="E16" s="64"/>
       <c r="F16" s="71" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G16" s="64"/>
     </row>
     <row r="17" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="63" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C17" s="63" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D17" s="63" t="s">
         <v>1225</v>
-      </c>
-      <c r="D17" s="63" t="s">
-        <v>1226</v>
       </c>
       <c r="E17" s="64"/>
       <c r="F17" s="71" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G17" s="64"/>
     </row>
     <row r="18" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="63" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C18" s="63" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D18" s="63" t="s">
         <v>1227</v>
-      </c>
-      <c r="D18" s="63" t="s">
-        <v>1228</v>
       </c>
       <c r="E18" s="64"/>
       <c r="F18" s="71" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G18" s="64"/>
     </row>
     <row r="19" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="63" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C19" s="63" t="s">
         <v>1229</v>
       </c>
-      <c r="B19" s="63" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C19" s="63" t="s">
+      <c r="D19" s="63" t="s">
         <v>1230</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="E19" s="64" t="s">
         <v>1231</v>
       </c>
-      <c r="E19" s="64" t="s">
+      <c r="F19" s="71" t="s">
+        <v>898</v>
+      </c>
+      <c r="G19" s="64" t="s">
         <v>1232</v>
-      </c>
-      <c r="F19" s="71" t="s">
-        <v>899</v>
-      </c>
-      <c r="G19" s="64" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="63" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C20" s="63" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D20" s="63" t="s">
         <v>1234</v>
-      </c>
-      <c r="D20" s="63" t="s">
-        <v>1235</v>
       </c>
       <c r="E20" s="64"/>
       <c r="F20" s="71" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G20" s="64"/>
     </row>
     <row r="21" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A21" s="63" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C21" s="63" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D21" s="63" t="s">
         <v>1236</v>
       </c>
-      <c r="D21" s="63" t="s">
+      <c r="E21" s="64" t="s">
         <v>1237</v>
       </c>
-      <c r="E21" s="64" t="s">
+      <c r="F21" s="71" t="s">
+        <v>898</v>
+      </c>
+      <c r="G21" s="64" t="s">
         <v>1238</v>
-      </c>
-      <c r="F21" s="71" t="s">
-        <v>899</v>
-      </c>
-      <c r="G21" s="64" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="63" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C22" s="63" t="s">
         <v>1240</v>
       </c>
-      <c r="B22" s="63" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C22" s="63" t="s">
+      <c r="D22" s="63" t="s">
         <v>1241</v>
       </c>
-      <c r="D22" s="63" t="s">
+      <c r="E22" s="64" t="s">
         <v>1242</v>
       </c>
-      <c r="E22" s="64" t="s">
-        <v>1243</v>
-      </c>
       <c r="F22" s="71" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G22" s="64" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -19905,17 +19907,17 @@
         <v>731</v>
       </c>
       <c r="B23" s="63" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C23" s="63" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D23" s="63" t="s">
         <v>730</v>
       </c>
       <c r="E23" s="64"/>
       <c r="F23" s="71" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G23" s="64"/>
     </row>
@@ -19924,17 +19926,17 @@
         <v>698</v>
       </c>
       <c r="B24" s="63" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C24" s="63" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D24" s="63" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E24" s="64"/>
       <c r="F24" s="71" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G24" s="64"/>
     </row>
@@ -19943,55 +19945,55 @@
         <v>725</v>
       </c>
       <c r="B25" s="63" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C25" s="63" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D25" s="63" t="s">
         <v>724</v>
       </c>
       <c r="E25" s="64"/>
       <c r="F25" s="71" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G25" s="64"/>
     </row>
     <row r="26" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="63" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B26" s="63" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C26" s="63" t="s">
-        <v>1249</v>
-      </c>
-      <c r="D26" s="63" t="s">
-        <v>735</v>
+        <v>1248</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>1308</v>
       </c>
       <c r="E26" s="64"/>
       <c r="F26" s="71" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G26" s="64"/>
     </row>
     <row r="27" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A27" s="63" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B27" s="63" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C27" s="66" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D27" s="63" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E27" s="64"/>
       <c r="F27" s="71" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G27" s="64"/>
     </row>
@@ -20000,97 +20002,97 @@
         <v>711</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C28" s="63" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D28" s="63" t="s">
         <v>710</v>
       </c>
       <c r="E28" s="66" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F28" s="71" t="s">
+        <v>898</v>
+      </c>
+      <c r="G28" s="66" t="s">
         <v>1252</v>
-      </c>
-      <c r="F28" s="71" t="s">
-        <v>899</v>
-      </c>
-      <c r="G28" s="66" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="63" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C29" s="63" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D29" s="63" t="s">
         <v>1254</v>
-      </c>
-      <c r="D29" s="63" t="s">
-        <v>1255</v>
       </c>
       <c r="E29" s="66"/>
       <c r="F29" s="71" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G29" s="66"/>
     </row>
     <row r="30" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A30" s="65" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B30" s="63" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C30" s="65" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D30" s="65" t="s">
         <v>1288</v>
-      </c>
-      <c r="D30" s="65" t="s">
-        <v>1289</v>
       </c>
       <c r="E30" s="64"/>
       <c r="F30" s="71" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G30" s="64"/>
     </row>
     <row r="31" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="65" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B31" s="63" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C31" s="65" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D31" s="65" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E31" s="64"/>
       <c r="F31" s="71" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G31" s="64"/>
     </row>
     <row r="32" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A32" s="65" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B32" s="63" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C32" s="65" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D32" s="65" t="s">
         <v>1294</v>
-      </c>
-      <c r="D32" s="65" t="s">
-        <v>1295</v>
       </c>
       <c r="E32" s="64"/>
       <c r="F32" s="71" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G32" s="64"/>
     </row>
@@ -20123,25 +20125,25 @@
   <sheetData>
     <row r="1" spans="1:256" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>890</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>891</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>892</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>893</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>894</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>895</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>896</v>
       </c>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
@@ -20398,61 +20400,61 @@
         <v>284</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>1256</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>1257</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>1258</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>1260</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>1261</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>1262</v>
-      </c>
       <c r="F3" s="9" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>1263</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>1264</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>1265</v>
-      </c>
       <c r="F4" s="9" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="G4" s="9"/>
     </row>
